--- a/rmonize/data_proc_elem/DPE_GINI_P1.xlsx
+++ b/rmonize/data_proc_elem/DPE_GINI_P1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20415"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20394"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Projekte\NFDI4Health\TA5\Pilotprojekte\Harmonisierung\HarmonizR\use-cases-harmonisation\rmonize\data_proc_elem\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\schwarz-f\Desktop\use-cases-harmonisation\rmonize\data_proc_elem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8D2AEA85-F7B4-440A-9527-13466B24746E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB842A7B-F4B4-4B7B-83C9-40B23854A142}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21576" windowHeight="7980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data_processing_elements_templa" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1161" uniqueCount="385">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3203" uniqueCount="385">
   <si>
     <t>index</t>
   </si>
@@ -60,9 +60,6 @@
     <t>Mlstr_harmo::status_detail</t>
   </si>
   <si>
-    <t>variable_ID</t>
-  </si>
-  <si>
     <t>participant identification number</t>
   </si>
   <si>
@@ -73,10 +70,6 @@
   </si>
   <si>
     <t>col_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-id_creation</t>
   </si>
   <si>
     <t>id_creation</t>
@@ -550,10 +543,6 @@
 FFQREIS_15 </t>
   </si>
   <si>
-    <t xml:space="preserve">FFQNUD_15 +  
-FFQREIS_15 </t>
-  </si>
-  <si>
     <t>BREAD_PROD_0603</t>
   </si>
   <si>
@@ -613,10 +602,6 @@
   </si>
   <si>
     <t>Intake of fine bakery wares [g/d]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FFQCROIS_15 
-</t>
   </si>
   <si>
     <t>MEAT_PROD_07</t>
@@ -1073,9 +1058,6 @@
     <t>Intake of sponge biscuits and plain cakes [g/d]</t>
   </si>
   <si>
-    <t xml:space="preserve">FFQRUEHRK_15  </t>
-  </si>
-  <si>
     <t>NONALC_BEV_13</t>
   </si>
   <si>
@@ -1188,9 +1170,6 @@
     <t>Alcoholic beverage intake [g/d]</t>
   </si>
   <si>
-    <t xml:space="preserve">K_FB_alkgetr_15 </t>
-  </si>
-  <si>
     <t>WINE_1401</t>
   </si>
   <si>
@@ -1240,14 +1219,6 @@
   </si>
   <si>
     <t>Intake of mixed alcoholic drinks [g/d]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K_FB_alkgetr_cocktail_15
-K_FB_alkgetr_alkopops_15 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">K_FB_alkgetr_cocktail_15 +
-K_FB_alkgetr_alkopops_15 </t>
   </si>
   <si>
     <t>CONDIMENT_SAUCES_15</t>
@@ -1369,13 +1340,38 @@
   </si>
   <si>
     <t>FFQRIND_15 * 0.5</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FFQNUD_15 +  FFQREIS_15 </t>
+  </si>
+  <si>
+    <t>FFQCROIS_15</t>
+  </si>
+  <si>
+    <t>FFQRUEHRK_15</t>
+  </si>
+  <si>
+    <t>K_FB_alkgetr_15</t>
+  </si>
+  <si>
+    <t>K_FB_alkgetr_cocktail_15; K_FB_alkgetr_alkopops_15</t>
+  </si>
+  <si>
+    <t>K_FB_alkgetr_cocktail_15 +
+K_FB_alkgetr_alkopops_15</t>
+  </si>
+  <si>
+    <t>Als Variable nicht vorhanden; Operation oder spezifische alkoholische Getränke???</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="27" x14ac:knownFonts="1">
+  <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1563,6 +1559,12 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -1915,7 +1917,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1984,6 +1986,9 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2345,22 +2350,23 @@
   <dimension ref="A1:K128"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H53" sqref="H53"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="3" width="29" style="4" customWidth="1"/>
-    <col min="6" max="6" width="21.85546875" style="4" customWidth="1"/>
-    <col min="7" max="7" width="26.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="30.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="25.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.88671875" style="4" customWidth="1"/>
+    <col min="7" max="7" width="26.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="30.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="25.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2395,4101 +2401,4104 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" s="9" t="s">
+        <v>377</v>
+      </c>
+      <c r="C2" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="D2" t="s">
         <v>12</v>
       </c>
-      <c r="D2" t="s">
-        <v>13</v>
-      </c>
       <c r="E2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="G2" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="H2" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="J2" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="K2" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="I2" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="J2" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="K2" s="11" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="26" t="s">
+      <c r="G3" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="D3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="G3" s="14" t="s">
-        <v>23</v>
-      </c>
       <c r="H3" s="14" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I3" s="14"/>
       <c r="J3" s="14" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K3" s="14" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" s="13" t="s">
-        <v>26</v>
-      </c>
       <c r="G4" s="14" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H4" s="14" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I4" s="14"/>
       <c r="J4" s="14" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K4" s="14" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="G5" s="10" t="s">
         <v>28</v>
-      </c>
-      <c r="D5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="G5" s="10" t="s">
-        <v>30</v>
       </c>
       <c r="H5" s="25"/>
       <c r="I5" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="J5" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="K5" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="J5" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="K5" s="11" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C6" s="26" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G6" t="s">
+        <v>35</v>
+      </c>
+      <c r="H6" t="s">
+        <v>35</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="K6" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="E6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" t="s">
-        <v>37</v>
-      </c>
-      <c r="G6" t="s">
-        <v>37</v>
-      </c>
-      <c r="H6" t="s">
-        <v>37</v>
-      </c>
-      <c r="J6" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="K6" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>6</v>
       </c>
       <c r="B7" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="G7" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="H7" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D7" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F7" s="2" t="s">
+      <c r="I7" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="G7" s="18" t="s">
+      <c r="J7" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="H7" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="I7" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="J7" s="4" t="s">
-        <v>32</v>
-      </c>
       <c r="K7" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="C8" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="D8" t="s">
-        <v>36</v>
-      </c>
-      <c r="E8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F8" s="19" t="s">
-        <v>46</v>
-      </c>
       <c r="G8" s="19" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H8" s="19" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I8" s="19"/>
       <c r="J8" s="19" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K8" s="19" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="C9" s="15" t="s">
+      <c r="G9" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="D9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F9" s="24" t="s">
-        <v>49</v>
-      </c>
-      <c r="G9" s="19" t="s">
-        <v>50</v>
-      </c>
       <c r="H9" s="19" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I9" s="19"/>
       <c r="J9" s="19" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K9" s="19" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D10" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="G10" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D10" t="s">
-        <v>36</v>
-      </c>
-      <c r="E10" t="s">
-        <v>14</v>
-      </c>
-      <c r="F10" s="3" t="s">
+      <c r="H10" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="I10" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="H10" s="3" t="s">
+      <c r="J10" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="K10" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="I10" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="J10" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="K10" s="10" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C11" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="D11" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K11" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C11" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="D11" t="s">
-        <v>36</v>
-      </c>
-      <c r="E11" t="s">
-        <v>14</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C12" s="27" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" t="s">
+        <v>35</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K12" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E12" t="s">
-        <v>14</v>
-      </c>
-      <c r="F12" t="s">
-        <v>37</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C13" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="D13" t="s">
+        <v>34</v>
+      </c>
+      <c r="E13" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C13" s="27" t="s">
+      <c r="G13" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H13" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="D13" t="s">
-        <v>36</v>
-      </c>
-      <c r="E13" t="s">
-        <v>14</v>
-      </c>
-      <c r="F13" s="3" t="s">
+      <c r="J13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A14" s="4">
+        <v>13</v>
+      </c>
+      <c r="B14" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="G13" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="H13" s="3" t="s">
+      <c r="C14" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="J13" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K13" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="4">
-        <v>13</v>
-      </c>
-      <c r="B14" s="4" t="s">
+      <c r="D14" t="s">
+        <v>34</v>
+      </c>
+      <c r="E14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="C14" s="27" t="s">
+      <c r="G14" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H14" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="D14" t="s">
-        <v>36</v>
-      </c>
-      <c r="E14" t="s">
-        <v>14</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="H14" s="7" t="s">
-        <v>70</v>
-      </c>
       <c r="J14" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C15" s="27" t="s">
+        <v>70</v>
+      </c>
+      <c r="D15" t="s">
+        <v>34</v>
+      </c>
+      <c r="E15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="C15" s="27" t="s">
-        <v>72</v>
-      </c>
-      <c r="D15" t="s">
-        <v>36</v>
-      </c>
-      <c r="E15" t="s">
-        <v>14</v>
-      </c>
-      <c r="F15" s="6" t="s">
-        <v>73</v>
-      </c>
       <c r="G15" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C16" s="27" t="s">
+        <v>73</v>
+      </c>
+      <c r="D16" t="s">
+        <v>34</v>
+      </c>
+      <c r="E16" t="s">
+        <v>13</v>
+      </c>
+      <c r="F16" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="C16" s="27" t="s">
-        <v>75</v>
-      </c>
-      <c r="D16" t="s">
-        <v>36</v>
-      </c>
-      <c r="E16" t="s">
-        <v>14</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>76</v>
-      </c>
       <c r="G16" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C17" s="27" t="s">
+        <v>76</v>
+      </c>
+      <c r="D17" t="s">
+        <v>34</v>
+      </c>
+      <c r="E17" t="s">
+        <v>13</v>
+      </c>
+      <c r="F17" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="C17" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="D17" t="s">
-        <v>36</v>
-      </c>
-      <c r="E17" t="s">
-        <v>14</v>
-      </c>
-      <c r="F17" s="6" t="s">
-        <v>79</v>
-      </c>
       <c r="G17" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C18" s="27" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D18" t="s">
+        <v>34</v>
+      </c>
+      <c r="E18" t="s">
+        <v>13</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K18" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E18" t="s">
-        <v>14</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="K18" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C19" s="27" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D19" t="s">
+        <v>34</v>
+      </c>
+      <c r="E19" t="s">
+        <v>13</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K19" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E19" t="s">
-        <v>14</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="K19" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C20" s="27" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D20" t="s">
+        <v>34</v>
+      </c>
+      <c r="E20" t="s">
+        <v>13</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K20" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E20" t="s">
-        <v>14</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="K20" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A21" s="4">
         <v>20</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C21" s="27" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D21" t="s">
+        <v>34</v>
+      </c>
+      <c r="E21" t="s">
+        <v>13</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K21" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E21" t="s">
-        <v>14</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="K21" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C22" s="27" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D22" t="s">
+        <v>34</v>
+      </c>
+      <c r="E22" t="s">
+        <v>13</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K22" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E22" t="s">
-        <v>14</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="J22" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="K22" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C23" s="27" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D23" t="s">
+        <v>34</v>
+      </c>
+      <c r="E23" t="s">
+        <v>13</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K23" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E23" t="s">
-        <v>14</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="J23" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="K23" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C24" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="D24" t="s">
+        <v>34</v>
+      </c>
+      <c r="E24" t="s">
+        <v>13</v>
+      </c>
+      <c r="F24" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="C24" s="27" t="s">
-        <v>93</v>
-      </c>
-      <c r="D24" t="s">
-        <v>36</v>
-      </c>
-      <c r="E24" t="s">
-        <v>14</v>
-      </c>
-      <c r="F24" s="6" t="s">
-        <v>94</v>
-      </c>
       <c r="G24" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C25" s="27" t="s">
+        <v>94</v>
+      </c>
+      <c r="D25" t="s">
+        <v>34</v>
+      </c>
+      <c r="E25" t="s">
+        <v>13</v>
+      </c>
+      <c r="F25" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="C25" s="27" t="s">
+      <c r="G25" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H25" s="3" t="s">
         <v>96</v>
-      </c>
-      <c r="D25" t="s">
-        <v>36</v>
-      </c>
-      <c r="E25" t="s">
-        <v>14</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="H25" s="3" t="s">
-        <v>98</v>
       </c>
       <c r="I25" s="7"/>
       <c r="J25" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C26" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="D26" t="s">
+        <v>34</v>
+      </c>
+      <c r="E26" t="s">
+        <v>13</v>
+      </c>
+      <c r="F26" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="C26" s="27" t="s">
+      <c r="G26" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H26" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="D26" t="s">
-        <v>36</v>
-      </c>
-      <c r="E26" t="s">
-        <v>14</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>102</v>
-      </c>
       <c r="J26" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C27" s="27" t="s">
+        <v>102</v>
+      </c>
+      <c r="D27" t="s">
+        <v>34</v>
+      </c>
+      <c r="E27" t="s">
+        <v>13</v>
+      </c>
+      <c r="F27" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="C27" s="27" t="s">
-        <v>104</v>
-      </c>
-      <c r="D27" t="s">
-        <v>36</v>
-      </c>
-      <c r="E27" t="s">
-        <v>14</v>
-      </c>
-      <c r="F27" s="5" t="s">
-        <v>105</v>
-      </c>
       <c r="G27" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A28" s="4">
         <v>27</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C28" s="27" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D28" t="s">
+        <v>34</v>
+      </c>
+      <c r="E28" t="s">
+        <v>13</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K28" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E28" t="s">
-        <v>14</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H28" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="J28" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="K28" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C29" s="27" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D29" t="s">
+        <v>34</v>
+      </c>
+      <c r="E29" t="s">
+        <v>13</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K29" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E29" t="s">
-        <v>14</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H29" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="J29" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="K29" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" ht="135" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:11" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C30" s="27" t="s">
+        <v>109</v>
+      </c>
+      <c r="D30" t="s">
+        <v>34</v>
+      </c>
+      <c r="E30" t="s">
+        <v>13</v>
+      </c>
+      <c r="F30" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="C30" s="27" t="s">
+      <c r="G30" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H30" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="D30" t="s">
-        <v>36</v>
-      </c>
-      <c r="E30" t="s">
-        <v>14</v>
-      </c>
-      <c r="F30" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="H30" s="3" t="s">
-        <v>113</v>
-      </c>
       <c r="J30" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C31" s="27" t="s">
+        <v>113</v>
+      </c>
+      <c r="D31" t="s">
+        <v>34</v>
+      </c>
+      <c r="E31" t="s">
+        <v>13</v>
+      </c>
+      <c r="F31" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C31" s="27" t="s">
-        <v>115</v>
-      </c>
-      <c r="D31" t="s">
-        <v>36</v>
-      </c>
-      <c r="E31" t="s">
-        <v>14</v>
-      </c>
-      <c r="F31" s="6" t="s">
-        <v>116</v>
-      </c>
       <c r="G31" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="C32" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="D32" t="s">
+        <v>34</v>
+      </c>
+      <c r="E32" t="s">
+        <v>13</v>
+      </c>
+      <c r="F32" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="C32" s="27" t="s">
+      <c r="G32" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H32" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="D32" t="s">
-        <v>36</v>
-      </c>
-      <c r="E32" t="s">
-        <v>14</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="H32" s="3" t="s">
-        <v>120</v>
-      </c>
       <c r="J32" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C33" s="27" t="s">
+        <v>120</v>
+      </c>
+      <c r="D33" t="s">
+        <v>34</v>
+      </c>
+      <c r="E33" t="s">
+        <v>13</v>
+      </c>
+      <c r="F33" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="C33" s="27" t="s">
-        <v>122</v>
-      </c>
-      <c r="D33" t="s">
-        <v>36</v>
-      </c>
-      <c r="E33" t="s">
-        <v>14</v>
-      </c>
-      <c r="F33" s="6" t="s">
-        <v>123</v>
-      </c>
       <c r="G33" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C34" s="27" t="s">
+        <v>123</v>
+      </c>
+      <c r="D34" t="s">
+        <v>34</v>
+      </c>
+      <c r="E34" t="s">
+        <v>13</v>
+      </c>
+      <c r="F34" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="C34" s="27" t="s">
+      <c r="G34" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H34" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="D34" t="s">
-        <v>36</v>
-      </c>
-      <c r="E34" t="s">
-        <v>14</v>
-      </c>
-      <c r="F34" s="7" t="s">
+      <c r="I34" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="G34" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="H34" s="3" t="s">
+      <c r="J34" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K34" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A35" s="4">
+        <v>34</v>
+      </c>
+      <c r="B35" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="I34" s="3" t="s">
+      <c r="C35" s="27" t="s">
         <v>128</v>
       </c>
-      <c r="J34" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K34" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A35" s="4">
-        <v>34</v>
-      </c>
-      <c r="B35" s="4" t="s">
+      <c r="D35" t="s">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>13</v>
+      </c>
+      <c r="F35" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="C35" s="27" t="s">
-        <v>130</v>
-      </c>
-      <c r="D35" t="s">
-        <v>36</v>
-      </c>
-      <c r="E35" t="s">
-        <v>14</v>
-      </c>
-      <c r="F35" s="4" t="s">
-        <v>131</v>
-      </c>
       <c r="G35" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I35" s="1"/>
       <c r="J35" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C36" s="27" t="s">
+        <v>131</v>
+      </c>
+      <c r="D36" t="s">
+        <v>34</v>
+      </c>
+      <c r="E36" t="s">
+        <v>13</v>
+      </c>
+      <c r="F36" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="C36" s="27" t="s">
-        <v>133</v>
-      </c>
-      <c r="D36" t="s">
-        <v>36</v>
-      </c>
-      <c r="E36" t="s">
-        <v>14</v>
-      </c>
-      <c r="F36" s="4" t="s">
-        <v>134</v>
-      </c>
       <c r="G36" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I36" s="1"/>
       <c r="J36" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="C37" s="27" t="s">
+        <v>134</v>
+      </c>
+      <c r="D37" t="s">
+        <v>34</v>
+      </c>
+      <c r="E37" t="s">
+        <v>13</v>
+      </c>
+      <c r="F37" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="C37" s="27" t="s">
-        <v>136</v>
-      </c>
-      <c r="D37" t="s">
-        <v>36</v>
-      </c>
-      <c r="E37" t="s">
-        <v>14</v>
-      </c>
-      <c r="F37" s="4" t="s">
-        <v>137</v>
-      </c>
       <c r="G37" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I37" s="1"/>
       <c r="J37" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K37" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C38" s="27" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D38" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E38" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I38" s="1"/>
       <c r="J38" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C39" s="27" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D39" t="s">
+        <v>34</v>
+      </c>
+      <c r="E39" t="s">
+        <v>13</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K39" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E39" t="s">
-        <v>14</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G39" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H39" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="J39" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="K39" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C40" s="27" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D40" t="s">
+        <v>34</v>
+      </c>
+      <c r="E40" t="s">
+        <v>13</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K40" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E40" t="s">
-        <v>14</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G40" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H40" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="J40" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="K40" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" ht="165" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:11" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="C41" s="27" t="s">
+        <v>143</v>
+      </c>
+      <c r="D41" t="s">
+        <v>34</v>
+      </c>
+      <c r="E41" t="s">
+        <v>13</v>
+      </c>
+      <c r="F41" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="C41" s="27" t="s">
+      <c r="G41" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H41" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="D41" t="s">
-        <v>36</v>
-      </c>
-      <c r="E41" t="s">
-        <v>14</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="G41" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="H41" s="3" t="s">
-        <v>147</v>
-      </c>
       <c r="J41" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K41" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A42" s="4">
         <v>41</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C42" s="27" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D42" t="s">
+        <v>34</v>
+      </c>
+      <c r="E42" t="s">
+        <v>13</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J42" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K42" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E42" t="s">
-        <v>14</v>
-      </c>
-      <c r="F42" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G42" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H42" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="J42" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="K42" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="C43" s="27" t="s">
+        <v>149</v>
+      </c>
+      <c r="D43" t="s">
+        <v>34</v>
+      </c>
+      <c r="E43" t="s">
+        <v>13</v>
+      </c>
+      <c r="F43" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="C43" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="D43" t="s">
-        <v>36</v>
-      </c>
-      <c r="E43" t="s">
-        <v>14</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>152</v>
-      </c>
       <c r="G43" s="1" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="H43" s="3" t="s">
-        <v>153</v>
+        <v>378</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K43" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C44" s="27" t="s">
+        <v>152</v>
+      </c>
+      <c r="D44" t="s">
+        <v>34</v>
+      </c>
+      <c r="E44" t="s">
+        <v>13</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H44" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="C44" s="27" t="s">
+      <c r="I44" s="22" t="s">
         <v>155</v>
       </c>
-      <c r="D44" t="s">
-        <v>36</v>
-      </c>
-      <c r="E44" t="s">
-        <v>14</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="G44" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="H44" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="I44" s="22" t="s">
-        <v>158</v>
-      </c>
       <c r="J44" s="10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K44" s="10" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C45" s="27" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D45" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E45" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H45" s="3" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K45" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C46" s="27" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D46" t="s">
+        <v>34</v>
+      </c>
+      <c r="E46" t="s">
+        <v>13</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J46" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K46" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E46" t="s">
-        <v>14</v>
-      </c>
-      <c r="F46" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G46" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H46" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="J46" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="K46" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="C47" s="27" t="s">
+        <v>161</v>
+      </c>
+      <c r="D47" t="s">
+        <v>34</v>
+      </c>
+      <c r="E47" t="s">
+        <v>13</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H47" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="C47" s="27" t="s">
-        <v>164</v>
-      </c>
-      <c r="D47" t="s">
-        <v>36</v>
-      </c>
-      <c r="E47" t="s">
-        <v>14</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="G47" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>166</v>
-      </c>
       <c r="J47" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K47" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C48" s="27" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="D48" t="s">
+        <v>34</v>
+      </c>
+      <c r="E48" t="s">
+        <v>13</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J48" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K48" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E48" t="s">
-        <v>14</v>
-      </c>
-      <c r="F48" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G48" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H48" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="J48" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="K48" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="4">
         <v>48</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C49" s="27" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D49" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E49" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>171</v>
+        <v>379</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K49" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" ht="105" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C50" s="27" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="D50" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E50" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H50" s="3" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K50" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C51" s="27" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="D51" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E51" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K51" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>51</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="C52" s="27" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="D52" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E52" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F52" s="6" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H52" s="23" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="I52" s="20" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K52" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>52</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="C53" s="27" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="D53" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E53" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F53" s="6" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H53" s="23" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="I53" s="20" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K53" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>53</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="C54" s="27" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="D54" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E54" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F54" s="6" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K54" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>54</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="C55" s="27" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="D55" t="s">
+        <v>34</v>
+      </c>
+      <c r="E55" t="s">
+        <v>13</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H55" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J55" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K55" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E55" t="s">
-        <v>14</v>
-      </c>
-      <c r="F55" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G55" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H55" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="J55" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="K55" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="4">
         <v>55</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="C56" s="27" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="D56" t="s">
+        <v>34</v>
+      </c>
+      <c r="E56" t="s">
+        <v>13</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H56" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J56" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K56" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E56" t="s">
-        <v>14</v>
-      </c>
-      <c r="F56" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G56" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H56" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="J56" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="K56" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>56</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="C57" s="27" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="D57" t="s">
+        <v>34</v>
+      </c>
+      <c r="E57" t="s">
+        <v>13</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H57" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J57" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K57" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E57" t="s">
-        <v>14</v>
-      </c>
-      <c r="F57" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G57" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H57" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="J57" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="K57" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>57</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="C58" s="27" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="D58" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E58" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F58" s="4" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K58" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>58</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C59" s="27" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="D59" t="s">
+        <v>34</v>
+      </c>
+      <c r="E59" t="s">
+        <v>13</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H59" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J59" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K59" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E59" t="s">
-        <v>14</v>
-      </c>
-      <c r="F59" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G59" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H59" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="J59" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="K59" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>59</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="C60" s="27" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="D60" t="s">
+        <v>34</v>
+      </c>
+      <c r="E60" t="s">
+        <v>13</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H60" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J60" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K60" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E60" t="s">
-        <v>14</v>
-      </c>
-      <c r="F60" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G60" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H60" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="J60" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="K60" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>60</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="C61" s="27" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="D61" t="s">
+        <v>34</v>
+      </c>
+      <c r="E61" t="s">
+        <v>13</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H61" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J61" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K61" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E61" t="s">
-        <v>14</v>
-      </c>
-      <c r="F61" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G61" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H61" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="J61" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="K61" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>61</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="C62" s="27" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="D62" t="s">
+        <v>34</v>
+      </c>
+      <c r="E62" t="s">
+        <v>13</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H62" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J62" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K62" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E62" t="s">
-        <v>14</v>
-      </c>
-      <c r="F62" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G62" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H62" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="J62" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="K62" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="4">
         <v>62</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="C63" s="27" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="D63" t="s">
+        <v>34</v>
+      </c>
+      <c r="E63" t="s">
+        <v>13</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H63" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J63" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K63" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E63" t="s">
-        <v>14</v>
-      </c>
-      <c r="F63" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G63" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H63" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="J63" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="K63" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>63</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="C64" s="27" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="D64" t="s">
+        <v>34</v>
+      </c>
+      <c r="E64" t="s">
+        <v>13</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H64" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J64" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K64" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E64" t="s">
-        <v>14</v>
-      </c>
-      <c r="F64" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G64" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H64" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="J64" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="K64" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>64</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="C65" s="27" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="D65" t="s">
+        <v>34</v>
+      </c>
+      <c r="E65" t="s">
+        <v>13</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H65" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J65" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K65" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E65" t="s">
-        <v>14</v>
-      </c>
-      <c r="F65" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G65" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H65" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="J65" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="K65" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    </row>
+    <row r="66" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>65</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="C66" s="27" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="D66" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E66" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H66" s="3" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="J66" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K66" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>66</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="C67" s="27" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="D67" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E67" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F67" s="6" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J67" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K67" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="68" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>67</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C68" s="27" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="D68" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E68" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H68" s="3" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="J68" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K68" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="69" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>68</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="C69" s="27" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="D69" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E69" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F69" s="3" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H69" s="3" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="J69" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K69" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A70" s="4">
         <v>69</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="C70" s="27" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="D70" t="s">
+        <v>34</v>
+      </c>
+      <c r="E70" t="s">
+        <v>13</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G70" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H70" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J70" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K70" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E70" t="s">
-        <v>14</v>
-      </c>
-      <c r="F70" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G70" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H70" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="J70" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="K70" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="71" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>70</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="C71" s="27" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="D71" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E71" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F71" s="7" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H71" s="3" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="J71" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K71" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="72" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="C72" s="27" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="D72" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E72" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F72" s="6" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I72" s="7"/>
       <c r="J72" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K72" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="C73" s="27" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="D73" t="s">
+        <v>34</v>
+      </c>
+      <c r="E73" t="s">
+        <v>13</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G73" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H73" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J73" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K73" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E73" t="s">
-        <v>14</v>
-      </c>
-      <c r="F73" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G73" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H73" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="J73" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="K73" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="74" spans="1:11" ht="150" x14ac:dyDescent="0.25">
+    </row>
+    <row r="74" spans="1:11" ht="144" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="C74" s="27" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="D74" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E74" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F74" s="3" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H74" s="3" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="J74" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K74" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="75" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="C75" s="27" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="D75" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E75" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F75" s="3" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H75" s="3" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="J75" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K75" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="76" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="C76" s="27" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="D76" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E76" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F76" s="3" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H76" s="3" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="J76" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K76" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="77" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A77" s="4">
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="C77" s="27" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="D77" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E77" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F77" s="3" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H77" s="3" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="J77" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K77" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="78" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="C78" s="27" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="D78" t="s">
+        <v>34</v>
+      </c>
+      <c r="E78" t="s">
+        <v>13</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G78" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H78" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J78" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K78" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E78" t="s">
-        <v>14</v>
-      </c>
-      <c r="F78" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G78" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H78" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="J78" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="K78" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="79" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="79" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="C79" s="27" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="D79" t="s">
+        <v>34</v>
+      </c>
+      <c r="E79" t="s">
+        <v>13</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G79" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H79" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J79" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K79" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E79" t="s">
-        <v>14</v>
-      </c>
-      <c r="F79" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G79" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H79" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="J79" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="K79" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="80" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="80" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="C80" s="27" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="D80" t="s">
+        <v>34</v>
+      </c>
+      <c r="E80" t="s">
+        <v>13</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G80" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H80" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J80" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K80" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E80" t="s">
-        <v>14</v>
-      </c>
-      <c r="F80" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G80" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H80" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="J80" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="K80" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="81" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="81" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="C81" s="27" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="D81" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E81" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F81" s="3" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H81" s="3" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="J81" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K81" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="82" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="C82" s="27" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="D82" t="s">
+        <v>34</v>
+      </c>
+      <c r="E82" t="s">
+        <v>13</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G82" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H82" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J82" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K82" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E82" t="s">
-        <v>14</v>
-      </c>
-      <c r="F82" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G82" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H82" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="J82" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="K82" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="83" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="83" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="C83" s="27" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="D83" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E83" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F83" s="3" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H83" s="3" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="J83" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K83" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="84" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A84" s="4">
         <v>83</v>
       </c>
       <c r="B84" s="8" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="C84" s="27" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="D84" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E84" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F84" s="4" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J84" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K84" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="85" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="C85" s="27" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="D85" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E85" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F85" s="4" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H85" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J85" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K85" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="86" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="C86" s="27" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="D86" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E86" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F86" s="4" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H86" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I86" s="7"/>
       <c r="J86" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K86" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="87" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="C87" s="27" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="D87" t="s">
+        <v>34</v>
+      </c>
+      <c r="E87" t="s">
+        <v>13</v>
+      </c>
+      <c r="F87" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G87" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H87" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J87" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K87" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E87" t="s">
-        <v>14</v>
-      </c>
-      <c r="F87" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G87" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H87" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="J87" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="K87" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="C88" s="27" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="D88" t="s">
+        <v>34</v>
+      </c>
+      <c r="E88" t="s">
+        <v>13</v>
+      </c>
+      <c r="F88" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G88" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H88" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J88" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K88" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E88" t="s">
-        <v>14</v>
-      </c>
-      <c r="F88" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G88" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H88" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="J88" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="K88" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="89" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="89" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="C89" s="27" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="D89" t="s">
+        <v>34</v>
+      </c>
+      <c r="E89" t="s">
+        <v>13</v>
+      </c>
+      <c r="F89" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G89" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H89" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J89" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K89" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E89" t="s">
-        <v>14</v>
-      </c>
-      <c r="F89" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G89" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H89" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="J89" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="K89" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="90" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="90" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="C90" s="27" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="D90" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E90" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F90" s="3" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H90" s="3" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="J90" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K90" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="91" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A91" s="4">
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="C91" s="27" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="D91" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E91" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F91" s="3" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H91" s="3" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="J91" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K91" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="92" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="C92" s="27" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="D92" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E92" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F92" s="4" t="s">
-        <v>294</v>
+        <v>380</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H92" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J92" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K92" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="93" spans="1:11" ht="120" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="C93" s="27" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="D93" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E93" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F93" s="3" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H93" s="3" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="J93" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K93" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="94" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="C94" s="27" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="D94" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E94" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F94" s="3" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H94" s="3" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="J94" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K94" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="95" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="C95" s="27" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="D95" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E95" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F95" s="3" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="G95" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H95" s="3" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="J95" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K95" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="96" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="C96" s="27" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="D96" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E96" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F96" s="4" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H96" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I96" s="7" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="J96" s="10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K96" s="10" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="C97" s="27" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="D97" t="s">
+        <v>34</v>
+      </c>
+      <c r="E97" t="s">
+        <v>13</v>
+      </c>
+      <c r="F97" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G97" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H97" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J97" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K97" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E97" t="s">
-        <v>14</v>
-      </c>
-      <c r="F97" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G97" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H97" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="J97" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="K97" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="4">
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="C98" s="27" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="D98" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E98" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F98" s="4" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H98" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J98" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K98" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="99" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="C99" s="27" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="D99" t="s">
+        <v>34</v>
+      </c>
+      <c r="E99" t="s">
+        <v>13</v>
+      </c>
+      <c r="F99" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G99" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H99" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J99" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K99" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E99" t="s">
-        <v>14</v>
-      </c>
-      <c r="F99" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G99" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H99" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="J99" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="K99" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="100" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="100" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>99</v>
       </c>
       <c r="B100" s="8" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="C100" s="27" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="D100" t="s">
+        <v>34</v>
+      </c>
+      <c r="E100" t="s">
+        <v>13</v>
+      </c>
+      <c r="F100" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G100" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H100" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J100" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K100" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E100" t="s">
-        <v>14</v>
-      </c>
-      <c r="F100" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G100" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H100" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="J100" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="K100" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="101" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="101" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="C101" s="27" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="D101" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E101" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F101" s="6" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H101" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J101" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K101" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="102" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A102">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A102" s="11">
         <v>101</v>
       </c>
-      <c r="B102" t="s">
-        <v>323</v>
-      </c>
-      <c r="C102" s="27" t="s">
-        <v>324</v>
-      </c>
-      <c r="D102" t="s">
-        <v>36</v>
-      </c>
-      <c r="E102" t="s">
-        <v>14</v>
-      </c>
-      <c r="F102" s="4" t="s">
-        <v>325</v>
-      </c>
-      <c r="G102" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H102" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J102" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K102" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="103" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="B102" s="11" t="s">
+        <v>318</v>
+      </c>
+      <c r="C102" s="28" t="s">
+        <v>319</v>
+      </c>
+      <c r="D102" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="E102" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F102" s="10" t="s">
+        <v>381</v>
+      </c>
+      <c r="G102" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="H102" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="I102" s="11" t="s">
+        <v>384</v>
+      </c>
+      <c r="J102" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="K102" s="10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>102</v>
       </c>
       <c r="B103" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="C103" s="27" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="D103" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E103" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F103" s="4" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H103" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J103" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K103" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="104" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="C104" s="27" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="D104" t="s">
+        <v>34</v>
+      </c>
+      <c r="E104" t="s">
+        <v>13</v>
+      </c>
+      <c r="F104" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G104" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H104" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J104" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K104" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E104" t="s">
-        <v>14</v>
-      </c>
-      <c r="F104" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G104" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H104" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="J104" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="K104" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="105" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="105" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A105" s="4">
         <v>104</v>
       </c>
       <c r="B105" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="C105" s="27" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="D105" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E105" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F105" s="4" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H105" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J105" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K105" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="106" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>105</v>
       </c>
       <c r="B106" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="C106" s="27" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="D106" t="s">
+        <v>34</v>
+      </c>
+      <c r="E106" t="s">
+        <v>13</v>
+      </c>
+      <c r="F106" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G106" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H106" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J106" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K106" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E106" t="s">
-        <v>14</v>
-      </c>
-      <c r="F106" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G106" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H106" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="J106" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="K106" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="C107" s="27" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="D107" t="s">
+        <v>34</v>
+      </c>
+      <c r="E107" t="s">
+        <v>13</v>
+      </c>
+      <c r="F107" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G107" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H107" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J107" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K107" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E107" t="s">
-        <v>14</v>
-      </c>
-      <c r="F107" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G107" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H107" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="J107" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="K107" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="C108" s="27" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="D108" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E108" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F108" s="4" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="G108" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H108" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J108" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K108" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="109" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="C109" s="27" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="D109" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E109" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F109" s="3" t="s">
-        <v>343</v>
+        <v>382</v>
       </c>
       <c r="G109" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H109" s="3" t="s">
-        <v>344</v>
+        <v>383</v>
       </c>
       <c r="J109" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K109" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="110" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="C110" s="27" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="D110" t="s">
+        <v>34</v>
+      </c>
+      <c r="E110" t="s">
+        <v>13</v>
+      </c>
+      <c r="F110" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G110" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H110" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J110" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K110" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E110" t="s">
-        <v>14</v>
-      </c>
-      <c r="F110" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G110" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H110" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="J110" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="K110" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>110</v>
       </c>
       <c r="B111" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="C111" s="27" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="D111" t="s">
+        <v>34</v>
+      </c>
+      <c r="E111" t="s">
+        <v>13</v>
+      </c>
+      <c r="F111" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G111" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H111" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J111" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K111" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E111" t="s">
-        <v>14</v>
-      </c>
-      <c r="F111" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G111" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H111" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="J111" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="K111" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="112" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="112" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A112" s="4">
         <v>111</v>
       </c>
       <c r="B112" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="C112" s="27" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="D112" t="s">
+        <v>34</v>
+      </c>
+      <c r="E112" t="s">
+        <v>13</v>
+      </c>
+      <c r="F112" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G112" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H112" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J112" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K112" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E112" t="s">
-        <v>14</v>
-      </c>
-      <c r="F112" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G112" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H112" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="J112" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="K112" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>112</v>
       </c>
       <c r="B113" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="C113" s="27" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="D113" t="s">
+        <v>34</v>
+      </c>
+      <c r="E113" t="s">
+        <v>13</v>
+      </c>
+      <c r="F113" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G113" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H113" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J113" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K113" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E113" t="s">
-        <v>14</v>
-      </c>
-      <c r="F113" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G113" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H113" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="J113" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="K113" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>113</v>
       </c>
       <c r="B114" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="C114" s="27" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="D114" t="s">
+        <v>34</v>
+      </c>
+      <c r="E114" t="s">
+        <v>13</v>
+      </c>
+      <c r="F114" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G114" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H114" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J114" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K114" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E114" t="s">
-        <v>14</v>
-      </c>
-      <c r="F114" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G114" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H114" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="J114" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="K114" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="115" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="115" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>114</v>
       </c>
       <c r="B115" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="C115" s="27" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="D115" t="s">
+        <v>34</v>
+      </c>
+      <c r="E115" t="s">
+        <v>13</v>
+      </c>
+      <c r="F115" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G115" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H115" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J115" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K115" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E115" t="s">
-        <v>14</v>
-      </c>
-      <c r="F115" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G115" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H115" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="J115" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="K115" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>115</v>
       </c>
       <c r="B116" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="C116" s="27" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="D116" t="s">
+        <v>34</v>
+      </c>
+      <c r="E116" t="s">
+        <v>13</v>
+      </c>
+      <c r="F116" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G116" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H116" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J116" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K116" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E116" t="s">
-        <v>14</v>
-      </c>
-      <c r="F116" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G116" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H116" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="J116" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="K116" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="117" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="117" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>116</v>
       </c>
       <c r="B117" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="C117" s="27" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="D117" t="s">
+        <v>34</v>
+      </c>
+      <c r="E117" t="s">
+        <v>13</v>
+      </c>
+      <c r="F117" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G117" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H117" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J117" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K117" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E117" t="s">
-        <v>14</v>
-      </c>
-      <c r="F117" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G117" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H117" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="J117" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="K117" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>117</v>
       </c>
       <c r="B118" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="C118" s="27" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="D118" t="s">
+        <v>34</v>
+      </c>
+      <c r="E118" t="s">
+        <v>13</v>
+      </c>
+      <c r="F118" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G118" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H118" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J118" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K118" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E118" t="s">
-        <v>14</v>
-      </c>
-      <c r="F118" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G118" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H118" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="J118" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="K118" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="119" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="4">
         <v>118</v>
       </c>
       <c r="B119" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="C119" s="27" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="D119" t="s">
+        <v>34</v>
+      </c>
+      <c r="E119" t="s">
+        <v>13</v>
+      </c>
+      <c r="F119" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G119" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H119" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J119" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K119" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E119" t="s">
-        <v>14</v>
-      </c>
-      <c r="F119" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G119" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H119" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="J119" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="K119" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>119</v>
       </c>
       <c r="B120" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="C120" s="27" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="D120" t="s">
+        <v>34</v>
+      </c>
+      <c r="E120" t="s">
+        <v>13</v>
+      </c>
+      <c r="F120" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G120" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H120" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J120" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K120" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E120" t="s">
-        <v>14</v>
-      </c>
-      <c r="F120" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G120" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H120" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="J120" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="K120" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="121" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="121" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>120</v>
       </c>
       <c r="B121" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="C121" s="27" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="D121" t="s">
+        <v>34</v>
+      </c>
+      <c r="E121" t="s">
+        <v>13</v>
+      </c>
+      <c r="F121" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G121" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H121" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J121" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K121" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E121" t="s">
-        <v>14</v>
-      </c>
-      <c r="F121" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G121" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H121" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="J121" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="K121" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>121</v>
       </c>
       <c r="B122" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="C122" s="27" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="D122" t="s">
+        <v>34</v>
+      </c>
+      <c r="E122" t="s">
+        <v>13</v>
+      </c>
+      <c r="F122" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G122" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H122" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J122" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K122" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E122" t="s">
-        <v>14</v>
-      </c>
-      <c r="F122" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G122" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H122" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="J122" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="K122" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="123" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="123" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>122</v>
       </c>
       <c r="B123" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="C123" s="27" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="D123" t="s">
+        <v>34</v>
+      </c>
+      <c r="E123" t="s">
+        <v>13</v>
+      </c>
+      <c r="F123" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G123" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H123" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J123" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K123" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E123" t="s">
-        <v>14</v>
-      </c>
-      <c r="F123" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G123" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H123" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="J123" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="K123" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>123</v>
       </c>
       <c r="B124" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="C124" s="27" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="D124" t="s">
+        <v>34</v>
+      </c>
+      <c r="E124" t="s">
+        <v>13</v>
+      </c>
+      <c r="F124" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G124" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H124" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J124" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K124" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E124" t="s">
-        <v>14</v>
-      </c>
-      <c r="F124" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G124" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H124" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="J124" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="K124" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="125" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="125" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>124</v>
       </c>
       <c r="B125" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="C125" s="27" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="D125" t="s">
+        <v>34</v>
+      </c>
+      <c r="E125" t="s">
+        <v>13</v>
+      </c>
+      <c r="F125" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G125" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H125" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J125" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K125" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E125" t="s">
-        <v>14</v>
-      </c>
-      <c r="F125" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G125" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H125" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="J125" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="K125" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="126" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="126" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A126" s="4">
         <v>125</v>
       </c>
       <c r="B126" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="C126" s="27" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="D126" t="s">
+        <v>34</v>
+      </c>
+      <c r="E126" t="s">
+        <v>13</v>
+      </c>
+      <c r="F126" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G126" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H126" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J126" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K126" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E126" t="s">
-        <v>14</v>
-      </c>
-      <c r="F126" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G126" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H126" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="J126" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="K126" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="127" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="127" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>126</v>
       </c>
       <c r="B127" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="C127" s="27" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="D127" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E127" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F127" s="4" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="G127" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J127" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K127" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="128" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>127</v>
       </c>
       <c r="B128" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="C128" s="27" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="D128" t="s">
+        <v>34</v>
+      </c>
+      <c r="E128" t="s">
+        <v>13</v>
+      </c>
+      <c r="F128" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G128" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H128" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J128" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K128" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="E128" t="s">
-        <v>14</v>
-      </c>
-      <c r="F128" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G128" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H128" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="J128" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="K128" s="1" t="s">
-        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -6498,19 +6507,11 @@
     <hyperlink ref="B6" r:id="rId2" display="https://mica.mdc-berlin.de/variable/microbiome-in-health-and-disease-and-in-ageing:TOT_PA_QX:Dataschema" xr:uid="{2969F1F5-83E7-43CA-8AD5-348290615B97}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100B1DC67C611DD5E4D81775F9F3E26A7B2" ma:contentTypeVersion="16" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="7f379a5812b480a74f9d031be5f88a83">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b63cdcf7-47fa-43f6-87e5-23b415b5c413" xmlns:ns3="12535b08-222e-45d2-b6db-15019f1afee6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="dbce1e37d7de67e1c835013ca0ee7a7c" ns2:_="" ns3:_="">
     <xsd:import namespace="b63cdcf7-47fa-43f6-87e5-23b415b5c413"/>
@@ -6751,7 +6752,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <Zeit xmlns="b63cdcf7-47fa-43f6-87e5-23b415b5c413" xsi:nil="true"/>
@@ -6763,15 +6764,16 @@
 </p:properties>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E89B3EC5-962B-41D9-9821-3A191D2434CD}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B0E591B1-6AE9-4989-8632-5CC8BCBEA2B1}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6790,7 +6792,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FBFC15CC-4CA5-447A-915F-1412CED97222}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
@@ -6805,4 +6807,12 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E89B3EC5-962B-41D9-9821-3A191D2434CD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/rmonize/data_proc_elem/DPE_GINI_P1.xlsx
+++ b/rmonize/data_proc_elem/DPE_GINI_P1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20394"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20415"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\schwarz-f\Desktop\use-cases-harmonisation\rmonize\data_proc_elem\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Projekte\NFDI4Health\TA5\Pilotprojekte\Harmonisierung\HarmonizR\use-cases-harmonisation\rmonize\data_proc_elem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB842A7B-F4B4-4B7B-83C9-40B23854A142}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="14_{C2B939D2-70EB-4F1D-A09D-C3493CBCBB54}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21576" windowHeight="7980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data_processing_elements_templa" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3203" uniqueCount="385">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1162" uniqueCount="386">
   <si>
     <t>index</t>
   </si>
@@ -60,6 +60,9 @@
     <t>Mlstr_harmo::status_detail</t>
   </si>
   <si>
+    <t>ID</t>
+  </si>
+  <si>
     <t>participant identification number</t>
   </si>
   <si>
@@ -69,9 +72,6 @@
     <t>GINI_P1</t>
   </si>
   <si>
-    <t>col_id</t>
-  </si>
-  <si>
     <t>id_creation</t>
   </si>
   <si>
@@ -99,22 +99,75 @@
     <t>Age at exposure measure</t>
   </si>
   <si>
+    <t>decimal</t>
+  </si>
+  <si>
     <t>KIALTER_15</t>
   </si>
   <si>
+    <t>recode</t>
+  </si>
+  <si>
+    <t>tba</t>
+  </si>
+  <si>
+    <t>Franzi: KIALTER_15 is integer, but we want decimal. So this can't be direct mapping, but needs recoding.</t>
+  </si>
+  <si>
     <t>EDU_LEVEL</t>
   </si>
   <si>
     <t>Education</t>
   </si>
   <si>
-    <t>gsc09m</t>
-  </si>
-  <si>
-    <t>recode</t>
-  </si>
-  <si>
-    <t>highest education of the mother</t>
+    <t>gsc09m; gsc08v</t>
+  </si>
+  <si>
+    <t>case_when</t>
+  </si>
+  <si>
+    <t>case_when(
+      is.na(gsc09m) &amp; is.na(gsc08v) ~ 5L,
+      gsc09m == 5 &amp; !is.na(gsc08v) ~ case_when(
+        gsc08v == 6 ~ 0L,
+        gsc08v == 1 ~ 1L,
+        gsc08v == 2 ~ 2L,
+        gsc08v == 3 ~ 3L,
+        gsc08v &gt;= 4 ~ 4L
+      ),
+      gsc08v == 5 &amp; !is.na(gsc09m) ~ case_when(
+        gsc09m == 6 ~ 0L,
+        gsc09m == 1 ~ 1L,
+        gsc09m == 2 ~ 2L,
+        gsc09m == 3 ~ 3L,
+        gsc09m &gt;= 4 ~ 4L
+      ),
+      gsc09m == 5 &amp; gsc08v == 5 ~ 5L,
+      is.na(gsc09m) &amp; gsc08v == 6 ~ 0L,
+      is.na(gsc09m) &amp; gsc08v == 1 ~ 1L,
+      is.na(gsc09m) &amp; gsc08v == 2 ~ 2L,
+      is.na(gsc09m) &amp; gsc08v == 3 ~ 3L,
+      is.na(gsc09m) &amp; gsc08v &gt;= 4 ~ 4L,
+      is.na(gsc08v) &amp; gsc09m == 6 ~ 0L,
+      is.na(gsc08v) &amp; gsc09m == 1 ~ 1L,
+      is.na(gsc08v) &amp; gsc09m == 2 ~ 2L,
+      is.na(gsc08v) &amp; gsc09m == 3 ~ 3L,
+      is.na(gsc08v) &amp; gsc09m &gt;= 4 ~ 4L,
+      pmax(gsc09m, gsc08v, na.rm = TRUE) == 6 ~ 0L,
+      pmax(gsc09m, gsc08v, na.rm = TRUE) == 1 ~ 1L,
+      pmax(gsc09m, gsc08v, na.rm = TRUE) == 2 ~ 2L,
+      pmax(gsc09m, gsc08v, na.rm = TRUE) == 3 ~ 3L,
+      pmax(gsc09m, gsc08v, na.rm = TRUE) &gt;= 4 ~ 4L,
+      TRUE ~ NA_integer_
+    )</t>
+  </si>
+  <si>
+    <t>If both gsc09m (mother) and gsc08v (father) are NA, assign 5L ("not specified").
+If one parent has "other degree" (5) and the other parent has a valid level, use the valid level.
+If both have "other degree" (5), assign 5L.
+If one parent is NA, use the other parent’s value and map it directly.
+Both Present: Use the maximum value between the two parents (pmax), then map it to the appropriate category.
+Default: Assign NA_integer_ for unexpected cases (should not occur).</t>
   </si>
   <si>
     <t>partial</t>
@@ -129,9 +182,6 @@
     <t>Physical activity from questionnaire data</t>
   </si>
   <si>
-    <t>decimal</t>
-  </si>
-  <si>
     <t>impossible</t>
   </si>
   <si>
@@ -150,7 +200,7 @@
     <t>recode(1= 1; 2 = 3; 3=3; 4 = 3; 5=3)</t>
   </si>
   <si>
-    <t>here I see some problems, because "no" could be also former and not only never</t>
+    <t>"no" most certainly means "never" in this young age</t>
   </si>
   <si>
     <t>BMI</t>
@@ -437,15 +487,8 @@
     <t>Intake of cheese curd, quark and cottage [g/d]</t>
   </si>
   <si>
-    <t>FFQQUARK_15;
-FFQWEICH_15</t>
-  </si>
-  <si>
-    <t>FFQQUARK_15 +
-FFQWEICH_15</t>
-  </si>
-  <si>
-    <t>Weichkäse enthält Frischkäse, deshalb zu Curd</t>
+    <t xml:space="preserve">FFQQUARK_15
+</t>
   </si>
   <si>
     <t>CHEESE_0505</t>
@@ -454,7 +497,11 @@
     <t>Intake of Cheese [g/d]</t>
   </si>
   <si>
-    <t>FFQHARTK_15</t>
+    <t>FFQWEICH_15;
+FFQHARTK_15</t>
+  </si>
+  <si>
+    <t>FFQWEICH_15 + FFQHARTK_15</t>
   </si>
   <si>
     <t>DAIRYDESSERT_0506</t>
@@ -543,6 +590,9 @@
 FFQREIS_15 </t>
   </si>
   <si>
+    <t xml:space="preserve">FFQNUD_15 +  FFQREIS_15 </t>
+  </si>
+  <si>
     <t>BREAD_PROD_0603</t>
   </si>
   <si>
@@ -604,30 +654,15 @@
     <t>Intake of fine bakery wares [g/d]</t>
   </si>
   <si>
+    <t>FFQCROIS_15</t>
+  </si>
+  <si>
     <t>MEAT_PROD_07</t>
   </si>
   <si>
     <t>Intake of meat and meat products [g/d]</t>
   </si>
   <si>
-    <t>FFQSGRUREDMEAT_15;
-FFQHUHN_15;
-FFQAUFSCH_15; 
-FFQBOCK_15;
-FFQBRAT_15;
-FFQSALAM_15;
-FFQINNER_15</t>
-  </si>
-  <si>
-    <t>FFQSGRUREDMEAT_15 +
-FFQHUHN_15 +
-FFQAUFSCH_15 + 
-FFQBOCK_15 +
-FFQBRAT_15 +
-FFQSALAM_15 +
-FFQINNER_15</t>
-  </si>
-  <si>
     <t>RED_MEAT_0701</t>
   </si>
   <si>
@@ -644,6 +679,9 @@
   </si>
   <si>
     <t>FFQRIND_15</t>
+  </si>
+  <si>
+    <t>FFQRIND_15 * 0.5</t>
   </si>
   <si>
     <t>Gruppe FFQRind beinhaltet auch Kalbsfleisch, deshalb Gewichtung á 50%</t>
@@ -1058,6 +1096,9 @@
     <t>Intake of sponge biscuits and plain cakes [g/d]</t>
   </si>
   <si>
+    <t>FFQRUEHRK_15</t>
+  </si>
+  <si>
     <t>NONALC_BEV_13</t>
   </si>
   <si>
@@ -1170,6 +1211,9 @@
     <t>Alcoholic beverage intake [g/d]</t>
   </si>
   <si>
+    <t>K_FB_alkgetr_15</t>
+  </si>
+  <si>
     <t>WINE_1401</t>
   </si>
   <si>
@@ -1219,6 +1263,13 @@
   </si>
   <si>
     <t>Intake of mixed alcoholic drinks [g/d]</t>
+  </si>
+  <si>
+    <t>K_FB_alkgetr_cocktail_15; K_FB_alkgetr_alkopops_15</t>
+  </si>
+  <si>
+    <t>K_FB_alkgetr_cocktail_15 +
+K_FB_alkgetr_alkopops_15</t>
   </si>
   <si>
     <t>CONDIMENT_SAUCES_15</t>
@@ -1339,32 +1390,12 @@
     <t>intake of amphibians, reptiles, snails, insects [g/d]</t>
   </si>
   <si>
-    <t>FFQRIND_15 * 0.5</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FFQNUD_15 +  FFQREIS_15 </t>
-  </si>
-  <si>
-    <t>FFQCROIS_15</t>
-  </si>
-  <si>
-    <t>FFQRUEHRK_15</t>
-  </si>
-  <si>
-    <t>K_FB_alkgetr_15</t>
-  </si>
-  <si>
-    <t>K_FB_alkgetr_cocktail_15; K_FB_alkgetr_alkopops_15</t>
-  </si>
-  <si>
-    <t>K_FB_alkgetr_cocktail_15 +
-K_FB_alkgetr_alkopops_15</t>
-  </si>
-  <si>
-    <t>Als Variable nicht vorhanden; Operation oder spezifische alkoholische Getränke???</t>
+    <t>FFQRIND_15;
+FFQSCHW_15</t>
+  </si>
+  <si>
+    <t>FFQRIND_15 +
+FFQSCHW_15</t>
   </si>
 </sst>
 </file>
@@ -1569,7 +1600,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1747,12 +1778,6 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -1946,9 +1971,6 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1966,30 +1988,29 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
@@ -2350,23 +2371,23 @@
   <dimension ref="A1:K128"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G7" sqref="G7"/>
+      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H59" sqref="H59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="3" width="29" style="4" customWidth="1"/>
-    <col min="6" max="6" width="21.88671875" style="4" customWidth="1"/>
-    <col min="7" max="7" width="26.44140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.5546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="30.109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="25.44140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.85546875" style="4" customWidth="1"/>
+    <col min="7" max="7" width="26.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="30.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="25.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2382,473 +2403,477 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="13" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>377</v>
+        <v>11</v>
       </c>
       <c r="C2" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" s="10" t="s">
+      <c r="G2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="H2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="11" t="s">
+      <c r="I2" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="J2" s="11" t="s">
+      <c r="J2" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="K2" s="11" t="s">
+      <c r="K2" s="13" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="26" t="s">
+      <c r="C3" s="20" t="s">
         <v>19</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="14" t="s">
+      <c r="G3" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="H3" s="14" t="s">
+      <c r="H3" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14" t="s">
+      <c r="I3" s="13"/>
+      <c r="J3" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="K3" s="14" t="s">
+      <c r="K3" s="13" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="26" t="s">
+      <c r="C4" s="20" t="s">
         <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="E4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="G4" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="H4" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="I4" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="J4" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="K4" s="14" t="s">
+      <c r="K4" s="13" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="15" t="s">
-        <v>25</v>
+      <c r="B5" s="14" t="s">
+        <v>29</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="G5" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="H5" s="25"/>
-      <c r="I5" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="J5" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="K5" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="19" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="G5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I5" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="J5" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="K5" s="13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="C6" s="26" t="s">
-        <v>33</v>
+      <c r="B6" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>38</v>
       </c>
       <c r="D6" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="E6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F6" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G6" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H6" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>6</v>
       </c>
-      <c r="B7" s="17" t="s">
-        <v>37</v>
+      <c r="B7" s="16" t="s">
+        <v>41</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="G7" s="18" t="s">
-        <v>28</v>
+        <v>43</v>
+      </c>
+      <c r="G7" s="17" t="s">
+        <v>26</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="I7" s="20" t="s">
-        <v>41</v>
+        <v>44</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C8" s="15" t="s">
-        <v>43</v>
+        <v>46</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>47</v>
       </c>
       <c r="D8" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="E8" t="s">
-        <v>13</v>
-      </c>
-      <c r="F8" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="G8" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="G8" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="H8" s="19" t="s">
+      <c r="H8" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="I8" s="19"/>
-      <c r="J8" s="19" t="s">
+      <c r="I8" s="18"/>
+      <c r="J8" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="K8" s="19" t="s">
+      <c r="K8" s="18" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C9" s="15" t="s">
-        <v>46</v>
+        <v>49</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>50</v>
       </c>
       <c r="D9" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="E9" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" s="24" t="s">
-        <v>47</v>
-      </c>
-      <c r="G9" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="H9" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="G9" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="H9" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="I9" s="19"/>
-      <c r="J9" s="19" t="s">
+      <c r="I9" s="18"/>
+      <c r="J9" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="K9" s="19" t="s">
+      <c r="K9" s="18" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="D10" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="E10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="I10" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="J10" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="K10" s="10" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+        <v>57</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C11" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="D11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G11" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C11" s="27" t="s">
+      <c r="H11" s="3" t="s">
         <v>57</v>
-      </c>
-      <c r="D11" t="s">
-        <v>34</v>
-      </c>
-      <c r="E11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>53</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>16</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="C12" s="27" t="s">
-        <v>60</v>
+        <v>63</v>
+      </c>
+      <c r="C12" s="21" t="s">
+        <v>64</v>
       </c>
       <c r="D12" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="E12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F12" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="72" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="C13" s="27" t="s">
-        <v>62</v>
+        <v>65</v>
+      </c>
+      <c r="C13" s="21" t="s">
+        <v>66</v>
       </c>
       <c r="D13" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="E13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>16</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>13</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="C14" s="27" t="s">
-        <v>66</v>
+        <v>69</v>
+      </c>
+      <c r="C14" s="21" t="s">
+        <v>70</v>
       </c>
       <c r="D14" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="E14" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>16</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="C15" s="27" t="s">
-        <v>70</v>
+        <v>73</v>
+      </c>
+      <c r="C15" s="21" t="s">
+        <v>74</v>
       </c>
       <c r="D15" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="E15" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>21</v>
@@ -2863,24 +2888,24 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="C16" s="27" t="s">
-        <v>73</v>
+        <v>76</v>
+      </c>
+      <c r="C16" s="21" t="s">
+        <v>77</v>
       </c>
       <c r="D16" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="E16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>21</v>
@@ -2895,27 +2920,27 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="C17" s="27" t="s">
-        <v>76</v>
+        <v>79</v>
+      </c>
+      <c r="C17" s="21" t="s">
+        <v>80</v>
       </c>
       <c r="D17" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="E17" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="H17" s="1" t="s">
         <v>21</v>
@@ -2927,216 +2952,216 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="C18" s="27" t="s">
-        <v>79</v>
+        <v>82</v>
+      </c>
+      <c r="C18" s="21" t="s">
+        <v>83</v>
       </c>
       <c r="D18" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="E18" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="C19" s="27" t="s">
-        <v>81</v>
+        <v>84</v>
+      </c>
+      <c r="C19" s="21" t="s">
+        <v>85</v>
       </c>
       <c r="D19" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="E19" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="C20" s="27" t="s">
-        <v>83</v>
+        <v>86</v>
+      </c>
+      <c r="C20" s="21" t="s">
+        <v>87</v>
       </c>
       <c r="D20" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="E20" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>20</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="C21" s="27" t="s">
-        <v>85</v>
+        <v>88</v>
+      </c>
+      <c r="C21" s="21" t="s">
+        <v>89</v>
       </c>
       <c r="D21" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="E21" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="C22" s="27" t="s">
-        <v>87</v>
+        <v>90</v>
+      </c>
+      <c r="C22" s="21" t="s">
+        <v>91</v>
       </c>
       <c r="D22" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="E22" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="C23" s="27" t="s">
-        <v>89</v>
+        <v>92</v>
+      </c>
+      <c r="C23" s="21" t="s">
+        <v>93</v>
       </c>
       <c r="D23" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="E23" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="C24" s="27" t="s">
-        <v>91</v>
+        <v>94</v>
+      </c>
+      <c r="C24" s="21" t="s">
+        <v>95</v>
       </c>
       <c r="D24" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="E24" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="G24" s="1" t="s">
         <v>21</v>
@@ -3151,89 +3176,89 @@
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="C25" s="27" t="s">
-        <v>94</v>
+        <v>97</v>
+      </c>
+      <c r="C25" s="21" t="s">
+        <v>98</v>
       </c>
       <c r="D25" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="I25" s="7"/>
       <c r="J25" s="1" t="s">
         <v>16</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="C26" s="27" t="s">
-        <v>98</v>
+        <v>101</v>
+      </c>
+      <c r="C26" s="21" t="s">
+        <v>102</v>
       </c>
       <c r="D26" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="E26" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="J26" s="1" t="s">
         <v>16</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="C27" s="27" t="s">
-        <v>102</v>
+        <v>105</v>
+      </c>
+      <c r="C27" s="21" t="s">
+        <v>106</v>
       </c>
       <c r="D27" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="E27" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="G27" s="1" t="s">
         <v>21</v>
@@ -3248,120 +3273,120 @@
         <v>17</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
         <v>27</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="C28" s="27" t="s">
-        <v>105</v>
+        <v>108</v>
+      </c>
+      <c r="C28" s="21" t="s">
+        <v>109</v>
       </c>
       <c r="D28" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="E28" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="C29" s="27" t="s">
-        <v>107</v>
+        <v>110</v>
+      </c>
+      <c r="C29" s="21" t="s">
+        <v>111</v>
       </c>
       <c r="D29" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="E29" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" ht="129.6" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="135" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="C30" s="27" t="s">
-        <v>109</v>
+        <v>112</v>
+      </c>
+      <c r="C30" s="21" t="s">
+        <v>113</v>
       </c>
       <c r="D30" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="E30" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="J30" s="1" t="s">
         <v>16</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="C31" s="27" t="s">
-        <v>113</v>
+        <v>116</v>
+      </c>
+      <c r="C31" s="21" t="s">
+        <v>117</v>
       </c>
       <c r="D31" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="E31" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="G31" s="1" t="s">
         <v>21</v>
@@ -3376,56 +3401,56 @@
         <v>17</v>
       </c>
     </row>
-    <row r="32" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="C32" s="27" t="s">
-        <v>116</v>
+        <v>119</v>
+      </c>
+      <c r="C32" s="21" t="s">
+        <v>120</v>
       </c>
       <c r="D32" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="E32" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="J32" s="1" t="s">
         <v>16</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="C33" s="27" t="s">
-        <v>120</v>
+        <v>123</v>
+      </c>
+      <c r="C33" s="21" t="s">
+        <v>124</v>
       </c>
       <c r="D33" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="E33" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F33" s="6" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="G33" s="1" t="s">
         <v>21</v>
@@ -3440,92 +3465,89 @@
         <v>17</v>
       </c>
     </row>
-    <row r="34" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="C34" s="27" t="s">
-        <v>123</v>
+        <v>126</v>
+      </c>
+      <c r="C34" s="21" t="s">
+        <v>127</v>
       </c>
       <c r="D34" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="E34" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="H34" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="I34" s="3" t="s">
-        <v>126</v>
+        <v>21</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="J34" s="1" t="s">
         <v>16</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
         <v>34</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="C35" s="27" t="s">
-        <v>128</v>
+        <v>129</v>
+      </c>
+      <c r="C35" s="21" t="s">
+        <v>130</v>
       </c>
       <c r="D35" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="E35" t="s">
-        <v>13</v>
-      </c>
-      <c r="F35" s="4" t="s">
-        <v>129</v>
+        <v>14</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>131</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H35" s="1" t="s">
-        <v>21</v>
+        <v>56</v>
+      </c>
+      <c r="H35" s="7" t="s">
+        <v>132</v>
       </c>
       <c r="I35" s="1"/>
       <c r="J35" s="1" t="s">
         <v>16</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="C36" s="27" t="s">
-        <v>131</v>
+        <v>133</v>
+      </c>
+      <c r="C36" s="21" t="s">
+        <v>134</v>
       </c>
       <c r="D36" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="E36" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="G36" s="1" t="s">
         <v>21</v>
@@ -3541,24 +3563,24 @@
         <v>17</v>
       </c>
     </row>
-    <row r="37" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="C37" s="27" t="s">
-        <v>134</v>
+        <v>136</v>
+      </c>
+      <c r="C37" s="21" t="s">
+        <v>137</v>
       </c>
       <c r="D37" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="E37" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="G37" s="1" t="s">
         <v>21</v>
@@ -3574,24 +3596,24 @@
         <v>17</v>
       </c>
     </row>
-    <row r="38" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="C38" s="27" t="s">
-        <v>137</v>
+        <v>139</v>
+      </c>
+      <c r="C38" s="21" t="s">
+        <v>140</v>
       </c>
       <c r="D38" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="E38" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="G38" s="1" t="s">
         <v>21</v>
@@ -3607,347 +3629,347 @@
         <v>17</v>
       </c>
     </row>
-    <row r="39" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="C39" s="27" t="s">
-        <v>139</v>
+        <v>141</v>
+      </c>
+      <c r="C39" s="21" t="s">
+        <v>142</v>
       </c>
       <c r="D39" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="E39" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="C40" s="27" t="s">
-        <v>141</v>
+        <v>143</v>
+      </c>
+      <c r="C40" s="21" t="s">
+        <v>144</v>
       </c>
       <c r="D40" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="E40" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="K40" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" ht="158.4" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" ht="165" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="C41" s="27" t="s">
-        <v>143</v>
+        <v>145</v>
+      </c>
+      <c r="C41" s="21" t="s">
+        <v>146</v>
       </c>
       <c r="D41" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="E41" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="H41" s="3" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="J41" s="1" t="s">
         <v>16</v>
       </c>
       <c r="K41" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A42" s="4">
         <v>41</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="C42" s="27" t="s">
-        <v>147</v>
+        <v>149</v>
+      </c>
+      <c r="C42" s="21" t="s">
+        <v>150</v>
       </c>
       <c r="D42" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="E42" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="K42" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="C43" s="27" t="s">
-        <v>149</v>
+        <v>151</v>
+      </c>
+      <c r="C43" s="21" t="s">
+        <v>152</v>
       </c>
       <c r="D43" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="E43" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="H43" s="3" t="s">
-        <v>378</v>
+        <v>154</v>
       </c>
       <c r="J43" s="1" t="s">
         <v>16</v>
       </c>
       <c r="K43" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" ht="72" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="C44" s="27" t="s">
-        <v>152</v>
+        <v>155</v>
+      </c>
+      <c r="C44" s="21" t="s">
+        <v>156</v>
       </c>
       <c r="D44" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="E44" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="H44" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="I44" s="22" t="s">
-        <v>155</v>
-      </c>
-      <c r="J44" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="K44" s="10" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" ht="72" x14ac:dyDescent="0.3">
+        <v>158</v>
+      </c>
+      <c r="I44" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="J44" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K44" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="C45" s="27" t="s">
+        <v>160</v>
+      </c>
+      <c r="C45" s="21" t="s">
+        <v>161</v>
+      </c>
+      <c r="D45" t="s">
+        <v>24</v>
+      </c>
+      <c r="E45" t="s">
+        <v>14</v>
+      </c>
+      <c r="F45" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="D45" t="s">
-        <v>34</v>
-      </c>
-      <c r="E45" t="s">
-        <v>13</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>153</v>
-      </c>
       <c r="G45" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="H45" s="3" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="J45" s="1" t="s">
         <v>16</v>
       </c>
       <c r="K45" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="C46" s="27" t="s">
-        <v>159</v>
+        <v>162</v>
+      </c>
+      <c r="C46" s="21" t="s">
+        <v>163</v>
       </c>
       <c r="D46" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="E46" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="K46" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="C47" s="27" t="s">
-        <v>161</v>
+        <v>164</v>
+      </c>
+      <c r="C47" s="21" t="s">
+        <v>165</v>
       </c>
       <c r="D47" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="E47" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="H47" s="3" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="J47" s="1" t="s">
         <v>16</v>
       </c>
       <c r="K47" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="C48" s="27" t="s">
-        <v>165</v>
+        <v>168</v>
+      </c>
+      <c r="C48" s="21" t="s">
+        <v>169</v>
       </c>
       <c r="D48" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="E48" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="K48" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A49" s="4">
         <v>48</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="C49" s="27" t="s">
-        <v>167</v>
+        <v>170</v>
+      </c>
+      <c r="C49" s="21" t="s">
+        <v>171</v>
       </c>
       <c r="D49" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="E49" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>379</v>
+        <v>172</v>
       </c>
       <c r="G49" s="1" t="s">
         <v>21</v>
@@ -3962,158 +3984,160 @@
         <v>17</v>
       </c>
     </row>
-    <row r="50" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="C50" s="27" t="s">
-        <v>169</v>
+        <v>173</v>
+      </c>
+      <c r="C50" s="21" t="s">
+        <v>174</v>
       </c>
       <c r="D50" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="E50" t="s">
-        <v>13</v>
-      </c>
-      <c r="F50" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="G50" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="H50" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="J50" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F50" s="26" t="s">
+        <v>177</v>
+      </c>
+      <c r="G50" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="H50" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="I50" s="10"/>
+      <c r="J50" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="K50" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="K50" s="27" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="C51" s="27" t="s">
-        <v>173</v>
+        <v>175</v>
+      </c>
+      <c r="C51" s="21" t="s">
+        <v>176</v>
       </c>
       <c r="D51" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="E51" t="s">
-        <v>13</v>
-      </c>
-      <c r="F51" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="G51" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H51" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J51" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F51" s="28" t="s">
+        <v>384</v>
+      </c>
+      <c r="G51" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="H51" s="26" t="s">
+        <v>385</v>
+      </c>
+      <c r="I51" s="10"/>
+      <c r="J51" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="K51" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="K51" s="27" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="C52" s="27" t="s">
-        <v>176</v>
+        <v>178</v>
+      </c>
+      <c r="C52" s="21" t="s">
+        <v>179</v>
       </c>
       <c r="D52" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="E52" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F52" s="6" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="H52" s="23" t="s">
-        <v>376</v>
-      </c>
-      <c r="I52" s="20" t="s">
-        <v>178</v>
+        <v>56</v>
+      </c>
+      <c r="H52" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="I52" s="2" t="s">
+        <v>182</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="K52" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="C53" s="27" t="s">
+        <v>183</v>
+      </c>
+      <c r="C53" s="21" t="s">
+        <v>184</v>
+      </c>
+      <c r="D53" t="s">
+        <v>24</v>
+      </c>
+      <c r="E53" t="s">
+        <v>14</v>
+      </c>
+      <c r="F53" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="D53" t="s">
-        <v>34</v>
-      </c>
-      <c r="E53" t="s">
-        <v>13</v>
-      </c>
-      <c r="F53" s="6" t="s">
-        <v>177</v>
-      </c>
       <c r="G53" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="H53" s="23" t="s">
-        <v>376</v>
-      </c>
-      <c r="I53" s="20" t="s">
-        <v>178</v>
+        <v>56</v>
+      </c>
+      <c r="H53" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="I53" s="2" t="s">
+        <v>182</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="K53" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="C54" s="27" t="s">
-        <v>182</v>
+        <v>185</v>
+      </c>
+      <c r="C54" s="21" t="s">
+        <v>186</v>
       </c>
       <c r="D54" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="E54" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F54" s="6" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="G54" s="1" t="s">
         <v>21</v>
@@ -4128,120 +4152,120 @@
         <v>17</v>
       </c>
     </row>
-    <row r="55" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="C55" s="27" t="s">
-        <v>185</v>
+        <v>188</v>
+      </c>
+      <c r="C55" s="21" t="s">
+        <v>189</v>
       </c>
       <c r="D55" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="E55" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="K55" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="4">
         <v>55</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="C56" s="27" t="s">
-        <v>187</v>
+        <v>190</v>
+      </c>
+      <c r="C56" s="21" t="s">
+        <v>191</v>
       </c>
       <c r="D56" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="E56" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="K56" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>56</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="C57" s="27" t="s">
-        <v>189</v>
+        <v>192</v>
+      </c>
+      <c r="C57" s="21" t="s">
+        <v>193</v>
       </c>
       <c r="D57" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="E57" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="K57" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>57</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="C58" s="27" t="s">
-        <v>191</v>
+        <v>194</v>
+      </c>
+      <c r="C58" s="21" t="s">
+        <v>195</v>
       </c>
       <c r="D58" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="E58" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F58" s="4" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="G58" s="1" t="s">
         <v>21</v>
@@ -4256,280 +4280,280 @@
         <v>17</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>58</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="C59" s="27" t="s">
-        <v>194</v>
+        <v>197</v>
+      </c>
+      <c r="C59" s="21" t="s">
+        <v>198</v>
       </c>
       <c r="D59" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="E59" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="J59" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="K59" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>59</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="C60" s="27" t="s">
-        <v>196</v>
+        <v>199</v>
+      </c>
+      <c r="C60" s="21" t="s">
+        <v>200</v>
       </c>
       <c r="D60" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="E60" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="J60" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="K60" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>60</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="C61" s="27" t="s">
-        <v>198</v>
+        <v>201</v>
+      </c>
+      <c r="C61" s="21" t="s">
+        <v>202</v>
       </c>
       <c r="D61" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="E61" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="K61" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>61</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="C62" s="27" t="s">
-        <v>200</v>
+        <v>203</v>
+      </c>
+      <c r="C62" s="21" t="s">
+        <v>204</v>
       </c>
       <c r="D62" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="E62" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="K62" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="4">
         <v>62</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="C63" s="27" t="s">
-        <v>202</v>
+        <v>205</v>
+      </c>
+      <c r="C63" s="21" t="s">
+        <v>206</v>
       </c>
       <c r="D63" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="E63" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="J63" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="K63" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>63</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="C64" s="27" t="s">
-        <v>204</v>
+        <v>207</v>
+      </c>
+      <c r="C64" s="21" t="s">
+        <v>208</v>
       </c>
       <c r="D64" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="E64" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="J64" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="K64" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>64</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="C65" s="27" t="s">
-        <v>206</v>
+        <v>209</v>
+      </c>
+      <c r="C65" s="21" t="s">
+        <v>210</v>
       </c>
       <c r="D65" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="E65" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="J65" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="K65" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>65</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="C66" s="27" t="s">
-        <v>208</v>
+        <v>211</v>
+      </c>
+      <c r="C66" s="21" t="s">
+        <v>212</v>
       </c>
       <c r="D66" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="E66" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="H66" s="3" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="J66" s="1" t="s">
         <v>16</v>
       </c>
       <c r="K66" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>66</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="C67" s="27" t="s">
-        <v>212</v>
+        <v>215</v>
+      </c>
+      <c r="C67" s="21" t="s">
+        <v>216</v>
       </c>
       <c r="D67" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="E67" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F67" s="6" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="G67" s="1" t="s">
         <v>21</v>
@@ -4544,152 +4568,152 @@
         <v>17</v>
       </c>
     </row>
-    <row r="68" spans="1:11" ht="72" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>67</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="C68" s="27" t="s">
-        <v>215</v>
+        <v>218</v>
+      </c>
+      <c r="C68" s="21" t="s">
+        <v>219</v>
       </c>
       <c r="D68" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="E68" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="H68" s="3" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="J68" s="1" t="s">
         <v>16</v>
       </c>
       <c r="K68" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="69" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>68</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>218</v>
-      </c>
-      <c r="C69" s="27" t="s">
-        <v>219</v>
+        <v>222</v>
+      </c>
+      <c r="C69" s="21" t="s">
+        <v>223</v>
       </c>
       <c r="D69" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="E69" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F69" s="3" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="H69" s="3" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="J69" s="1" t="s">
         <v>16</v>
       </c>
       <c r="K69" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A70" s="4">
         <v>69</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="C70" s="27" t="s">
-        <v>223</v>
+        <v>226</v>
+      </c>
+      <c r="C70" s="21" t="s">
+        <v>227</v>
       </c>
       <c r="D70" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="E70" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="J70" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="K70" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>70</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="C71" s="27" t="s">
-        <v>225</v>
+        <v>228</v>
+      </c>
+      <c r="C71" s="21" t="s">
+        <v>229</v>
       </c>
       <c r="D71" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="E71" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F71" s="7" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="H71" s="3" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="J71" s="1" t="s">
         <v>16</v>
       </c>
       <c r="K71" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="72" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>228</v>
-      </c>
-      <c r="C72" s="27" t="s">
-        <v>229</v>
+        <v>232</v>
+      </c>
+      <c r="C72" s="21" t="s">
+        <v>233</v>
       </c>
       <c r="D72" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="E72" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F72" s="6" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="G72" s="1" t="s">
         <v>21</v>
@@ -4705,376 +4729,376 @@
         <v>17</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>231</v>
-      </c>
-      <c r="C73" s="27" t="s">
-        <v>232</v>
+        <v>235</v>
+      </c>
+      <c r="C73" s="21" t="s">
+        <v>236</v>
       </c>
       <c r="D73" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="E73" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="J73" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="K73" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="74" spans="1:11" ht="144" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" ht="150" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>233</v>
-      </c>
-      <c r="C74" s="27" t="s">
-        <v>234</v>
+        <v>237</v>
+      </c>
+      <c r="C74" s="21" t="s">
+        <v>238</v>
       </c>
       <c r="D74" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="E74" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F74" s="3" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="H74" s="3" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="J74" s="1" t="s">
         <v>16</v>
       </c>
       <c r="K74" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="75" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>237</v>
-      </c>
-      <c r="C75" s="27" t="s">
-        <v>238</v>
+        <v>241</v>
+      </c>
+      <c r="C75" s="21" t="s">
+        <v>242</v>
       </c>
       <c r="D75" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="E75" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F75" s="3" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="H75" s="3" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="J75" s="1" t="s">
         <v>16</v>
       </c>
       <c r="K75" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="76" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>241</v>
-      </c>
-      <c r="C76" s="27" t="s">
-        <v>242</v>
+        <v>245</v>
+      </c>
+      <c r="C76" s="21" t="s">
+        <v>246</v>
       </c>
       <c r="D76" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="E76" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F76" s="3" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="H76" s="3" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="J76" s="1" t="s">
         <v>16</v>
       </c>
       <c r="K76" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="77" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A77" s="4">
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>245</v>
-      </c>
-      <c r="C77" s="27" t="s">
-        <v>246</v>
+        <v>249</v>
+      </c>
+      <c r="C77" s="21" t="s">
+        <v>250</v>
       </c>
       <c r="D77" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="E77" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F77" s="3" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="H77" s="3" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="J77" s="1" t="s">
         <v>16</v>
       </c>
       <c r="K77" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="78" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>249</v>
-      </c>
-      <c r="C78" s="27" t="s">
-        <v>250</v>
+        <v>253</v>
+      </c>
+      <c r="C78" s="21" t="s">
+        <v>254</v>
       </c>
       <c r="D78" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="E78" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="J78" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="K78" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="79" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>251</v>
-      </c>
-      <c r="C79" s="27" t="s">
-        <v>252</v>
+        <v>255</v>
+      </c>
+      <c r="C79" s="21" t="s">
+        <v>256</v>
       </c>
       <c r="D79" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="E79" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="J79" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="K79" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="80" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>253</v>
-      </c>
-      <c r="C80" s="27" t="s">
-        <v>254</v>
+        <v>257</v>
+      </c>
+      <c r="C80" s="21" t="s">
+        <v>258</v>
       </c>
       <c r="D80" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="E80" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H80" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="J80" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="K80" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="81" spans="1:11" ht="72" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>255</v>
-      </c>
-      <c r="C81" s="27" t="s">
-        <v>256</v>
+        <v>259</v>
+      </c>
+      <c r="C81" s="21" t="s">
+        <v>260</v>
       </c>
       <c r="D81" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="E81" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F81" s="3" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="H81" s="3" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="J81" s="1" t="s">
         <v>16</v>
       </c>
       <c r="K81" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="82" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>259</v>
-      </c>
-      <c r="C82" s="27" t="s">
-        <v>260</v>
+        <v>263</v>
+      </c>
+      <c r="C82" s="21" t="s">
+        <v>264</v>
       </c>
       <c r="D82" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="E82" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="J82" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="K82" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="83" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>261</v>
-      </c>
-      <c r="C83" s="27" t="s">
-        <v>262</v>
+        <v>265</v>
+      </c>
+      <c r="C83" s="21" t="s">
+        <v>266</v>
       </c>
       <c r="D83" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="E83" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F83" s="3" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="H83" s="3" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="J83" s="1" t="s">
         <v>16</v>
       </c>
       <c r="K83" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="84" spans="1:11" ht="72" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A84" s="4">
         <v>83</v>
       </c>
       <c r="B84" s="8" t="s">
-        <v>265</v>
-      </c>
-      <c r="C84" s="27" t="s">
-        <v>266</v>
+        <v>269</v>
+      </c>
+      <c r="C84" s="21" t="s">
+        <v>270</v>
       </c>
       <c r="D84" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="E84" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F84" s="4" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="G84" s="1" t="s">
         <v>21</v>
@@ -5089,24 +5113,24 @@
         <v>17</v>
       </c>
     </row>
-    <row r="85" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>268</v>
-      </c>
-      <c r="C85" s="27" t="s">
-        <v>269</v>
+        <v>272</v>
+      </c>
+      <c r="C85" s="21" t="s">
+        <v>273</v>
       </c>
       <c r="D85" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="E85" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F85" s="4" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="G85" s="1" t="s">
         <v>21</v>
@@ -5121,24 +5145,24 @@
         <v>17</v>
       </c>
     </row>
-    <row r="86" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>271</v>
-      </c>
-      <c r="C86" s="27" t="s">
-        <v>272</v>
+        <v>275</v>
+      </c>
+      <c r="C86" s="21" t="s">
+        <v>276</v>
       </c>
       <c r="D86" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="E86" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F86" s="4" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="G86" s="1" t="s">
         <v>21</v>
@@ -5154,184 +5178,184 @@
         <v>17</v>
       </c>
     </row>
-    <row r="87" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>274</v>
-      </c>
-      <c r="C87" s="27" t="s">
-        <v>275</v>
+        <v>278</v>
+      </c>
+      <c r="C87" s="21" t="s">
+        <v>279</v>
       </c>
       <c r="D87" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="E87" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H87" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="J87" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="K87" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>276</v>
-      </c>
-      <c r="C88" s="27" t="s">
-        <v>277</v>
+        <v>280</v>
+      </c>
+      <c r="C88" s="21" t="s">
+        <v>281</v>
       </c>
       <c r="D88" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="E88" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H88" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="J88" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="K88" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="89" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>278</v>
-      </c>
-      <c r="C89" s="27" t="s">
-        <v>279</v>
+        <v>282</v>
+      </c>
+      <c r="C89" s="21" t="s">
+        <v>283</v>
       </c>
       <c r="D89" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="E89" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H89" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="J89" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="K89" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="90" spans="1:11" ht="72" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>280</v>
-      </c>
-      <c r="C90" s="27" t="s">
-        <v>281</v>
+        <v>284</v>
+      </c>
+      <c r="C90" s="21" t="s">
+        <v>285</v>
       </c>
       <c r="D90" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="E90" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F90" s="3" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="H90" s="3" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="J90" s="1" t="s">
         <v>16</v>
       </c>
       <c r="K90" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="91" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A91" s="4">
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>284</v>
-      </c>
-      <c r="C91" s="27" t="s">
-        <v>285</v>
+        <v>288</v>
+      </c>
+      <c r="C91" s="21" t="s">
+        <v>289</v>
       </c>
       <c r="D91" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="E91" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F91" s="3" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="H91" s="3" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="J91" s="1" t="s">
         <v>16</v>
       </c>
       <c r="K91" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="92" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>288</v>
-      </c>
-      <c r="C92" s="27" t="s">
-        <v>289</v>
+        <v>292</v>
+      </c>
+      <c r="C92" s="21" t="s">
+        <v>293</v>
       </c>
       <c r="D92" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="E92" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F92" s="4" t="s">
-        <v>380</v>
+        <v>294</v>
       </c>
       <c r="G92" s="1" t="s">
         <v>21</v>
@@ -5346,120 +5370,120 @@
         <v>17</v>
       </c>
     </row>
-    <row r="93" spans="1:11" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" ht="120" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>290</v>
-      </c>
-      <c r="C93" s="27" t="s">
-        <v>291</v>
+        <v>295</v>
+      </c>
+      <c r="C93" s="21" t="s">
+        <v>296</v>
       </c>
       <c r="D93" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="E93" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F93" s="3" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="H93" s="3" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="J93" s="1" t="s">
         <v>16</v>
       </c>
       <c r="K93" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="94" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>294</v>
-      </c>
-      <c r="C94" s="27" t="s">
-        <v>295</v>
+        <v>299</v>
+      </c>
+      <c r="C94" s="21" t="s">
+        <v>300</v>
       </c>
       <c r="D94" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="E94" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F94" s="3" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="H94" s="3" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="J94" s="1" t="s">
         <v>16</v>
       </c>
       <c r="K94" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="95" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>298</v>
-      </c>
-      <c r="C95" s="27" t="s">
-        <v>299</v>
+        <v>303</v>
+      </c>
+      <c r="C95" s="21" t="s">
+        <v>304</v>
       </c>
       <c r="D95" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="E95" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F95" s="3" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="G95" s="4" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="H95" s="3" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="J95" s="1" t="s">
         <v>16</v>
       </c>
       <c r="K95" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="96" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>302</v>
-      </c>
-      <c r="C96" s="27" t="s">
-        <v>303</v>
+        <v>307</v>
+      </c>
+      <c r="C96" s="21" t="s">
+        <v>308</v>
       </c>
       <c r="D96" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="E96" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F96" s="4" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="G96" s="1" t="s">
         <v>21</v>
@@ -5468,65 +5492,65 @@
         <v>21</v>
       </c>
       <c r="I96" s="7" t="s">
-        <v>305</v>
-      </c>
-      <c r="J96" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="K96" s="10" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+        <v>310</v>
+      </c>
+      <c r="J96" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="K96" s="17" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>307</v>
-      </c>
-      <c r="C97" s="27" t="s">
-        <v>308</v>
+        <v>312</v>
+      </c>
+      <c r="C97" s="21" t="s">
+        <v>313</v>
       </c>
       <c r="D97" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="E97" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H97" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="J97" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="K97" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="4">
         <v>97</v>
       </c>
       <c r="B98" t="s">
+        <v>314</v>
+      </c>
+      <c r="C98" s="21" t="s">
+        <v>315</v>
+      </c>
+      <c r="D98" t="s">
+        <v>24</v>
+      </c>
+      <c r="E98" t="s">
+        <v>14</v>
+      </c>
+      <c r="F98" s="4" t="s">
         <v>309</v>
-      </c>
-      <c r="C98" s="27" t="s">
-        <v>310</v>
-      </c>
-      <c r="D98" t="s">
-        <v>34</v>
-      </c>
-      <c r="E98" t="s">
-        <v>13</v>
-      </c>
-      <c r="F98" s="4" t="s">
-        <v>304</v>
       </c>
       <c r="G98" s="1" t="s">
         <v>21</v>
@@ -5541,88 +5565,88 @@
         <v>17</v>
       </c>
     </row>
-    <row r="99" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>311</v>
-      </c>
-      <c r="C99" s="27" t="s">
-        <v>312</v>
+        <v>316</v>
+      </c>
+      <c r="C99" s="21" t="s">
+        <v>317</v>
       </c>
       <c r="D99" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="E99" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H99" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="J99" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="K99" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="100" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>99</v>
       </c>
       <c r="B100" s="8" t="s">
-        <v>313</v>
-      </c>
-      <c r="C100" s="27" t="s">
-        <v>314</v>
+        <v>318</v>
+      </c>
+      <c r="C100" s="21" t="s">
+        <v>319</v>
       </c>
       <c r="D100" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="E100" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H100" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="J100" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="K100" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="101" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>315</v>
-      </c>
-      <c r="C101" s="27" t="s">
-        <v>316</v>
+        <v>320</v>
+      </c>
+      <c r="C101" s="21" t="s">
+        <v>321</v>
       </c>
       <c r="D101" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="E101" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F101" s="6" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="G101" s="1" t="s">
         <v>21</v>
@@ -5637,59 +5661,57 @@
         <v>17</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A102" s="11">
+    <row r="102" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A102" s="13">
         <v>101</v>
       </c>
-      <c r="B102" s="11" t="s">
-        <v>318</v>
-      </c>
-      <c r="C102" s="28" t="s">
-        <v>319</v>
-      </c>
-      <c r="D102" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="E102" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F102" s="10" t="s">
-        <v>381</v>
-      </c>
-      <c r="G102" s="10" t="s">
+      <c r="B102" s="13" t="s">
+        <v>323</v>
+      </c>
+      <c r="C102" s="25" t="s">
+        <v>324</v>
+      </c>
+      <c r="D102" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E102" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="F102" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="G102" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H102" s="10" t="s">
+      <c r="H102" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I102" s="11" t="s">
-        <v>384</v>
-      </c>
-      <c r="J102" s="10" t="s">
+      <c r="I102" s="13"/>
+      <c r="J102" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K102" s="10" t="s">
+      <c r="K102" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="103" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>102</v>
       </c>
       <c r="B103" t="s">
-        <v>320</v>
-      </c>
-      <c r="C103" s="27" t="s">
-        <v>321</v>
+        <v>326</v>
+      </c>
+      <c r="C103" s="21" t="s">
+        <v>327</v>
       </c>
       <c r="D103" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="E103" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F103" s="4" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="G103" s="1" t="s">
         <v>21</v>
@@ -5704,56 +5726,56 @@
         <v>17</v>
       </c>
     </row>
-    <row r="104" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>323</v>
-      </c>
-      <c r="C104" s="27" t="s">
-        <v>324</v>
+        <v>329</v>
+      </c>
+      <c r="C104" s="21" t="s">
+        <v>330</v>
       </c>
       <c r="D104" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="E104" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H104" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="J104" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="K104" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="105" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A105" s="4">
         <v>104</v>
       </c>
       <c r="B105" t="s">
-        <v>325</v>
-      </c>
-      <c r="C105" s="27" t="s">
-        <v>326</v>
+        <v>331</v>
+      </c>
+      <c r="C105" s="21" t="s">
+        <v>332</v>
       </c>
       <c r="D105" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="E105" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F105" s="4" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="G105" s="1" t="s">
         <v>21</v>
@@ -5768,88 +5790,88 @@
         <v>17</v>
       </c>
     </row>
-    <row r="106" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>105</v>
       </c>
       <c r="B106" t="s">
-        <v>328</v>
-      </c>
-      <c r="C106" s="27" t="s">
-        <v>329</v>
+        <v>334</v>
+      </c>
+      <c r="C106" s="21" t="s">
+        <v>335</v>
       </c>
       <c r="D106" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="E106" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H106" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="J106" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="K106" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>330</v>
-      </c>
-      <c r="C107" s="27" t="s">
-        <v>331</v>
+        <v>336</v>
+      </c>
+      <c r="C107" s="21" t="s">
+        <v>337</v>
       </c>
       <c r="D107" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="E107" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H107" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="J107" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="K107" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>332</v>
-      </c>
-      <c r="C108" s="27" t="s">
-        <v>333</v>
+        <v>338</v>
+      </c>
+      <c r="C108" s="21" t="s">
+        <v>339</v>
       </c>
       <c r="D108" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="E108" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F108" s="4" t="s">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="G108" s="1" t="s">
         <v>21</v>
@@ -5864,600 +5886,600 @@
         <v>17</v>
       </c>
     </row>
-    <row r="109" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>335</v>
-      </c>
-      <c r="C109" s="27" t="s">
-        <v>336</v>
+        <v>341</v>
+      </c>
+      <c r="C109" s="21" t="s">
+        <v>342</v>
       </c>
       <c r="D109" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="E109" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F109" s="3" t="s">
-        <v>382</v>
+        <v>343</v>
       </c>
       <c r="G109" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="H109" s="3" t="s">
-        <v>383</v>
+        <v>344</v>
       </c>
       <c r="J109" s="1" t="s">
         <v>16</v>
       </c>
       <c r="K109" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="110" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>337</v>
-      </c>
-      <c r="C110" s="27" t="s">
-        <v>338</v>
+        <v>345</v>
+      </c>
+      <c r="C110" s="21" t="s">
+        <v>346</v>
       </c>
       <c r="D110" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="E110" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G110" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H110" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="J110" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="K110" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>110</v>
       </c>
       <c r="B111" t="s">
-        <v>339</v>
-      </c>
-      <c r="C111" s="27" t="s">
-        <v>340</v>
+        <v>347</v>
+      </c>
+      <c r="C111" s="21" t="s">
+        <v>348</v>
       </c>
       <c r="D111" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="E111" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G111" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H111" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="J111" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="K111" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="112" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A112" s="4">
         <v>111</v>
       </c>
       <c r="B112" t="s">
-        <v>341</v>
-      </c>
-      <c r="C112" s="27" t="s">
-        <v>342</v>
+        <v>349</v>
+      </c>
+      <c r="C112" s="21" t="s">
+        <v>350</v>
       </c>
       <c r="D112" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="E112" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G112" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H112" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="J112" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="K112" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>112</v>
       </c>
       <c r="B113" t="s">
-        <v>343</v>
-      </c>
-      <c r="C113" s="27" t="s">
-        <v>344</v>
+        <v>351</v>
+      </c>
+      <c r="C113" s="21" t="s">
+        <v>352</v>
       </c>
       <c r="D113" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="E113" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G113" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H113" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="J113" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="K113" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>113</v>
       </c>
       <c r="B114" t="s">
-        <v>345</v>
-      </c>
-      <c r="C114" s="27" t="s">
-        <v>346</v>
+        <v>353</v>
+      </c>
+      <c r="C114" s="21" t="s">
+        <v>354</v>
       </c>
       <c r="D114" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="E114" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G114" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H114" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="J114" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="K114" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="115" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>114</v>
       </c>
       <c r="B115" t="s">
-        <v>347</v>
-      </c>
-      <c r="C115" s="27" t="s">
-        <v>348</v>
+        <v>355</v>
+      </c>
+      <c r="C115" s="21" t="s">
+        <v>356</v>
       </c>
       <c r="D115" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="E115" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G115" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H115" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="J115" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="K115" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>115</v>
       </c>
       <c r="B116" t="s">
-        <v>349</v>
-      </c>
-      <c r="C116" s="27" t="s">
-        <v>350</v>
+        <v>357</v>
+      </c>
+      <c r="C116" s="21" t="s">
+        <v>358</v>
       </c>
       <c r="D116" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="E116" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G116" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H116" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="J116" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="K116" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="117" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>116</v>
       </c>
       <c r="B117" t="s">
-        <v>351</v>
-      </c>
-      <c r="C117" s="27" t="s">
-        <v>352</v>
+        <v>359</v>
+      </c>
+      <c r="C117" s="21" t="s">
+        <v>360</v>
       </c>
       <c r="D117" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="E117" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G117" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H117" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="J117" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="K117" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>117</v>
       </c>
       <c r="B118" t="s">
-        <v>353</v>
-      </c>
-      <c r="C118" s="27" t="s">
-        <v>354</v>
+        <v>361</v>
+      </c>
+      <c r="C118" s="21" t="s">
+        <v>362</v>
       </c>
       <c r="D118" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="E118" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G118" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H118" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="J118" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="K118" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A119" s="4">
         <v>118</v>
       </c>
       <c r="B119" t="s">
-        <v>355</v>
-      </c>
-      <c r="C119" s="27" t="s">
-        <v>356</v>
+        <v>363</v>
+      </c>
+      <c r="C119" s="21" t="s">
+        <v>364</v>
       </c>
       <c r="D119" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="E119" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G119" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H119" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="J119" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="K119" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>119</v>
       </c>
       <c r="B120" t="s">
-        <v>357</v>
-      </c>
-      <c r="C120" s="27" t="s">
-        <v>358</v>
+        <v>365</v>
+      </c>
+      <c r="C120" s="21" t="s">
+        <v>366</v>
       </c>
       <c r="D120" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="E120" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G120" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H120" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="J120" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="K120" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="121" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>120</v>
       </c>
       <c r="B121" t="s">
-        <v>359</v>
-      </c>
-      <c r="C121" s="27" t="s">
-        <v>360</v>
+        <v>367</v>
+      </c>
+      <c r="C121" s="21" t="s">
+        <v>368</v>
       </c>
       <c r="D121" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="E121" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F121" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G121" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H121" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="J121" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="K121" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>121</v>
       </c>
       <c r="B122" t="s">
-        <v>361</v>
-      </c>
-      <c r="C122" s="27" t="s">
-        <v>362</v>
+        <v>369</v>
+      </c>
+      <c r="C122" s="21" t="s">
+        <v>370</v>
       </c>
       <c r="D122" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="E122" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G122" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H122" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="J122" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="K122" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="123" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>122</v>
       </c>
       <c r="B123" t="s">
-        <v>363</v>
-      </c>
-      <c r="C123" s="27" t="s">
-        <v>364</v>
+        <v>371</v>
+      </c>
+      <c r="C123" s="21" t="s">
+        <v>372</v>
       </c>
       <c r="D123" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="E123" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F123" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G123" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H123" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="J123" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="K123" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>123</v>
       </c>
       <c r="B124" t="s">
-        <v>365</v>
-      </c>
-      <c r="C124" s="27" t="s">
-        <v>366</v>
+        <v>373</v>
+      </c>
+      <c r="C124" s="21" t="s">
+        <v>374</v>
       </c>
       <c r="D124" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="E124" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F124" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G124" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H124" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="J124" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="K124" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="125" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>124</v>
       </c>
       <c r="B125" t="s">
-        <v>367</v>
-      </c>
-      <c r="C125" s="27" t="s">
-        <v>368</v>
+        <v>375</v>
+      </c>
+      <c r="C125" s="21" t="s">
+        <v>376</v>
       </c>
       <c r="D125" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="E125" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F125" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G125" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H125" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="J125" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="K125" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="126" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A126" s="4">
         <v>125</v>
       </c>
       <c r="B126" t="s">
-        <v>369</v>
-      </c>
-      <c r="C126" s="27" t="s">
-        <v>370</v>
+        <v>377</v>
+      </c>
+      <c r="C126" s="21" t="s">
+        <v>378</v>
       </c>
       <c r="D126" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="E126" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F126" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G126" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H126" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="J126" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="K126" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="127" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>126</v>
       </c>
       <c r="B127" t="s">
-        <v>371</v>
-      </c>
-      <c r="C127" s="27" t="s">
-        <v>372</v>
+        <v>379</v>
+      </c>
+      <c r="C127" s="21" t="s">
+        <v>380</v>
       </c>
       <c r="D127" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="E127" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F127" s="4" t="s">
-        <v>373</v>
+        <v>381</v>
       </c>
       <c r="G127" s="1" t="s">
         <v>21</v>
@@ -6469,36 +6491,36 @@
         <v>17</v>
       </c>
     </row>
-    <row r="128" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>127</v>
       </c>
       <c r="B128" t="s">
-        <v>374</v>
-      </c>
-      <c r="C128" s="27" t="s">
-        <v>375</v>
+        <v>382</v>
+      </c>
+      <c r="C128" s="21" t="s">
+        <v>383</v>
       </c>
       <c r="D128" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="E128" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F128" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G128" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H128" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="J128" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="K128" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -6512,6 +6534,27 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Zeit xmlns="b63cdcf7-47fa-43f6-87e5-23b415b5c413" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="b63cdcf7-47fa-43f6-87e5-23b415b5c413">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="12535b08-222e-45d2-b6db-15019f1afee6" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100B1DC67C611DD5E4D81775F9F3E26A7B2" ma:contentTypeVersion="16" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="7f379a5812b480a74f9d031be5f88a83">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b63cdcf7-47fa-43f6-87e5-23b415b5c413" xmlns:ns3="12535b08-222e-45d2-b6db-15019f1afee6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="dbce1e37d7de67e1c835013ca0ee7a7c" ns2:_="" ns3:_="">
     <xsd:import namespace="b63cdcf7-47fa-43f6-87e5-23b415b5c413"/>
@@ -6752,29 +6795,33 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Zeit xmlns="b63cdcf7-47fa-43f6-87e5-23b415b5c413" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="b63cdcf7-47fa-43f6-87e5-23b415b5c413">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="12535b08-222e-45d2-b6db-15019f1afee6" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E89B3EC5-962B-41D9-9821-3A191D2434CD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FBFC15CC-4CA5-447A-915F-1412CED97222}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="b63cdcf7-47fa-43f6-87e5-23b415b5c413"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="12535b08-222e-45d2-b6db-15019f1afee6"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B0E591B1-6AE9-4989-8632-5CC8BCBEA2B1}">
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{945A6BE8-5273-4FBB-A417-535A6E60D478}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
@@ -6790,29 +6837,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FBFC15CC-4CA5-447A-915F-1412CED97222}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="b63cdcf7-47fa-43f6-87e5-23b415b5c413"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="12535b08-222e-45d2-b6db-15019f1afee6"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E89B3EC5-962B-41D9-9821-3A191D2434CD}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/rmonize/data_proc_elem/DPE_GINI_P1.xlsx
+++ b/rmonize/data_proc_elem/DPE_GINI_P1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Projekte\NFDI4Health\TA5\Pilotprojekte\Harmonisierung\HarmonizR\use-cases-harmonisation\rmonize\data_proc_elem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="14_{C2B939D2-70EB-4F1D-A09D-C3493CBCBB54}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41C48F6A-C5B3-4DF8-B2C1-EC576A4F2775}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2371,8 +2371,8 @@
   <dimension ref="A1:K128"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H59" sqref="H59"/>
+      <pane ySplit="1" topLeftCell="A101" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F102" sqref="F102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6534,27 +6534,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Zeit xmlns="b63cdcf7-47fa-43f6-87e5-23b415b5c413" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="b63cdcf7-47fa-43f6-87e5-23b415b5c413">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="12535b08-222e-45d2-b6db-15019f1afee6" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100B1DC67C611DD5E4D81775F9F3E26A7B2" ma:contentTypeVersion="16" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="7f379a5812b480a74f9d031be5f88a83">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b63cdcf7-47fa-43f6-87e5-23b415b5c413" xmlns:ns3="12535b08-222e-45d2-b6db-15019f1afee6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="dbce1e37d7de67e1c835013ca0ee7a7c" ns2:_="" ns3:_="">
     <xsd:import namespace="b63cdcf7-47fa-43f6-87e5-23b415b5c413"/>
@@ -6795,10 +6774,42 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Zeit xmlns="b63cdcf7-47fa-43f6-87e5-23b415b5c413" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="b63cdcf7-47fa-43f6-87e5-23b415b5c413">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="12535b08-222e-45d2-b6db-15019f1afee6" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E89B3EC5-962B-41D9-9821-3A191D2434CD}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{945A6BE8-5273-4FBB-A417-535A6E60D478}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="b63cdcf7-47fa-43f6-87e5-23b415b5c413"/>
+    <ds:schemaRef ds:uri="12535b08-222e-45d2-b6db-15019f1afee6"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -6821,20 +6832,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{945A6BE8-5273-4FBB-A417-535A6E60D478}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E89B3EC5-962B-41D9-9821-3A191D2434CD}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="b63cdcf7-47fa-43f6-87e5-23b415b5c413"/>
-    <ds:schemaRef ds:uri="12535b08-222e-45d2-b6db-15019f1afee6"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/rmonize/data_proc_elem/DPE_GINI_P1.xlsx
+++ b/rmonize/data_proc_elem/DPE_GINI_P1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Projekte\NFDI4Health\TA5\Pilotprojekte\Harmonisierung\HarmonizR\use-cases-harmonisation\rmonize\data_proc_elem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41C48F6A-C5B3-4DF8-B2C1-EC576A4F2775}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="14_{85C256F3-5FC3-41A9-9720-7A0E43545612}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1162" uniqueCount="386">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1170" uniqueCount="390">
   <si>
     <t>index</t>
   </si>
@@ -106,12 +106,6 @@
   </si>
   <si>
     <t>recode</t>
-  </si>
-  <si>
-    <t>tba</t>
-  </si>
-  <si>
-    <t>Franzi: KIALTER_15 is integer, but we want decimal. So this can't be direct mapping, but needs recoding.</t>
   </si>
   <si>
     <t>EDU_LEVEL</t>
@@ -1397,12 +1391,30 @@
     <t>FFQRIND_15 +
 FFQSCHW_15</t>
   </si>
+  <si>
+    <t>DIETARY_ASSESS_INSTR</t>
+  </si>
+  <si>
+    <t>Dietary Assessment Instrument</t>
+  </si>
+  <si>
+    <t>__BLANK__</t>
+  </si>
+  <si>
+    <t>paste</t>
+  </si>
+  <si>
+    <t>1 (FFQ)</t>
+  </si>
+  <si>
+    <t>compatible, because it is integer and we want decimal</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="28" x14ac:knownFonts="1">
+  <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1578,24 +1590,18 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -1942,7 +1948,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1992,11 +1998,9 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -2009,9 +2013,15 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20 % - Akzent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2368,11 +2378,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K128"/>
+  <dimension ref="A1:K130"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A101" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F102" sqref="F102"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A116" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B129" sqref="B129:K129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2447,9 +2457,7 @@
       <c r="H2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="13" t="s">
-        <v>16</v>
-      </c>
+      <c r="I2" s="13"/>
       <c r="J2" s="13" t="s">
         <v>16</v>
       </c>
@@ -2490,7 +2498,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2509,20 +2517,20 @@
       <c r="F4" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="G4" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="H4" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="I4" s="22" t="s">
-        <v>28</v>
+      <c r="G4" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>389</v>
       </c>
       <c r="J4" s="13" t="s">
         <v>16</v>
       </c>
       <c r="K4" s="13" t="s">
-        <v>17</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="409.5" x14ac:dyDescent="0.25">
@@ -2530,10 +2538,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D5" t="s">
         <v>13</v>
@@ -2542,22 +2550,22 @@
         <v>14</v>
       </c>
       <c r="F5" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H5" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="I5" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="J5" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="I5" s="24" t="s">
+      <c r="K5" s="13" t="s">
         <v>34</v>
-      </c>
-      <c r="J5" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="K5" s="13" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -2565,31 +2573,31 @@
         <v>5</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C6" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" t="s">
+        <v>37</v>
+      </c>
+      <c r="G6" t="s">
+        <v>37</v>
+      </c>
+      <c r="H6" t="s">
+        <v>37</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="K6" s="4" t="s">
         <v>38</v>
-      </c>
-      <c r="D6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" t="s">
-        <v>39</v>
-      </c>
-      <c r="G6" t="s">
-        <v>39</v>
-      </c>
-      <c r="H6" t="s">
-        <v>39</v>
-      </c>
-      <c r="J6" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="K6" s="4" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -2597,10 +2605,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>13</v>
@@ -2609,22 +2617,22 @@
         <v>14</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G7" s="17" t="s">
         <v>26</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -2632,19 +2640,19 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="18" t="s">
         <v>46</v>
-      </c>
-      <c r="C8" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="D8" t="s">
-        <v>24</v>
-      </c>
-      <c r="E8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F8" s="18" t="s">
-        <v>48</v>
       </c>
       <c r="G8" s="18" t="s">
         <v>21</v>
@@ -2665,22 +2673,22 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="D9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="C9" s="14" t="s">
+      <c r="G9" s="18" t="s">
         <v>50</v>
-      </c>
-      <c r="D9" t="s">
-        <v>24</v>
-      </c>
-      <c r="E9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F9" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="G9" s="18" t="s">
-        <v>52</v>
       </c>
       <c r="H9" s="18" t="s">
         <v>21</v>
@@ -2698,34 +2706,34 @@
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="D10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="G10" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D10" t="s">
-        <v>24</v>
-      </c>
-      <c r="E10" t="s">
-        <v>14</v>
-      </c>
-      <c r="F10" s="3" t="s">
+      <c r="H10" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="I10" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="H10" s="3" t="s">
+      <c r="J10" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K10" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="I10" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -2733,10 +2741,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C11" s="21" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D11" t="s">
         <v>24</v>
@@ -2745,19 +2753,19 @@
         <v>14</v>
       </c>
       <c r="F11" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H11" s="3" t="s">
         <v>55</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>57</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>16</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -2765,10 +2773,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C12" s="21" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D12" t="s">
         <v>24</v>
@@ -2777,19 +2785,19 @@
         <v>14</v>
       </c>
       <c r="F12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="75" x14ac:dyDescent="0.25">
@@ -2797,31 +2805,31 @@
         <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C13" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="D13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="C13" s="21" t="s">
+      <c r="G13" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H13" s="3" t="s">
         <v>66</v>
-      </c>
-      <c r="D13" t="s">
-        <v>24</v>
-      </c>
-      <c r="E13" t="s">
-        <v>14</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>68</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>16</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -2829,31 +2837,31 @@
         <v>13</v>
       </c>
       <c r="B14" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C14" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="D14" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="C14" s="21" t="s">
+      <c r="G14" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H14" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="D14" t="s">
-        <v>24</v>
-      </c>
-      <c r="E14" t="s">
-        <v>14</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="H14" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>16</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -2861,19 +2869,19 @@
         <v>14</v>
       </c>
       <c r="B15" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C15" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="D15" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15" t="s">
+        <v>14</v>
+      </c>
+      <c r="F15" s="6" t="s">
         <v>73</v>
-      </c>
-      <c r="C15" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="D15" t="s">
-        <v>24</v>
-      </c>
-      <c r="E15" t="s">
-        <v>14</v>
-      </c>
-      <c r="F15" s="6" t="s">
-        <v>75</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>21</v>
@@ -2893,19 +2901,19 @@
         <v>15</v>
       </c>
       <c r="B16" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C16" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F16" s="6" t="s">
         <v>76</v>
-      </c>
-      <c r="C16" s="21" t="s">
-        <v>77</v>
-      </c>
-      <c r="D16" t="s">
-        <v>24</v>
-      </c>
-      <c r="E16" t="s">
-        <v>14</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>78</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>21</v>
@@ -2925,22 +2933,22 @@
         <v>16</v>
       </c>
       <c r="B17" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C17" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="D17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17" t="s">
+        <v>14</v>
+      </c>
+      <c r="F17" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="C17" s="21" t="s">
-        <v>80</v>
-      </c>
-      <c r="D17" t="s">
-        <v>24</v>
-      </c>
-      <c r="E17" t="s">
-        <v>14</v>
-      </c>
-      <c r="F17" s="6" t="s">
-        <v>81</v>
-      </c>
       <c r="G17" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H17" s="1" t="s">
         <v>21</v>
@@ -2957,10 +2965,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C18" s="21" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D18" t="s">
         <v>24</v>
@@ -2969,19 +2977,19 @@
         <v>14</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -2989,10 +2997,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C19" s="21" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D19" t="s">
         <v>24</v>
@@ -3001,19 +3009,19 @@
         <v>14</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -3021,10 +3029,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C20" s="21" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D20" t="s">
         <v>24</v>
@@ -3033,19 +3041,19 @@
         <v>14</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -3053,10 +3061,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C21" s="21" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D21" t="s">
         <v>24</v>
@@ -3065,19 +3073,19 @@
         <v>14</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -3085,10 +3093,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C22" s="21" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D22" t="s">
         <v>24</v>
@@ -3097,19 +3105,19 @@
         <v>14</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
@@ -3117,10 +3125,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C23" s="21" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D23" t="s">
         <v>24</v>
@@ -3129,19 +3137,19 @@
         <v>14</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -3149,19 +3157,19 @@
         <v>23</v>
       </c>
       <c r="B24" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C24" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="D24" t="s">
+        <v>24</v>
+      </c>
+      <c r="E24" t="s">
+        <v>14</v>
+      </c>
+      <c r="F24" s="6" t="s">
         <v>94</v>
-      </c>
-      <c r="C24" s="21" t="s">
-        <v>95</v>
-      </c>
-      <c r="D24" t="s">
-        <v>24</v>
-      </c>
-      <c r="E24" t="s">
-        <v>14</v>
-      </c>
-      <c r="F24" s="6" t="s">
-        <v>96</v>
       </c>
       <c r="G24" s="1" t="s">
         <v>21</v>
@@ -3181,32 +3189,32 @@
         <v>24</v>
       </c>
       <c r="B25" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C25" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="D25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>14</v>
+      </c>
+      <c r="F25" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="C25" s="21" t="s">
+      <c r="G25" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H25" s="3" t="s">
         <v>98</v>
-      </c>
-      <c r="D25" t="s">
-        <v>24</v>
-      </c>
-      <c r="E25" t="s">
-        <v>14</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="H25" s="3" t="s">
-        <v>100</v>
       </c>
       <c r="I25" s="7"/>
       <c r="J25" s="1" t="s">
         <v>16</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -3214,31 +3222,31 @@
         <v>25</v>
       </c>
       <c r="B26" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C26" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26" t="s">
+        <v>14</v>
+      </c>
+      <c r="F26" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="C26" s="21" t="s">
+      <c r="G26" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H26" s="3" t="s">
         <v>102</v>
-      </c>
-      <c r="D26" t="s">
-        <v>24</v>
-      </c>
-      <c r="E26" t="s">
-        <v>14</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>104</v>
       </c>
       <c r="J26" s="1" t="s">
         <v>16</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -3246,19 +3254,19 @@
         <v>26</v>
       </c>
       <c r="B27" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C27" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="D27" t="s">
+        <v>24</v>
+      </c>
+      <c r="E27" t="s">
+        <v>14</v>
+      </c>
+      <c r="F27" s="5" t="s">
         <v>105</v>
-      </c>
-      <c r="C27" s="21" t="s">
-        <v>106</v>
-      </c>
-      <c r="D27" t="s">
-        <v>24</v>
-      </c>
-      <c r="E27" t="s">
-        <v>14</v>
-      </c>
-      <c r="F27" s="5" t="s">
-        <v>107</v>
       </c>
       <c r="G27" s="1" t="s">
         <v>21</v>
@@ -3278,10 +3286,10 @@
         <v>27</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C28" s="21" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D28" t="s">
         <v>24</v>
@@ -3290,19 +3298,19 @@
         <v>14</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
@@ -3310,10 +3318,10 @@
         <v>28</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C29" s="21" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D29" t="s">
         <v>24</v>
@@ -3322,19 +3330,19 @@
         <v>14</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="135" x14ac:dyDescent="0.25">
@@ -3342,31 +3350,31 @@
         <v>29</v>
       </c>
       <c r="B30" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C30" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30" t="s">
+        <v>14</v>
+      </c>
+      <c r="F30" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="C30" s="21" t="s">
+      <c r="G30" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H30" s="3" t="s">
         <v>113</v>
-      </c>
-      <c r="D30" t="s">
-        <v>24</v>
-      </c>
-      <c r="E30" t="s">
-        <v>14</v>
-      </c>
-      <c r="F30" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="H30" s="3" t="s">
-        <v>115</v>
       </c>
       <c r="J30" s="1" t="s">
         <v>16</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -3374,19 +3382,19 @@
         <v>30</v>
       </c>
       <c r="B31" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C31" s="21" t="s">
+        <v>115</v>
+      </c>
+      <c r="D31" t="s">
+        <v>24</v>
+      </c>
+      <c r="E31" t="s">
+        <v>14</v>
+      </c>
+      <c r="F31" s="6" t="s">
         <v>116</v>
-      </c>
-      <c r="C31" s="21" t="s">
-        <v>117</v>
-      </c>
-      <c r="D31" t="s">
-        <v>24</v>
-      </c>
-      <c r="E31" t="s">
-        <v>14</v>
-      </c>
-      <c r="F31" s="6" t="s">
-        <v>118</v>
       </c>
       <c r="G31" s="1" t="s">
         <v>21</v>
@@ -3406,31 +3414,31 @@
         <v>31</v>
       </c>
       <c r="B32" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C32" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="D32" t="s">
+        <v>24</v>
+      </c>
+      <c r="E32" t="s">
+        <v>14</v>
+      </c>
+      <c r="F32" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="C32" s="21" t="s">
+      <c r="G32" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H32" s="3" t="s">
         <v>120</v>
-      </c>
-      <c r="D32" t="s">
-        <v>24</v>
-      </c>
-      <c r="E32" t="s">
-        <v>14</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="H32" s="3" t="s">
-        <v>122</v>
       </c>
       <c r="J32" s="1" t="s">
         <v>16</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="33" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -3438,19 +3446,19 @@
         <v>32</v>
       </c>
       <c r="B33" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="C33" s="21" t="s">
+        <v>122</v>
+      </c>
+      <c r="D33" t="s">
+        <v>24</v>
+      </c>
+      <c r="E33" t="s">
+        <v>14</v>
+      </c>
+      <c r="F33" s="6" t="s">
         <v>123</v>
-      </c>
-      <c r="C33" s="21" t="s">
-        <v>124</v>
-      </c>
-      <c r="D33" t="s">
-        <v>24</v>
-      </c>
-      <c r="E33" t="s">
-        <v>14</v>
-      </c>
-      <c r="F33" s="6" t="s">
-        <v>125</v>
       </c>
       <c r="G33" s="1" t="s">
         <v>21</v>
@@ -3470,19 +3478,19 @@
         <v>33</v>
       </c>
       <c r="B34" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="C34" s="21" t="s">
+        <v>125</v>
+      </c>
+      <c r="D34" t="s">
+        <v>24</v>
+      </c>
+      <c r="E34" t="s">
+        <v>14</v>
+      </c>
+      <c r="F34" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="C34" s="21" t="s">
-        <v>127</v>
-      </c>
-      <c r="D34" t="s">
-        <v>24</v>
-      </c>
-      <c r="E34" t="s">
-        <v>14</v>
-      </c>
-      <c r="F34" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="G34" s="1" t="s">
         <v>21</v>
@@ -3502,32 +3510,32 @@
         <v>34</v>
       </c>
       <c r="B35" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C35" s="21" t="s">
+        <v>128</v>
+      </c>
+      <c r="D35" t="s">
+        <v>24</v>
+      </c>
+      <c r="E35" t="s">
+        <v>14</v>
+      </c>
+      <c r="F35" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="C35" s="21" t="s">
+      <c r="G35" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H35" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="D35" t="s">
-        <v>24</v>
-      </c>
-      <c r="E35" t="s">
-        <v>14</v>
-      </c>
-      <c r="F35" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="H35" s="7" t="s">
-        <v>132</v>
       </c>
       <c r="I35" s="1"/>
       <c r="J35" s="1" t="s">
         <v>16</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="36" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -3535,19 +3543,19 @@
         <v>35</v>
       </c>
       <c r="B36" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C36" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36" t="s">
+        <v>14</v>
+      </c>
+      <c r="F36" s="4" t="s">
         <v>133</v>
-      </c>
-      <c r="C36" s="21" t="s">
-        <v>134</v>
-      </c>
-      <c r="D36" t="s">
-        <v>24</v>
-      </c>
-      <c r="E36" t="s">
-        <v>14</v>
-      </c>
-      <c r="F36" s="4" t="s">
-        <v>135</v>
       </c>
       <c r="G36" s="1" t="s">
         <v>21</v>
@@ -3568,19 +3576,19 @@
         <v>36</v>
       </c>
       <c r="B37" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C37" s="21" t="s">
+        <v>135</v>
+      </c>
+      <c r="D37" t="s">
+        <v>24</v>
+      </c>
+      <c r="E37" t="s">
+        <v>14</v>
+      </c>
+      <c r="F37" s="4" t="s">
         <v>136</v>
-      </c>
-      <c r="C37" s="21" t="s">
-        <v>137</v>
-      </c>
-      <c r="D37" t="s">
-        <v>24</v>
-      </c>
-      <c r="E37" t="s">
-        <v>14</v>
-      </c>
-      <c r="F37" s="4" t="s">
-        <v>138</v>
       </c>
       <c r="G37" s="1" t="s">
         <v>21</v>
@@ -3601,10 +3609,10 @@
         <v>37</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C38" s="21" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D38" t="s">
         <v>24</v>
@@ -3613,7 +3621,7 @@
         <v>14</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G38" s="1" t="s">
         <v>21</v>
@@ -3634,10 +3642,10 @@
         <v>38</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C39" s="21" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D39" t="s">
         <v>24</v>
@@ -3646,19 +3654,19 @@
         <v>14</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="40" spans="1:11" ht="75" x14ac:dyDescent="0.25">
@@ -3666,10 +3674,10 @@
         <v>39</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C40" s="21" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D40" t="s">
         <v>24</v>
@@ -3678,19 +3686,19 @@
         <v>14</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K40" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="41" spans="1:11" ht="165" x14ac:dyDescent="0.25">
@@ -3698,31 +3706,31 @@
         <v>40</v>
       </c>
       <c r="B41" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="C41" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="D41" t="s">
+        <v>24</v>
+      </c>
+      <c r="E41" t="s">
+        <v>14</v>
+      </c>
+      <c r="F41" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="C41" s="21" t="s">
+      <c r="G41" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H41" s="3" t="s">
         <v>146</v>
-      </c>
-      <c r="D41" t="s">
-        <v>24</v>
-      </c>
-      <c r="E41" t="s">
-        <v>14</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="G41" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="H41" s="3" t="s">
-        <v>148</v>
       </c>
       <c r="J41" s="1" t="s">
         <v>16</v>
       </c>
       <c r="K41" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="42" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -3730,10 +3738,10 @@
         <v>41</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C42" s="21" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D42" t="s">
         <v>24</v>
@@ -3742,19 +3750,19 @@
         <v>14</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K42" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="43" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -3762,31 +3770,31 @@
         <v>42</v>
       </c>
       <c r="B43" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C43" s="21" t="s">
+        <v>150</v>
+      </c>
+      <c r="D43" t="s">
+        <v>24</v>
+      </c>
+      <c r="E43" t="s">
+        <v>14</v>
+      </c>
+      <c r="F43" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="C43" s="21" t="s">
+      <c r="G43" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H43" s="3" t="s">
         <v>152</v>
-      </c>
-      <c r="D43" t="s">
-        <v>24</v>
-      </c>
-      <c r="E43" t="s">
-        <v>14</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="G43" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="H43" s="3" t="s">
-        <v>154</v>
       </c>
       <c r="J43" s="1" t="s">
         <v>16</v>
       </c>
       <c r="K43" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="44" spans="1:11" ht="75" x14ac:dyDescent="0.25">
@@ -3794,34 +3802,34 @@
         <v>43</v>
       </c>
       <c r="B44" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C44" s="21" t="s">
+        <v>154</v>
+      </c>
+      <c r="D44" t="s">
+        <v>24</v>
+      </c>
+      <c r="E44" t="s">
+        <v>14</v>
+      </c>
+      <c r="F44" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="C44" s="21" t="s">
+      <c r="G44" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H44" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="D44" t="s">
-        <v>24</v>
-      </c>
-      <c r="E44" t="s">
-        <v>14</v>
-      </c>
-      <c r="F44" s="3" t="s">
+      <c r="I44" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="G44" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="H44" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="I44" s="7" t="s">
-        <v>159</v>
-      </c>
       <c r="J44" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="K44" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="45" spans="1:11" ht="75" x14ac:dyDescent="0.25">
@@ -3829,10 +3837,10 @@
         <v>44</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C45" s="21" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D45" t="s">
         <v>24</v>
@@ -3841,19 +3849,19 @@
         <v>14</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H45" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="J45" s="1" t="s">
         <v>16</v>
       </c>
       <c r="K45" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="46" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -3861,10 +3869,10 @@
         <v>45</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C46" s="21" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D46" t="s">
         <v>24</v>
@@ -3873,19 +3881,19 @@
         <v>14</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K46" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="47" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -3893,31 +3901,31 @@
         <v>46</v>
       </c>
       <c r="B47" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="C47" s="21" t="s">
+        <v>163</v>
+      </c>
+      <c r="D47" t="s">
+        <v>24</v>
+      </c>
+      <c r="E47" t="s">
+        <v>14</v>
+      </c>
+      <c r="F47" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="C47" s="21" t="s">
+      <c r="G47" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H47" s="3" t="s">
         <v>165</v>
-      </c>
-      <c r="D47" t="s">
-        <v>24</v>
-      </c>
-      <c r="E47" t="s">
-        <v>14</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="G47" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>167</v>
       </c>
       <c r="J47" s="1" t="s">
         <v>16</v>
       </c>
       <c r="K47" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="48" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -3925,10 +3933,10 @@
         <v>47</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C48" s="21" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D48" t="s">
         <v>24</v>
@@ -3937,19 +3945,19 @@
         <v>14</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K48" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="49" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -3957,19 +3965,19 @@
         <v>48</v>
       </c>
       <c r="B49" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="C49" s="21" t="s">
+        <v>169</v>
+      </c>
+      <c r="D49" t="s">
+        <v>24</v>
+      </c>
+      <c r="E49" t="s">
+        <v>14</v>
+      </c>
+      <c r="F49" s="3" t="s">
         <v>170</v>
-      </c>
-      <c r="C49" s="21" t="s">
-        <v>171</v>
-      </c>
-      <c r="D49" t="s">
-        <v>24</v>
-      </c>
-      <c r="E49" t="s">
-        <v>14</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>172</v>
       </c>
       <c r="G49" s="1" t="s">
         <v>21</v>
@@ -3989,10 +3997,10 @@
         <v>49</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C50" s="21" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D50" t="s">
         <v>24</v>
@@ -4000,20 +4008,20 @@
       <c r="E50" t="s">
         <v>14</v>
       </c>
-      <c r="F50" s="26" t="s">
-        <v>177</v>
-      </c>
-      <c r="G50" s="27" t="s">
+      <c r="F50" s="24" t="s">
+        <v>175</v>
+      </c>
+      <c r="G50" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="H50" s="27" t="s">
+      <c r="H50" s="25" t="s">
         <v>21</v>
       </c>
       <c r="I50" s="10"/>
-      <c r="J50" s="27" t="s">
+      <c r="J50" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="K50" s="27" t="s">
+      <c r="K50" s="25" t="s">
         <v>17</v>
       </c>
     </row>
@@ -4022,10 +4030,10 @@
         <v>50</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C51" s="21" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D51" t="s">
         <v>24</v>
@@ -4033,21 +4041,21 @@
       <c r="E51" t="s">
         <v>14</v>
       </c>
-      <c r="F51" s="28" t="s">
-        <v>384</v>
-      </c>
-      <c r="G51" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="H51" s="26" t="s">
-        <v>385</v>
+      <c r="F51" s="26" t="s">
+        <v>382</v>
+      </c>
+      <c r="G51" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="H51" s="24" t="s">
+        <v>383</v>
       </c>
       <c r="I51" s="10"/>
-      <c r="J51" s="27" t="s">
+      <c r="J51" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="K51" s="27" t="s">
-        <v>62</v>
+      <c r="K51" s="25" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="52" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -4055,34 +4063,34 @@
         <v>51</v>
       </c>
       <c r="B52" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="C52" s="21" t="s">
+        <v>177</v>
+      </c>
+      <c r="D52" t="s">
+        <v>24</v>
+      </c>
+      <c r="E52" t="s">
+        <v>14</v>
+      </c>
+      <c r="F52" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="C52" s="21" t="s">
+      <c r="G52" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H52" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="D52" t="s">
-        <v>24</v>
-      </c>
-      <c r="E52" t="s">
-        <v>14</v>
-      </c>
-      <c r="F52" s="6" t="s">
+      <c r="I52" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="G52" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="H52" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="I52" s="2" t="s">
-        <v>182</v>
-      </c>
       <c r="J52" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="K52" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="53" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -4090,10 +4098,10 @@
         <v>52</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C53" s="21" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D53" t="s">
         <v>24</v>
@@ -4102,22 +4110,22 @@
         <v>14</v>
       </c>
       <c r="F53" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H53" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="I53" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="G53" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="H53" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="I53" s="2" t="s">
-        <v>182</v>
-      </c>
       <c r="J53" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="K53" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
@@ -4125,19 +4133,19 @@
         <v>53</v>
       </c>
       <c r="B54" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="C54" s="21" t="s">
+        <v>184</v>
+      </c>
+      <c r="D54" t="s">
+        <v>24</v>
+      </c>
+      <c r="E54" t="s">
+        <v>14</v>
+      </c>
+      <c r="F54" s="6" t="s">
         <v>185</v>
-      </c>
-      <c r="C54" s="21" t="s">
-        <v>186</v>
-      </c>
-      <c r="D54" t="s">
-        <v>24</v>
-      </c>
-      <c r="E54" t="s">
-        <v>14</v>
-      </c>
-      <c r="F54" s="6" t="s">
-        <v>187</v>
       </c>
       <c r="G54" s="1" t="s">
         <v>21</v>
@@ -4157,10 +4165,10 @@
         <v>54</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C55" s="21" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D55" t="s">
         <v>24</v>
@@ -4169,19 +4177,19 @@
         <v>14</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K55" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
@@ -4189,10 +4197,10 @@
         <v>55</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C56" s="21" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D56" t="s">
         <v>24</v>
@@ -4201,19 +4209,19 @@
         <v>14</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K56" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
@@ -4221,10 +4229,10 @@
         <v>56</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C57" s="21" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D57" t="s">
         <v>24</v>
@@ -4233,19 +4241,19 @@
         <v>14</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K57" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
@@ -4253,19 +4261,19 @@
         <v>57</v>
       </c>
       <c r="B58" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="C58" s="21" t="s">
+        <v>193</v>
+      </c>
+      <c r="D58" t="s">
+        <v>24</v>
+      </c>
+      <c r="E58" t="s">
+        <v>14</v>
+      </c>
+      <c r="F58" s="4" t="s">
         <v>194</v>
-      </c>
-      <c r="C58" s="21" t="s">
-        <v>195</v>
-      </c>
-      <c r="D58" t="s">
-        <v>24</v>
-      </c>
-      <c r="E58" t="s">
-        <v>14</v>
-      </c>
-      <c r="F58" s="4" t="s">
-        <v>196</v>
       </c>
       <c r="G58" s="1" t="s">
         <v>21</v>
@@ -4285,10 +4293,10 @@
         <v>58</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C59" s="21" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D59" t="s">
         <v>24</v>
@@ -4297,19 +4305,19 @@
         <v>14</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="J59" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K59" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
@@ -4317,10 +4325,10 @@
         <v>59</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C60" s="21" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D60" t="s">
         <v>24</v>
@@ -4329,19 +4337,19 @@
         <v>14</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="J60" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K60" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
@@ -4349,10 +4357,10 @@
         <v>60</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C61" s="21" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D61" t="s">
         <v>24</v>
@@ -4361,19 +4369,19 @@
         <v>14</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K61" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
@@ -4381,10 +4389,10 @@
         <v>61</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C62" s="21" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D62" t="s">
         <v>24</v>
@@ -4393,19 +4401,19 @@
         <v>14</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K62" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
@@ -4413,10 +4421,10 @@
         <v>62</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C63" s="21" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D63" t="s">
         <v>24</v>
@@ -4425,19 +4433,19 @@
         <v>14</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="J63" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K63" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
@@ -4445,10 +4453,10 @@
         <v>63</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C64" s="21" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D64" t="s">
         <v>24</v>
@@ -4457,19 +4465,19 @@
         <v>14</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="J64" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K64" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
@@ -4477,10 +4485,10 @@
         <v>64</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C65" s="21" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D65" t="s">
         <v>24</v>
@@ -4489,19 +4497,19 @@
         <v>14</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="J65" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K65" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="66" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -4509,31 +4517,31 @@
         <v>65</v>
       </c>
       <c r="B66" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="C66" s="21" t="s">
+        <v>210</v>
+      </c>
+      <c r="D66" t="s">
+        <v>24</v>
+      </c>
+      <c r="E66" t="s">
+        <v>14</v>
+      </c>
+      <c r="F66" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="C66" s="21" t="s">
+      <c r="G66" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H66" s="3" t="s">
         <v>212</v>
-      </c>
-      <c r="D66" t="s">
-        <v>24</v>
-      </c>
-      <c r="E66" t="s">
-        <v>14</v>
-      </c>
-      <c r="F66" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="G66" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="H66" s="3" t="s">
-        <v>214</v>
       </c>
       <c r="J66" s="1" t="s">
         <v>16</v>
       </c>
       <c r="K66" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="67" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -4541,19 +4549,19 @@
         <v>66</v>
       </c>
       <c r="B67" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="C67" s="21" t="s">
+        <v>214</v>
+      </c>
+      <c r="D67" t="s">
+        <v>24</v>
+      </c>
+      <c r="E67" t="s">
+        <v>14</v>
+      </c>
+      <c r="F67" s="6" t="s">
         <v>215</v>
-      </c>
-      <c r="C67" s="21" t="s">
-        <v>216</v>
-      </c>
-      <c r="D67" t="s">
-        <v>24</v>
-      </c>
-      <c r="E67" t="s">
-        <v>14</v>
-      </c>
-      <c r="F67" s="6" t="s">
-        <v>217</v>
       </c>
       <c r="G67" s="1" t="s">
         <v>21</v>
@@ -4573,31 +4581,31 @@
         <v>67</v>
       </c>
       <c r="B68" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="C68" s="21" t="s">
+        <v>217</v>
+      </c>
+      <c r="D68" t="s">
+        <v>24</v>
+      </c>
+      <c r="E68" t="s">
+        <v>14</v>
+      </c>
+      <c r="F68" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="C68" s="21" t="s">
+      <c r="G68" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H68" s="3" t="s">
         <v>219</v>
-      </c>
-      <c r="D68" t="s">
-        <v>24</v>
-      </c>
-      <c r="E68" t="s">
-        <v>14</v>
-      </c>
-      <c r="F68" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="G68" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="H68" s="3" t="s">
-        <v>221</v>
       </c>
       <c r="J68" s="1" t="s">
         <v>16</v>
       </c>
       <c r="K68" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="69" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -4605,31 +4613,31 @@
         <v>68</v>
       </c>
       <c r="B69" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="C69" s="21" t="s">
+        <v>221</v>
+      </c>
+      <c r="D69" t="s">
+        <v>24</v>
+      </c>
+      <c r="E69" t="s">
+        <v>14</v>
+      </c>
+      <c r="F69" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="C69" s="21" t="s">
+      <c r="G69" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H69" s="3" t="s">
         <v>223</v>
-      </c>
-      <c r="D69" t="s">
-        <v>24</v>
-      </c>
-      <c r="E69" t="s">
-        <v>14</v>
-      </c>
-      <c r="F69" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="G69" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="H69" s="3" t="s">
-        <v>225</v>
       </c>
       <c r="J69" s="1" t="s">
         <v>16</v>
       </c>
       <c r="K69" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="70" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -4637,10 +4645,10 @@
         <v>69</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C70" s="21" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D70" t="s">
         <v>24</v>
@@ -4649,19 +4657,19 @@
         <v>14</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="J70" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K70" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="71" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -4669,31 +4677,31 @@
         <v>70</v>
       </c>
       <c r="B71" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="C71" s="21" t="s">
+        <v>227</v>
+      </c>
+      <c r="D71" t="s">
+        <v>24</v>
+      </c>
+      <c r="E71" t="s">
+        <v>14</v>
+      </c>
+      <c r="F71" s="7" t="s">
         <v>228</v>
       </c>
-      <c r="C71" s="21" t="s">
+      <c r="G71" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H71" s="3" t="s">
         <v>229</v>
-      </c>
-      <c r="D71" t="s">
-        <v>24</v>
-      </c>
-      <c r="E71" t="s">
-        <v>14</v>
-      </c>
-      <c r="F71" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="G71" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="H71" s="3" t="s">
-        <v>231</v>
       </c>
       <c r="J71" s="1" t="s">
         <v>16</v>
       </c>
       <c r="K71" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="72" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -4701,19 +4709,19 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
+        <v>230</v>
+      </c>
+      <c r="C72" s="21" t="s">
+        <v>231</v>
+      </c>
+      <c r="D72" t="s">
+        <v>24</v>
+      </c>
+      <c r="E72" t="s">
+        <v>14</v>
+      </c>
+      <c r="F72" s="6" t="s">
         <v>232</v>
-      </c>
-      <c r="C72" s="21" t="s">
-        <v>233</v>
-      </c>
-      <c r="D72" t="s">
-        <v>24</v>
-      </c>
-      <c r="E72" t="s">
-        <v>14</v>
-      </c>
-      <c r="F72" s="6" t="s">
-        <v>234</v>
       </c>
       <c r="G72" s="1" t="s">
         <v>21</v>
@@ -4734,10 +4742,10 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C73" s="21" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D73" t="s">
         <v>24</v>
@@ -4746,19 +4754,19 @@
         <v>14</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="J73" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K73" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="74" spans="1:11" ht="150" x14ac:dyDescent="0.25">
@@ -4766,31 +4774,31 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
+        <v>235</v>
+      </c>
+      <c r="C74" s="21" t="s">
+        <v>236</v>
+      </c>
+      <c r="D74" t="s">
+        <v>24</v>
+      </c>
+      <c r="E74" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F74" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="C74" s="21" t="s">
+      <c r="G74" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H74" s="3" t="s">
         <v>238</v>
-      </c>
-      <c r="D74" t="s">
-        <v>24</v>
-      </c>
-      <c r="E74" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F74" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="G74" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="H74" s="3" t="s">
-        <v>240</v>
       </c>
       <c r="J74" s="1" t="s">
         <v>16</v>
       </c>
       <c r="K74" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="75" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -4798,31 +4806,31 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
+        <v>239</v>
+      </c>
+      <c r="C75" s="21" t="s">
+        <v>240</v>
+      </c>
+      <c r="D75" t="s">
+        <v>24</v>
+      </c>
+      <c r="E75" t="s">
+        <v>14</v>
+      </c>
+      <c r="F75" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="C75" s="21" t="s">
+      <c r="G75" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H75" s="3" t="s">
         <v>242</v>
-      </c>
-      <c r="D75" t="s">
-        <v>24</v>
-      </c>
-      <c r="E75" t="s">
-        <v>14</v>
-      </c>
-      <c r="F75" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="G75" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="H75" s="3" t="s">
-        <v>244</v>
       </c>
       <c r="J75" s="1" t="s">
         <v>16</v>
       </c>
       <c r="K75" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="76" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -4830,31 +4838,31 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
+        <v>243</v>
+      </c>
+      <c r="C76" s="21" t="s">
+        <v>244</v>
+      </c>
+      <c r="D76" t="s">
+        <v>24</v>
+      </c>
+      <c r="E76" t="s">
+        <v>14</v>
+      </c>
+      <c r="F76" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="C76" s="21" t="s">
+      <c r="G76" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H76" s="3" t="s">
         <v>246</v>
-      </c>
-      <c r="D76" t="s">
-        <v>24</v>
-      </c>
-      <c r="E76" t="s">
-        <v>14</v>
-      </c>
-      <c r="F76" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="G76" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="H76" s="3" t="s">
-        <v>248</v>
       </c>
       <c r="J76" s="1" t="s">
         <v>16</v>
       </c>
       <c r="K76" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="77" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -4862,31 +4870,31 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
+        <v>247</v>
+      </c>
+      <c r="C77" s="21" t="s">
+        <v>248</v>
+      </c>
+      <c r="D77" t="s">
+        <v>24</v>
+      </c>
+      <c r="E77" t="s">
+        <v>14</v>
+      </c>
+      <c r="F77" s="3" t="s">
         <v>249</v>
       </c>
-      <c r="C77" s="21" t="s">
+      <c r="G77" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H77" s="3" t="s">
         <v>250</v>
-      </c>
-      <c r="D77" t="s">
-        <v>24</v>
-      </c>
-      <c r="E77" t="s">
-        <v>14</v>
-      </c>
-      <c r="F77" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="G77" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="H77" s="3" t="s">
-        <v>252</v>
       </c>
       <c r="J77" s="1" t="s">
         <v>16</v>
       </c>
       <c r="K77" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="78" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -4894,10 +4902,10 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C78" s="21" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D78" t="s">
         <v>24</v>
@@ -4906,19 +4914,19 @@
         <v>14</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="J78" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K78" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="79" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -4926,10 +4934,10 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C79" s="21" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D79" t="s">
         <v>24</v>
@@ -4938,19 +4946,19 @@
         <v>14</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="J79" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K79" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="80" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -4958,10 +4966,10 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C80" s="21" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D80" t="s">
         <v>24</v>
@@ -4970,19 +4978,19 @@
         <v>14</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H80" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="J80" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K80" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="81" spans="1:11" ht="75" x14ac:dyDescent="0.25">
@@ -4990,31 +4998,31 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
+        <v>257</v>
+      </c>
+      <c r="C81" s="21" t="s">
+        <v>258</v>
+      </c>
+      <c r="D81" t="s">
+        <v>24</v>
+      </c>
+      <c r="E81" t="s">
+        <v>14</v>
+      </c>
+      <c r="F81" s="3" t="s">
         <v>259</v>
       </c>
-      <c r="C81" s="21" t="s">
+      <c r="G81" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H81" s="3" t="s">
         <v>260</v>
-      </c>
-      <c r="D81" t="s">
-        <v>24</v>
-      </c>
-      <c r="E81" t="s">
-        <v>14</v>
-      </c>
-      <c r="F81" s="3" t="s">
-        <v>261</v>
-      </c>
-      <c r="G81" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="H81" s="3" t="s">
-        <v>262</v>
       </c>
       <c r="J81" s="1" t="s">
         <v>16</v>
       </c>
       <c r="K81" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="82" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -5022,10 +5030,10 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C82" s="21" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D82" t="s">
         <v>24</v>
@@ -5034,19 +5042,19 @@
         <v>14</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="J82" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K82" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="83" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -5054,31 +5062,31 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
+        <v>263</v>
+      </c>
+      <c r="C83" s="21" t="s">
+        <v>264</v>
+      </c>
+      <c r="D83" t="s">
+        <v>24</v>
+      </c>
+      <c r="E83" t="s">
+        <v>14</v>
+      </c>
+      <c r="F83" s="3" t="s">
         <v>265</v>
       </c>
-      <c r="C83" s="21" t="s">
+      <c r="G83" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H83" s="3" t="s">
         <v>266</v>
-      </c>
-      <c r="D83" t="s">
-        <v>24</v>
-      </c>
-      <c r="E83" t="s">
-        <v>14</v>
-      </c>
-      <c r="F83" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="G83" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="H83" s="3" t="s">
-        <v>268</v>
       </c>
       <c r="J83" s="1" t="s">
         <v>16</v>
       </c>
       <c r="K83" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="84" spans="1:11" ht="90" x14ac:dyDescent="0.25">
@@ -5086,19 +5094,19 @@
         <v>83</v>
       </c>
       <c r="B84" s="8" t="s">
+        <v>267</v>
+      </c>
+      <c r="C84" s="21" t="s">
+        <v>268</v>
+      </c>
+      <c r="D84" t="s">
+        <v>24</v>
+      </c>
+      <c r="E84" t="s">
+        <v>14</v>
+      </c>
+      <c r="F84" s="4" t="s">
         <v>269</v>
-      </c>
-      <c r="C84" s="21" t="s">
-        <v>270</v>
-      </c>
-      <c r="D84" t="s">
-        <v>24</v>
-      </c>
-      <c r="E84" t="s">
-        <v>14</v>
-      </c>
-      <c r="F84" s="4" t="s">
-        <v>271</v>
       </c>
       <c r="G84" s="1" t="s">
         <v>21</v>
@@ -5118,19 +5126,19 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
+        <v>270</v>
+      </c>
+      <c r="C85" s="21" t="s">
+        <v>271</v>
+      </c>
+      <c r="D85" t="s">
+        <v>24</v>
+      </c>
+      <c r="E85" t="s">
+        <v>14</v>
+      </c>
+      <c r="F85" s="4" t="s">
         <v>272</v>
-      </c>
-      <c r="C85" s="21" t="s">
-        <v>273</v>
-      </c>
-      <c r="D85" t="s">
-        <v>24</v>
-      </c>
-      <c r="E85" t="s">
-        <v>14</v>
-      </c>
-      <c r="F85" s="4" t="s">
-        <v>274</v>
       </c>
       <c r="G85" s="1" t="s">
         <v>21</v>
@@ -5150,19 +5158,19 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
+        <v>273</v>
+      </c>
+      <c r="C86" s="21" t="s">
+        <v>274</v>
+      </c>
+      <c r="D86" t="s">
+        <v>24</v>
+      </c>
+      <c r="E86" t="s">
+        <v>14</v>
+      </c>
+      <c r="F86" s="4" t="s">
         <v>275</v>
-      </c>
-      <c r="C86" s="21" t="s">
-        <v>276</v>
-      </c>
-      <c r="D86" t="s">
-        <v>24</v>
-      </c>
-      <c r="E86" t="s">
-        <v>14</v>
-      </c>
-      <c r="F86" s="4" t="s">
-        <v>277</v>
       </c>
       <c r="G86" s="1" t="s">
         <v>21</v>
@@ -5183,10 +5191,10 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C87" s="21" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D87" t="s">
         <v>24</v>
@@ -5195,19 +5203,19 @@
         <v>14</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H87" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="J87" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K87" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
@@ -5215,10 +5223,10 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C88" s="21" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D88" t="s">
         <v>24</v>
@@ -5227,19 +5235,19 @@
         <v>14</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H88" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="J88" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K88" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="89" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -5247,10 +5255,10 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C89" s="21" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D89" t="s">
         <v>24</v>
@@ -5259,19 +5267,19 @@
         <v>14</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H89" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="J89" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K89" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="90" spans="1:11" ht="75" x14ac:dyDescent="0.25">
@@ -5279,31 +5287,31 @@
         <v>89</v>
       </c>
       <c r="B90" t="s">
+        <v>282</v>
+      </c>
+      <c r="C90" s="21" t="s">
+        <v>283</v>
+      </c>
+      <c r="D90" t="s">
+        <v>24</v>
+      </c>
+      <c r="E90" t="s">
+        <v>14</v>
+      </c>
+      <c r="F90" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="C90" s="21" t="s">
+      <c r="G90" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H90" s="3" t="s">
         <v>285</v>
-      </c>
-      <c r="D90" t="s">
-        <v>24</v>
-      </c>
-      <c r="E90" t="s">
-        <v>14</v>
-      </c>
-      <c r="F90" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="G90" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="H90" s="3" t="s">
-        <v>287</v>
       </c>
       <c r="J90" s="1" t="s">
         <v>16</v>
       </c>
       <c r="K90" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="91" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -5311,31 +5319,31 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
+        <v>286</v>
+      </c>
+      <c r="C91" s="21" t="s">
+        <v>287</v>
+      </c>
+      <c r="D91" t="s">
+        <v>24</v>
+      </c>
+      <c r="E91" t="s">
+        <v>14</v>
+      </c>
+      <c r="F91" s="3" t="s">
         <v>288</v>
       </c>
-      <c r="C91" s="21" t="s">
+      <c r="G91" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H91" s="3" t="s">
         <v>289</v>
-      </c>
-      <c r="D91" t="s">
-        <v>24</v>
-      </c>
-      <c r="E91" t="s">
-        <v>14</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>290</v>
-      </c>
-      <c r="G91" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>291</v>
       </c>
       <c r="J91" s="1" t="s">
         <v>16</v>
       </c>
       <c r="K91" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="92" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -5343,19 +5351,19 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
+        <v>290</v>
+      </c>
+      <c r="C92" s="21" t="s">
+        <v>291</v>
+      </c>
+      <c r="D92" t="s">
+        <v>24</v>
+      </c>
+      <c r="E92" t="s">
+        <v>14</v>
+      </c>
+      <c r="F92" s="4" t="s">
         <v>292</v>
-      </c>
-      <c r="C92" s="21" t="s">
-        <v>293</v>
-      </c>
-      <c r="D92" t="s">
-        <v>24</v>
-      </c>
-      <c r="E92" t="s">
-        <v>14</v>
-      </c>
-      <c r="F92" s="4" t="s">
-        <v>294</v>
       </c>
       <c r="G92" s="1" t="s">
         <v>21</v>
@@ -5375,31 +5383,31 @@
         <v>92</v>
       </c>
       <c r="B93" t="s">
+        <v>293</v>
+      </c>
+      <c r="C93" s="21" t="s">
+        <v>294</v>
+      </c>
+      <c r="D93" t="s">
+        <v>24</v>
+      </c>
+      <c r="E93" t="s">
+        <v>14</v>
+      </c>
+      <c r="F93" s="3" t="s">
         <v>295</v>
       </c>
-      <c r="C93" s="21" t="s">
+      <c r="G93" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H93" s="3" t="s">
         <v>296</v>
-      </c>
-      <c r="D93" t="s">
-        <v>24</v>
-      </c>
-      <c r="E93" t="s">
-        <v>14</v>
-      </c>
-      <c r="F93" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="G93" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="H93" s="3" t="s">
-        <v>298</v>
       </c>
       <c r="J93" s="1" t="s">
         <v>16</v>
       </c>
       <c r="K93" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="94" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -5407,31 +5415,31 @@
         <v>93</v>
       </c>
       <c r="B94" t="s">
+        <v>297</v>
+      </c>
+      <c r="C94" s="21" t="s">
+        <v>298</v>
+      </c>
+      <c r="D94" t="s">
+        <v>24</v>
+      </c>
+      <c r="E94" t="s">
+        <v>14</v>
+      </c>
+      <c r="F94" s="3" t="s">
         <v>299</v>
       </c>
-      <c r="C94" s="21" t="s">
+      <c r="G94" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H94" s="3" t="s">
         <v>300</v>
-      </c>
-      <c r="D94" t="s">
-        <v>24</v>
-      </c>
-      <c r="E94" t="s">
-        <v>14</v>
-      </c>
-      <c r="F94" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="G94" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="H94" s="3" t="s">
-        <v>302</v>
       </c>
       <c r="J94" s="1" t="s">
         <v>16</v>
       </c>
       <c r="K94" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="95" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -5439,31 +5447,31 @@
         <v>94</v>
       </c>
       <c r="B95" t="s">
+        <v>301</v>
+      </c>
+      <c r="C95" s="21" t="s">
+        <v>302</v>
+      </c>
+      <c r="D95" t="s">
+        <v>24</v>
+      </c>
+      <c r="E95" t="s">
+        <v>14</v>
+      </c>
+      <c r="F95" s="3" t="s">
         <v>303</v>
       </c>
-      <c r="C95" s="21" t="s">
+      <c r="G95" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="H95" s="3" t="s">
         <v>304</v>
-      </c>
-      <c r="D95" t="s">
-        <v>24</v>
-      </c>
-      <c r="E95" t="s">
-        <v>14</v>
-      </c>
-      <c r="F95" s="3" t="s">
-        <v>305</v>
-      </c>
-      <c r="G95" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="H95" s="3" t="s">
-        <v>306</v>
       </c>
       <c r="J95" s="1" t="s">
         <v>16</v>
       </c>
       <c r="K95" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="96" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -5471,19 +5479,19 @@
         <v>95</v>
       </c>
       <c r="B96" t="s">
+        <v>305</v>
+      </c>
+      <c r="C96" s="21" t="s">
+        <v>306</v>
+      </c>
+      <c r="D96" t="s">
+        <v>24</v>
+      </c>
+      <c r="E96" t="s">
+        <v>14</v>
+      </c>
+      <c r="F96" s="4" t="s">
         <v>307</v>
-      </c>
-      <c r="C96" s="21" t="s">
-        <v>308</v>
-      </c>
-      <c r="D96" t="s">
-        <v>24</v>
-      </c>
-      <c r="E96" t="s">
-        <v>14</v>
-      </c>
-      <c r="F96" s="4" t="s">
-        <v>309</v>
       </c>
       <c r="G96" s="1" t="s">
         <v>21</v>
@@ -5492,13 +5500,13 @@
         <v>21</v>
       </c>
       <c r="I96" s="7" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="J96" s="17" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="K96" s="17" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
@@ -5506,10 +5514,10 @@
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C97" s="21" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D97" t="s">
         <v>24</v>
@@ -5518,19 +5526,19 @@
         <v>14</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H97" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="J97" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K97" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
@@ -5538,10 +5546,10 @@
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C98" s="21" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D98" t="s">
         <v>24</v>
@@ -5550,7 +5558,7 @@
         <v>14</v>
       </c>
       <c r="F98" s="4" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="G98" s="1" t="s">
         <v>21</v>
@@ -5570,10 +5578,10 @@
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C99" s="21" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="D99" t="s">
         <v>24</v>
@@ -5582,19 +5590,19 @@
         <v>14</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H99" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="J99" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K99" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="100" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -5602,10 +5610,10 @@
         <v>99</v>
       </c>
       <c r="B100" s="8" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C100" s="21" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="D100" t="s">
         <v>24</v>
@@ -5614,19 +5622,19 @@
         <v>14</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H100" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="J100" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K100" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="101" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -5634,19 +5642,19 @@
         <v>100</v>
       </c>
       <c r="B101" t="s">
+        <v>318</v>
+      </c>
+      <c r="C101" s="21" t="s">
+        <v>319</v>
+      </c>
+      <c r="D101" t="s">
+        <v>24</v>
+      </c>
+      <c r="E101" t="s">
+        <v>14</v>
+      </c>
+      <c r="F101" s="6" t="s">
         <v>320</v>
-      </c>
-      <c r="C101" s="21" t="s">
-        <v>321</v>
-      </c>
-      <c r="D101" t="s">
-        <v>24</v>
-      </c>
-      <c r="E101" t="s">
-        <v>14</v>
-      </c>
-      <c r="F101" s="6" t="s">
-        <v>322</v>
       </c>
       <c r="G101" s="1" t="s">
         <v>21</v>
@@ -5666,19 +5674,19 @@
         <v>101</v>
       </c>
       <c r="B102" s="13" t="s">
+        <v>321</v>
+      </c>
+      <c r="C102" s="23" t="s">
+        <v>322</v>
+      </c>
+      <c r="D102" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E102" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="F102" s="1" t="s">
         <v>323</v>
-      </c>
-      <c r="C102" s="25" t="s">
-        <v>324</v>
-      </c>
-      <c r="D102" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="E102" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="F102" s="1" t="s">
-        <v>325</v>
       </c>
       <c r="G102" s="1" t="s">
         <v>21</v>
@@ -5699,19 +5707,19 @@
         <v>102</v>
       </c>
       <c r="B103" t="s">
+        <v>324</v>
+      </c>
+      <c r="C103" s="21" t="s">
+        <v>325</v>
+      </c>
+      <c r="D103" t="s">
+        <v>24</v>
+      </c>
+      <c r="E103" t="s">
+        <v>14</v>
+      </c>
+      <c r="F103" s="4" t="s">
         <v>326</v>
-      </c>
-      <c r="C103" s="21" t="s">
-        <v>327</v>
-      </c>
-      <c r="D103" t="s">
-        <v>24</v>
-      </c>
-      <c r="E103" t="s">
-        <v>14</v>
-      </c>
-      <c r="F103" s="4" t="s">
-        <v>328</v>
       </c>
       <c r="G103" s="1" t="s">
         <v>21</v>
@@ -5731,10 +5739,10 @@
         <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C104" s="21" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="D104" t="s">
         <v>24</v>
@@ -5743,19 +5751,19 @@
         <v>14</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H104" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="J104" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K104" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="105" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -5763,19 +5771,19 @@
         <v>104</v>
       </c>
       <c r="B105" t="s">
+        <v>329</v>
+      </c>
+      <c r="C105" s="21" t="s">
+        <v>330</v>
+      </c>
+      <c r="D105" t="s">
+        <v>24</v>
+      </c>
+      <c r="E105" t="s">
+        <v>14</v>
+      </c>
+      <c r="F105" s="4" t="s">
         <v>331</v>
-      </c>
-      <c r="C105" s="21" t="s">
-        <v>332</v>
-      </c>
-      <c r="D105" t="s">
-        <v>24</v>
-      </c>
-      <c r="E105" t="s">
-        <v>14</v>
-      </c>
-      <c r="F105" s="4" t="s">
-        <v>333</v>
       </c>
       <c r="G105" s="1" t="s">
         <v>21</v>
@@ -5795,10 +5803,10 @@
         <v>105</v>
       </c>
       <c r="B106" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C106" s="21" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D106" t="s">
         <v>24</v>
@@ -5807,19 +5815,19 @@
         <v>14</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H106" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="J106" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K106" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.25">
@@ -5827,10 +5835,10 @@
         <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C107" s="21" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="D107" t="s">
         <v>24</v>
@@ -5839,19 +5847,19 @@
         <v>14</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H107" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="J107" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K107" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.25">
@@ -5859,19 +5867,19 @@
         <v>107</v>
       </c>
       <c r="B108" t="s">
+        <v>336</v>
+      </c>
+      <c r="C108" s="21" t="s">
+        <v>337</v>
+      </c>
+      <c r="D108" t="s">
+        <v>24</v>
+      </c>
+      <c r="E108" t="s">
+        <v>14</v>
+      </c>
+      <c r="F108" s="4" t="s">
         <v>338</v>
-      </c>
-      <c r="C108" s="21" t="s">
-        <v>339</v>
-      </c>
-      <c r="D108" t="s">
-        <v>24</v>
-      </c>
-      <c r="E108" t="s">
-        <v>14</v>
-      </c>
-      <c r="F108" s="4" t="s">
-        <v>340</v>
       </c>
       <c r="G108" s="1" t="s">
         <v>21</v>
@@ -5891,31 +5899,31 @@
         <v>108</v>
       </c>
       <c r="B109" t="s">
+        <v>339</v>
+      </c>
+      <c r="C109" s="21" t="s">
+        <v>340</v>
+      </c>
+      <c r="D109" t="s">
+        <v>24</v>
+      </c>
+      <c r="E109" t="s">
+        <v>14</v>
+      </c>
+      <c r="F109" s="3" t="s">
         <v>341</v>
       </c>
-      <c r="C109" s="21" t="s">
+      <c r="G109" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H109" s="3" t="s">
         <v>342</v>
-      </c>
-      <c r="D109" t="s">
-        <v>24</v>
-      </c>
-      <c r="E109" t="s">
-        <v>14</v>
-      </c>
-      <c r="F109" s="3" t="s">
-        <v>343</v>
-      </c>
-      <c r="G109" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="H109" s="3" t="s">
-        <v>344</v>
       </c>
       <c r="J109" s="1" t="s">
         <v>16</v>
       </c>
       <c r="K109" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="110" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -5923,10 +5931,10 @@
         <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C110" s="21" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="D110" t="s">
         <v>24</v>
@@ -5935,19 +5943,19 @@
         <v>14</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G110" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H110" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="J110" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K110" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.25">
@@ -5955,10 +5963,10 @@
         <v>110</v>
       </c>
       <c r="B111" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C111" s="21" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="D111" t="s">
         <v>24</v>
@@ -5967,19 +5975,19 @@
         <v>14</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G111" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H111" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="J111" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K111" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="112" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -5987,10 +5995,10 @@
         <v>111</v>
       </c>
       <c r="B112" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C112" s="21" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="D112" t="s">
         <v>24</v>
@@ -5999,19 +6007,19 @@
         <v>14</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G112" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H112" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="J112" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K112" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.25">
@@ -6019,10 +6027,10 @@
         <v>112</v>
       </c>
       <c r="B113" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C113" s="21" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="D113" t="s">
         <v>24</v>
@@ -6031,19 +6039,19 @@
         <v>14</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G113" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H113" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="J113" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K113" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.25">
@@ -6051,10 +6059,10 @@
         <v>113</v>
       </c>
       <c r="B114" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C114" s="21" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="D114" t="s">
         <v>24</v>
@@ -6063,19 +6071,19 @@
         <v>14</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G114" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H114" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="J114" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K114" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="115" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -6083,10 +6091,10 @@
         <v>114</v>
       </c>
       <c r="B115" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C115" s="21" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D115" t="s">
         <v>24</v>
@@ -6095,19 +6103,19 @@
         <v>14</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G115" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H115" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="J115" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K115" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.25">
@@ -6115,10 +6123,10 @@
         <v>115</v>
       </c>
       <c r="B116" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="C116" s="21" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="D116" t="s">
         <v>24</v>
@@ -6127,19 +6135,19 @@
         <v>14</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G116" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H116" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="J116" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K116" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="117" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -6147,10 +6155,10 @@
         <v>116</v>
       </c>
       <c r="B117" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="C117" s="21" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="D117" t="s">
         <v>24</v>
@@ -6159,19 +6167,19 @@
         <v>14</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G117" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H117" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="J117" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K117" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.25">
@@ -6179,10 +6187,10 @@
         <v>117</v>
       </c>
       <c r="B118" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C118" s="21" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="D118" t="s">
         <v>24</v>
@@ -6191,19 +6199,19 @@
         <v>14</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G118" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H118" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="J118" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K118" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="119" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -6211,10 +6219,10 @@
         <v>118</v>
       </c>
       <c r="B119" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C119" s="21" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="D119" t="s">
         <v>24</v>
@@ -6223,19 +6231,19 @@
         <v>14</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G119" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H119" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="J119" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K119" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.25">
@@ -6243,10 +6251,10 @@
         <v>119</v>
       </c>
       <c r="B120" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C120" s="21" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="D120" t="s">
         <v>24</v>
@@ -6255,19 +6263,19 @@
         <v>14</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G120" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H120" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="J120" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K120" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="121" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -6275,10 +6283,10 @@
         <v>120</v>
       </c>
       <c r="B121" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C121" s="21" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="D121" t="s">
         <v>24</v>
@@ -6287,19 +6295,19 @@
         <v>14</v>
       </c>
       <c r="F121" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G121" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H121" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="J121" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K121" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.25">
@@ -6307,10 +6315,10 @@
         <v>121</v>
       </c>
       <c r="B122" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="C122" s="21" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="D122" t="s">
         <v>24</v>
@@ -6319,19 +6327,19 @@
         <v>14</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G122" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H122" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="J122" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K122" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="123" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -6339,10 +6347,10 @@
         <v>122</v>
       </c>
       <c r="B123" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C123" s="21" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="D123" t="s">
         <v>24</v>
@@ -6351,19 +6359,19 @@
         <v>14</v>
       </c>
       <c r="F123" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G123" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H123" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="J123" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K123" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.25">
@@ -6371,10 +6379,10 @@
         <v>123</v>
       </c>
       <c r="B124" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="C124" s="21" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D124" t="s">
         <v>24</v>
@@ -6383,19 +6391,19 @@
         <v>14</v>
       </c>
       <c r="F124" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G124" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H124" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="J124" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K124" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="125" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -6403,10 +6411,10 @@
         <v>124</v>
       </c>
       <c r="B125" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C125" s="21" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="D125" t="s">
         <v>24</v>
@@ -6415,19 +6423,19 @@
         <v>14</v>
       </c>
       <c r="F125" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G125" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H125" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="J125" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K125" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="126" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -6435,10 +6443,10 @@
         <v>125</v>
       </c>
       <c r="B126" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C126" s="21" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="D126" t="s">
         <v>24</v>
@@ -6447,19 +6455,19 @@
         <v>14</v>
       </c>
       <c r="F126" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G126" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H126" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="J126" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K126" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="127" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -6467,19 +6475,19 @@
         <v>126</v>
       </c>
       <c r="B127" t="s">
+        <v>377</v>
+      </c>
+      <c r="C127" s="21" t="s">
+        <v>378</v>
+      </c>
+      <c r="D127" t="s">
+        <v>24</v>
+      </c>
+      <c r="E127" t="s">
+        <v>14</v>
+      </c>
+      <c r="F127" s="4" t="s">
         <v>379</v>
-      </c>
-      <c r="C127" s="21" t="s">
-        <v>380</v>
-      </c>
-      <c r="D127" t="s">
-        <v>24</v>
-      </c>
-      <c r="E127" t="s">
-        <v>14</v>
-      </c>
-      <c r="F127" s="4" t="s">
-        <v>381</v>
       </c>
       <c r="G127" s="1" t="s">
         <v>21</v>
@@ -6496,10 +6504,10 @@
         <v>127</v>
       </c>
       <c r="B128" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="C128" s="21" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="D128" t="s">
         <v>24</v>
@@ -6508,20 +6516,58 @@
         <v>14</v>
       </c>
       <c r="F128" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G128" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H128" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="J128" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K128" s="1" t="s">
-        <v>40</v>
-      </c>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>128</v>
+      </c>
+      <c r="B129" t="s">
+        <v>384</v>
+      </c>
+      <c r="C129" t="s">
+        <v>385</v>
+      </c>
+      <c r="D129" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="E129" t="s">
+        <v>14</v>
+      </c>
+      <c r="F129" s="27" t="s">
+        <v>386</v>
+      </c>
+      <c r="G129" s="4" t="s">
+        <v>387</v>
+      </c>
+      <c r="H129">
+        <v>1</v>
+      </c>
+      <c r="I129" s="29" t="s">
+        <v>388</v>
+      </c>
+      <c r="J129" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="K129" s="28" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D130" s="30"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -6534,6 +6580,27 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Zeit xmlns="b63cdcf7-47fa-43f6-87e5-23b415b5c413" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="b63cdcf7-47fa-43f6-87e5-23b415b5c413">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="12535b08-222e-45d2-b6db-15019f1afee6" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100B1DC67C611DD5E4D81775F9F3E26A7B2" ma:contentTypeVersion="16" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="7f379a5812b480a74f9d031be5f88a83">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b63cdcf7-47fa-43f6-87e5-23b415b5c413" xmlns:ns3="12535b08-222e-45d2-b6db-15019f1afee6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="dbce1e37d7de67e1c835013ca0ee7a7c" ns2:_="" ns3:_="">
     <xsd:import namespace="b63cdcf7-47fa-43f6-87e5-23b415b5c413"/>
@@ -6774,28 +6841,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Zeit xmlns="b63cdcf7-47fa-43f6-87e5-23b415b5c413" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="b63cdcf7-47fa-43f6-87e5-23b415b5c413">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="12535b08-222e-45d2-b6db-15019f1afee6" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FBFC15CC-4CA5-447A-915F-1412CED97222}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="b63cdcf7-47fa-43f6-87e5-23b415b5c413"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="12535b08-222e-45d2-b6db-15019f1afee6"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E89B3EC5-962B-41D9-9821-3A191D2434CD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{945A6BE8-5273-4FBB-A417-535A6E60D478}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6812,29 +6883,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FBFC15CC-4CA5-447A-915F-1412CED97222}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="b63cdcf7-47fa-43f6-87e5-23b415b5c413"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="12535b08-222e-45d2-b6db-15019f1afee6"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E89B3EC5-962B-41D9-9821-3A191D2434CD}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/rmonize/data_proc_elem/DPE_GINI_P1.xlsx
+++ b/rmonize/data_proc_elem/DPE_GINI_P1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Projekte\NFDI4Health\TA5\Pilotprojekte\Harmonisierung\HarmonizR\use-cases-harmonisation\rmonize\data_proc_elem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="14_{85C256F3-5FC3-41A9-9720-7A0E43545612}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDF5B1BC-B852-45B4-AC2E-96FD6C5B0F1D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -481,10 +481,6 @@
     <t>Intake of cheese curd, quark and cottage [g/d]</t>
   </si>
   <si>
-    <t xml:space="preserve">FFQQUARK_15
-</t>
-  </si>
-  <si>
     <t>CHEESE_0505</t>
   </si>
   <si>
@@ -1408,6 +1404,9 @@
   </si>
   <si>
     <t>compatible, because it is integer and we want decimal</t>
+  </si>
+  <si>
+    <t>FFQQUARK_15</t>
   </si>
 </sst>
 </file>
@@ -2380,9 +2379,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K130"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A116" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B129" sqref="B129:K129"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2524,7 +2523,7 @@
         <v>21</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="J4" s="13" t="s">
         <v>16</v>
@@ -3490,7 +3489,7 @@
         <v>14</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>126</v>
+        <v>389</v>
       </c>
       <c r="G34" s="1" t="s">
         <v>21</v>
@@ -3510,25 +3509,25 @@
         <v>34</v>
       </c>
       <c r="B35" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C35" s="21" t="s">
         <v>127</v>
       </c>
-      <c r="C35" s="21" t="s">
+      <c r="D35" t="s">
+        <v>24</v>
+      </c>
+      <c r="E35" t="s">
+        <v>14</v>
+      </c>
+      <c r="F35" s="3" t="s">
         <v>128</v>
-      </c>
-      <c r="D35" t="s">
-        <v>24</v>
-      </c>
-      <c r="E35" t="s">
-        <v>14</v>
-      </c>
-      <c r="F35" s="3" t="s">
-        <v>129</v>
       </c>
       <c r="G35" s="1" t="s">
         <v>54</v>
       </c>
       <c r="H35" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I35" s="1"/>
       <c r="J35" s="1" t="s">
@@ -3543,19 +3542,19 @@
         <v>35</v>
       </c>
       <c r="B36" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C36" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="C36" s="21" t="s">
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36" t="s">
+        <v>14</v>
+      </c>
+      <c r="F36" s="4" t="s">
         <v>132</v>
-      </c>
-      <c r="D36" t="s">
-        <v>24</v>
-      </c>
-      <c r="E36" t="s">
-        <v>14</v>
-      </c>
-      <c r="F36" s="4" t="s">
-        <v>133</v>
       </c>
       <c r="G36" s="1" t="s">
         <v>21</v>
@@ -3576,19 +3575,19 @@
         <v>36</v>
       </c>
       <c r="B37" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="C37" s="21" t="s">
         <v>134</v>
       </c>
-      <c r="C37" s="21" t="s">
+      <c r="D37" t="s">
+        <v>24</v>
+      </c>
+      <c r="E37" t="s">
+        <v>14</v>
+      </c>
+      <c r="F37" s="4" t="s">
         <v>135</v>
-      </c>
-      <c r="D37" t="s">
-        <v>24</v>
-      </c>
-      <c r="E37" t="s">
-        <v>14</v>
-      </c>
-      <c r="F37" s="4" t="s">
-        <v>136</v>
       </c>
       <c r="G37" s="1" t="s">
         <v>21</v>
@@ -3609,11 +3608,11 @@
         <v>37</v>
       </c>
       <c r="B38" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C38" s="21" t="s">
         <v>137</v>
       </c>
-      <c r="C38" s="21" t="s">
-        <v>138</v>
-      </c>
       <c r="D38" t="s">
         <v>24</v>
       </c>
@@ -3621,7 +3620,7 @@
         <v>14</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G38" s="1" t="s">
         <v>21</v>
@@ -3642,10 +3641,10 @@
         <v>38</v>
       </c>
       <c r="B39" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="C39" s="21" t="s">
         <v>139</v>
-      </c>
-      <c r="C39" s="21" t="s">
-        <v>140</v>
       </c>
       <c r="D39" t="s">
         <v>24</v>
@@ -3674,10 +3673,10 @@
         <v>39</v>
       </c>
       <c r="B40" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C40" s="21" t="s">
         <v>141</v>
-      </c>
-      <c r="C40" s="21" t="s">
-        <v>142</v>
       </c>
       <c r="D40" t="s">
         <v>24</v>
@@ -3706,25 +3705,25 @@
         <v>40</v>
       </c>
       <c r="B41" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="C41" s="21" t="s">
         <v>143</v>
       </c>
-      <c r="C41" s="21" t="s">
+      <c r="D41" t="s">
+        <v>24</v>
+      </c>
+      <c r="E41" t="s">
+        <v>14</v>
+      </c>
+      <c r="F41" s="3" t="s">
         <v>144</v>
-      </c>
-      <c r="D41" t="s">
-        <v>24</v>
-      </c>
-      <c r="E41" t="s">
-        <v>14</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>145</v>
       </c>
       <c r="G41" s="1" t="s">
         <v>54</v>
       </c>
       <c r="H41" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="J41" s="1" t="s">
         <v>16</v>
@@ -3738,10 +3737,10 @@
         <v>41</v>
       </c>
       <c r="B42" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C42" s="21" t="s">
         <v>147</v>
-      </c>
-      <c r="C42" s="21" t="s">
-        <v>148</v>
       </c>
       <c r="D42" t="s">
         <v>24</v>
@@ -3770,25 +3769,25 @@
         <v>42</v>
       </c>
       <c r="B43" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="C43" s="21" t="s">
         <v>149</v>
       </c>
-      <c r="C43" s="21" t="s">
+      <c r="D43" t="s">
+        <v>24</v>
+      </c>
+      <c r="E43" t="s">
+        <v>14</v>
+      </c>
+      <c r="F43" s="3" t="s">
         <v>150</v>
-      </c>
-      <c r="D43" t="s">
-        <v>24</v>
-      </c>
-      <c r="E43" t="s">
-        <v>14</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>151</v>
       </c>
       <c r="G43" s="1" t="s">
         <v>54</v>
       </c>
       <c r="H43" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J43" s="1" t="s">
         <v>16</v>
@@ -3802,28 +3801,28 @@
         <v>43</v>
       </c>
       <c r="B44" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="C44" s="21" t="s">
         <v>153</v>
       </c>
-      <c r="C44" s="21" t="s">
+      <c r="D44" t="s">
+        <v>24</v>
+      </c>
+      <c r="E44" t="s">
+        <v>14</v>
+      </c>
+      <c r="F44" s="3" t="s">
         <v>154</v>
-      </c>
-      <c r="D44" t="s">
-        <v>24</v>
-      </c>
-      <c r="E44" t="s">
-        <v>14</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>155</v>
       </c>
       <c r="G44" s="1" t="s">
         <v>54</v>
       </c>
       <c r="H44" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="I44" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="I44" s="7" t="s">
-        <v>157</v>
       </c>
       <c r="J44" s="1" t="s">
         <v>33</v>
@@ -3837,11 +3836,11 @@
         <v>44</v>
       </c>
       <c r="B45" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="C45" s="21" t="s">
         <v>158</v>
       </c>
-      <c r="C45" s="21" t="s">
-        <v>159</v>
-      </c>
       <c r="D45" t="s">
         <v>24</v>
       </c>
@@ -3849,13 +3848,13 @@
         <v>14</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G45" s="1" t="s">
         <v>54</v>
       </c>
       <c r="H45" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J45" s="1" t="s">
         <v>16</v>
@@ -3869,10 +3868,10 @@
         <v>45</v>
       </c>
       <c r="B46" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="C46" s="21" t="s">
         <v>160</v>
-      </c>
-      <c r="C46" s="21" t="s">
-        <v>161</v>
       </c>
       <c r="D46" t="s">
         <v>24</v>
@@ -3901,25 +3900,25 @@
         <v>46</v>
       </c>
       <c r="B47" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C47" s="21" t="s">
         <v>162</v>
       </c>
-      <c r="C47" s="21" t="s">
+      <c r="D47" t="s">
+        <v>24</v>
+      </c>
+      <c r="E47" t="s">
+        <v>14</v>
+      </c>
+      <c r="F47" s="3" t="s">
         <v>163</v>
-      </c>
-      <c r="D47" t="s">
-        <v>24</v>
-      </c>
-      <c r="E47" t="s">
-        <v>14</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>164</v>
       </c>
       <c r="G47" s="1" t="s">
         <v>54</v>
       </c>
       <c r="H47" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="J47" s="1" t="s">
         <v>16</v>
@@ -3933,10 +3932,10 @@
         <v>47</v>
       </c>
       <c r="B48" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="C48" s="21" t="s">
         <v>166</v>
-      </c>
-      <c r="C48" s="21" t="s">
-        <v>167</v>
       </c>
       <c r="D48" t="s">
         <v>24</v>
@@ -3965,19 +3964,19 @@
         <v>48</v>
       </c>
       <c r="B49" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="C49" s="21" t="s">
         <v>168</v>
       </c>
-      <c r="C49" s="21" t="s">
+      <c r="D49" t="s">
+        <v>24</v>
+      </c>
+      <c r="E49" t="s">
+        <v>14</v>
+      </c>
+      <c r="F49" s="3" t="s">
         <v>169</v>
-      </c>
-      <c r="D49" t="s">
-        <v>24</v>
-      </c>
-      <c r="E49" t="s">
-        <v>14</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>170</v>
       </c>
       <c r="G49" s="1" t="s">
         <v>21</v>
@@ -3997,11 +3996,11 @@
         <v>49</v>
       </c>
       <c r="B50" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="C50" s="21" t="s">
         <v>171</v>
       </c>
-      <c r="C50" s="21" t="s">
-        <v>172</v>
-      </c>
       <c r="D50" t="s">
         <v>24</v>
       </c>
@@ -4009,7 +4008,7 @@
         <v>14</v>
       </c>
       <c r="F50" s="24" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G50" s="25" t="s">
         <v>21</v>
@@ -4030,11 +4029,11 @@
         <v>50</v>
       </c>
       <c r="B51" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="C51" s="21" t="s">
         <v>173</v>
       </c>
-      <c r="C51" s="21" t="s">
-        <v>174</v>
-      </c>
       <c r="D51" t="s">
         <v>24</v>
       </c>
@@ -4042,13 +4041,13 @@
         <v>14</v>
       </c>
       <c r="F51" s="26" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="G51" s="25" t="s">
         <v>54</v>
       </c>
       <c r="H51" s="24" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="I51" s="10"/>
       <c r="J51" s="25" t="s">
@@ -4063,28 +4062,28 @@
         <v>51</v>
       </c>
       <c r="B52" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="C52" s="21" t="s">
         <v>176</v>
       </c>
-      <c r="C52" s="21" t="s">
+      <c r="D52" t="s">
+        <v>24</v>
+      </c>
+      <c r="E52" t="s">
+        <v>14</v>
+      </c>
+      <c r="F52" s="6" t="s">
         <v>177</v>
-      </c>
-      <c r="D52" t="s">
-        <v>24</v>
-      </c>
-      <c r="E52" t="s">
-        <v>14</v>
-      </c>
-      <c r="F52" s="6" t="s">
-        <v>178</v>
       </c>
       <c r="G52" s="1" t="s">
         <v>54</v>
       </c>
       <c r="H52" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="I52" s="2" t="s">
         <v>179</v>
-      </c>
-      <c r="I52" s="2" t="s">
-        <v>180</v>
       </c>
       <c r="J52" s="1" t="s">
         <v>33</v>
@@ -4098,11 +4097,11 @@
         <v>52</v>
       </c>
       <c r="B53" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="C53" s="21" t="s">
         <v>181</v>
       </c>
-      <c r="C53" s="21" t="s">
-        <v>182</v>
-      </c>
       <c r="D53" t="s">
         <v>24</v>
       </c>
@@ -4110,16 +4109,16 @@
         <v>14</v>
       </c>
       <c r="F53" s="6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G53" s="1" t="s">
         <v>54</v>
       </c>
       <c r="H53" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="I53" s="2" t="s">
         <v>179</v>
-      </c>
-      <c r="I53" s="2" t="s">
-        <v>180</v>
       </c>
       <c r="J53" s="1" t="s">
         <v>33</v>
@@ -4133,19 +4132,19 @@
         <v>53</v>
       </c>
       <c r="B54" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="C54" s="21" t="s">
         <v>183</v>
       </c>
-      <c r="C54" s="21" t="s">
+      <c r="D54" t="s">
+        <v>24</v>
+      </c>
+      <c r="E54" t="s">
+        <v>14</v>
+      </c>
+      <c r="F54" s="6" t="s">
         <v>184</v>
-      </c>
-      <c r="D54" t="s">
-        <v>24</v>
-      </c>
-      <c r="E54" t="s">
-        <v>14</v>
-      </c>
-      <c r="F54" s="6" t="s">
-        <v>185</v>
       </c>
       <c r="G54" s="1" t="s">
         <v>21</v>
@@ -4165,10 +4164,10 @@
         <v>54</v>
       </c>
       <c r="B55" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="C55" s="21" t="s">
         <v>186</v>
-      </c>
-      <c r="C55" s="21" t="s">
-        <v>187</v>
       </c>
       <c r="D55" t="s">
         <v>24</v>
@@ -4197,10 +4196,10 @@
         <v>55</v>
       </c>
       <c r="B56" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="C56" s="21" t="s">
         <v>188</v>
-      </c>
-      <c r="C56" s="21" t="s">
-        <v>189</v>
       </c>
       <c r="D56" t="s">
         <v>24</v>
@@ -4229,10 +4228,10 @@
         <v>56</v>
       </c>
       <c r="B57" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="C57" s="21" t="s">
         <v>190</v>
-      </c>
-      <c r="C57" s="21" t="s">
-        <v>191</v>
       </c>
       <c r="D57" t="s">
         <v>24</v>
@@ -4261,19 +4260,19 @@
         <v>57</v>
       </c>
       <c r="B58" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="C58" s="21" t="s">
         <v>192</v>
       </c>
-      <c r="C58" s="21" t="s">
+      <c r="D58" t="s">
+        <v>24</v>
+      </c>
+      <c r="E58" t="s">
+        <v>14</v>
+      </c>
+      <c r="F58" s="4" t="s">
         <v>193</v>
-      </c>
-      <c r="D58" t="s">
-        <v>24</v>
-      </c>
-      <c r="E58" t="s">
-        <v>14</v>
-      </c>
-      <c r="F58" s="4" t="s">
-        <v>194</v>
       </c>
       <c r="G58" s="1" t="s">
         <v>21</v>
@@ -4293,10 +4292,10 @@
         <v>58</v>
       </c>
       <c r="B59" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="C59" s="21" t="s">
         <v>195</v>
-      </c>
-      <c r="C59" s="21" t="s">
-        <v>196</v>
       </c>
       <c r="D59" t="s">
         <v>24</v>
@@ -4325,10 +4324,10 @@
         <v>59</v>
       </c>
       <c r="B60" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="C60" s="21" t="s">
         <v>197</v>
-      </c>
-      <c r="C60" s="21" t="s">
-        <v>198</v>
       </c>
       <c r="D60" t="s">
         <v>24</v>
@@ -4357,10 +4356,10 @@
         <v>60</v>
       </c>
       <c r="B61" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="C61" s="21" t="s">
         <v>199</v>
-      </c>
-      <c r="C61" s="21" t="s">
-        <v>200</v>
       </c>
       <c r="D61" t="s">
         <v>24</v>
@@ -4389,10 +4388,10 @@
         <v>61</v>
       </c>
       <c r="B62" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="C62" s="21" t="s">
         <v>201</v>
-      </c>
-      <c r="C62" s="21" t="s">
-        <v>202</v>
       </c>
       <c r="D62" t="s">
         <v>24</v>
@@ -4421,10 +4420,10 @@
         <v>62</v>
       </c>
       <c r="B63" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="C63" s="21" t="s">
         <v>203</v>
-      </c>
-      <c r="C63" s="21" t="s">
-        <v>204</v>
       </c>
       <c r="D63" t="s">
         <v>24</v>
@@ -4453,10 +4452,10 @@
         <v>63</v>
       </c>
       <c r="B64" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="C64" s="21" t="s">
         <v>205</v>
-      </c>
-      <c r="C64" s="21" t="s">
-        <v>206</v>
       </c>
       <c r="D64" t="s">
         <v>24</v>
@@ -4485,10 +4484,10 @@
         <v>64</v>
       </c>
       <c r="B65" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="C65" s="21" t="s">
         <v>207</v>
-      </c>
-      <c r="C65" s="21" t="s">
-        <v>208</v>
       </c>
       <c r="D65" t="s">
         <v>24</v>
@@ -4517,25 +4516,25 @@
         <v>65</v>
       </c>
       <c r="B66" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="C66" s="21" t="s">
         <v>209</v>
       </c>
-      <c r="C66" s="21" t="s">
+      <c r="D66" t="s">
+        <v>24</v>
+      </c>
+      <c r="E66" t="s">
+        <v>14</v>
+      </c>
+      <c r="F66" s="3" t="s">
         <v>210</v>
-      </c>
-      <c r="D66" t="s">
-        <v>24</v>
-      </c>
-      <c r="E66" t="s">
-        <v>14</v>
-      </c>
-      <c r="F66" s="3" t="s">
-        <v>211</v>
       </c>
       <c r="G66" s="1" t="s">
         <v>54</v>
       </c>
       <c r="H66" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="J66" s="1" t="s">
         <v>16</v>
@@ -4549,19 +4548,19 @@
         <v>66</v>
       </c>
       <c r="B67" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="C67" s="21" t="s">
         <v>213</v>
       </c>
-      <c r="C67" s="21" t="s">
+      <c r="D67" t="s">
+        <v>24</v>
+      </c>
+      <c r="E67" t="s">
+        <v>14</v>
+      </c>
+      <c r="F67" s="6" t="s">
         <v>214</v>
-      </c>
-      <c r="D67" t="s">
-        <v>24</v>
-      </c>
-      <c r="E67" t="s">
-        <v>14</v>
-      </c>
-      <c r="F67" s="6" t="s">
-        <v>215</v>
       </c>
       <c r="G67" s="1" t="s">
         <v>21</v>
@@ -4581,25 +4580,25 @@
         <v>67</v>
       </c>
       <c r="B68" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="C68" s="21" t="s">
         <v>216</v>
       </c>
-      <c r="C68" s="21" t="s">
+      <c r="D68" t="s">
+        <v>24</v>
+      </c>
+      <c r="E68" t="s">
+        <v>14</v>
+      </c>
+      <c r="F68" s="3" t="s">
         <v>217</v>
-      </c>
-      <c r="D68" t="s">
-        <v>24</v>
-      </c>
-      <c r="E68" t="s">
-        <v>14</v>
-      </c>
-      <c r="F68" s="3" t="s">
-        <v>218</v>
       </c>
       <c r="G68" s="1" t="s">
         <v>54</v>
       </c>
       <c r="H68" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="J68" s="1" t="s">
         <v>16</v>
@@ -4613,25 +4612,25 @@
         <v>68</v>
       </c>
       <c r="B69" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="C69" s="21" t="s">
         <v>220</v>
       </c>
-      <c r="C69" s="21" t="s">
+      <c r="D69" t="s">
+        <v>24</v>
+      </c>
+      <c r="E69" t="s">
+        <v>14</v>
+      </c>
+      <c r="F69" s="3" t="s">
         <v>221</v>
-      </c>
-      <c r="D69" t="s">
-        <v>24</v>
-      </c>
-      <c r="E69" t="s">
-        <v>14</v>
-      </c>
-      <c r="F69" s="3" t="s">
-        <v>222</v>
       </c>
       <c r="G69" s="1" t="s">
         <v>54</v>
       </c>
       <c r="H69" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="J69" s="1" t="s">
         <v>16</v>
@@ -4645,10 +4644,10 @@
         <v>69</v>
       </c>
       <c r="B70" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="C70" s="21" t="s">
         <v>224</v>
-      </c>
-      <c r="C70" s="21" t="s">
-        <v>225</v>
       </c>
       <c r="D70" t="s">
         <v>24</v>
@@ -4677,25 +4676,25 @@
         <v>70</v>
       </c>
       <c r="B71" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="C71" s="21" t="s">
         <v>226</v>
       </c>
-      <c r="C71" s="21" t="s">
+      <c r="D71" t="s">
+        <v>24</v>
+      </c>
+      <c r="E71" t="s">
+        <v>14</v>
+      </c>
+      <c r="F71" s="7" t="s">
         <v>227</v>
-      </c>
-      <c r="D71" t="s">
-        <v>24</v>
-      </c>
-      <c r="E71" t="s">
-        <v>14</v>
-      </c>
-      <c r="F71" s="7" t="s">
-        <v>228</v>
       </c>
       <c r="G71" s="1" t="s">
         <v>54</v>
       </c>
       <c r="H71" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="J71" s="1" t="s">
         <v>16</v>
@@ -4709,19 +4708,19 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
+        <v>229</v>
+      </c>
+      <c r="C72" s="21" t="s">
         <v>230</v>
       </c>
-      <c r="C72" s="21" t="s">
+      <c r="D72" t="s">
+        <v>24</v>
+      </c>
+      <c r="E72" t="s">
+        <v>14</v>
+      </c>
+      <c r="F72" s="6" t="s">
         <v>231</v>
-      </c>
-      <c r="D72" t="s">
-        <v>24</v>
-      </c>
-      <c r="E72" t="s">
-        <v>14</v>
-      </c>
-      <c r="F72" s="6" t="s">
-        <v>232</v>
       </c>
       <c r="G72" s="1" t="s">
         <v>21</v>
@@ -4742,10 +4741,10 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
+        <v>232</v>
+      </c>
+      <c r="C73" s="21" t="s">
         <v>233</v>
-      </c>
-      <c r="C73" s="21" t="s">
-        <v>234</v>
       </c>
       <c r="D73" t="s">
         <v>24</v>
@@ -4774,25 +4773,25 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
+        <v>234</v>
+      </c>
+      <c r="C74" s="21" t="s">
         <v>235</v>
       </c>
-      <c r="C74" s="21" t="s">
+      <c r="D74" t="s">
+        <v>24</v>
+      </c>
+      <c r="E74" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F74" s="3" t="s">
         <v>236</v>
-      </c>
-      <c r="D74" t="s">
-        <v>24</v>
-      </c>
-      <c r="E74" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F74" s="3" t="s">
-        <v>237</v>
       </c>
       <c r="G74" s="1" t="s">
         <v>54</v>
       </c>
       <c r="H74" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="J74" s="1" t="s">
         <v>16</v>
@@ -4806,25 +4805,25 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
+        <v>238</v>
+      </c>
+      <c r="C75" s="21" t="s">
         <v>239</v>
       </c>
-      <c r="C75" s="21" t="s">
+      <c r="D75" t="s">
+        <v>24</v>
+      </c>
+      <c r="E75" t="s">
+        <v>14</v>
+      </c>
+      <c r="F75" s="3" t="s">
         <v>240</v>
-      </c>
-      <c r="D75" t="s">
-        <v>24</v>
-      </c>
-      <c r="E75" t="s">
-        <v>14</v>
-      </c>
-      <c r="F75" s="3" t="s">
-        <v>241</v>
       </c>
       <c r="G75" s="1" t="s">
         <v>54</v>
       </c>
       <c r="H75" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="J75" s="1" t="s">
         <v>16</v>
@@ -4838,25 +4837,25 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
+        <v>242</v>
+      </c>
+      <c r="C76" s="21" t="s">
         <v>243</v>
       </c>
-      <c r="C76" s="21" t="s">
+      <c r="D76" t="s">
+        <v>24</v>
+      </c>
+      <c r="E76" t="s">
+        <v>14</v>
+      </c>
+      <c r="F76" s="3" t="s">
         <v>244</v>
-      </c>
-      <c r="D76" t="s">
-        <v>24</v>
-      </c>
-      <c r="E76" t="s">
-        <v>14</v>
-      </c>
-      <c r="F76" s="3" t="s">
-        <v>245</v>
       </c>
       <c r="G76" s="1" t="s">
         <v>54</v>
       </c>
       <c r="H76" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="J76" s="1" t="s">
         <v>16</v>
@@ -4870,25 +4869,25 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
+        <v>246</v>
+      </c>
+      <c r="C77" s="21" t="s">
         <v>247</v>
       </c>
-      <c r="C77" s="21" t="s">
+      <c r="D77" t="s">
+        <v>24</v>
+      </c>
+      <c r="E77" t="s">
+        <v>14</v>
+      </c>
+      <c r="F77" s="3" t="s">
         <v>248</v>
-      </c>
-      <c r="D77" t="s">
-        <v>24</v>
-      </c>
-      <c r="E77" t="s">
-        <v>14</v>
-      </c>
-      <c r="F77" s="3" t="s">
-        <v>249</v>
       </c>
       <c r="G77" s="1" t="s">
         <v>54</v>
       </c>
       <c r="H77" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="J77" s="1" t="s">
         <v>16</v>
@@ -4902,10 +4901,10 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
+        <v>250</v>
+      </c>
+      <c r="C78" s="21" t="s">
         <v>251</v>
-      </c>
-      <c r="C78" s="21" t="s">
-        <v>252</v>
       </c>
       <c r="D78" t="s">
         <v>24</v>
@@ -4934,10 +4933,10 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
+        <v>252</v>
+      </c>
+      <c r="C79" s="21" t="s">
         <v>253</v>
-      </c>
-      <c r="C79" s="21" t="s">
-        <v>254</v>
       </c>
       <c r="D79" t="s">
         <v>24</v>
@@ -4966,10 +4965,10 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
+        <v>254</v>
+      </c>
+      <c r="C80" s="21" t="s">
         <v>255</v>
-      </c>
-      <c r="C80" s="21" t="s">
-        <v>256</v>
       </c>
       <c r="D80" t="s">
         <v>24</v>
@@ -4998,25 +4997,25 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
+        <v>256</v>
+      </c>
+      <c r="C81" s="21" t="s">
         <v>257</v>
       </c>
-      <c r="C81" s="21" t="s">
+      <c r="D81" t="s">
+        <v>24</v>
+      </c>
+      <c r="E81" t="s">
+        <v>14</v>
+      </c>
+      <c r="F81" s="3" t="s">
         <v>258</v>
-      </c>
-      <c r="D81" t="s">
-        <v>24</v>
-      </c>
-      <c r="E81" t="s">
-        <v>14</v>
-      </c>
-      <c r="F81" s="3" t="s">
-        <v>259</v>
       </c>
       <c r="G81" s="1" t="s">
         <v>54</v>
       </c>
       <c r="H81" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="J81" s="1" t="s">
         <v>16</v>
@@ -5030,10 +5029,10 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
+        <v>260</v>
+      </c>
+      <c r="C82" s="21" t="s">
         <v>261</v>
-      </c>
-      <c r="C82" s="21" t="s">
-        <v>262</v>
       </c>
       <c r="D82" t="s">
         <v>24</v>
@@ -5062,25 +5061,25 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
+        <v>262</v>
+      </c>
+      <c r="C83" s="21" t="s">
         <v>263</v>
       </c>
-      <c r="C83" s="21" t="s">
+      <c r="D83" t="s">
+        <v>24</v>
+      </c>
+      <c r="E83" t="s">
+        <v>14</v>
+      </c>
+      <c r="F83" s="3" t="s">
         <v>264</v>
-      </c>
-      <c r="D83" t="s">
-        <v>24</v>
-      </c>
-      <c r="E83" t="s">
-        <v>14</v>
-      </c>
-      <c r="F83" s="3" t="s">
-        <v>265</v>
       </c>
       <c r="G83" s="1" t="s">
         <v>54</v>
       </c>
       <c r="H83" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="J83" s="1" t="s">
         <v>16</v>
@@ -5094,19 +5093,19 @@
         <v>83</v>
       </c>
       <c r="B84" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="C84" s="21" t="s">
         <v>267</v>
       </c>
-      <c r="C84" s="21" t="s">
+      <c r="D84" t="s">
+        <v>24</v>
+      </c>
+      <c r="E84" t="s">
+        <v>14</v>
+      </c>
+      <c r="F84" s="4" t="s">
         <v>268</v>
-      </c>
-      <c r="D84" t="s">
-        <v>24</v>
-      </c>
-      <c r="E84" t="s">
-        <v>14</v>
-      </c>
-      <c r="F84" s="4" t="s">
-        <v>269</v>
       </c>
       <c r="G84" s="1" t="s">
         <v>21</v>
@@ -5126,19 +5125,19 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
+        <v>269</v>
+      </c>
+      <c r="C85" s="21" t="s">
         <v>270</v>
       </c>
-      <c r="C85" s="21" t="s">
+      <c r="D85" t="s">
+        <v>24</v>
+      </c>
+      <c r="E85" t="s">
+        <v>14</v>
+      </c>
+      <c r="F85" s="4" t="s">
         <v>271</v>
-      </c>
-      <c r="D85" t="s">
-        <v>24</v>
-      </c>
-      <c r="E85" t="s">
-        <v>14</v>
-      </c>
-      <c r="F85" s="4" t="s">
-        <v>272</v>
       </c>
       <c r="G85" s="1" t="s">
         <v>21</v>
@@ -5158,19 +5157,19 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
+        <v>272</v>
+      </c>
+      <c r="C86" s="21" t="s">
         <v>273</v>
       </c>
-      <c r="C86" s="21" t="s">
+      <c r="D86" t="s">
+        <v>24</v>
+      </c>
+      <c r="E86" t="s">
+        <v>14</v>
+      </c>
+      <c r="F86" s="4" t="s">
         <v>274</v>
-      </c>
-      <c r="D86" t="s">
-        <v>24</v>
-      </c>
-      <c r="E86" t="s">
-        <v>14</v>
-      </c>
-      <c r="F86" s="4" t="s">
-        <v>275</v>
       </c>
       <c r="G86" s="1" t="s">
         <v>21</v>
@@ -5191,10 +5190,10 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
+        <v>275</v>
+      </c>
+      <c r="C87" s="21" t="s">
         <v>276</v>
-      </c>
-      <c r="C87" s="21" t="s">
-        <v>277</v>
       </c>
       <c r="D87" t="s">
         <v>24</v>
@@ -5223,10 +5222,10 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
+        <v>277</v>
+      </c>
+      <c r="C88" s="21" t="s">
         <v>278</v>
-      </c>
-      <c r="C88" s="21" t="s">
-        <v>279</v>
       </c>
       <c r="D88" t="s">
         <v>24</v>
@@ -5255,10 +5254,10 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
+        <v>279</v>
+      </c>
+      <c r="C89" s="21" t="s">
         <v>280</v>
-      </c>
-      <c r="C89" s="21" t="s">
-        <v>281</v>
       </c>
       <c r="D89" t="s">
         <v>24</v>
@@ -5287,25 +5286,25 @@
         <v>89</v>
       </c>
       <c r="B90" t="s">
+        <v>281</v>
+      </c>
+      <c r="C90" s="21" t="s">
         <v>282</v>
       </c>
-      <c r="C90" s="21" t="s">
+      <c r="D90" t="s">
+        <v>24</v>
+      </c>
+      <c r="E90" t="s">
+        <v>14</v>
+      </c>
+      <c r="F90" s="3" t="s">
         <v>283</v>
-      </c>
-      <c r="D90" t="s">
-        <v>24</v>
-      </c>
-      <c r="E90" t="s">
-        <v>14</v>
-      </c>
-      <c r="F90" s="3" t="s">
-        <v>284</v>
       </c>
       <c r="G90" s="1" t="s">
         <v>54</v>
       </c>
       <c r="H90" s="3" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="J90" s="1" t="s">
         <v>16</v>
@@ -5319,25 +5318,25 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
+        <v>285</v>
+      </c>
+      <c r="C91" s="21" t="s">
         <v>286</v>
       </c>
-      <c r="C91" s="21" t="s">
+      <c r="D91" t="s">
+        <v>24</v>
+      </c>
+      <c r="E91" t="s">
+        <v>14</v>
+      </c>
+      <c r="F91" s="3" t="s">
         <v>287</v>
-      </c>
-      <c r="D91" t="s">
-        <v>24</v>
-      </c>
-      <c r="E91" t="s">
-        <v>14</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>288</v>
       </c>
       <c r="G91" s="1" t="s">
         <v>54</v>
       </c>
       <c r="H91" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="J91" s="1" t="s">
         <v>16</v>
@@ -5351,19 +5350,19 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
+        <v>289</v>
+      </c>
+      <c r="C92" s="21" t="s">
         <v>290</v>
       </c>
-      <c r="C92" s="21" t="s">
+      <c r="D92" t="s">
+        <v>24</v>
+      </c>
+      <c r="E92" t="s">
+        <v>14</v>
+      </c>
+      <c r="F92" s="4" t="s">
         <v>291</v>
-      </c>
-      <c r="D92" t="s">
-        <v>24</v>
-      </c>
-      <c r="E92" t="s">
-        <v>14</v>
-      </c>
-      <c r="F92" s="4" t="s">
-        <v>292</v>
       </c>
       <c r="G92" s="1" t="s">
         <v>21</v>
@@ -5383,25 +5382,25 @@
         <v>92</v>
       </c>
       <c r="B93" t="s">
+        <v>292</v>
+      </c>
+      <c r="C93" s="21" t="s">
         <v>293</v>
       </c>
-      <c r="C93" s="21" t="s">
+      <c r="D93" t="s">
+        <v>24</v>
+      </c>
+      <c r="E93" t="s">
+        <v>14</v>
+      </c>
+      <c r="F93" s="3" t="s">
         <v>294</v>
-      </c>
-      <c r="D93" t="s">
-        <v>24</v>
-      </c>
-      <c r="E93" t="s">
-        <v>14</v>
-      </c>
-      <c r="F93" s="3" t="s">
-        <v>295</v>
       </c>
       <c r="G93" s="1" t="s">
         <v>54</v>
       </c>
       <c r="H93" s="3" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="J93" s="1" t="s">
         <v>16</v>
@@ -5415,25 +5414,25 @@
         <v>93</v>
       </c>
       <c r="B94" t="s">
+        <v>296</v>
+      </c>
+      <c r="C94" s="21" t="s">
         <v>297</v>
       </c>
-      <c r="C94" s="21" t="s">
+      <c r="D94" t="s">
+        <v>24</v>
+      </c>
+      <c r="E94" t="s">
+        <v>14</v>
+      </c>
+      <c r="F94" s="3" t="s">
         <v>298</v>
-      </c>
-      <c r="D94" t="s">
-        <v>24</v>
-      </c>
-      <c r="E94" t="s">
-        <v>14</v>
-      </c>
-      <c r="F94" s="3" t="s">
-        <v>299</v>
       </c>
       <c r="G94" s="1" t="s">
         <v>54</v>
       </c>
       <c r="H94" s="3" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="J94" s="1" t="s">
         <v>16</v>
@@ -5447,25 +5446,25 @@
         <v>94</v>
       </c>
       <c r="B95" t="s">
+        <v>300</v>
+      </c>
+      <c r="C95" s="21" t="s">
         <v>301</v>
       </c>
-      <c r="C95" s="21" t="s">
+      <c r="D95" t="s">
+        <v>24</v>
+      </c>
+      <c r="E95" t="s">
+        <v>14</v>
+      </c>
+      <c r="F95" s="3" t="s">
         <v>302</v>
-      </c>
-      <c r="D95" t="s">
-        <v>24</v>
-      </c>
-      <c r="E95" t="s">
-        <v>14</v>
-      </c>
-      <c r="F95" s="3" t="s">
-        <v>303</v>
       </c>
       <c r="G95" s="4" t="s">
         <v>54</v>
       </c>
       <c r="H95" s="3" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="J95" s="1" t="s">
         <v>16</v>
@@ -5479,19 +5478,19 @@
         <v>95</v>
       </c>
       <c r="B96" t="s">
+        <v>304</v>
+      </c>
+      <c r="C96" s="21" t="s">
         <v>305</v>
       </c>
-      <c r="C96" s="21" t="s">
+      <c r="D96" t="s">
+        <v>24</v>
+      </c>
+      <c r="E96" t="s">
+        <v>14</v>
+      </c>
+      <c r="F96" s="4" t="s">
         <v>306</v>
-      </c>
-      <c r="D96" t="s">
-        <v>24</v>
-      </c>
-      <c r="E96" t="s">
-        <v>14</v>
-      </c>
-      <c r="F96" s="4" t="s">
-        <v>307</v>
       </c>
       <c r="G96" s="1" t="s">
         <v>21</v>
@@ -5500,13 +5499,13 @@
         <v>21</v>
       </c>
       <c r="I96" s="7" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="J96" s="17" t="s">
         <v>33</v>
       </c>
       <c r="K96" s="17" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
@@ -5514,10 +5513,10 @@
         <v>96</v>
       </c>
       <c r="B97" t="s">
+        <v>309</v>
+      </c>
+      <c r="C97" s="21" t="s">
         <v>310</v>
-      </c>
-      <c r="C97" s="21" t="s">
-        <v>311</v>
       </c>
       <c r="D97" t="s">
         <v>24</v>
@@ -5546,11 +5545,11 @@
         <v>97</v>
       </c>
       <c r="B98" t="s">
+        <v>311</v>
+      </c>
+      <c r="C98" s="21" t="s">
         <v>312</v>
       </c>
-      <c r="C98" s="21" t="s">
-        <v>313</v>
-      </c>
       <c r="D98" t="s">
         <v>24</v>
       </c>
@@ -5558,7 +5557,7 @@
         <v>14</v>
       </c>
       <c r="F98" s="4" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="G98" s="1" t="s">
         <v>21</v>
@@ -5578,10 +5577,10 @@
         <v>98</v>
       </c>
       <c r="B99" t="s">
+        <v>313</v>
+      </c>
+      <c r="C99" s="21" t="s">
         <v>314</v>
-      </c>
-      <c r="C99" s="21" t="s">
-        <v>315</v>
       </c>
       <c r="D99" t="s">
         <v>24</v>
@@ -5610,10 +5609,10 @@
         <v>99</v>
       </c>
       <c r="B100" s="8" t="s">
+        <v>315</v>
+      </c>
+      <c r="C100" s="21" t="s">
         <v>316</v>
-      </c>
-      <c r="C100" s="21" t="s">
-        <v>317</v>
       </c>
       <c r="D100" t="s">
         <v>24</v>
@@ -5642,19 +5641,19 @@
         <v>100</v>
       </c>
       <c r="B101" t="s">
+        <v>317</v>
+      </c>
+      <c r="C101" s="21" t="s">
         <v>318</v>
       </c>
-      <c r="C101" s="21" t="s">
+      <c r="D101" t="s">
+        <v>24</v>
+      </c>
+      <c r="E101" t="s">
+        <v>14</v>
+      </c>
+      <c r="F101" s="6" t="s">
         <v>319</v>
-      </c>
-      <c r="D101" t="s">
-        <v>24</v>
-      </c>
-      <c r="E101" t="s">
-        <v>14</v>
-      </c>
-      <c r="F101" s="6" t="s">
-        <v>320</v>
       </c>
       <c r="G101" s="1" t="s">
         <v>21</v>
@@ -5674,19 +5673,19 @@
         <v>101</v>
       </c>
       <c r="B102" s="13" t="s">
+        <v>320</v>
+      </c>
+      <c r="C102" s="23" t="s">
         <v>321</v>
       </c>
-      <c r="C102" s="23" t="s">
+      <c r="D102" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E102" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="F102" s="1" t="s">
         <v>322</v>
-      </c>
-      <c r="D102" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="E102" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="F102" s="1" t="s">
-        <v>323</v>
       </c>
       <c r="G102" s="1" t="s">
         <v>21</v>
@@ -5707,19 +5706,19 @@
         <v>102</v>
       </c>
       <c r="B103" t="s">
+        <v>323</v>
+      </c>
+      <c r="C103" s="21" t="s">
         <v>324</v>
       </c>
-      <c r="C103" s="21" t="s">
+      <c r="D103" t="s">
+        <v>24</v>
+      </c>
+      <c r="E103" t="s">
+        <v>14</v>
+      </c>
+      <c r="F103" s="4" t="s">
         <v>325</v>
-      </c>
-      <c r="D103" t="s">
-        <v>24</v>
-      </c>
-      <c r="E103" t="s">
-        <v>14</v>
-      </c>
-      <c r="F103" s="4" t="s">
-        <v>326</v>
       </c>
       <c r="G103" s="1" t="s">
         <v>21</v>
@@ -5739,10 +5738,10 @@
         <v>103</v>
       </c>
       <c r="B104" t="s">
+        <v>326</v>
+      </c>
+      <c r="C104" s="21" t="s">
         <v>327</v>
-      </c>
-      <c r="C104" s="21" t="s">
-        <v>328</v>
       </c>
       <c r="D104" t="s">
         <v>24</v>
@@ -5771,19 +5770,19 @@
         <v>104</v>
       </c>
       <c r="B105" t="s">
+        <v>328</v>
+      </c>
+      <c r="C105" s="21" t="s">
         <v>329</v>
       </c>
-      <c r="C105" s="21" t="s">
+      <c r="D105" t="s">
+        <v>24</v>
+      </c>
+      <c r="E105" t="s">
+        <v>14</v>
+      </c>
+      <c r="F105" s="4" t="s">
         <v>330</v>
-      </c>
-      <c r="D105" t="s">
-        <v>24</v>
-      </c>
-      <c r="E105" t="s">
-        <v>14</v>
-      </c>
-      <c r="F105" s="4" t="s">
-        <v>331</v>
       </c>
       <c r="G105" s="1" t="s">
         <v>21</v>
@@ -5803,10 +5802,10 @@
         <v>105</v>
       </c>
       <c r="B106" t="s">
+        <v>331</v>
+      </c>
+      <c r="C106" s="21" t="s">
         <v>332</v>
-      </c>
-      <c r="C106" s="21" t="s">
-        <v>333</v>
       </c>
       <c r="D106" t="s">
         <v>24</v>
@@ -5835,10 +5834,10 @@
         <v>106</v>
       </c>
       <c r="B107" t="s">
+        <v>333</v>
+      </c>
+      <c r="C107" s="21" t="s">
         <v>334</v>
-      </c>
-      <c r="C107" s="21" t="s">
-        <v>335</v>
       </c>
       <c r="D107" t="s">
         <v>24</v>
@@ -5867,19 +5866,19 @@
         <v>107</v>
       </c>
       <c r="B108" t="s">
+        <v>335</v>
+      </c>
+      <c r="C108" s="21" t="s">
         <v>336</v>
       </c>
-      <c r="C108" s="21" t="s">
+      <c r="D108" t="s">
+        <v>24</v>
+      </c>
+      <c r="E108" t="s">
+        <v>14</v>
+      </c>
+      <c r="F108" s="4" t="s">
         <v>337</v>
-      </c>
-      <c r="D108" t="s">
-        <v>24</v>
-      </c>
-      <c r="E108" t="s">
-        <v>14</v>
-      </c>
-      <c r="F108" s="4" t="s">
-        <v>338</v>
       </c>
       <c r="G108" s="1" t="s">
         <v>21</v>
@@ -5899,25 +5898,25 @@
         <v>108</v>
       </c>
       <c r="B109" t="s">
+        <v>338</v>
+      </c>
+      <c r="C109" s="21" t="s">
         <v>339</v>
       </c>
-      <c r="C109" s="21" t="s">
+      <c r="D109" t="s">
+        <v>24</v>
+      </c>
+      <c r="E109" t="s">
+        <v>14</v>
+      </c>
+      <c r="F109" s="3" t="s">
         <v>340</v>
-      </c>
-      <c r="D109" t="s">
-        <v>24</v>
-      </c>
-      <c r="E109" t="s">
-        <v>14</v>
-      </c>
-      <c r="F109" s="3" t="s">
-        <v>341</v>
       </c>
       <c r="G109" s="1" t="s">
         <v>54</v>
       </c>
       <c r="H109" s="3" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="J109" s="1" t="s">
         <v>16</v>
@@ -5931,10 +5930,10 @@
         <v>109</v>
       </c>
       <c r="B110" t="s">
+        <v>342</v>
+      </c>
+      <c r="C110" s="21" t="s">
         <v>343</v>
-      </c>
-      <c r="C110" s="21" t="s">
-        <v>344</v>
       </c>
       <c r="D110" t="s">
         <v>24</v>
@@ -5963,10 +5962,10 @@
         <v>110</v>
       </c>
       <c r="B111" t="s">
+        <v>344</v>
+      </c>
+      <c r="C111" s="21" t="s">
         <v>345</v>
-      </c>
-      <c r="C111" s="21" t="s">
-        <v>346</v>
       </c>
       <c r="D111" t="s">
         <v>24</v>
@@ -5995,10 +5994,10 @@
         <v>111</v>
       </c>
       <c r="B112" t="s">
+        <v>346</v>
+      </c>
+      <c r="C112" s="21" t="s">
         <v>347</v>
-      </c>
-      <c r="C112" s="21" t="s">
-        <v>348</v>
       </c>
       <c r="D112" t="s">
         <v>24</v>
@@ -6027,10 +6026,10 @@
         <v>112</v>
       </c>
       <c r="B113" t="s">
+        <v>348</v>
+      </c>
+      <c r="C113" s="21" t="s">
         <v>349</v>
-      </c>
-      <c r="C113" s="21" t="s">
-        <v>350</v>
       </c>
       <c r="D113" t="s">
         <v>24</v>
@@ -6059,10 +6058,10 @@
         <v>113</v>
       </c>
       <c r="B114" t="s">
+        <v>350</v>
+      </c>
+      <c r="C114" s="21" t="s">
         <v>351</v>
-      </c>
-      <c r="C114" s="21" t="s">
-        <v>352</v>
       </c>
       <c r="D114" t="s">
         <v>24</v>
@@ -6091,10 +6090,10 @@
         <v>114</v>
       </c>
       <c r="B115" t="s">
+        <v>352</v>
+      </c>
+      <c r="C115" s="21" t="s">
         <v>353</v>
-      </c>
-      <c r="C115" s="21" t="s">
-        <v>354</v>
       </c>
       <c r="D115" t="s">
         <v>24</v>
@@ -6123,10 +6122,10 @@
         <v>115</v>
       </c>
       <c r="B116" t="s">
+        <v>354</v>
+      </c>
+      <c r="C116" s="21" t="s">
         <v>355</v>
-      </c>
-      <c r="C116" s="21" t="s">
-        <v>356</v>
       </c>
       <c r="D116" t="s">
         <v>24</v>
@@ -6155,10 +6154,10 @@
         <v>116</v>
       </c>
       <c r="B117" t="s">
+        <v>356</v>
+      </c>
+      <c r="C117" s="21" t="s">
         <v>357</v>
-      </c>
-      <c r="C117" s="21" t="s">
-        <v>358</v>
       </c>
       <c r="D117" t="s">
         <v>24</v>
@@ -6187,10 +6186,10 @@
         <v>117</v>
       </c>
       <c r="B118" t="s">
+        <v>358</v>
+      </c>
+      <c r="C118" s="21" t="s">
         <v>359</v>
-      </c>
-      <c r="C118" s="21" t="s">
-        <v>360</v>
       </c>
       <c r="D118" t="s">
         <v>24</v>
@@ -6219,10 +6218,10 @@
         <v>118</v>
       </c>
       <c r="B119" t="s">
+        <v>360</v>
+      </c>
+      <c r="C119" s="21" t="s">
         <v>361</v>
-      </c>
-      <c r="C119" s="21" t="s">
-        <v>362</v>
       </c>
       <c r="D119" t="s">
         <v>24</v>
@@ -6251,10 +6250,10 @@
         <v>119</v>
       </c>
       <c r="B120" t="s">
+        <v>362</v>
+      </c>
+      <c r="C120" s="21" t="s">
         <v>363</v>
-      </c>
-      <c r="C120" s="21" t="s">
-        <v>364</v>
       </c>
       <c r="D120" t="s">
         <v>24</v>
@@ -6283,10 +6282,10 @@
         <v>120</v>
       </c>
       <c r="B121" t="s">
+        <v>364</v>
+      </c>
+      <c r="C121" s="21" t="s">
         <v>365</v>
-      </c>
-      <c r="C121" s="21" t="s">
-        <v>366</v>
       </c>
       <c r="D121" t="s">
         <v>24</v>
@@ -6315,10 +6314,10 @@
         <v>121</v>
       </c>
       <c r="B122" t="s">
+        <v>366</v>
+      </c>
+      <c r="C122" s="21" t="s">
         <v>367</v>
-      </c>
-      <c r="C122" s="21" t="s">
-        <v>368</v>
       </c>
       <c r="D122" t="s">
         <v>24</v>
@@ -6347,10 +6346,10 @@
         <v>122</v>
       </c>
       <c r="B123" t="s">
+        <v>368</v>
+      </c>
+      <c r="C123" s="21" t="s">
         <v>369</v>
-      </c>
-      <c r="C123" s="21" t="s">
-        <v>370</v>
       </c>
       <c r="D123" t="s">
         <v>24</v>
@@ -6379,10 +6378,10 @@
         <v>123</v>
       </c>
       <c r="B124" t="s">
+        <v>370</v>
+      </c>
+      <c r="C124" s="21" t="s">
         <v>371</v>
-      </c>
-      <c r="C124" s="21" t="s">
-        <v>372</v>
       </c>
       <c r="D124" t="s">
         <v>24</v>
@@ -6411,10 +6410,10 @@
         <v>124</v>
       </c>
       <c r="B125" t="s">
+        <v>372</v>
+      </c>
+      <c r="C125" s="21" t="s">
         <v>373</v>
-      </c>
-      <c r="C125" s="21" t="s">
-        <v>374</v>
       </c>
       <c r="D125" t="s">
         <v>24</v>
@@ -6443,10 +6442,10 @@
         <v>125</v>
       </c>
       <c r="B126" t="s">
+        <v>374</v>
+      </c>
+      <c r="C126" s="21" t="s">
         <v>375</v>
-      </c>
-      <c r="C126" s="21" t="s">
-        <v>376</v>
       </c>
       <c r="D126" t="s">
         <v>24</v>
@@ -6475,19 +6474,19 @@
         <v>126</v>
       </c>
       <c r="B127" t="s">
+        <v>376</v>
+      </c>
+      <c r="C127" s="21" t="s">
         <v>377</v>
       </c>
-      <c r="C127" s="21" t="s">
+      <c r="D127" t="s">
+        <v>24</v>
+      </c>
+      <c r="E127" t="s">
+        <v>14</v>
+      </c>
+      <c r="F127" s="4" t="s">
         <v>378</v>
-      </c>
-      <c r="D127" t="s">
-        <v>24</v>
-      </c>
-      <c r="E127" t="s">
-        <v>14</v>
-      </c>
-      <c r="F127" s="4" t="s">
-        <v>379</v>
       </c>
       <c r="G127" s="1" t="s">
         <v>21</v>
@@ -6504,10 +6503,10 @@
         <v>127</v>
       </c>
       <c r="B128" t="s">
+        <v>379</v>
+      </c>
+      <c r="C128" s="21" t="s">
         <v>380</v>
-      </c>
-      <c r="C128" s="21" t="s">
-        <v>381</v>
       </c>
       <c r="D128" t="s">
         <v>24</v>
@@ -6536,10 +6535,10 @@
         <v>128</v>
       </c>
       <c r="B129" t="s">
+        <v>383</v>
+      </c>
+      <c r="C129" t="s">
         <v>384</v>
-      </c>
-      <c r="C129" t="s">
-        <v>385</v>
       </c>
       <c r="D129" s="30" t="s">
         <v>13</v>
@@ -6548,16 +6547,16 @@
         <v>14</v>
       </c>
       <c r="F129" s="27" t="s">
+        <v>385</v>
+      </c>
+      <c r="G129" s="4" t="s">
         <v>386</v>
-      </c>
-      <c r="G129" s="4" t="s">
-        <v>387</v>
       </c>
       <c r="H129">
         <v>1</v>
       </c>
       <c r="I129" s="29" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="J129" s="28" t="s">
         <v>16</v>
@@ -6580,27 +6579,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Zeit xmlns="b63cdcf7-47fa-43f6-87e5-23b415b5c413" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="b63cdcf7-47fa-43f6-87e5-23b415b5c413">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="12535b08-222e-45d2-b6db-15019f1afee6" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100B1DC67C611DD5E4D81775F9F3E26A7B2" ma:contentTypeVersion="16" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="7f379a5812b480a74f9d031be5f88a83">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b63cdcf7-47fa-43f6-87e5-23b415b5c413" xmlns:ns3="12535b08-222e-45d2-b6db-15019f1afee6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="dbce1e37d7de67e1c835013ca0ee7a7c" ns2:_="" ns3:_="">
     <xsd:import namespace="b63cdcf7-47fa-43f6-87e5-23b415b5c413"/>
@@ -6841,32 +6819,28 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FBFC15CC-4CA5-447A-915F-1412CED97222}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="b63cdcf7-47fa-43f6-87e5-23b415b5c413"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="12535b08-222e-45d2-b6db-15019f1afee6"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E89B3EC5-962B-41D9-9821-3A191D2434CD}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Zeit xmlns="b63cdcf7-47fa-43f6-87e5-23b415b5c413" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="b63cdcf7-47fa-43f6-87e5-23b415b5c413">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="12535b08-222e-45d2-b6db-15019f1afee6" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{945A6BE8-5273-4FBB-A417-535A6E60D478}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6883,4 +6857,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E89B3EC5-962B-41D9-9821-3A191D2434CD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FBFC15CC-4CA5-447A-915F-1412CED97222}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="b63cdcf7-47fa-43f6-87e5-23b415b5c413"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="12535b08-222e-45d2-b6db-15019f1afee6"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/rmonize/data_proc_elem/DPE_GINI_P1.xlsx
+++ b/rmonize/data_proc_elem/DPE_GINI_P1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20415"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20416"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Projekte\NFDI4Health\TA5\Pilotprojekte\Harmonisierung\HarmonizR\use-cases-harmonisation\rmonize\data_proc_elem\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\use-cases-harmonisation\rmonize\data_proc_elem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDF5B1BC-B852-45B4-AC2E-96FD6C5B0F1D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1106C08-0341-4B61-B7A8-7A4121247FB5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1170" uniqueCount="390">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1171" uniqueCount="390">
   <si>
     <t>index</t>
   </si>
@@ -2023,49 +2023,49 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="43">
-    <cellStyle name="20 % - Akzent1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20 % - Akzent2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20 % - Akzent3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20 % - Akzent4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20 % - Akzent5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20 % - Akzent6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Akzent1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Akzent2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Akzent3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Akzent4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Akzent5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Akzent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Ausgabe" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Berechnung" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Eingabe" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Ergebnis" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Erklärender Text" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Gut" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Link" xfId="42" builtinId="8"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Hyperlink" xfId="42" builtinId="8"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="Notiz" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Schlecht" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
-    <cellStyle name="Überschrift" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Überschrift 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Überschrift 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Überschrift 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Überschrift 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Verknüpfte Zelle" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Warnender Text" xfId="14" builtinId="11" customBuiltin="1"/>
-    <cellStyle name="Zelle überprüfen" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2081,7 +2081,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2379,12 +2379,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K130"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F36" sqref="F36"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A121" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H134" sqref="H134"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="3" width="29" style="4" customWidth="1"/>
     <col min="6" max="6" width="21.85546875" style="4" customWidth="1"/>
@@ -6491,6 +6491,9 @@
       <c r="G127" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="H127" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="J127" s="1" t="s">
         <v>16</v>
       </c>
@@ -6579,6 +6582,27 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Zeit xmlns="b63cdcf7-47fa-43f6-87e5-23b415b5c413" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="b63cdcf7-47fa-43f6-87e5-23b415b5c413">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="12535b08-222e-45d2-b6db-15019f1afee6" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100B1DC67C611DD5E4D81775F9F3E26A7B2" ma:contentTypeVersion="16" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="7f379a5812b480a74f9d031be5f88a83">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b63cdcf7-47fa-43f6-87e5-23b415b5c413" xmlns:ns3="12535b08-222e-45d2-b6db-15019f1afee6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="dbce1e37d7de67e1c835013ca0ee7a7c" ns2:_="" ns3:_="">
     <xsd:import namespace="b63cdcf7-47fa-43f6-87e5-23b415b5c413"/>
@@ -6819,28 +6843,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FBFC15CC-4CA5-447A-915F-1412CED97222}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="b63cdcf7-47fa-43f6-87e5-23b415b5c413"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="12535b08-222e-45d2-b6db-15019f1afee6"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Zeit xmlns="b63cdcf7-47fa-43f6-87e5-23b415b5c413" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="b63cdcf7-47fa-43f6-87e5-23b415b5c413">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="12535b08-222e-45d2-b6db-15019f1afee6" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E89B3EC5-962B-41D9-9821-3A191D2434CD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{945A6BE8-5273-4FBB-A417-535A6E60D478}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6857,29 +6885,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E89B3EC5-962B-41D9-9821-3A191D2434CD}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FBFC15CC-4CA5-447A-915F-1412CED97222}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="b63cdcf7-47fa-43f6-87e5-23b415b5c413"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="12535b08-222e-45d2-b6db-15019f1afee6"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/rmonize/data_proc_elem/DPE_GINI_P1.xlsx
+++ b/rmonize/data_proc_elem/DPE_GINI_P1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\use-cases-harmonisation\rmonize\data_proc_elem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1106C08-0341-4B61-B7A8-7A4121247FB5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{441B4ECB-5327-45A5-BBFB-30A184461E99}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -61,9 +61,6 @@
   </si>
   <si>
     <t>ID</t>
-  </si>
-  <si>
-    <t>participant identification number</t>
   </si>
   <si>
     <t>integer</t>
@@ -200,9 +197,6 @@
     <t>BMI</t>
   </si>
   <si>
-    <t>Body Mass index at baseline</t>
-  </si>
-  <si>
     <t xml:space="preserve">UB_bmi_15 </t>
   </si>
   <si>
@@ -484,9 +478,6 @@
     <t>CHEESE_0505</t>
   </si>
   <si>
-    <t>Intake of Cheese [g/d]</t>
-  </si>
-  <si>
     <t>FFQWEICH_15;
 FFQHARTK_15</t>
   </si>
@@ -497,10 +488,6 @@
     <t>DAIRYDESSERT_0506</t>
   </si>
   <si>
-    <t>Intake of dairy dessert and similar
-Starchy pudding [g/d]</t>
-  </si>
-  <si>
     <t>FFQPUDD_15</t>
   </si>
   <si>
@@ -522,9 +509,6 @@
     <t>NONDAIRYCREAM_050702</t>
   </si>
   <si>
-    <t>Intake of Imitation cream, non-dairy coffee creamers and dairy imitates other than milk [g/d]</t>
-  </si>
-  <si>
     <t>MILK_FOR_COFFEE_0508</t>
   </si>
   <si>
@@ -532,10 +516,6 @@
   </si>
   <si>
     <t>CEREAL_PROD_06</t>
-  </si>
-  <si>
-    <t>Intake of cereals and cereal primary derivatives
-Cereal grains (and cereal-like grains) [g/d]</t>
   </si>
   <si>
     <t xml:space="preserve">FFQNUD_15;  
@@ -641,9 +621,6 @@
     <t>DOUGH_PASTRY_0606</t>
   </si>
   <si>
-    <t>Intake of fine bakery wares [g/d]</t>
-  </si>
-  <si>
     <t>FFQCROIS_15</t>
   </si>
   <si>
@@ -722,13 +699,7 @@
     <t>OTHERPOULTRY_070200</t>
   </si>
   <si>
-    <t>Intake of other poultry meat[g/d]</t>
-  </si>
-  <si>
     <t>CHICKEN_070201</t>
-  </si>
-  <si>
-    <t>Intake of chicken meat[g/d]</t>
   </si>
   <si>
     <t>TURKEY_070202</t>
@@ -811,9 +782,6 @@
     <t>FISH_0801</t>
   </si>
   <si>
-    <t>Intake of Fish (meat) [g/d]</t>
-  </si>
-  <si>
     <t xml:space="preserve">FFQSEE_15; 
 FFQSUESS_15 </t>
   </si>
@@ -829,9 +797,6 @@
   </si>
   <si>
     <t>FISH_PROD_0803</t>
-  </si>
-  <si>
-    <t>Intake of processed fish[g/d]</t>
   </si>
   <si>
     <t>FFQBISM_15;
@@ -986,9 +951,6 @@
     <t>CHOCOLATE_1102</t>
   </si>
   <si>
-    <t>Intake of chocolate, chocolate products and chocolate coated conectionary [g/d]</t>
-  </si>
-  <si>
     <t xml:space="preserve">FFQSCHOKOL_15; 
 FFQSCHOKOR_15 </t>
   </si>
@@ -1043,9 +1005,6 @@
   </si>
   <si>
     <t>CAKES_12</t>
-  </si>
-  <si>
-    <t>Intake of cakes and fine bakery wares [g/d]</t>
   </si>
   <si>
     <t xml:space="preserve">FFQKEKS_15;  
@@ -1313,9 +1272,6 @@
     <t>CONDIMENTS_1504</t>
   </si>
   <si>
-    <t>Condiments intakes [g/d]</t>
-  </si>
-  <si>
     <t>SOUP_BOUILLON_16</t>
   </si>
   <si>
@@ -1331,10 +1287,6 @@
     <t>BOUILLON_1602</t>
   </si>
   <si>
-    <t>Intake of mixed vegetables soup, clear
-meat soup, clear [g/d]</t>
-  </si>
-  <si>
     <t>MISCELLANEOUS_17</t>
   </si>
   <si>
@@ -1375,9 +1327,6 @@
   </si>
   <si>
     <t>AMPHIBIANS_1704</t>
-  </si>
-  <si>
-    <t>intake of amphibians, reptiles, snails, insects [g/d]</t>
   </si>
   <si>
     <t>FFQRIND_15;
@@ -1407,13 +1356,61 @@
   </si>
   <si>
     <t>FFQQUARK_15</t>
+  </si>
+  <si>
+    <t>Participant identification number</t>
+  </si>
+  <si>
+    <t>Body Mass Index at baseline</t>
+  </si>
+  <si>
+    <t>Intake of cheese [g/d]</t>
+  </si>
+  <si>
+    <t>Intake of dairy dessert and similar starchy pudding [g/d]</t>
+  </si>
+  <si>
+    <t>Intake of imitation cream, non-dairy coffee creamers and dairy imitates other than milk [g/d]</t>
+  </si>
+  <si>
+    <t>Intake of cereals and cereal primary derivatives, cereal grains (and cereal-like grains) [g/d]</t>
+  </si>
+  <si>
+    <t>Intake of fine bakery products [g/d]</t>
+  </si>
+  <si>
+    <t>Intake of other poultry meat [g/d]</t>
+  </si>
+  <si>
+    <t>Intake of chicken meat [g/d]</t>
+  </si>
+  <si>
+    <t>Intake of fish (meat) [g/d]</t>
+  </si>
+  <si>
+    <t>Intake of processed fish [g/d]</t>
+  </si>
+  <si>
+    <t>Intake of chocolate, chocolate products and chocolate coated confectionary [g/d]</t>
+  </si>
+  <si>
+    <t>Intake of cakes and fine bakery products [g/d]</t>
+  </si>
+  <si>
+    <t>Condiments intake [g/d]</t>
+  </si>
+  <si>
+    <t>Intake of mixed vegetables soup, clear meat soup [g/d]</t>
+  </si>
+  <si>
+    <t>Intake of amphibians, reptiles, snails, insects [g/d]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="27" x14ac:knownFonts="1">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1584,11 +1581,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -1947,7 +1939,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1994,16 +1986,7 @@
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2012,15 +1995,16 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2379,9 +2363,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K130"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A121" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H134" sqref="H134"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A118" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C2" sqref="C2:C129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2431,37 +2415,37 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" t="s">
+        <v>374</v>
+      </c>
+      <c r="D2" t="s">
         <v>12</v>
       </c>
-      <c r="D2" t="s">
-        <v>13</v>
-      </c>
       <c r="E2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I2" s="13"/>
       <c r="J2" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2" s="13" t="s">
         <v>16</v>
-      </c>
-      <c r="K2" s="13" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -2469,32 +2453,32 @@
         <v>2</v>
       </c>
       <c r="B3" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="20" t="s">
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="12" t="s">
+      <c r="G3" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="13" t="s">
-        <v>21</v>
-      </c>
       <c r="H3" s="13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I3" s="13"/>
       <c r="J3" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="K3" s="13" t="s">
         <v>16</v>
-      </c>
-      <c r="K3" s="13" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -2502,34 +2486,34 @@
         <v>3</v>
       </c>
       <c r="B4" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="20" t="s">
-        <v>23</v>
-      </c>
       <c r="D4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="E4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>25</v>
-      </c>
       <c r="G4" s="13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H4" s="13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>388</v>
+        <v>372</v>
       </c>
       <c r="J4" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K4" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="409.5" x14ac:dyDescent="0.25">
@@ -2537,66 +2521,66 @@
         <v>4</v>
       </c>
       <c r="B5" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="D5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="D5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" s="19" t="s">
+      <c r="G5" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="H5" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="I5" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="I5" s="22" t="s">
+      <c r="J5" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="J5" s="13" t="s">
+      <c r="K5" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="K5" s="13" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="20" t="s">
-        <v>36</v>
-      </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F6" t="s">
+        <v>36</v>
+      </c>
+      <c r="G6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H6" t="s">
+        <v>36</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="K6" s="4" t="s">
         <v>37</v>
-      </c>
-      <c r="G6" t="s">
-        <v>37</v>
-      </c>
-      <c r="H6" t="s">
-        <v>37</v>
-      </c>
-      <c r="J6" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="K6" s="4" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -2604,34 +2588,34 @@
         <v>6</v>
       </c>
       <c r="B7" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" t="s">
         <v>39</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="D7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D7" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F7" s="2" t="s">
+      <c r="G7" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="H7" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="G7" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="H7" s="2" t="s">
+      <c r="I7" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="I7" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="J7" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="K7" s="4" t="s">
         <v>33</v>
-      </c>
-      <c r="K7" s="4" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -2639,32 +2623,32 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" t="s">
+        <v>375</v>
+      </c>
+      <c r="D8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="C8" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="D8" t="s">
-        <v>24</v>
-      </c>
-      <c r="E8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F8" s="18" t="s">
-        <v>46</v>
-      </c>
       <c r="G8" s="18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H8" s="18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I8" s="18"/>
       <c r="J8" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="K8" s="18" t="s">
         <v>16</v>
-      </c>
-      <c r="K8" s="18" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -2672,32 +2656,32 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="C9" s="14" t="s">
+      <c r="G9" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="D9" t="s">
-        <v>24</v>
-      </c>
-      <c r="E9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F9" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="G9" s="18" t="s">
-        <v>50</v>
-      </c>
       <c r="H9" s="18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I9" s="18"/>
       <c r="J9" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="K9" s="18" t="s">
         <v>16</v>
-      </c>
-      <c r="K9" s="18" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="75" x14ac:dyDescent="0.25">
@@ -2705,34 +2689,34 @@
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="G10" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D10" t="s">
-        <v>24</v>
-      </c>
-      <c r="E10" t="s">
-        <v>14</v>
-      </c>
-      <c r="F10" s="3" t="s">
+      <c r="H10" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="I10" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="H10" s="3" t="s">
+      <c r="J10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K10" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="I10" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -2740,63 +2724,63 @@
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C11" t="s">
+        <v>57</v>
+      </c>
+      <c r="D11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K11" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C11" s="21" t="s">
-        <v>59</v>
-      </c>
-      <c r="D11" t="s">
-        <v>24</v>
-      </c>
-      <c r="E11" t="s">
-        <v>14</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="C12" s="21" t="s">
-        <v>62</v>
+        <v>59</v>
+      </c>
+      <c r="C12" t="s">
+        <v>60</v>
       </c>
       <c r="D12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F12" t="s">
+        <v>36</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K12" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="75" x14ac:dyDescent="0.25">
@@ -2804,31 +2788,31 @@
         <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C13" t="s">
+        <v>62</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C13" s="21" t="s">
+      <c r="G13" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H13" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="D13" t="s">
-        <v>24</v>
-      </c>
-      <c r="E13" t="s">
-        <v>14</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>66</v>
-      </c>
       <c r="J13" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -2836,31 +2820,31 @@
         <v>13</v>
       </c>
       <c r="B14" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C14" t="s">
+        <v>66</v>
+      </c>
+      <c r="D14" t="s">
+        <v>23</v>
+      </c>
+      <c r="E14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="C14" s="21" t="s">
+      <c r="G14" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H14" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="D14" t="s">
-        <v>24</v>
-      </c>
-      <c r="E14" t="s">
-        <v>14</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="H14" s="7" t="s">
-        <v>70</v>
-      </c>
       <c r="J14" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -2868,95 +2852,95 @@
         <v>14</v>
       </c>
       <c r="B15" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C15" t="s">
+        <v>70</v>
+      </c>
+      <c r="D15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="C15" s="21" t="s">
-        <v>72</v>
-      </c>
-      <c r="D15" t="s">
-        <v>24</v>
-      </c>
-      <c r="E15" t="s">
-        <v>14</v>
-      </c>
-      <c r="F15" s="6" t="s">
-        <v>73</v>
-      </c>
       <c r="G15" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K15" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K15" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C16" t="s">
+        <v>73</v>
+      </c>
+      <c r="D16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16" t="s">
+        <v>13</v>
+      </c>
+      <c r="F16" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="C16" s="21" t="s">
-        <v>75</v>
-      </c>
-      <c r="D16" t="s">
-        <v>24</v>
-      </c>
-      <c r="E16" t="s">
-        <v>14</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>76</v>
-      </c>
       <c r="G16" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K16" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K16" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C17" t="s">
+        <v>76</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17" t="s">
+        <v>13</v>
+      </c>
+      <c r="F17" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="C17" s="21" t="s">
-        <v>78</v>
-      </c>
-      <c r="D17" t="s">
-        <v>24</v>
-      </c>
-      <c r="E17" t="s">
-        <v>14</v>
-      </c>
-      <c r="F17" s="6" t="s">
-        <v>79</v>
-      </c>
       <c r="G17" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K17" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="K17" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
@@ -2964,159 +2948,159 @@
         <v>17</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="C18" s="21" t="s">
-        <v>81</v>
+        <v>78</v>
+      </c>
+      <c r="C18" t="s">
+        <v>79</v>
       </c>
       <c r="D18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F18" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K18" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="G18" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="K18" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="C19" s="21" t="s">
-        <v>83</v>
+        <v>80</v>
+      </c>
+      <c r="C19" t="s">
+        <v>81</v>
       </c>
       <c r="D19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E19" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F19" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K19" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="G19" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="K19" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="C20" s="21" t="s">
-        <v>85</v>
+        <v>82</v>
+      </c>
+      <c r="C20" t="s">
+        <v>83</v>
       </c>
       <c r="D20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E20" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F20" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K20" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="G20" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="K20" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>20</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="C21" s="21" t="s">
-        <v>87</v>
+        <v>84</v>
+      </c>
+      <c r="C21" t="s">
+        <v>85</v>
       </c>
       <c r="D21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E21" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F21" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K21" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="G21" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="K21" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="C22" s="21" t="s">
-        <v>89</v>
+        <v>86</v>
+      </c>
+      <c r="C22" t="s">
+        <v>87</v>
       </c>
       <c r="D22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E22" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F22" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K22" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="J22" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="K22" s="1" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
@@ -3124,63 +3108,63 @@
         <v>22</v>
       </c>
       <c r="B23" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C23" t="s">
+        <v>89</v>
+      </c>
+      <c r="D23" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23" t="s">
+        <v>13</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="C23" s="21" t="s">
+      <c r="C24" t="s">
         <v>91</v>
       </c>
-      <c r="D23" t="s">
-        <v>24</v>
-      </c>
-      <c r="E23" t="s">
-        <v>14</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="J23" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="K23" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>23</v>
-      </c>
-      <c r="B24" s="4" t="s">
+      <c r="D24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>13</v>
+      </c>
+      <c r="F24" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="C24" s="21" t="s">
-        <v>93</v>
-      </c>
-      <c r="D24" t="s">
-        <v>24</v>
-      </c>
-      <c r="E24" t="s">
-        <v>14</v>
-      </c>
-      <c r="F24" s="6" t="s">
-        <v>94</v>
-      </c>
       <c r="G24" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J24" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K24" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="K24" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -3188,32 +3172,32 @@
         <v>24</v>
       </c>
       <c r="B25" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C25" t="s">
+        <v>94</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25" t="s">
+        <v>13</v>
+      </c>
+      <c r="F25" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="C25" s="21" t="s">
+      <c r="G25" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H25" s="3" t="s">
         <v>96</v>
-      </c>
-      <c r="D25" t="s">
-        <v>24</v>
-      </c>
-      <c r="E25" t="s">
-        <v>14</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="H25" s="3" t="s">
-        <v>98</v>
       </c>
       <c r="I25" s="7"/>
       <c r="J25" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -3221,95 +3205,95 @@
         <v>25</v>
       </c>
       <c r="B26" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C26" t="s">
+        <v>98</v>
+      </c>
+      <c r="D26" t="s">
+        <v>23</v>
+      </c>
+      <c r="E26" t="s">
+        <v>13</v>
+      </c>
+      <c r="F26" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="C26" s="21" t="s">
+      <c r="G26" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H26" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="D26" t="s">
-        <v>24</v>
-      </c>
-      <c r="E26" t="s">
-        <v>14</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>102</v>
-      </c>
       <c r="J26" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C27" t="s">
+        <v>102</v>
+      </c>
+      <c r="D27" t="s">
+        <v>23</v>
+      </c>
+      <c r="E27" t="s">
+        <v>13</v>
+      </c>
+      <c r="F27" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="C27" s="21" t="s">
-        <v>104</v>
-      </c>
-      <c r="D27" t="s">
-        <v>24</v>
-      </c>
-      <c r="E27" t="s">
-        <v>14</v>
-      </c>
-      <c r="F27" s="5" t="s">
-        <v>105</v>
-      </c>
       <c r="G27" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J27" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K27" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K27" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
         <v>27</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="C28" s="21" t="s">
-        <v>107</v>
+        <v>104</v>
+      </c>
+      <c r="C28" t="s">
+        <v>105</v>
       </c>
       <c r="D28" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E28" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F28" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K28" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H28" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="J28" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="K28" s="1" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
@@ -3317,31 +3301,31 @@
         <v>28</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="C29" s="21" t="s">
-        <v>109</v>
+        <v>106</v>
+      </c>
+      <c r="C29" t="s">
+        <v>107</v>
       </c>
       <c r="D29" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E29" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F29" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K29" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H29" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="J29" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="K29" s="1" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="135" x14ac:dyDescent="0.25">
@@ -3349,159 +3333,159 @@
         <v>29</v>
       </c>
       <c r="B30" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C30" t="s">
+        <v>109</v>
+      </c>
+      <c r="D30" t="s">
+        <v>23</v>
+      </c>
+      <c r="E30" t="s">
+        <v>13</v>
+      </c>
+      <c r="F30" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="C30" s="21" t="s">
+      <c r="G30" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H30" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="D30" t="s">
-        <v>24</v>
-      </c>
-      <c r="E30" t="s">
-        <v>14</v>
-      </c>
-      <c r="F30" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="H30" s="3" t="s">
-        <v>113</v>
-      </c>
       <c r="J30" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C31" t="s">
+        <v>113</v>
+      </c>
+      <c r="D31" t="s">
+        <v>23</v>
+      </c>
+      <c r="E31" t="s">
+        <v>13</v>
+      </c>
+      <c r="F31" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C31" s="21" t="s">
-        <v>115</v>
-      </c>
-      <c r="D31" t="s">
-        <v>24</v>
-      </c>
-      <c r="E31" t="s">
-        <v>14</v>
-      </c>
-      <c r="F31" s="6" t="s">
-        <v>116</v>
-      </c>
       <c r="G31" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J31" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K31" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K31" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="C32" t="s">
+        <v>116</v>
+      </c>
+      <c r="D32" t="s">
+        <v>23</v>
+      </c>
+      <c r="E32" t="s">
+        <v>13</v>
+      </c>
+      <c r="F32" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="C32" s="21" t="s">
+      <c r="G32" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H32" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="D32" t="s">
-        <v>24</v>
-      </c>
-      <c r="E32" t="s">
-        <v>14</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="H32" s="3" t="s">
-        <v>120</v>
-      </c>
       <c r="J32" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C33" t="s">
+        <v>120</v>
+      </c>
+      <c r="D33" t="s">
+        <v>23</v>
+      </c>
+      <c r="E33" t="s">
+        <v>13</v>
+      </c>
+      <c r="F33" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="C33" s="21" t="s">
-        <v>122</v>
-      </c>
-      <c r="D33" t="s">
-        <v>24</v>
-      </c>
-      <c r="E33" t="s">
-        <v>14</v>
-      </c>
-      <c r="F33" s="6" t="s">
-        <v>123</v>
-      </c>
       <c r="G33" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J33" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K33" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K33" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="C34" s="21" t="s">
-        <v>125</v>
+        <v>122</v>
+      </c>
+      <c r="C34" t="s">
+        <v>123</v>
       </c>
       <c r="D34" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E34" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>389</v>
+        <v>373</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J34" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K34" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="K34" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="35" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -3509,195 +3493,195 @@
         <v>34</v>
       </c>
       <c r="B35" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="C35" t="s">
+        <v>376</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35" t="s">
+        <v>13</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H35" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="C35" s="21" t="s">
-        <v>127</v>
-      </c>
-      <c r="D35" t="s">
-        <v>24</v>
-      </c>
-      <c r="E35" t="s">
-        <v>14</v>
-      </c>
-      <c r="F35" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="H35" s="7" t="s">
-        <v>129</v>
       </c>
       <c r="I35" s="1"/>
       <c r="J35" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="C36" s="21" t="s">
-        <v>131</v>
+        <v>127</v>
+      </c>
+      <c r="C36" t="s">
+        <v>377</v>
       </c>
       <c r="D36" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E36" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I36" s="1"/>
       <c r="J36" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K36" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K36" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="C37" s="21" t="s">
-        <v>134</v>
+        <v>129</v>
+      </c>
+      <c r="C37" t="s">
+        <v>130</v>
       </c>
       <c r="D37" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E37" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I37" s="1"/>
       <c r="J37" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K37" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K37" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="C38" s="21" t="s">
-        <v>137</v>
+        <v>132</v>
+      </c>
+      <c r="C38" t="s">
+        <v>133</v>
       </c>
       <c r="D38" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E38" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I38" s="1"/>
       <c r="J38" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K38" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K38" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="C39" s="21" t="s">
-        <v>139</v>
+        <v>134</v>
+      </c>
+      <c r="C39" t="s">
+        <v>378</v>
       </c>
       <c r="D39" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E39" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F39" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K39" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="G39" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H39" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="J39" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="K39" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="C40" s="21" t="s">
-        <v>141</v>
+        <v>135</v>
+      </c>
+      <c r="C40" t="s">
+        <v>136</v>
       </c>
       <c r="D40" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E40" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F40" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K40" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="G40" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H40" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="J40" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="K40" s="1" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="41" spans="1:11" ht="165" x14ac:dyDescent="0.25">
@@ -3705,63 +3689,63 @@
         <v>40</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="C41" s="21" t="s">
-        <v>143</v>
+        <v>137</v>
+      </c>
+      <c r="C41" s="28" t="s">
+        <v>379</v>
       </c>
       <c r="D41" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E41" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H41" s="3" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K41" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="4">
         <v>41</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="C42" s="21" t="s">
-        <v>147</v>
+        <v>140</v>
+      </c>
+      <c r="C42" t="s">
+        <v>141</v>
       </c>
       <c r="D42" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E42" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F42" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J42" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K42" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="G42" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H42" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="J42" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="K42" s="1" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="43" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -3769,31 +3753,31 @@
         <v>42</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="C43" s="21" t="s">
-        <v>149</v>
+        <v>142</v>
+      </c>
+      <c r="C43" t="s">
+        <v>143</v>
       </c>
       <c r="D43" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E43" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H43" s="3" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K43" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="44" spans="1:11" ht="75" x14ac:dyDescent="0.25">
@@ -3801,34 +3785,34 @@
         <v>43</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="C44" s="21" t="s">
-        <v>153</v>
+        <v>146</v>
+      </c>
+      <c r="C44" t="s">
+        <v>147</v>
       </c>
       <c r="D44" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E44" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H44" s="3" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="I44" s="7" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K44" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="45" spans="1:11" ht="75" x14ac:dyDescent="0.25">
@@ -3836,63 +3820,63 @@
         <v>44</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="C45" s="21" t="s">
-        <v>158</v>
+        <v>151</v>
+      </c>
+      <c r="C45" t="s">
+        <v>152</v>
       </c>
       <c r="D45" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E45" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H45" s="3" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K45" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="C46" s="21" t="s">
-        <v>160</v>
+        <v>153</v>
+      </c>
+      <c r="C46" t="s">
+        <v>154</v>
       </c>
       <c r="D46" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E46" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F46" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J46" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K46" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="G46" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H46" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="J46" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="K46" s="1" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="47" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -3900,128 +3884,128 @@
         <v>46</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="C47" s="21" t="s">
-        <v>162</v>
+        <v>155</v>
+      </c>
+      <c r="C47" t="s">
+        <v>156</v>
       </c>
       <c r="D47" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E47" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H47" s="3" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K47" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="C48" s="21" t="s">
-        <v>166</v>
+        <v>159</v>
+      </c>
+      <c r="C48" t="s">
+        <v>160</v>
       </c>
       <c r="D48" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E48" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F48" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J48" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K48" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="G48" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H48" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="J48" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="K48" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="4">
         <v>48</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="C49" s="21" t="s">
-        <v>168</v>
+        <v>161</v>
+      </c>
+      <c r="C49" t="s">
+        <v>380</v>
       </c>
       <c r="D49" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E49" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J49" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K49" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K49" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="C50" s="21" t="s">
-        <v>171</v>
+        <v>163</v>
+      </c>
+      <c r="C50" t="s">
+        <v>164</v>
       </c>
       <c r="D50" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E50" t="s">
-        <v>14</v>
-      </c>
-      <c r="F50" s="24" t="s">
-        <v>174</v>
-      </c>
-      <c r="G50" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="H50" s="25" t="s">
-        <v>21</v>
+        <v>13</v>
+      </c>
+      <c r="F50" s="21" t="s">
+        <v>167</v>
+      </c>
+      <c r="G50" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="H50" s="22" t="s">
+        <v>20</v>
       </c>
       <c r="I50" s="10"/>
-      <c r="J50" s="25" t="s">
+      <c r="J50" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="K50" s="22" t="s">
         <v>16</v>
-      </c>
-      <c r="K50" s="25" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="51" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -4029,32 +4013,32 @@
         <v>50</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="C51" s="21" t="s">
-        <v>173</v>
+        <v>165</v>
+      </c>
+      <c r="C51" t="s">
+        <v>166</v>
       </c>
       <c r="D51" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E51" t="s">
-        <v>14</v>
-      </c>
-      <c r="F51" s="26" t="s">
-        <v>381</v>
-      </c>
-      <c r="G51" s="25" t="s">
-        <v>54</v>
-      </c>
-      <c r="H51" s="24" t="s">
-        <v>382</v>
+        <v>13</v>
+      </c>
+      <c r="F51" s="23" t="s">
+        <v>365</v>
+      </c>
+      <c r="G51" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="H51" s="21" t="s">
+        <v>366</v>
       </c>
       <c r="I51" s="10"/>
-      <c r="J51" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="K51" s="25" t="s">
-        <v>60</v>
+      <c r="J51" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="K51" s="22" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="52" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -4062,34 +4046,34 @@
         <v>51</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="C52" s="21" t="s">
-        <v>176</v>
+        <v>168</v>
+      </c>
+      <c r="C52" t="s">
+        <v>169</v>
       </c>
       <c r="D52" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E52" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F52" s="6" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H52" s="6" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="I52" s="2" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K52" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="53" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -4097,34 +4081,34 @@
         <v>52</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="C53" s="21" t="s">
-        <v>181</v>
+        <v>173</v>
+      </c>
+      <c r="C53" t="s">
+        <v>174</v>
       </c>
       <c r="D53" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E53" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F53" s="6" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H53" s="6" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="I53" s="2" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K53" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
@@ -4132,63 +4116,63 @@
         <v>53</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="C54" s="21" t="s">
-        <v>183</v>
+        <v>175</v>
+      </c>
+      <c r="C54" t="s">
+        <v>176</v>
       </c>
       <c r="D54" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E54" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F54" s="6" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J54" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K54" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K54" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="C55" s="21" t="s">
-        <v>186</v>
+        <v>178</v>
+      </c>
+      <c r="C55" t="s">
+        <v>179</v>
       </c>
       <c r="D55" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E55" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F55" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H55" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J55" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K55" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="G55" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H55" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="J55" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="K55" s="1" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
@@ -4196,31 +4180,31 @@
         <v>55</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="C56" s="21" t="s">
-        <v>188</v>
+        <v>180</v>
+      </c>
+      <c r="C56" t="s">
+        <v>181</v>
       </c>
       <c r="D56" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E56" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F56" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H56" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J56" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K56" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="G56" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H56" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="J56" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="K56" s="1" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
@@ -4228,31 +4212,31 @@
         <v>56</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="C57" s="21" t="s">
-        <v>190</v>
+        <v>182</v>
+      </c>
+      <c r="C57" t="s">
+        <v>183</v>
       </c>
       <c r="D57" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E57" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F57" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H57" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J57" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K57" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="G57" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H57" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="J57" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="K57" s="1" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
@@ -4260,63 +4244,63 @@
         <v>57</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="C58" s="21" t="s">
-        <v>192</v>
+        <v>184</v>
+      </c>
+      <c r="C58" t="s">
+        <v>185</v>
       </c>
       <c r="D58" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E58" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F58" s="4" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J58" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K58" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K58" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>58</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="C59" s="21" t="s">
-        <v>195</v>
+        <v>187</v>
+      </c>
+      <c r="C59" t="s">
+        <v>381</v>
       </c>
       <c r="D59" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E59" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F59" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H59" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J59" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K59" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="G59" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H59" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="J59" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="K59" s="1" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
@@ -4324,31 +4308,31 @@
         <v>59</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="C60" s="21" t="s">
-        <v>197</v>
+        <v>188</v>
+      </c>
+      <c r="C60" t="s">
+        <v>382</v>
       </c>
       <c r="D60" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E60" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F60" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H60" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J60" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K60" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="G60" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H60" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="J60" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="K60" s="1" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
@@ -4356,31 +4340,31 @@
         <v>60</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="C61" s="21" t="s">
-        <v>199</v>
+        <v>189</v>
+      </c>
+      <c r="C61" t="s">
+        <v>190</v>
       </c>
       <c r="D61" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E61" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F61" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H61" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J61" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K61" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="G61" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H61" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="J61" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="K61" s="1" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
@@ -4388,31 +4372,31 @@
         <v>61</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="C62" s="21" t="s">
-        <v>201</v>
+        <v>191</v>
+      </c>
+      <c r="C62" t="s">
+        <v>192</v>
       </c>
       <c r="D62" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E62" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F62" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H62" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J62" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K62" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="G62" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H62" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="J62" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="K62" s="1" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
@@ -4420,31 +4404,31 @@
         <v>62</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="C63" s="21" t="s">
-        <v>203</v>
+        <v>193</v>
+      </c>
+      <c r="C63" t="s">
+        <v>194</v>
       </c>
       <c r="D63" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E63" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F63" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H63" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J63" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K63" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="G63" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H63" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="J63" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="K63" s="1" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
@@ -4452,31 +4436,31 @@
         <v>63</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="C64" s="21" t="s">
-        <v>205</v>
+        <v>195</v>
+      </c>
+      <c r="C64" t="s">
+        <v>196</v>
       </c>
       <c r="D64" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E64" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F64" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H64" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J64" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K64" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="G64" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H64" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="J64" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="K64" s="1" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
@@ -4484,31 +4468,31 @@
         <v>64</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="C65" s="21" t="s">
-        <v>207</v>
+        <v>197</v>
+      </c>
+      <c r="C65" t="s">
+        <v>198</v>
       </c>
       <c r="D65" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E65" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F65" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H65" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J65" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K65" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="G65" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H65" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="J65" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="K65" s="1" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="66" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -4516,63 +4500,63 @@
         <v>65</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="C66" s="21" t="s">
-        <v>209</v>
+        <v>199</v>
+      </c>
+      <c r="C66" t="s">
+        <v>200</v>
       </c>
       <c r="D66" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E66" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H66" s="3" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="J66" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K66" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>66</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="C67" s="21" t="s">
-        <v>213</v>
+        <v>203</v>
+      </c>
+      <c r="C67" t="s">
+        <v>204</v>
       </c>
       <c r="D67" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E67" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F67" s="6" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J67" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K67" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="K67" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="68" spans="1:11" ht="75" x14ac:dyDescent="0.25">
@@ -4580,31 +4564,31 @@
         <v>67</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="C68" s="21" t="s">
-        <v>216</v>
+        <v>206</v>
+      </c>
+      <c r="C68" t="s">
+        <v>207</v>
       </c>
       <c r="D68" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E68" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H68" s="3" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="J68" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K68" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="69" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -4612,63 +4596,63 @@
         <v>68</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>219</v>
-      </c>
-      <c r="C69" s="21" t="s">
-        <v>220</v>
+        <v>210</v>
+      </c>
+      <c r="C69" t="s">
+        <v>383</v>
       </c>
       <c r="D69" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E69" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F69" s="3" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H69" s="3" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="J69" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K69" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="4">
         <v>69</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>223</v>
-      </c>
-      <c r="C70" s="21" t="s">
-        <v>224</v>
+        <v>213</v>
+      </c>
+      <c r="C70" t="s">
+        <v>214</v>
       </c>
       <c r="D70" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E70" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F70" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G70" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H70" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J70" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K70" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="G70" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H70" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="J70" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="K70" s="1" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="71" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -4676,64 +4660,64 @@
         <v>70</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>225</v>
-      </c>
-      <c r="C71" s="21" t="s">
-        <v>226</v>
+        <v>215</v>
+      </c>
+      <c r="C71" t="s">
+        <v>384</v>
       </c>
       <c r="D71" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E71" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F71" s="7" t="s">
-        <v>227</v>
+        <v>216</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H71" s="3" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="J71" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K71" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="72" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>229</v>
-      </c>
-      <c r="C72" s="21" t="s">
-        <v>230</v>
+        <v>218</v>
+      </c>
+      <c r="C72" t="s">
+        <v>219</v>
       </c>
       <c r="D72" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E72" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F72" s="6" t="s">
-        <v>231</v>
+        <v>220</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I72" s="7"/>
       <c r="J72" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K72" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="K72" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
@@ -4741,31 +4725,31 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>232</v>
-      </c>
-      <c r="C73" s="21" t="s">
-        <v>233</v>
+        <v>221</v>
+      </c>
+      <c r="C73" t="s">
+        <v>222</v>
       </c>
       <c r="D73" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E73" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F73" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G73" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H73" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J73" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K73" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="G73" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H73" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="J73" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="K73" s="1" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="74" spans="1:11" ht="150" x14ac:dyDescent="0.25">
@@ -4773,31 +4757,31 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>234</v>
-      </c>
-      <c r="C74" s="21" t="s">
-        <v>235</v>
+        <v>223</v>
+      </c>
+      <c r="C74" t="s">
+        <v>224</v>
       </c>
       <c r="D74" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E74" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F74" s="3" t="s">
-        <v>236</v>
+        <v>225</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H74" s="3" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
       <c r="J74" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K74" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="75" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -4805,31 +4789,31 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>238</v>
-      </c>
-      <c r="C75" s="21" t="s">
-        <v>239</v>
+        <v>227</v>
+      </c>
+      <c r="C75" t="s">
+        <v>228</v>
       </c>
       <c r="D75" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E75" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F75" s="3" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H75" s="3" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="J75" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K75" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="76" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -4837,31 +4821,31 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>242</v>
-      </c>
-      <c r="C76" s="21" t="s">
-        <v>243</v>
+        <v>231</v>
+      </c>
+      <c r="C76" t="s">
+        <v>232</v>
       </c>
       <c r="D76" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E76" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F76" s="3" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H76" s="3" t="s">
-        <v>245</v>
+        <v>234</v>
       </c>
       <c r="J76" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K76" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="77" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -4869,127 +4853,127 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>246</v>
-      </c>
-      <c r="C77" s="21" t="s">
-        <v>247</v>
+        <v>235</v>
+      </c>
+      <c r="C77" t="s">
+        <v>236</v>
       </c>
       <c r="D77" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E77" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F77" s="3" t="s">
-        <v>248</v>
+        <v>237</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H77" s="3" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="J77" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K77" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="78" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>250</v>
-      </c>
-      <c r="C78" s="21" t="s">
-        <v>251</v>
+        <v>239</v>
+      </c>
+      <c r="C78" t="s">
+        <v>240</v>
       </c>
       <c r="D78" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E78" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F78" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G78" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H78" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J78" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K78" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="G78" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H78" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="J78" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="K78" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="79" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>252</v>
-      </c>
-      <c r="C79" s="21" t="s">
-        <v>253</v>
+        <v>241</v>
+      </c>
+      <c r="C79" t="s">
+        <v>242</v>
       </c>
       <c r="D79" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E79" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F79" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G79" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H79" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J79" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K79" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="G79" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H79" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="J79" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="K79" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="80" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>254</v>
-      </c>
-      <c r="C80" s="21" t="s">
-        <v>255</v>
+        <v>243</v>
+      </c>
+      <c r="C80" t="s">
+        <v>244</v>
       </c>
       <c r="D80" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E80" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F80" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G80" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H80" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J80" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K80" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="G80" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H80" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="J80" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="K80" s="1" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="81" spans="1:11" ht="75" x14ac:dyDescent="0.25">
@@ -4997,224 +4981,224 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>256</v>
-      </c>
-      <c r="C81" s="21" t="s">
-        <v>257</v>
+        <v>245</v>
+      </c>
+      <c r="C81" t="s">
+        <v>246</v>
       </c>
       <c r="D81" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E81" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F81" s="3" t="s">
-        <v>258</v>
+        <v>247</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H81" s="3" t="s">
-        <v>259</v>
+        <v>248</v>
       </c>
       <c r="J81" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K81" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="82" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>260</v>
-      </c>
-      <c r="C82" s="21" t="s">
-        <v>261</v>
+        <v>249</v>
+      </c>
+      <c r="C82" t="s">
+        <v>250</v>
       </c>
       <c r="D82" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E82" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F82" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G82" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H82" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J82" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K82" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="G82" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H82" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="J82" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="K82" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="83" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="83" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>262</v>
-      </c>
-      <c r="C83" s="21" t="s">
-        <v>263</v>
+        <v>251</v>
+      </c>
+      <c r="C83" t="s">
+        <v>385</v>
       </c>
       <c r="D83" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E83" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F83" s="3" t="s">
-        <v>264</v>
+        <v>252</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H83" s="3" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="J83" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K83" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="84" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="4">
         <v>83</v>
       </c>
       <c r="B84" s="8" t="s">
-        <v>266</v>
-      </c>
-      <c r="C84" s="21" t="s">
-        <v>267</v>
+        <v>254</v>
+      </c>
+      <c r="C84" t="s">
+        <v>255</v>
       </c>
       <c r="D84" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E84" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F84" s="4" t="s">
-        <v>268</v>
+        <v>256</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J84" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K84" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K84" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="85" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>269</v>
-      </c>
-      <c r="C85" s="21" t="s">
-        <v>270</v>
+        <v>257</v>
+      </c>
+      <c r="C85" t="s">
+        <v>258</v>
       </c>
       <c r="D85" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E85" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F85" s="4" t="s">
-        <v>271</v>
+        <v>259</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H85" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J85" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K85" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K85" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="86" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>272</v>
-      </c>
-      <c r="C86" s="21" t="s">
-        <v>273</v>
+        <v>260</v>
+      </c>
+      <c r="C86" t="s">
+        <v>261</v>
       </c>
       <c r="D86" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E86" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F86" s="4" t="s">
-        <v>274</v>
+        <v>262</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H86" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I86" s="7"/>
       <c r="J86" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K86" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K86" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="87" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>275</v>
-      </c>
-      <c r="C87" s="21" t="s">
-        <v>276</v>
+        <v>263</v>
+      </c>
+      <c r="C87" t="s">
+        <v>264</v>
       </c>
       <c r="D87" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E87" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F87" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G87" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H87" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J87" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K87" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="G87" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H87" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="J87" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="K87" s="1" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
@@ -5222,63 +5206,63 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>277</v>
-      </c>
-      <c r="C88" s="21" t="s">
-        <v>278</v>
+        <v>265</v>
+      </c>
+      <c r="C88" t="s">
+        <v>266</v>
       </c>
       <c r="D88" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E88" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F88" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G88" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H88" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J88" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K88" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="G88" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H88" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="J88" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="K88" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="89" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>279</v>
-      </c>
-      <c r="C89" s="21" t="s">
-        <v>280</v>
+        <v>267</v>
+      </c>
+      <c r="C89" t="s">
+        <v>268</v>
       </c>
       <c r="D89" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E89" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F89" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G89" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H89" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J89" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K89" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="G89" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H89" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="J89" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="K89" s="1" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="90" spans="1:11" ht="75" x14ac:dyDescent="0.25">
@@ -5286,31 +5270,31 @@
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>281</v>
-      </c>
-      <c r="C90" s="21" t="s">
-        <v>282</v>
+        <v>269</v>
+      </c>
+      <c r="C90" t="s">
+        <v>386</v>
       </c>
       <c r="D90" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E90" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F90" s="3" t="s">
-        <v>283</v>
+        <v>270</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H90" s="3" t="s">
-        <v>284</v>
+        <v>271</v>
       </c>
       <c r="J90" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K90" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="91" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -5318,63 +5302,63 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>285</v>
-      </c>
-      <c r="C91" s="21" t="s">
-        <v>286</v>
+        <v>272</v>
+      </c>
+      <c r="C91" t="s">
+        <v>273</v>
       </c>
       <c r="D91" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E91" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F91" s="3" t="s">
-        <v>287</v>
+        <v>274</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H91" s="3" t="s">
-        <v>288</v>
+        <v>275</v>
       </c>
       <c r="J91" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K91" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="92" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>289</v>
-      </c>
-      <c r="C92" s="21" t="s">
-        <v>290</v>
+        <v>276</v>
+      </c>
+      <c r="C92" t="s">
+        <v>277</v>
       </c>
       <c r="D92" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E92" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F92" s="4" t="s">
-        <v>291</v>
+        <v>278</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H92" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J92" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K92" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="K92" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="93" spans="1:11" ht="120" x14ac:dyDescent="0.25">
@@ -5382,31 +5366,31 @@
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>292</v>
-      </c>
-      <c r="C93" s="21" t="s">
-        <v>293</v>
+        <v>279</v>
+      </c>
+      <c r="C93" t="s">
+        <v>280</v>
       </c>
       <c r="D93" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E93" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F93" s="3" t="s">
-        <v>294</v>
+        <v>281</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H93" s="3" t="s">
-        <v>295</v>
+        <v>282</v>
       </c>
       <c r="J93" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K93" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="94" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -5414,31 +5398,31 @@
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>296</v>
-      </c>
-      <c r="C94" s="21" t="s">
-        <v>297</v>
+        <v>283</v>
+      </c>
+      <c r="C94" t="s">
+        <v>284</v>
       </c>
       <c r="D94" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E94" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F94" s="3" t="s">
-        <v>298</v>
+        <v>285</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H94" s="3" t="s">
-        <v>299</v>
+        <v>286</v>
       </c>
       <c r="J94" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K94" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="95" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -5446,66 +5430,66 @@
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>300</v>
-      </c>
-      <c r="C95" s="21" t="s">
-        <v>301</v>
+        <v>287</v>
+      </c>
+      <c r="C95" t="s">
+        <v>288</v>
       </c>
       <c r="D95" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E95" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F95" s="3" t="s">
-        <v>302</v>
+        <v>289</v>
       </c>
       <c r="G95" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H95" s="3" t="s">
-        <v>303</v>
+        <v>290</v>
       </c>
       <c r="J95" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K95" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="96" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>304</v>
-      </c>
-      <c r="C96" s="21" t="s">
-        <v>305</v>
+        <v>291</v>
+      </c>
+      <c r="C96" t="s">
+        <v>292</v>
       </c>
       <c r="D96" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E96" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F96" s="4" t="s">
-        <v>306</v>
+        <v>293</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H96" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I96" s="7" t="s">
-        <v>307</v>
+        <v>294</v>
       </c>
       <c r="J96" s="17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K96" s="17" t="s">
-        <v>308</v>
+        <v>295</v>
       </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
@@ -5513,31 +5497,31 @@
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>309</v>
-      </c>
-      <c r="C97" s="21" t="s">
-        <v>310</v>
+        <v>296</v>
+      </c>
+      <c r="C97" t="s">
+        <v>297</v>
       </c>
       <c r="D97" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E97" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F97" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G97" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H97" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J97" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K97" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="G97" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H97" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="J97" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="K97" s="1" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
@@ -5545,288 +5529,288 @@
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>311</v>
-      </c>
-      <c r="C98" s="21" t="s">
-        <v>312</v>
+        <v>298</v>
+      </c>
+      <c r="C98" t="s">
+        <v>299</v>
       </c>
       <c r="D98" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E98" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F98" s="4" t="s">
-        <v>306</v>
+        <v>293</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H98" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J98" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K98" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K98" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="99" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>313</v>
-      </c>
-      <c r="C99" s="21" t="s">
-        <v>314</v>
+        <v>300</v>
+      </c>
+      <c r="C99" t="s">
+        <v>301</v>
       </c>
       <c r="D99" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E99" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F99" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G99" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H99" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J99" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K99" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="G99" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H99" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="J99" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="K99" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="100" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>99</v>
       </c>
       <c r="B100" s="8" t="s">
-        <v>315</v>
-      </c>
-      <c r="C100" s="21" t="s">
-        <v>316</v>
+        <v>302</v>
+      </c>
+      <c r="C100" t="s">
+        <v>303</v>
       </c>
       <c r="D100" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E100" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F100" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G100" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H100" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J100" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K100" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="G100" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H100" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="J100" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="K100" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="101" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>317</v>
-      </c>
-      <c r="C101" s="21" t="s">
-        <v>318</v>
+        <v>304</v>
+      </c>
+      <c r="C101" t="s">
+        <v>305</v>
       </c>
       <c r="D101" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E101" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F101" s="6" t="s">
-        <v>319</v>
+        <v>306</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H101" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J101" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K101" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K101" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="102" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="13">
         <v>101</v>
       </c>
       <c r="B102" s="13" t="s">
-        <v>320</v>
-      </c>
-      <c r="C102" s="23" t="s">
-        <v>321</v>
+        <v>307</v>
+      </c>
+      <c r="C102" t="s">
+        <v>308</v>
       </c>
       <c r="D102" s="13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E102" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>322</v>
+        <v>309</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H102" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I102" s="13"/>
       <c r="J102" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K102" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K102" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="103" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>102</v>
       </c>
       <c r="B103" t="s">
-        <v>323</v>
-      </c>
-      <c r="C103" s="21" t="s">
-        <v>324</v>
+        <v>310</v>
+      </c>
+      <c r="C103" t="s">
+        <v>311</v>
       </c>
       <c r="D103" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E103" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F103" s="4" t="s">
-        <v>325</v>
+        <v>312</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H103" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J103" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K103" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K103" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="104" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>326</v>
-      </c>
-      <c r="C104" s="21" t="s">
-        <v>327</v>
+        <v>313</v>
+      </c>
+      <c r="C104" t="s">
+        <v>314</v>
       </c>
       <c r="D104" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E104" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F104" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G104" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H104" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J104" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K104" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="G104" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H104" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="J104" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="K104" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="105" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="4">
         <v>104</v>
       </c>
       <c r="B105" t="s">
-        <v>328</v>
-      </c>
-      <c r="C105" s="21" t="s">
-        <v>329</v>
+        <v>315</v>
+      </c>
+      <c r="C105" t="s">
+        <v>316</v>
       </c>
       <c r="D105" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E105" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F105" s="4" t="s">
-        <v>330</v>
+        <v>317</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H105" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J105" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K105" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K105" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="106" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>105</v>
       </c>
       <c r="B106" t="s">
-        <v>331</v>
-      </c>
-      <c r="C106" s="21" t="s">
-        <v>332</v>
+        <v>318</v>
+      </c>
+      <c r="C106" t="s">
+        <v>319</v>
       </c>
       <c r="D106" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E106" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F106" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G106" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H106" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J106" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K106" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="G106" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H106" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="J106" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="K106" s="1" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.25">
@@ -5834,31 +5818,31 @@
         <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>333</v>
-      </c>
-      <c r="C107" s="21" t="s">
-        <v>334</v>
+        <v>320</v>
+      </c>
+      <c r="C107" t="s">
+        <v>321</v>
       </c>
       <c r="D107" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E107" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F107" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G107" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H107" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J107" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K107" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="G107" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H107" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="J107" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="K107" s="1" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.25">
@@ -5866,31 +5850,31 @@
         <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>335</v>
-      </c>
-      <c r="C108" s="21" t="s">
-        <v>336</v>
+        <v>322</v>
+      </c>
+      <c r="C108" t="s">
+        <v>323</v>
       </c>
       <c r="D108" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E108" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F108" s="4" t="s">
-        <v>337</v>
+        <v>324</v>
       </c>
       <c r="G108" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H108" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J108" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K108" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="K108" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="109" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -5898,63 +5882,63 @@
         <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>338</v>
-      </c>
-      <c r="C109" s="21" t="s">
-        <v>339</v>
+        <v>325</v>
+      </c>
+      <c r="C109" t="s">
+        <v>326</v>
       </c>
       <c r="D109" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E109" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F109" s="3" t="s">
-        <v>340</v>
+        <v>327</v>
       </c>
       <c r="G109" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H109" s="3" t="s">
-        <v>341</v>
+        <v>328</v>
       </c>
       <c r="J109" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K109" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="110" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>342</v>
-      </c>
-      <c r="C110" s="21" t="s">
-        <v>343</v>
+        <v>329</v>
+      </c>
+      <c r="C110" t="s">
+        <v>330</v>
       </c>
       <c r="D110" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E110" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F110" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G110" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H110" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J110" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K110" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="G110" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H110" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="J110" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="K110" s="1" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.25">
@@ -5962,63 +5946,63 @@
         <v>110</v>
       </c>
       <c r="B111" t="s">
-        <v>344</v>
-      </c>
-      <c r="C111" s="21" t="s">
-        <v>345</v>
+        <v>331</v>
+      </c>
+      <c r="C111" t="s">
+        <v>332</v>
       </c>
       <c r="D111" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E111" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F111" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G111" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H111" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J111" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K111" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="G111" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H111" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="J111" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="K111" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="112" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="4">
         <v>111</v>
       </c>
       <c r="B112" t="s">
-        <v>346</v>
-      </c>
-      <c r="C112" s="21" t="s">
-        <v>347</v>
+        <v>333</v>
+      </c>
+      <c r="C112" t="s">
+        <v>334</v>
       </c>
       <c r="D112" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E112" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F112" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G112" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H112" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J112" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K112" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="G112" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H112" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="J112" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="K112" s="1" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.25">
@@ -6026,31 +6010,31 @@
         <v>112</v>
       </c>
       <c r="B113" t="s">
-        <v>348</v>
-      </c>
-      <c r="C113" s="21" t="s">
-        <v>349</v>
+        <v>335</v>
+      </c>
+      <c r="C113" t="s">
+        <v>336</v>
       </c>
       <c r="D113" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E113" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F113" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G113" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H113" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J113" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K113" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="G113" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H113" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="J113" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="K113" s="1" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.25">
@@ -6058,63 +6042,63 @@
         <v>113</v>
       </c>
       <c r="B114" t="s">
-        <v>350</v>
-      </c>
-      <c r="C114" s="21" t="s">
-        <v>351</v>
+        <v>337</v>
+      </c>
+      <c r="C114" t="s">
+        <v>338</v>
       </c>
       <c r="D114" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E114" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F114" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G114" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H114" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J114" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K114" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="G114" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H114" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="J114" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="K114" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="115" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>114</v>
       </c>
       <c r="B115" t="s">
-        <v>352</v>
-      </c>
-      <c r="C115" s="21" t="s">
-        <v>353</v>
+        <v>339</v>
+      </c>
+      <c r="C115" t="s">
+        <v>340</v>
       </c>
       <c r="D115" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E115" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F115" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G115" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H115" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J115" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K115" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="G115" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H115" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="J115" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="K115" s="1" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.25">
@@ -6122,63 +6106,63 @@
         <v>115</v>
       </c>
       <c r="B116" t="s">
-        <v>354</v>
-      </c>
-      <c r="C116" s="21" t="s">
-        <v>355</v>
+        <v>341</v>
+      </c>
+      <c r="C116" t="s">
+        <v>342</v>
       </c>
       <c r="D116" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E116" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F116" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G116" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H116" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J116" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K116" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="G116" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H116" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="J116" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="K116" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="117" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>116</v>
       </c>
       <c r="B117" t="s">
-        <v>356</v>
-      </c>
-      <c r="C117" s="21" t="s">
-        <v>357</v>
+        <v>343</v>
+      </c>
+      <c r="C117" t="s">
+        <v>344</v>
       </c>
       <c r="D117" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E117" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F117" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G117" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H117" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J117" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K117" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="G117" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H117" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="J117" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="K117" s="1" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.25">
@@ -6186,63 +6170,63 @@
         <v>117</v>
       </c>
       <c r="B118" t="s">
-        <v>358</v>
-      </c>
-      <c r="C118" s="21" t="s">
-        <v>359</v>
+        <v>345</v>
+      </c>
+      <c r="C118" t="s">
+        <v>387</v>
       </c>
       <c r="D118" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E118" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F118" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G118" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H118" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J118" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K118" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="G118" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H118" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="J118" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="K118" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="119" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="4">
         <v>118</v>
       </c>
       <c r="B119" t="s">
-        <v>360</v>
-      </c>
-      <c r="C119" s="21" t="s">
-        <v>361</v>
+        <v>346</v>
+      </c>
+      <c r="C119" t="s">
+        <v>347</v>
       </c>
       <c r="D119" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E119" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F119" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G119" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H119" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J119" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K119" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="G119" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H119" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="J119" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="K119" s="1" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.25">
@@ -6250,63 +6234,63 @@
         <v>119</v>
       </c>
       <c r="B120" t="s">
-        <v>362</v>
-      </c>
-      <c r="C120" s="21" t="s">
-        <v>363</v>
+        <v>348</v>
+      </c>
+      <c r="C120" t="s">
+        <v>349</v>
       </c>
       <c r="D120" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E120" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F120" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G120" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H120" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J120" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K120" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="G120" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H120" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="J120" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="K120" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="121" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>120</v>
       </c>
       <c r="B121" t="s">
-        <v>364</v>
-      </c>
-      <c r="C121" s="21" t="s">
-        <v>365</v>
+        <v>350</v>
+      </c>
+      <c r="C121" t="s">
+        <v>388</v>
       </c>
       <c r="D121" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E121" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F121" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G121" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H121" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J121" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K121" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="G121" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H121" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="J121" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="K121" s="1" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.25">
@@ -6314,63 +6298,63 @@
         <v>121</v>
       </c>
       <c r="B122" t="s">
-        <v>366</v>
-      </c>
-      <c r="C122" s="21" t="s">
-        <v>367</v>
+        <v>351</v>
+      </c>
+      <c r="C122" t="s">
+        <v>352</v>
       </c>
       <c r="D122" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E122" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F122" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G122" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H122" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J122" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K122" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="G122" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H122" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="J122" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="K122" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="123" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>122</v>
       </c>
       <c r="B123" t="s">
-        <v>368</v>
-      </c>
-      <c r="C123" s="21" t="s">
-        <v>369</v>
+        <v>353</v>
+      </c>
+      <c r="C123" t="s">
+        <v>354</v>
       </c>
       <c r="D123" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E123" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F123" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G123" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H123" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J123" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K123" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="G123" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H123" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="J123" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="K123" s="1" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.25">
@@ -6378,159 +6362,159 @@
         <v>123</v>
       </c>
       <c r="B124" t="s">
-        <v>370</v>
-      </c>
-      <c r="C124" s="21" t="s">
-        <v>371</v>
+        <v>355</v>
+      </c>
+      <c r="C124" t="s">
+        <v>356</v>
       </c>
       <c r="D124" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E124" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F124" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G124" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H124" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J124" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K124" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="G124" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H124" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="J124" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="K124" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="125" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>124</v>
       </c>
       <c r="B125" t="s">
-        <v>372</v>
-      </c>
-      <c r="C125" s="21" t="s">
-        <v>373</v>
+        <v>357</v>
+      </c>
+      <c r="C125" t="s">
+        <v>358</v>
       </c>
       <c r="D125" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E125" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F125" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G125" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H125" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J125" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K125" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="G125" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H125" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="J125" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="K125" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="126" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="4">
         <v>125</v>
       </c>
       <c r="B126" t="s">
-        <v>374</v>
-      </c>
-      <c r="C126" s="21" t="s">
-        <v>375</v>
+        <v>359</v>
+      </c>
+      <c r="C126" t="s">
+        <v>360</v>
       </c>
       <c r="D126" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E126" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F126" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G126" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H126" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J126" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K126" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="G126" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H126" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="J126" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="K126" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="127" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>126</v>
       </c>
       <c r="B127" t="s">
-        <v>376</v>
-      </c>
-      <c r="C127" s="21" t="s">
-        <v>377</v>
+        <v>361</v>
+      </c>
+      <c r="C127" t="s">
+        <v>362</v>
       </c>
       <c r="D127" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E127" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F127" s="4" t="s">
-        <v>378</v>
+        <v>363</v>
       </c>
       <c r="G127" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H127" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J127" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K127" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K127" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="128" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>127</v>
       </c>
       <c r="B128" t="s">
-        <v>379</v>
-      </c>
-      <c r="C128" s="21" t="s">
-        <v>380</v>
+        <v>364</v>
+      </c>
+      <c r="C128" t="s">
+        <v>389</v>
       </c>
       <c r="D128" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E128" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F128" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G128" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H128" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J128" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K128" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="G128" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H128" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="J128" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="K128" s="1" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.25">
@@ -6538,38 +6522,38 @@
         <v>128</v>
       </c>
       <c r="B129" t="s">
-        <v>383</v>
+        <v>367</v>
       </c>
       <c r="C129" t="s">
-        <v>384</v>
-      </c>
-      <c r="D129" s="30" t="s">
-        <v>13</v>
+        <v>368</v>
+      </c>
+      <c r="D129" s="27" t="s">
+        <v>12</v>
       </c>
       <c r="E129" t="s">
-        <v>14</v>
-      </c>
-      <c r="F129" s="27" t="s">
-        <v>385</v>
+        <v>13</v>
+      </c>
+      <c r="F129" s="24" t="s">
+        <v>369</v>
       </c>
       <c r="G129" s="4" t="s">
-        <v>386</v>
+        <v>370</v>
       </c>
       <c r="H129">
         <v>1</v>
       </c>
-      <c r="I129" s="29" t="s">
-        <v>387</v>
-      </c>
-      <c r="J129" s="28" t="s">
+      <c r="I129" s="26" t="s">
+        <v>371</v>
+      </c>
+      <c r="J129" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="K129" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="K129" s="28" t="s">
-        <v>17</v>
-      </c>
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D130" s="30"/>
+      <c r="D130" s="27"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -6582,27 +6566,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Zeit xmlns="b63cdcf7-47fa-43f6-87e5-23b415b5c413" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="b63cdcf7-47fa-43f6-87e5-23b415b5c413">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="12535b08-222e-45d2-b6db-15019f1afee6" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100B1DC67C611DD5E4D81775F9F3E26A7B2" ma:contentTypeVersion="16" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="7f379a5812b480a74f9d031be5f88a83">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b63cdcf7-47fa-43f6-87e5-23b415b5c413" xmlns:ns3="12535b08-222e-45d2-b6db-15019f1afee6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="dbce1e37d7de67e1c835013ca0ee7a7c" ns2:_="" ns3:_="">
     <xsd:import namespace="b63cdcf7-47fa-43f6-87e5-23b415b5c413"/>
@@ -6843,32 +6806,28 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FBFC15CC-4CA5-447A-915F-1412CED97222}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="b63cdcf7-47fa-43f6-87e5-23b415b5c413"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="12535b08-222e-45d2-b6db-15019f1afee6"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E89B3EC5-962B-41D9-9821-3A191D2434CD}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Zeit xmlns="b63cdcf7-47fa-43f6-87e5-23b415b5c413" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="b63cdcf7-47fa-43f6-87e5-23b415b5c413">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="12535b08-222e-45d2-b6db-15019f1afee6" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{945A6BE8-5273-4FBB-A417-535A6E60D478}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6885,4 +6844,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E89B3EC5-962B-41D9-9821-3A191D2434CD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FBFC15CC-4CA5-447A-915F-1412CED97222}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="b63cdcf7-47fa-43f6-87e5-23b415b5c413"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="12535b08-222e-45d2-b6db-15019f1afee6"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/rmonize/data_proc_elem/DPE_GINI_P1.xlsx
+++ b/rmonize/data_proc_elem/DPE_GINI_P1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\use-cases-harmonisation\rmonize\data_proc_elem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{441B4ECB-5327-45A5-BBFB-30A184461E99}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D92DC759-9CB3-415B-BD09-8B08B653D298}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -91,9 +91,6 @@
   </si>
   <si>
     <t>AGE_BASE</t>
-  </si>
-  <si>
-    <t>Age at exposure measure</t>
   </si>
   <si>
     <t>decimal</t>
@@ -170,9 +167,6 @@
     <t>TOT_PA_QX</t>
   </si>
   <si>
-    <t>Physical activity from questionnaire data</t>
-  </si>
-  <si>
     <t>impossible</t>
   </si>
   <si>
@@ -1361,9 +1355,6 @@
     <t>Participant identification number</t>
   </si>
   <si>
-    <t>Body Mass Index at baseline</t>
-  </si>
-  <si>
     <t>Intake of cheese [g/d]</t>
   </si>
   <si>
@@ -1404,6 +1395,15 @@
   </si>
   <si>
     <t>Intake of amphibians, reptiles, snails, insects [g/d]</t>
+  </si>
+  <si>
+    <t>Age at exposure measure [years]</t>
+  </si>
+  <si>
+    <t>Body Mass Index at baseline [kg/m²]</t>
+  </si>
+  <si>
+    <t>Physical activity from questionnaire data [MET-hr/day]</t>
   </si>
 </sst>
 </file>
@@ -2363,14 +2363,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K130"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A118" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C2" sqref="C2:C129"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="3" width="29" style="4" customWidth="1"/>
+    <col min="2" max="2" width="29" style="4" customWidth="1"/>
+    <col min="3" max="3" width="138.140625" style="4" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="21.85546875" style="4" customWidth="1"/>
     <col min="7" max="7" width="26.42578125" style="4" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="22.5703125" style="4" bestFit="1" customWidth="1"/>
@@ -2423,7 +2424,7 @@
         <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D2" t="s">
         <v>12</v>
@@ -2489,16 +2490,16 @@
         <v>21</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>387</v>
       </c>
       <c r="D4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="12" t="s">
         <v>23</v>
-      </c>
-      <c r="E4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>24</v>
       </c>
       <c r="G4" s="13" t="s">
         <v>20</v>
@@ -2507,13 +2508,13 @@
         <v>20</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="J4" s="13" t="s">
         <v>15</v>
       </c>
       <c r="K4" s="13" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="409.5" x14ac:dyDescent="0.25">
@@ -2521,10 +2522,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
         <v>26</v>
-      </c>
-      <c r="C5" t="s">
-        <v>27</v>
       </c>
       <c r="D5" t="s">
         <v>12</v>
@@ -2533,22 +2534,22 @@
         <v>13</v>
       </c>
       <c r="F5" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="H5" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="I5" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="I5" s="20" t="s">
+      <c r="J5" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="J5" s="13" t="s">
+      <c r="K5" s="13" t="s">
         <v>32</v>
-      </c>
-      <c r="K5" s="13" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -2556,31 +2557,31 @@
         <v>5</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C6" t="s">
+        <v>389</v>
+      </c>
+      <c r="D6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H6" t="s">
+        <v>34</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="K6" s="4" t="s">
         <v>35</v>
-      </c>
-      <c r="D6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" t="s">
-        <v>36</v>
-      </c>
-      <c r="G6" t="s">
-        <v>36</v>
-      </c>
-      <c r="H6" t="s">
-        <v>36</v>
-      </c>
-      <c r="J6" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="K6" s="4" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -2588,10 +2589,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>12</v>
@@ -2600,22 +2601,22 @@
         <v>13</v>
       </c>
       <c r="F7" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G7" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I7" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="G7" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="J7" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="K7" s="4" t="s">
         <v>32</v>
-      </c>
-      <c r="K7" s="4" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -2623,19 +2624,19 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C8" t="s">
-        <v>375</v>
+        <v>388</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E8" t="s">
         <v>13</v>
       </c>
       <c r="F8" s="18" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G8" s="18" t="s">
         <v>20</v>
@@ -2656,22 +2657,22 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="C9" t="s">
+      <c r="G9" s="18" t="s">
         <v>46</v>
-      </c>
-      <c r="D9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="G9" s="18" t="s">
-        <v>48</v>
       </c>
       <c r="H9" s="18" t="s">
         <v>20</v>
@@ -2689,34 +2690,34 @@
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C10" t="s">
+      <c r="G10" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D10" t="s">
-        <v>23</v>
-      </c>
-      <c r="E10" t="s">
-        <v>13</v>
-      </c>
-      <c r="F10" s="3" t="s">
+      <c r="H10" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="I10" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="H10" s="3" t="s">
+      <c r="J10" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K10" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="I10" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -2724,31 +2725,31 @@
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C11" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E11" t="s">
         <v>13</v>
       </c>
       <c r="F11" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H11" s="3" t="s">
         <v>51</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>53</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>15</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -2756,31 +2757,31 @@
         <v>11</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C12" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E12" t="s">
         <v>13</v>
       </c>
       <c r="F12" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="75" x14ac:dyDescent="0.25">
@@ -2788,31 +2789,31 @@
         <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C13" t="s">
+        <v>60</v>
+      </c>
+      <c r="D13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C13" t="s">
+      <c r="G13" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H13" s="3" t="s">
         <v>62</v>
-      </c>
-      <c r="D13" t="s">
-        <v>23</v>
-      </c>
-      <c r="E13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>64</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>15</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -2820,31 +2821,31 @@
         <v>13</v>
       </c>
       <c r="B14" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C14" t="s">
+        <v>64</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="C14" t="s">
+      <c r="G14" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H14" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="D14" t="s">
-        <v>23</v>
-      </c>
-      <c r="E14" t="s">
-        <v>13</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="H14" s="7" t="s">
-        <v>68</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>15</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -2852,19 +2853,19 @@
         <v>14</v>
       </c>
       <c r="B15" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C15" t="s">
+        <v>68</v>
+      </c>
+      <c r="D15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" s="6" t="s">
         <v>69</v>
-      </c>
-      <c r="C15" t="s">
-        <v>70</v>
-      </c>
-      <c r="D15" t="s">
-        <v>23</v>
-      </c>
-      <c r="E15" t="s">
-        <v>13</v>
-      </c>
-      <c r="F15" s="6" t="s">
-        <v>71</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>20</v>
@@ -2884,19 +2885,19 @@
         <v>15</v>
       </c>
       <c r="B16" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C16" t="s">
+        <v>71</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16" t="s">
+        <v>13</v>
+      </c>
+      <c r="F16" s="6" t="s">
         <v>72</v>
-      </c>
-      <c r="C16" t="s">
-        <v>73</v>
-      </c>
-      <c r="D16" t="s">
-        <v>23</v>
-      </c>
-      <c r="E16" t="s">
-        <v>13</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>74</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>20</v>
@@ -2916,22 +2917,22 @@
         <v>16</v>
       </c>
       <c r="B17" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C17" t="s">
+        <v>74</v>
+      </c>
+      <c r="D17" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17" t="s">
+        <v>13</v>
+      </c>
+      <c r="F17" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="C17" t="s">
-        <v>76</v>
-      </c>
-      <c r="D17" t="s">
-        <v>23</v>
-      </c>
-      <c r="E17" t="s">
-        <v>13</v>
-      </c>
-      <c r="F17" s="6" t="s">
-        <v>77</v>
-      </c>
       <c r="G17" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H17" s="1" t="s">
         <v>20</v>
@@ -2948,31 +2949,31 @@
         <v>17</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C18" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E18" t="s">
         <v>13</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
@@ -2980,31 +2981,31 @@
         <v>18</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C19" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E19" t="s">
         <v>13</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
@@ -3012,31 +3013,31 @@
         <v>19</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C20" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E20" t="s">
         <v>13</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
@@ -3044,31 +3045,31 @@
         <v>20</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C21" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E21" t="s">
         <v>13</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
@@ -3076,31 +3077,31 @@
         <v>21</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C22" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D22" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E22" t="s">
         <v>13</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
@@ -3108,31 +3109,31 @@
         <v>22</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C23" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D23" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E23" t="s">
         <v>13</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
@@ -3140,19 +3141,19 @@
         <v>23</v>
       </c>
       <c r="B24" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C24" t="s">
+        <v>89</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24" t="s">
+        <v>13</v>
+      </c>
+      <c r="F24" s="6" t="s">
         <v>90</v>
-      </c>
-      <c r="C24" t="s">
-        <v>91</v>
-      </c>
-      <c r="D24" t="s">
-        <v>23</v>
-      </c>
-      <c r="E24" t="s">
-        <v>13</v>
-      </c>
-      <c r="F24" s="6" t="s">
-        <v>92</v>
       </c>
       <c r="G24" s="1" t="s">
         <v>20</v>
@@ -3172,32 +3173,32 @@
         <v>24</v>
       </c>
       <c r="B25" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C25" t="s">
+        <v>92</v>
+      </c>
+      <c r="D25" t="s">
+        <v>22</v>
+      </c>
+      <c r="E25" t="s">
+        <v>13</v>
+      </c>
+      <c r="F25" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="C25" t="s">
+      <c r="G25" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H25" s="3" t="s">
         <v>94</v>
-      </c>
-      <c r="D25" t="s">
-        <v>23</v>
-      </c>
-      <c r="E25" t="s">
-        <v>13</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="H25" s="3" t="s">
-        <v>96</v>
       </c>
       <c r="I25" s="7"/>
       <c r="J25" s="1" t="s">
         <v>15</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -3205,31 +3206,31 @@
         <v>25</v>
       </c>
       <c r="B26" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C26" t="s">
+        <v>96</v>
+      </c>
+      <c r="D26" t="s">
+        <v>22</v>
+      </c>
+      <c r="E26" t="s">
+        <v>13</v>
+      </c>
+      <c r="F26" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="C26" t="s">
+      <c r="G26" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H26" s="3" t="s">
         <v>98</v>
-      </c>
-      <c r="D26" t="s">
-        <v>23</v>
-      </c>
-      <c r="E26" t="s">
-        <v>13</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>100</v>
       </c>
       <c r="J26" s="1" t="s">
         <v>15</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
@@ -3237,19 +3238,19 @@
         <v>26</v>
       </c>
       <c r="B27" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C27" t="s">
+        <v>100</v>
+      </c>
+      <c r="D27" t="s">
+        <v>22</v>
+      </c>
+      <c r="E27" t="s">
+        <v>13</v>
+      </c>
+      <c r="F27" s="5" t="s">
         <v>101</v>
-      </c>
-      <c r="C27" t="s">
-        <v>102</v>
-      </c>
-      <c r="D27" t="s">
-        <v>23</v>
-      </c>
-      <c r="E27" t="s">
-        <v>13</v>
-      </c>
-      <c r="F27" s="5" t="s">
-        <v>103</v>
       </c>
       <c r="G27" s="1" t="s">
         <v>20</v>
@@ -3269,31 +3270,31 @@
         <v>27</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C28" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D28" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E28" t="s">
         <v>13</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
@@ -3301,31 +3302,31 @@
         <v>28</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C29" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D29" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E29" t="s">
         <v>13</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="135" x14ac:dyDescent="0.25">
@@ -3333,31 +3334,31 @@
         <v>29</v>
       </c>
       <c r="B30" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C30" t="s">
+        <v>107</v>
+      </c>
+      <c r="D30" t="s">
+        <v>22</v>
+      </c>
+      <c r="E30" t="s">
+        <v>13</v>
+      </c>
+      <c r="F30" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="C30" t="s">
+      <c r="G30" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H30" s="3" t="s">
         <v>109</v>
-      </c>
-      <c r="D30" t="s">
-        <v>23</v>
-      </c>
-      <c r="E30" t="s">
-        <v>13</v>
-      </c>
-      <c r="F30" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="H30" s="3" t="s">
-        <v>111</v>
       </c>
       <c r="J30" s="1" t="s">
         <v>15</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
@@ -3365,19 +3366,19 @@
         <v>30</v>
       </c>
       <c r="B31" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C31" t="s">
+        <v>111</v>
+      </c>
+      <c r="D31" t="s">
+        <v>22</v>
+      </c>
+      <c r="E31" t="s">
+        <v>13</v>
+      </c>
+      <c r="F31" s="6" t="s">
         <v>112</v>
-      </c>
-      <c r="C31" t="s">
-        <v>113</v>
-      </c>
-      <c r="D31" t="s">
-        <v>23</v>
-      </c>
-      <c r="E31" t="s">
-        <v>13</v>
-      </c>
-      <c r="F31" s="6" t="s">
-        <v>114</v>
       </c>
       <c r="G31" s="1" t="s">
         <v>20</v>
@@ -3397,31 +3398,31 @@
         <v>31</v>
       </c>
       <c r="B32" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C32" t="s">
+        <v>114</v>
+      </c>
+      <c r="D32" t="s">
+        <v>22</v>
+      </c>
+      <c r="E32" t="s">
+        <v>13</v>
+      </c>
+      <c r="F32" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="C32" t="s">
+      <c r="G32" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H32" s="3" t="s">
         <v>116</v>
-      </c>
-      <c r="D32" t="s">
-        <v>23</v>
-      </c>
-      <c r="E32" t="s">
-        <v>13</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="H32" s="3" t="s">
-        <v>118</v>
       </c>
       <c r="J32" s="1" t="s">
         <v>15</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
@@ -3429,19 +3430,19 @@
         <v>32</v>
       </c>
       <c r="B33" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="C33" t="s">
+        <v>118</v>
+      </c>
+      <c r="D33" t="s">
+        <v>22</v>
+      </c>
+      <c r="E33" t="s">
+        <v>13</v>
+      </c>
+      <c r="F33" s="6" t="s">
         <v>119</v>
-      </c>
-      <c r="C33" t="s">
-        <v>120</v>
-      </c>
-      <c r="D33" t="s">
-        <v>23</v>
-      </c>
-      <c r="E33" t="s">
-        <v>13</v>
-      </c>
-      <c r="F33" s="6" t="s">
-        <v>121</v>
       </c>
       <c r="G33" s="1" t="s">
         <v>20</v>
@@ -3461,19 +3462,19 @@
         <v>33</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C34" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D34" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E34" t="s">
         <v>13</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="G34" s="1" t="s">
         <v>20</v>
@@ -3493,32 +3494,32 @@
         <v>34</v>
       </c>
       <c r="B35" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="C35" t="s">
+        <v>373</v>
+      </c>
+      <c r="D35" t="s">
+        <v>22</v>
+      </c>
+      <c r="E35" t="s">
+        <v>13</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H35" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="C35" t="s">
-        <v>376</v>
-      </c>
-      <c r="D35" t="s">
-        <v>23</v>
-      </c>
-      <c r="E35" t="s">
-        <v>13</v>
-      </c>
-      <c r="F35" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="H35" s="7" t="s">
-        <v>126</v>
       </c>
       <c r="I35" s="1"/>
       <c r="J35" s="1" t="s">
         <v>15</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
@@ -3526,19 +3527,19 @@
         <v>35</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C36" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="D36" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E36" t="s">
         <v>13</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G36" s="1" t="s">
         <v>20</v>
@@ -3559,19 +3560,19 @@
         <v>36</v>
       </c>
       <c r="B37" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C37" t="s">
+        <v>128</v>
+      </c>
+      <c r="D37" t="s">
+        <v>22</v>
+      </c>
+      <c r="E37" t="s">
+        <v>13</v>
+      </c>
+      <c r="F37" s="4" t="s">
         <v>129</v>
-      </c>
-      <c r="C37" t="s">
-        <v>130</v>
-      </c>
-      <c r="D37" t="s">
-        <v>23</v>
-      </c>
-      <c r="E37" t="s">
-        <v>13</v>
-      </c>
-      <c r="F37" s="4" t="s">
-        <v>131</v>
       </c>
       <c r="G37" s="1" t="s">
         <v>20</v>
@@ -3592,19 +3593,19 @@
         <v>37</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C38" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D38" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E38" t="s">
         <v>13</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G38" s="1" t="s">
         <v>20</v>
@@ -3625,31 +3626,31 @@
         <v>38</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C39" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="D39" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E39" t="s">
         <v>13</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
@@ -3657,31 +3658,31 @@
         <v>39</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C40" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D40" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E40" t="s">
         <v>13</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="K40" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="41" spans="1:11" ht="165" x14ac:dyDescent="0.25">
@@ -3689,31 +3690,31 @@
         <v>40</v>
       </c>
       <c r="B41" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C41" s="28" t="s">
+        <v>376</v>
+      </c>
+      <c r="D41" t="s">
+        <v>22</v>
+      </c>
+      <c r="E41" t="s">
+        <v>13</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H41" s="3" t="s">
         <v>137</v>
-      </c>
-      <c r="C41" s="28" t="s">
-        <v>379</v>
-      </c>
-      <c r="D41" t="s">
-        <v>23</v>
-      </c>
-      <c r="E41" t="s">
-        <v>13</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="G41" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="H41" s="3" t="s">
-        <v>139</v>
       </c>
       <c r="J41" s="1" t="s">
         <v>15</v>
       </c>
       <c r="K41" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
@@ -3721,31 +3722,31 @@
         <v>41</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C42" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D42" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E42" t="s">
         <v>13</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="K42" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="43" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -3753,31 +3754,31 @@
         <v>42</v>
       </c>
       <c r="B43" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C43" t="s">
+        <v>141</v>
+      </c>
+      <c r="D43" t="s">
+        <v>22</v>
+      </c>
+      <c r="E43" t="s">
+        <v>13</v>
+      </c>
+      <c r="F43" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="C43" t="s">
+      <c r="G43" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H43" s="3" t="s">
         <v>143</v>
-      </c>
-      <c r="D43" t="s">
-        <v>23</v>
-      </c>
-      <c r="E43" t="s">
-        <v>13</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="G43" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="H43" s="3" t="s">
-        <v>145</v>
       </c>
       <c r="J43" s="1" t="s">
         <v>15</v>
       </c>
       <c r="K43" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="44" spans="1:11" ht="75" x14ac:dyDescent="0.25">
@@ -3785,34 +3786,34 @@
         <v>43</v>
       </c>
       <c r="B44" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C44" t="s">
+        <v>145</v>
+      </c>
+      <c r="D44" t="s">
+        <v>22</v>
+      </c>
+      <c r="E44" t="s">
+        <v>13</v>
+      </c>
+      <c r="F44" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="C44" t="s">
+      <c r="G44" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H44" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="D44" t="s">
-        <v>23</v>
-      </c>
-      <c r="E44" t="s">
-        <v>13</v>
-      </c>
-      <c r="F44" s="3" t="s">
+      <c r="I44" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="G44" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="H44" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="I44" s="7" t="s">
-        <v>150</v>
-      </c>
       <c r="J44" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K44" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="45" spans="1:11" ht="75" x14ac:dyDescent="0.25">
@@ -3820,31 +3821,31 @@
         <v>44</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C45" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D45" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E45" t="s">
         <v>13</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H45" s="3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="J45" s="1" t="s">
         <v>15</v>
       </c>
       <c r="K45" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
@@ -3852,31 +3853,31 @@
         <v>45</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C46" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D46" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E46" t="s">
         <v>13</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="K46" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="47" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -3884,31 +3885,31 @@
         <v>46</v>
       </c>
       <c r="B47" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C47" t="s">
+        <v>154</v>
+      </c>
+      <c r="D47" t="s">
+        <v>22</v>
+      </c>
+      <c r="E47" t="s">
+        <v>13</v>
+      </c>
+      <c r="F47" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="C47" t="s">
+      <c r="G47" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H47" s="3" t="s">
         <v>156</v>
-      </c>
-      <c r="D47" t="s">
-        <v>23</v>
-      </c>
-      <c r="E47" t="s">
-        <v>13</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="G47" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>158</v>
       </c>
       <c r="J47" s="1" t="s">
         <v>15</v>
       </c>
       <c r="K47" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
@@ -3916,31 +3917,31 @@
         <v>47</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C48" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D48" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E48" t="s">
         <v>13</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="K48" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
@@ -3948,19 +3949,19 @@
         <v>48</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C49" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="D49" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E49" t="s">
         <v>13</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G49" s="1" t="s">
         <v>20</v>
@@ -3980,19 +3981,19 @@
         <v>49</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C50" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D50" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E50" t="s">
         <v>13</v>
       </c>
       <c r="F50" s="21" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G50" s="22" t="s">
         <v>20</v>
@@ -4013,32 +4014,32 @@
         <v>50</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C51" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D51" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E51" t="s">
         <v>13</v>
       </c>
       <c r="F51" s="23" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="G51" s="22" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H51" s="21" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="I51" s="10"/>
       <c r="J51" s="22" t="s">
         <v>15</v>
       </c>
       <c r="K51" s="22" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="52" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -4046,34 +4047,34 @@
         <v>51</v>
       </c>
       <c r="B52" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="C52" t="s">
+        <v>167</v>
+      </c>
+      <c r="D52" t="s">
+        <v>22</v>
+      </c>
+      <c r="E52" t="s">
+        <v>13</v>
+      </c>
+      <c r="F52" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="C52" t="s">
+      <c r="G52" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H52" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="D52" t="s">
-        <v>23</v>
-      </c>
-      <c r="E52" t="s">
-        <v>13</v>
-      </c>
-      <c r="F52" s="6" t="s">
+      <c r="I52" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="G52" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="H52" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="I52" s="2" t="s">
-        <v>172</v>
-      </c>
       <c r="J52" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K52" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="53" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -4081,34 +4082,34 @@
         <v>52</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C53" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D53" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E53" t="s">
         <v>13</v>
       </c>
       <c r="F53" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H53" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="I53" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="G53" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="H53" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="I53" s="2" t="s">
-        <v>172</v>
-      </c>
       <c r="J53" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K53" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
@@ -4116,19 +4117,19 @@
         <v>53</v>
       </c>
       <c r="B54" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="C54" t="s">
+        <v>174</v>
+      </c>
+      <c r="D54" t="s">
+        <v>22</v>
+      </c>
+      <c r="E54" t="s">
+        <v>13</v>
+      </c>
+      <c r="F54" s="6" t="s">
         <v>175</v>
-      </c>
-      <c r="C54" t="s">
-        <v>176</v>
-      </c>
-      <c r="D54" t="s">
-        <v>23</v>
-      </c>
-      <c r="E54" t="s">
-        <v>13</v>
-      </c>
-      <c r="F54" s="6" t="s">
-        <v>177</v>
       </c>
       <c r="G54" s="1" t="s">
         <v>20</v>
@@ -4148,31 +4149,31 @@
         <v>54</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C55" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D55" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E55" t="s">
         <v>13</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="K55" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
@@ -4180,31 +4181,31 @@
         <v>55</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C56" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D56" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E56" t="s">
         <v>13</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="K56" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
@@ -4212,31 +4213,31 @@
         <v>56</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C57" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D57" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E57" t="s">
         <v>13</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="K57" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
@@ -4244,19 +4245,19 @@
         <v>57</v>
       </c>
       <c r="B58" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="C58" t="s">
+        <v>183</v>
+      </c>
+      <c r="D58" t="s">
+        <v>22</v>
+      </c>
+      <c r="E58" t="s">
+        <v>13</v>
+      </c>
+      <c r="F58" s="4" t="s">
         <v>184</v>
-      </c>
-      <c r="C58" t="s">
-        <v>185</v>
-      </c>
-      <c r="D58" t="s">
-        <v>23</v>
-      </c>
-      <c r="E58" t="s">
-        <v>13</v>
-      </c>
-      <c r="F58" s="4" t="s">
-        <v>186</v>
       </c>
       <c r="G58" s="1" t="s">
         <v>20</v>
@@ -4276,31 +4277,31 @@
         <v>58</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C59" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="D59" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E59" t="s">
         <v>13</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="J59" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="K59" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
@@ -4308,31 +4309,31 @@
         <v>59</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C60" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="D60" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E60" t="s">
         <v>13</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="J60" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="K60" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
@@ -4340,31 +4341,31 @@
         <v>60</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C61" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D61" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E61" t="s">
         <v>13</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="K61" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
@@ -4372,31 +4373,31 @@
         <v>61</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C62" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D62" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E62" t="s">
         <v>13</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="K62" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
@@ -4404,31 +4405,31 @@
         <v>62</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C63" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D63" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E63" t="s">
         <v>13</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="J63" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="K63" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
@@ -4436,31 +4437,31 @@
         <v>63</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C64" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D64" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E64" t="s">
         <v>13</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="J64" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="K64" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
@@ -4468,31 +4469,31 @@
         <v>64</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C65" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D65" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E65" t="s">
         <v>13</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="J65" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="K65" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="66" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -4500,31 +4501,31 @@
         <v>65</v>
       </c>
       <c r="B66" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="C66" t="s">
+        <v>198</v>
+      </c>
+      <c r="D66" t="s">
+        <v>22</v>
+      </c>
+      <c r="E66" t="s">
+        <v>13</v>
+      </c>
+      <c r="F66" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="C66" t="s">
+      <c r="G66" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H66" s="3" t="s">
         <v>200</v>
-      </c>
-      <c r="D66" t="s">
-        <v>23</v>
-      </c>
-      <c r="E66" t="s">
-        <v>13</v>
-      </c>
-      <c r="F66" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="G66" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="H66" s="3" t="s">
-        <v>202</v>
       </c>
       <c r="J66" s="1" t="s">
         <v>15</v>
       </c>
       <c r="K66" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
@@ -4532,19 +4533,19 @@
         <v>66</v>
       </c>
       <c r="B67" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="C67" t="s">
+        <v>202</v>
+      </c>
+      <c r="D67" t="s">
+        <v>22</v>
+      </c>
+      <c r="E67" t="s">
+        <v>13</v>
+      </c>
+      <c r="F67" s="6" t="s">
         <v>203</v>
-      </c>
-      <c r="C67" t="s">
-        <v>204</v>
-      </c>
-      <c r="D67" t="s">
-        <v>23</v>
-      </c>
-      <c r="E67" t="s">
-        <v>13</v>
-      </c>
-      <c r="F67" s="6" t="s">
-        <v>205</v>
       </c>
       <c r="G67" s="1" t="s">
         <v>20</v>
@@ -4564,31 +4565,31 @@
         <v>67</v>
       </c>
       <c r="B68" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="C68" t="s">
+        <v>205</v>
+      </c>
+      <c r="D68" t="s">
+        <v>22</v>
+      </c>
+      <c r="E68" t="s">
+        <v>13</v>
+      </c>
+      <c r="F68" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="C68" t="s">
+      <c r="G68" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H68" s="3" t="s">
         <v>207</v>
-      </c>
-      <c r="D68" t="s">
-        <v>23</v>
-      </c>
-      <c r="E68" t="s">
-        <v>13</v>
-      </c>
-      <c r="F68" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="G68" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="H68" s="3" t="s">
-        <v>209</v>
       </c>
       <c r="J68" s="1" t="s">
         <v>15</v>
       </c>
       <c r="K68" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="69" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -4596,31 +4597,31 @@
         <v>68</v>
       </c>
       <c r="B69" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="C69" t="s">
+        <v>380</v>
+      </c>
+      <c r="D69" t="s">
+        <v>22</v>
+      </c>
+      <c r="E69" t="s">
+        <v>13</v>
+      </c>
+      <c r="F69" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="G69" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H69" s="3" t="s">
         <v>210</v>
-      </c>
-      <c r="C69" t="s">
-        <v>383</v>
-      </c>
-      <c r="D69" t="s">
-        <v>23</v>
-      </c>
-      <c r="E69" t="s">
-        <v>13</v>
-      </c>
-      <c r="F69" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="G69" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="H69" s="3" t="s">
-        <v>212</v>
       </c>
       <c r="J69" s="1" t="s">
         <v>15</v>
       </c>
       <c r="K69" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
@@ -4628,31 +4629,31 @@
         <v>69</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C70" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D70" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E70" t="s">
         <v>13</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="J70" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="K70" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="71" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -4660,31 +4661,31 @@
         <v>70</v>
       </c>
       <c r="B71" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="C71" t="s">
+        <v>381</v>
+      </c>
+      <c r="D71" t="s">
+        <v>22</v>
+      </c>
+      <c r="E71" t="s">
+        <v>13</v>
+      </c>
+      <c r="F71" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="G71" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H71" s="3" t="s">
         <v>215</v>
-      </c>
-      <c r="C71" t="s">
-        <v>384</v>
-      </c>
-      <c r="D71" t="s">
-        <v>23</v>
-      </c>
-      <c r="E71" t="s">
-        <v>13</v>
-      </c>
-      <c r="F71" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="G71" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="H71" s="3" t="s">
-        <v>217</v>
       </c>
       <c r="J71" s="1" t="s">
         <v>15</v>
       </c>
       <c r="K71" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
@@ -4692,19 +4693,19 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
+        <v>216</v>
+      </c>
+      <c r="C72" t="s">
+        <v>217</v>
+      </c>
+      <c r="D72" t="s">
+        <v>22</v>
+      </c>
+      <c r="E72" t="s">
+        <v>13</v>
+      </c>
+      <c r="F72" s="6" t="s">
         <v>218</v>
-      </c>
-      <c r="C72" t="s">
-        <v>219</v>
-      </c>
-      <c r="D72" t="s">
-        <v>23</v>
-      </c>
-      <c r="E72" t="s">
-        <v>13</v>
-      </c>
-      <c r="F72" s="6" t="s">
-        <v>220</v>
       </c>
       <c r="G72" s="1" t="s">
         <v>20</v>
@@ -4725,31 +4726,31 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C73" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D73" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E73" t="s">
         <v>13</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="J73" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="K73" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="74" spans="1:11" ht="150" x14ac:dyDescent="0.25">
@@ -4757,31 +4758,31 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
+        <v>221</v>
+      </c>
+      <c r="C74" t="s">
+        <v>222</v>
+      </c>
+      <c r="D74" t="s">
+        <v>22</v>
+      </c>
+      <c r="E74" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F74" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="C74" t="s">
+      <c r="G74" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H74" s="3" t="s">
         <v>224</v>
-      </c>
-      <c r="D74" t="s">
-        <v>23</v>
-      </c>
-      <c r="E74" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F74" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="G74" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="H74" s="3" t="s">
-        <v>226</v>
       </c>
       <c r="J74" s="1" t="s">
         <v>15</v>
       </c>
       <c r="K74" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="75" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -4789,31 +4790,31 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
+        <v>225</v>
+      </c>
+      <c r="C75" t="s">
+        <v>226</v>
+      </c>
+      <c r="D75" t="s">
+        <v>22</v>
+      </c>
+      <c r="E75" t="s">
+        <v>13</v>
+      </c>
+      <c r="F75" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="C75" t="s">
+      <c r="G75" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H75" s="3" t="s">
         <v>228</v>
-      </c>
-      <c r="D75" t="s">
-        <v>23</v>
-      </c>
-      <c r="E75" t="s">
-        <v>13</v>
-      </c>
-      <c r="F75" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="G75" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="H75" s="3" t="s">
-        <v>230</v>
       </c>
       <c r="J75" s="1" t="s">
         <v>15</v>
       </c>
       <c r="K75" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="76" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -4821,31 +4822,31 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
+        <v>229</v>
+      </c>
+      <c r="C76" t="s">
+        <v>230</v>
+      </c>
+      <c r="D76" t="s">
+        <v>22</v>
+      </c>
+      <c r="E76" t="s">
+        <v>13</v>
+      </c>
+      <c r="F76" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="C76" t="s">
+      <c r="G76" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H76" s="3" t="s">
         <v>232</v>
-      </c>
-      <c r="D76" t="s">
-        <v>23</v>
-      </c>
-      <c r="E76" t="s">
-        <v>13</v>
-      </c>
-      <c r="F76" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="G76" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="H76" s="3" t="s">
-        <v>234</v>
       </c>
       <c r="J76" s="1" t="s">
         <v>15</v>
       </c>
       <c r="K76" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="77" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -4853,31 +4854,31 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
+        <v>233</v>
+      </c>
+      <c r="C77" t="s">
+        <v>234</v>
+      </c>
+      <c r="D77" t="s">
+        <v>22</v>
+      </c>
+      <c r="E77" t="s">
+        <v>13</v>
+      </c>
+      <c r="F77" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="C77" t="s">
+      <c r="G77" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H77" s="3" t="s">
         <v>236</v>
-      </c>
-      <c r="D77" t="s">
-        <v>23</v>
-      </c>
-      <c r="E77" t="s">
-        <v>13</v>
-      </c>
-      <c r="F77" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="G77" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="H77" s="3" t="s">
-        <v>238</v>
       </c>
       <c r="J77" s="1" t="s">
         <v>15</v>
       </c>
       <c r="K77" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
@@ -4885,31 +4886,31 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C78" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D78" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E78" t="s">
         <v>13</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="J78" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="K78" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
@@ -4917,31 +4918,31 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C79" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D79" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E79" t="s">
         <v>13</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="J79" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="K79" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
@@ -4949,31 +4950,31 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C80" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D80" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E80" t="s">
         <v>13</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H80" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="J80" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="K80" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="81" spans="1:11" ht="75" x14ac:dyDescent="0.25">
@@ -4981,31 +4982,31 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
+        <v>243</v>
+      </c>
+      <c r="C81" t="s">
+        <v>244</v>
+      </c>
+      <c r="D81" t="s">
+        <v>22</v>
+      </c>
+      <c r="E81" t="s">
+        <v>13</v>
+      </c>
+      <c r="F81" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="C81" t="s">
+      <c r="G81" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H81" s="3" t="s">
         <v>246</v>
-      </c>
-      <c r="D81" t="s">
-        <v>23</v>
-      </c>
-      <c r="E81" t="s">
-        <v>13</v>
-      </c>
-      <c r="F81" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="G81" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="H81" s="3" t="s">
-        <v>248</v>
       </c>
       <c r="J81" s="1" t="s">
         <v>15</v>
       </c>
       <c r="K81" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
@@ -5013,31 +5014,31 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C82" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D82" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E82" t="s">
         <v>13</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="J82" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="K82" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="83" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -5045,31 +5046,31 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
+        <v>249</v>
+      </c>
+      <c r="C83" t="s">
+        <v>382</v>
+      </c>
+      <c r="D83" t="s">
+        <v>22</v>
+      </c>
+      <c r="E83" t="s">
+        <v>13</v>
+      </c>
+      <c r="F83" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="G83" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H83" s="3" t="s">
         <v>251</v>
-      </c>
-      <c r="C83" t="s">
-        <v>385</v>
-      </c>
-      <c r="D83" t="s">
-        <v>23</v>
-      </c>
-      <c r="E83" t="s">
-        <v>13</v>
-      </c>
-      <c r="F83" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="G83" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="H83" s="3" t="s">
-        <v>253</v>
       </c>
       <c r="J83" s="1" t="s">
         <v>15</v>
       </c>
       <c r="K83" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
@@ -5077,19 +5078,19 @@
         <v>83</v>
       </c>
       <c r="B84" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="C84" t="s">
+        <v>253</v>
+      </c>
+      <c r="D84" t="s">
+        <v>22</v>
+      </c>
+      <c r="E84" t="s">
+        <v>13</v>
+      </c>
+      <c r="F84" s="4" t="s">
         <v>254</v>
-      </c>
-      <c r="C84" t="s">
-        <v>255</v>
-      </c>
-      <c r="D84" t="s">
-        <v>23</v>
-      </c>
-      <c r="E84" t="s">
-        <v>13</v>
-      </c>
-      <c r="F84" s="4" t="s">
-        <v>256</v>
       </c>
       <c r="G84" s="1" t="s">
         <v>20</v>
@@ -5109,19 +5110,19 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
+        <v>255</v>
+      </c>
+      <c r="C85" t="s">
+        <v>256</v>
+      </c>
+      <c r="D85" t="s">
+        <v>22</v>
+      </c>
+      <c r="E85" t="s">
+        <v>13</v>
+      </c>
+      <c r="F85" s="4" t="s">
         <v>257</v>
-      </c>
-      <c r="C85" t="s">
-        <v>258</v>
-      </c>
-      <c r="D85" t="s">
-        <v>23</v>
-      </c>
-      <c r="E85" t="s">
-        <v>13</v>
-      </c>
-      <c r="F85" s="4" t="s">
-        <v>259</v>
       </c>
       <c r="G85" s="1" t="s">
         <v>20</v>
@@ -5141,19 +5142,19 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
+        <v>258</v>
+      </c>
+      <c r="C86" t="s">
+        <v>259</v>
+      </c>
+      <c r="D86" t="s">
+        <v>22</v>
+      </c>
+      <c r="E86" t="s">
+        <v>13</v>
+      </c>
+      <c r="F86" s="4" t="s">
         <v>260</v>
-      </c>
-      <c r="C86" t="s">
-        <v>261</v>
-      </c>
-      <c r="D86" t="s">
-        <v>23</v>
-      </c>
-      <c r="E86" t="s">
-        <v>13</v>
-      </c>
-      <c r="F86" s="4" t="s">
-        <v>262</v>
       </c>
       <c r="G86" s="1" t="s">
         <v>20</v>
@@ -5174,31 +5175,31 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C87" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D87" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E87" t="s">
         <v>13</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H87" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="J87" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="K87" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
@@ -5206,31 +5207,31 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C88" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D88" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E88" t="s">
         <v>13</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H88" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="J88" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="K88" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
@@ -5238,31 +5239,31 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C89" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D89" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E89" t="s">
         <v>13</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H89" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="J89" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="K89" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="90" spans="1:11" ht="75" x14ac:dyDescent="0.25">
@@ -5270,31 +5271,31 @@
         <v>89</v>
       </c>
       <c r="B90" t="s">
+        <v>267</v>
+      </c>
+      <c r="C90" t="s">
+        <v>383</v>
+      </c>
+      <c r="D90" t="s">
+        <v>22</v>
+      </c>
+      <c r="E90" t="s">
+        <v>13</v>
+      </c>
+      <c r="F90" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="G90" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H90" s="3" t="s">
         <v>269</v>
-      </c>
-      <c r="C90" t="s">
-        <v>386</v>
-      </c>
-      <c r="D90" t="s">
-        <v>23</v>
-      </c>
-      <c r="E90" t="s">
-        <v>13</v>
-      </c>
-      <c r="F90" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="G90" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="H90" s="3" t="s">
-        <v>271</v>
       </c>
       <c r="J90" s="1" t="s">
         <v>15</v>
       </c>
       <c r="K90" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="91" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -5302,31 +5303,31 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
+        <v>270</v>
+      </c>
+      <c r="C91" t="s">
+        <v>271</v>
+      </c>
+      <c r="D91" t="s">
+        <v>22</v>
+      </c>
+      <c r="E91" t="s">
+        <v>13</v>
+      </c>
+      <c r="F91" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="C91" t="s">
+      <c r="G91" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H91" s="3" t="s">
         <v>273</v>
-      </c>
-      <c r="D91" t="s">
-        <v>23</v>
-      </c>
-      <c r="E91" t="s">
-        <v>13</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>274</v>
-      </c>
-      <c r="G91" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>275</v>
       </c>
       <c r="J91" s="1" t="s">
         <v>15</v>
       </c>
       <c r="K91" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
@@ -5334,19 +5335,19 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
+        <v>274</v>
+      </c>
+      <c r="C92" t="s">
+        <v>275</v>
+      </c>
+      <c r="D92" t="s">
+        <v>22</v>
+      </c>
+      <c r="E92" t="s">
+        <v>13</v>
+      </c>
+      <c r="F92" s="4" t="s">
         <v>276</v>
-      </c>
-      <c r="C92" t="s">
-        <v>277</v>
-      </c>
-      <c r="D92" t="s">
-        <v>23</v>
-      </c>
-      <c r="E92" t="s">
-        <v>13</v>
-      </c>
-      <c r="F92" s="4" t="s">
-        <v>278</v>
       </c>
       <c r="G92" s="1" t="s">
         <v>20</v>
@@ -5366,31 +5367,31 @@
         <v>92</v>
       </c>
       <c r="B93" t="s">
+        <v>277</v>
+      </c>
+      <c r="C93" t="s">
+        <v>278</v>
+      </c>
+      <c r="D93" t="s">
+        <v>22</v>
+      </c>
+      <c r="E93" t="s">
+        <v>13</v>
+      </c>
+      <c r="F93" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="C93" t="s">
+      <c r="G93" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H93" s="3" t="s">
         <v>280</v>
-      </c>
-      <c r="D93" t="s">
-        <v>23</v>
-      </c>
-      <c r="E93" t="s">
-        <v>13</v>
-      </c>
-      <c r="F93" s="3" t="s">
-        <v>281</v>
-      </c>
-      <c r="G93" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="H93" s="3" t="s">
-        <v>282</v>
       </c>
       <c r="J93" s="1" t="s">
         <v>15</v>
       </c>
       <c r="K93" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="94" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -5398,31 +5399,31 @@
         <v>93</v>
       </c>
       <c r="B94" t="s">
+        <v>281</v>
+      </c>
+      <c r="C94" t="s">
+        <v>282</v>
+      </c>
+      <c r="D94" t="s">
+        <v>22</v>
+      </c>
+      <c r="E94" t="s">
+        <v>13</v>
+      </c>
+      <c r="F94" s="3" t="s">
         <v>283</v>
       </c>
-      <c r="C94" t="s">
+      <c r="G94" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H94" s="3" t="s">
         <v>284</v>
-      </c>
-      <c r="D94" t="s">
-        <v>23</v>
-      </c>
-      <c r="E94" t="s">
-        <v>13</v>
-      </c>
-      <c r="F94" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="G94" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="H94" s="3" t="s">
-        <v>286</v>
       </c>
       <c r="J94" s="1" t="s">
         <v>15</v>
       </c>
       <c r="K94" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="95" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -5430,31 +5431,31 @@
         <v>94</v>
       </c>
       <c r="B95" t="s">
+        <v>285</v>
+      </c>
+      <c r="C95" t="s">
+        <v>286</v>
+      </c>
+      <c r="D95" t="s">
+        <v>22</v>
+      </c>
+      <c r="E95" t="s">
+        <v>13</v>
+      </c>
+      <c r="F95" s="3" t="s">
         <v>287</v>
       </c>
-      <c r="C95" t="s">
+      <c r="G95" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="H95" s="3" t="s">
         <v>288</v>
-      </c>
-      <c r="D95" t="s">
-        <v>23</v>
-      </c>
-      <c r="E95" t="s">
-        <v>13</v>
-      </c>
-      <c r="F95" s="3" t="s">
-        <v>289</v>
-      </c>
-      <c r="G95" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="H95" s="3" t="s">
-        <v>290</v>
       </c>
       <c r="J95" s="1" t="s">
         <v>15</v>
       </c>
       <c r="K95" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="96" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -5462,19 +5463,19 @@
         <v>95</v>
       </c>
       <c r="B96" t="s">
+        <v>289</v>
+      </c>
+      <c r="C96" t="s">
+        <v>290</v>
+      </c>
+      <c r="D96" t="s">
+        <v>22</v>
+      </c>
+      <c r="E96" t="s">
+        <v>13</v>
+      </c>
+      <c r="F96" s="4" t="s">
         <v>291</v>
-      </c>
-      <c r="C96" t="s">
-        <v>292</v>
-      </c>
-      <c r="D96" t="s">
-        <v>23</v>
-      </c>
-      <c r="E96" t="s">
-        <v>13</v>
-      </c>
-      <c r="F96" s="4" t="s">
-        <v>293</v>
       </c>
       <c r="G96" s="1" t="s">
         <v>20</v>
@@ -5483,13 +5484,13 @@
         <v>20</v>
       </c>
       <c r="I96" s="7" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="J96" s="17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K96" s="17" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
@@ -5497,31 +5498,31 @@
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C97" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D97" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E97" t="s">
         <v>13</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H97" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="J97" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="K97" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
@@ -5529,19 +5530,19 @@
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C98" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D98" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E98" t="s">
         <v>13</v>
       </c>
       <c r="F98" s="4" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="G98" s="1" t="s">
         <v>20</v>
@@ -5561,31 +5562,31 @@
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C99" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D99" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E99" t="s">
         <v>13</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H99" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="J99" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="K99" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.25">
@@ -5593,31 +5594,31 @@
         <v>99</v>
       </c>
       <c r="B100" s="8" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C100" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D100" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E100" t="s">
         <v>13</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H100" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="J100" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="K100" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.25">
@@ -5625,19 +5626,19 @@
         <v>100</v>
       </c>
       <c r="B101" t="s">
+        <v>302</v>
+      </c>
+      <c r="C101" t="s">
+        <v>303</v>
+      </c>
+      <c r="D101" t="s">
+        <v>22</v>
+      </c>
+      <c r="E101" t="s">
+        <v>13</v>
+      </c>
+      <c r="F101" s="6" t="s">
         <v>304</v>
-      </c>
-      <c r="C101" t="s">
-        <v>305</v>
-      </c>
-      <c r="D101" t="s">
-        <v>23</v>
-      </c>
-      <c r="E101" t="s">
-        <v>13</v>
-      </c>
-      <c r="F101" s="6" t="s">
-        <v>306</v>
       </c>
       <c r="G101" s="1" t="s">
         <v>20</v>
@@ -5657,19 +5658,19 @@
         <v>101</v>
       </c>
       <c r="B102" s="13" t="s">
+        <v>305</v>
+      </c>
+      <c r="C102" t="s">
+        <v>306</v>
+      </c>
+      <c r="D102" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E102" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="F102" s="1" t="s">
         <v>307</v>
-      </c>
-      <c r="C102" t="s">
-        <v>308</v>
-      </c>
-      <c r="D102" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="E102" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F102" s="1" t="s">
-        <v>309</v>
       </c>
       <c r="G102" s="1" t="s">
         <v>20</v>
@@ -5690,19 +5691,19 @@
         <v>102</v>
       </c>
       <c r="B103" t="s">
+        <v>308</v>
+      </c>
+      <c r="C103" t="s">
+        <v>309</v>
+      </c>
+      <c r="D103" t="s">
+        <v>22</v>
+      </c>
+      <c r="E103" t="s">
+        <v>13</v>
+      </c>
+      <c r="F103" s="4" t="s">
         <v>310</v>
-      </c>
-      <c r="C103" t="s">
-        <v>311</v>
-      </c>
-      <c r="D103" t="s">
-        <v>23</v>
-      </c>
-      <c r="E103" t="s">
-        <v>13</v>
-      </c>
-      <c r="F103" s="4" t="s">
-        <v>312</v>
       </c>
       <c r="G103" s="1" t="s">
         <v>20</v>
@@ -5722,31 +5723,31 @@
         <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C104" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="D104" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E104" t="s">
         <v>13</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H104" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="J104" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="K104" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.25">
@@ -5754,19 +5755,19 @@
         <v>104</v>
       </c>
       <c r="B105" t="s">
+        <v>313</v>
+      </c>
+      <c r="C105" t="s">
+        <v>314</v>
+      </c>
+      <c r="D105" t="s">
+        <v>22</v>
+      </c>
+      <c r="E105" t="s">
+        <v>13</v>
+      </c>
+      <c r="F105" s="4" t="s">
         <v>315</v>
-      </c>
-      <c r="C105" t="s">
-        <v>316</v>
-      </c>
-      <c r="D105" t="s">
-        <v>23</v>
-      </c>
-      <c r="E105" t="s">
-        <v>13</v>
-      </c>
-      <c r="F105" s="4" t="s">
-        <v>317</v>
       </c>
       <c r="G105" s="1" t="s">
         <v>20</v>
@@ -5786,31 +5787,31 @@
         <v>105</v>
       </c>
       <c r="B106" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C106" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="D106" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E106" t="s">
         <v>13</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H106" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="J106" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="K106" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.25">
@@ -5818,31 +5819,31 @@
         <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C107" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="D107" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E107" t="s">
         <v>13</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H107" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="J107" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="K107" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.25">
@@ -5850,19 +5851,19 @@
         <v>107</v>
       </c>
       <c r="B108" t="s">
+        <v>320</v>
+      </c>
+      <c r="C108" t="s">
+        <v>321</v>
+      </c>
+      <c r="D108" t="s">
+        <v>22</v>
+      </c>
+      <c r="E108" t="s">
+        <v>13</v>
+      </c>
+      <c r="F108" s="4" t="s">
         <v>322</v>
-      </c>
-      <c r="C108" t="s">
-        <v>323</v>
-      </c>
-      <c r="D108" t="s">
-        <v>23</v>
-      </c>
-      <c r="E108" t="s">
-        <v>13</v>
-      </c>
-      <c r="F108" s="4" t="s">
-        <v>324</v>
       </c>
       <c r="G108" s="1" t="s">
         <v>20</v>
@@ -5882,31 +5883,31 @@
         <v>108</v>
       </c>
       <c r="B109" t="s">
+        <v>323</v>
+      </c>
+      <c r="C109" t="s">
+        <v>324</v>
+      </c>
+      <c r="D109" t="s">
+        <v>22</v>
+      </c>
+      <c r="E109" t="s">
+        <v>13</v>
+      </c>
+      <c r="F109" s="3" t="s">
         <v>325</v>
       </c>
-      <c r="C109" t="s">
+      <c r="G109" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H109" s="3" t="s">
         <v>326</v>
-      </c>
-      <c r="D109" t="s">
-        <v>23</v>
-      </c>
-      <c r="E109" t="s">
-        <v>13</v>
-      </c>
-      <c r="F109" s="3" t="s">
-        <v>327</v>
-      </c>
-      <c r="G109" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="H109" s="3" t="s">
-        <v>328</v>
       </c>
       <c r="J109" s="1" t="s">
         <v>15</v>
       </c>
       <c r="K109" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.25">
@@ -5914,31 +5915,31 @@
         <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C110" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="D110" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E110" t="s">
         <v>13</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G110" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H110" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="J110" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="K110" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.25">
@@ -5946,31 +5947,31 @@
         <v>110</v>
       </c>
       <c r="B111" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C111" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="D111" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E111" t="s">
         <v>13</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G111" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H111" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="J111" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="K111" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.25">
@@ -5978,31 +5979,31 @@
         <v>111</v>
       </c>
       <c r="B112" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C112" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="D112" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E112" t="s">
         <v>13</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G112" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H112" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="J112" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="K112" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.25">
@@ -6010,31 +6011,31 @@
         <v>112</v>
       </c>
       <c r="B113" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C113" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D113" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E113" t="s">
         <v>13</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G113" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H113" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="J113" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="K113" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.25">
@@ -6042,31 +6043,31 @@
         <v>113</v>
       </c>
       <c r="B114" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C114" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="D114" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E114" t="s">
         <v>13</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G114" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H114" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="J114" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="K114" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.25">
@@ -6074,31 +6075,31 @@
         <v>114</v>
       </c>
       <c r="B115" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C115" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="D115" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E115" t="s">
         <v>13</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G115" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H115" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="J115" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="K115" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.25">
@@ -6106,31 +6107,31 @@
         <v>115</v>
       </c>
       <c r="B116" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C116" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="D116" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E116" t="s">
         <v>13</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G116" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H116" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="J116" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="K116" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.25">
@@ -6138,31 +6139,31 @@
         <v>116</v>
       </c>
       <c r="B117" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C117" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="D117" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E117" t="s">
         <v>13</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G117" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H117" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="J117" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="K117" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.25">
@@ -6170,31 +6171,31 @@
         <v>117</v>
       </c>
       <c r="B118" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C118" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="D118" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E118" t="s">
         <v>13</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G118" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H118" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="J118" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="K118" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.25">
@@ -6202,31 +6203,31 @@
         <v>118</v>
       </c>
       <c r="B119" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C119" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="D119" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E119" t="s">
         <v>13</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G119" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H119" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="J119" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="K119" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.25">
@@ -6234,31 +6235,31 @@
         <v>119</v>
       </c>
       <c r="B120" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C120" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="D120" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E120" t="s">
         <v>13</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G120" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H120" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="J120" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="K120" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.25">
@@ -6266,31 +6267,31 @@
         <v>120</v>
       </c>
       <c r="B121" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C121" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="D121" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E121" t="s">
         <v>13</v>
       </c>
       <c r="F121" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G121" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H121" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="J121" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="K121" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.25">
@@ -6298,31 +6299,31 @@
         <v>121</v>
       </c>
       <c r="B122" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C122" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="D122" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E122" t="s">
         <v>13</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G122" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H122" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="J122" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="K122" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.25">
@@ -6330,31 +6331,31 @@
         <v>122</v>
       </c>
       <c r="B123" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C123" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="D123" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E123" t="s">
         <v>13</v>
       </c>
       <c r="F123" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G123" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H123" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="J123" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="K123" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.25">
@@ -6362,31 +6363,31 @@
         <v>123</v>
       </c>
       <c r="B124" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C124" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D124" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E124" t="s">
         <v>13</v>
       </c>
       <c r="F124" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G124" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H124" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="J124" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="K124" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.25">
@@ -6394,31 +6395,31 @@
         <v>124</v>
       </c>
       <c r="B125" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="C125" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="D125" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E125" t="s">
         <v>13</v>
       </c>
       <c r="F125" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G125" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H125" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="J125" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="K125" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.25">
@@ -6426,31 +6427,31 @@
         <v>125</v>
       </c>
       <c r="B126" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="C126" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="D126" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E126" t="s">
         <v>13</v>
       </c>
       <c r="F126" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G126" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H126" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="J126" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="K126" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.25">
@@ -6458,19 +6459,19 @@
         <v>126</v>
       </c>
       <c r="B127" t="s">
+        <v>359</v>
+      </c>
+      <c r="C127" t="s">
+        <v>360</v>
+      </c>
+      <c r="D127" t="s">
+        <v>22</v>
+      </c>
+      <c r="E127" t="s">
+        <v>13</v>
+      </c>
+      <c r="F127" s="4" t="s">
         <v>361</v>
-      </c>
-      <c r="C127" t="s">
-        <v>362</v>
-      </c>
-      <c r="D127" t="s">
-        <v>23</v>
-      </c>
-      <c r="E127" t="s">
-        <v>13</v>
-      </c>
-      <c r="F127" s="4" t="s">
-        <v>363</v>
       </c>
       <c r="G127" s="1" t="s">
         <v>20</v>
@@ -6490,31 +6491,31 @@
         <v>127</v>
       </c>
       <c r="B128" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="C128" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="D128" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E128" t="s">
         <v>13</v>
       </c>
       <c r="F128" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G128" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H128" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="J128" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="K128" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.25">
@@ -6522,10 +6523,10 @@
         <v>128</v>
       </c>
       <c r="B129" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C129" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="D129" s="27" t="s">
         <v>12</v>
@@ -6534,16 +6535,16 @@
         <v>13</v>
       </c>
       <c r="F129" s="24" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="G129" s="4" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="H129">
         <v>1</v>
       </c>
       <c r="I129" s="26" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="J129" s="25" t="s">
         <v>15</v>
@@ -6566,6 +6567,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100B1DC67C611DD5E4D81775F9F3E26A7B2" ma:contentTypeVersion="16" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="7f379a5812b480a74f9d031be5f88a83">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b63cdcf7-47fa-43f6-87e5-23b415b5c413" xmlns:ns3="12535b08-222e-45d2-b6db-15019f1afee6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="dbce1e37d7de67e1c835013ca0ee7a7c" ns2:_="" ns3:_="">
     <xsd:import namespace="b63cdcf7-47fa-43f6-87e5-23b415b5c413"/>
@@ -6806,15 +6816,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -6828,6 +6829,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E89B3EC5-962B-41D9-9821-3A191D2434CD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{945A6BE8-5273-4FBB-A417-535A6E60D478}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6842,14 +6851,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E89B3EC5-962B-41D9-9821-3A191D2434CD}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/rmonize/data_proc_elem/DPE_GINI_P1.xlsx
+++ b/rmonize/data_proc_elem/DPE_GINI_P1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20416"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20415"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\use-cases-harmonisation\rmonize\data_proc_elem\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Projekte\NFDI4Health\TA5\Pilotprojekte\Harmonisierung\HarmonizR\use-cases-harmonisation\rmonize\data_proc_elem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D92DC759-9CB3-415B-BD09-8B08B653D298}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="14_{1FE20271-D514-43D2-B924-BF34D1FF08CA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1171" uniqueCount="390">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1172" uniqueCount="393">
   <si>
     <t>index</t>
   </si>
@@ -347,19 +347,10 @@
     <t>Intake fresh seeds (without pod) from legumes (beans, peas etc.) [g/d]</t>
   </si>
   <si>
-    <t>FFQKERN_15</t>
-  </si>
-  <si>
     <t>FRUITS_TOT_04</t>
   </si>
   <si>
     <t>Total fruit intake [g/d]</t>
-  </si>
-  <si>
-    <t>FFQAPFEL_15;
-FFQBEERE_15;
-FFQSUED_15;
-FFQNUSS_15</t>
   </si>
   <si>
     <t>FFQAPFEL_15 +
@@ -373,11 +364,6 @@
     <t>Intake of fresh fruits [g/d]</t>
   </si>
   <si>
-    <t>FFQAPFEL_15;
-FFQBEERE_15;
-FFQSUED_15</t>
-  </si>
-  <si>
     <t>FFQAPFEL_15 +
 FFQBEERE_15 +
 FFQSUED_15</t>
@@ -389,9 +375,6 @@
     <t>Intake of tree nuts and seeds [g/d]</t>
   </si>
   <si>
-    <t>FFQNUSS_15</t>
-  </si>
-  <si>
     <t>MIXEDFRUITS_0403</t>
   </si>
   <si>
@@ -408,17 +391,6 @@
   </si>
   <si>
     <t>Intake of milk and dairy products and milk and milk products (dairy) [g/d]</t>
-  </si>
-  <si>
-    <t>FFQMIL_15; 
-FFQMOLK_15;
-FFQKAKAO_15;
-FFQJOGH_15;
-FFQQUARK_15;
-FFQWEICH_15;
-FFQPUDD_15;
-FFQSAHN_15;
-FFQHARTK_15</t>
   </si>
   <si>
     <t>FFQMIL_15 +
@@ -446,10 +418,6 @@
     <t>Intake of buttermilk, traditional buttermilk, flavoured milk, flavoured whey and milk-based drinks (as part-nature) [g/d]</t>
   </si>
   <si>
-    <t>FFQMOLK_15;
-FFQKAKAO_15</t>
-  </si>
-  <si>
     <t>FFQMOLK_15 +
 FFQKAKAO_15</t>
   </si>
@@ -472,10 +440,6 @@
     <t>CHEESE_0505</t>
   </si>
   <si>
-    <t>FFQWEICH_15;
-FFQHARTK_15</t>
-  </si>
-  <si>
     <t>FFQWEICH_15 + FFQHARTK_15</t>
   </si>
   <si>
@@ -510,19 +474,6 @@
   </si>
   <si>
     <t>CEREAL_PROD_06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FFQNUD_15;  
-FFQREIS_15;
-FFQBROE_15;
-FFQROGGEN_15;
-FFQROSIN_15;
-FFQTOAST_15;
-FFQVOLLK_15;
-FFQCORN_15;
-FFQMUES_15;
-FFQCROIS_15;
-FFQGEBAE_15 </t>
   </si>
   <si>
     <t xml:space="preserve">FFQNUD_15 + 
@@ -550,10 +501,6 @@
     <t>Intake of pastas and rice [g/d]</t>
   </si>
   <si>
-    <t xml:space="preserve">FFQNUD_15;  
-FFQREIS_15 </t>
-  </si>
-  <si>
     <t xml:space="preserve">FFQNUD_15 +  FFQREIS_15 </t>
   </si>
   <si>
@@ -561,13 +508,6 @@
   </si>
   <si>
     <t>Intake of bread and bread products [g/d]</t>
-  </si>
-  <si>
-    <t>FFQBROE_15;
-FFQROGGEN_15;
-FFQROSIN_15;
-FFQTOAST_15;
-FFQVOLLK_15</t>
   </si>
   <si>
     <t>FFQBROE_15 +
@@ -598,10 +538,6 @@
     <t>Intake of breakfast cereals [g/d]</t>
   </si>
   <si>
-    <t xml:space="preserve">FFQCORN_15; 
-FFQMUES_15 </t>
-  </si>
-  <si>
     <t xml:space="preserve">FFQCORN_15 +
 FFQMUES_15 </t>
   </si>
@@ -730,12 +666,6 @@
   </si>
   <si>
     <t>Intake of processed or preserved meat [g/d]</t>
-  </si>
-  <si>
-    <t>FFQAUFSCH_15; 
-FFQBOCK_15;
-FFQBRAT_15;
-FFQSALAM_15</t>
   </si>
   <si>
     <t>FFQAUFSCH_15 +
@@ -757,13 +687,6 @@
   </si>
   <si>
     <t>Intake of fish and seafood and products thereof [g/d]</t>
-  </si>
-  <si>
-    <t>FFQSEE_15; 
-FFQSUESS_15; 
-FFQBISM_15;
-FFQKONS_15;
-FFQSTAEB_15</t>
   </si>
   <si>
     <t>FFQSEE_15 +
@@ -776,10 +699,6 @@
     <t>FISH_0801</t>
   </si>
   <si>
-    <t xml:space="preserve">FFQSEE_15; 
-FFQSUESS_15 </t>
-  </si>
-  <si>
     <t xml:space="preserve">FFQSEE_15 +
 FFQSUESS_15 </t>
   </si>
@@ -791,11 +710,6 @@
   </si>
   <si>
     <t>FISH_PROD_0803</t>
-  </si>
-  <si>
-    <t>FFQBISM_15;
-FFQKONS_15;
-FFQSTAEB_15</t>
   </si>
   <si>
     <t>FFQBISM_15 +
@@ -822,18 +736,6 @@
   </si>
   <si>
     <t>Intake of animal and vegetable fats and oils [g/d]</t>
-  </si>
-  <si>
-    <t>FFQPFLA_15;  
-FFQMAISK_15; 
-FFQSONN_15;
-FFQWAOEL_15;
-FFQBUTKO_15;
-FFQBUTT_15; 
-FFQMARG_15; 
-FFQMARKO_15; 
-FFQREFKO_15;
-FFQREFO_15</t>
   </si>
   <si>
     <t>FFQPFLA_15 +
@@ -854,12 +756,6 @@
     <t>Intake of vegetable fats and oils [g/d]</t>
   </si>
   <si>
-    <t>FFQPFLA_15; 
-FFQMAISK_15; 
-FFQSONN_15;
-FFQWAOEL_15</t>
-  </si>
-  <si>
     <t>FFQPFLA_15 + 
 FFQMAISK_15 + 
 FFQSONN_15 +
@@ -872,10 +768,6 @@
     <t>Intake of butter [g/d]</t>
   </si>
   <si>
-    <t xml:space="preserve">FFQBUTKO_15; 
-FFQBUTT_15 </t>
-  </si>
-  <si>
     <t xml:space="preserve">FFQBUTKO_15 +
 FFQBUTT_15 </t>
   </si>
@@ -884,12 +776,6 @@
   </si>
   <si>
     <t>Intake of margarines and similar [g/d]</t>
-  </si>
-  <si>
-    <t>FFQMARG_15; 
-FFQMARKO_15; 
-FFQREFKO_15;
-FFQREFO_15</t>
   </si>
   <si>
     <t>FFQMARG_15 +
@@ -920,13 +806,6 @@
   </si>
   <si>
     <t>Intake of sugar and similar, confectionery and water-based sweet desserts [g/d]</t>
-  </si>
-  <si>
-    <t>FFQSCHOKOL_15; 
-FFQSCHOKOR_15;
-FFQGUMMIB_15;
-FFQZUCK_15;
-FFQEIS_15</t>
   </si>
   <si>
     <t>FFQSCHOKOL_15 +
@@ -945,10 +824,6 @@
     <t>CHOCOLATE_1102</t>
   </si>
   <si>
-    <t xml:space="preserve">FFQSCHOKOL_15; 
-FFQSCHOKOR_15 </t>
-  </si>
-  <si>
     <t xml:space="preserve">FFQSCHOKOL_15 +
 FFQSCHOKOR_15 </t>
   </si>
@@ -999,13 +874,6 @@
   </si>
   <si>
     <t>CAKES_12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FFQKEKS_15;  
-FFQOBSTK_15;  
-FFQTORTE_15; 
-FFQGEBAE_15;
-FFQRUEHRK_15  </t>
   </si>
   <si>
     <t xml:space="preserve">FFQKEKS_15 +
@@ -1021,12 +889,6 @@
     <t>Intake of various pastry [g/d]</t>
   </si>
   <si>
-    <t>FFQKEKS_15;  
-FFQOBSTK_15;  
-FFQTORTE_15; 
-FFQGEBAE_15</t>
-  </si>
-  <si>
     <t xml:space="preserve">FFQKEKS_15 +
 FFQOBSTK_15 +
 FFQTORTE_15 +
@@ -1046,16 +908,6 @@
   </si>
   <si>
     <t>Intake of non-alcoholic beverages [g/d]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FFQNEKT_15;
-FFQFRSAFT_15;
-FFQGESAFT_15;
-FFQENERG_15; 
-FFQSCHOR_15; 
-FFQCOLA_15;
-FFQWASS_15;
-FFQTEE_15 </t>
   </si>
   <si>
     <t xml:space="preserve">FFQNEKT_15 +
@@ -1074,12 +926,6 @@
     <t>Intake of fruit and vegetable juices [g/d]</t>
   </si>
   <si>
-    <t xml:space="preserve">FFQNEKT_15;  
-FFQFRSAFT_15;  
-FFQGESAFT_15;  
-FFQSCHOR_15  </t>
-  </si>
-  <si>
     <t>FFQNEKT_15 +
 FFQFRSAFT_15 +
 FFQGESAFT_15 +  
@@ -1092,10 +938,6 @@
     <t>Intake of soft drinks [g/d]</t>
   </si>
   <si>
-    <t xml:space="preserve">FFQENERG_15;  
-FFQCOLA_15  </t>
-  </si>
-  <si>
     <t xml:space="preserve">FFQENERG_15 +
 FFQCOLA_15  </t>
   </si>
@@ -1208,9 +1050,6 @@
     <t>Intake of mixed alcoholic drinks [g/d]</t>
   </si>
   <si>
-    <t>K_FB_alkgetr_cocktail_15; K_FB_alkgetr_alkopops_15</t>
-  </si>
-  <si>
     <t>K_FB_alkgetr_cocktail_15 +
 K_FB_alkgetr_alkopops_15</t>
   </si>
@@ -1323,10 +1162,6 @@
     <t>AMPHIBIANS_1704</t>
   </si>
   <si>
-    <t>FFQRIND_15;
-FFQSCHW_15</t>
-  </si>
-  <si>
     <t>FFQRIND_15 +
 FFQSCHW_15</t>
   </si>
@@ -1404,13 +1239,110 @@
   </si>
   <si>
     <t>Physical activity from questionnaire data [MET-hr/day]</t>
+  </si>
+  <si>
+    <t>FFQNUSS_15;FFQKERN_15</t>
+  </si>
+  <si>
+    <t>FFQNUSS_15 + FFQKERN_15</t>
+  </si>
+  <si>
+    <t>FFQAPFEL_15;FFQBEERE_15;FFQSUED_15;FFQNUSS_15</t>
+  </si>
+  <si>
+    <t>FFQAPFEL_15;FFQBEERE_15;FFQSUED_15</t>
+  </si>
+  <si>
+    <t>FFQMIL_15;FFQMOLK_15;FFQKAKAO_15;FFQJOGH_15;FFQQUARK_15;FFQWEICH_15;FFQPUDD_15;FFQSAHN_15;FFQHARTK_15</t>
+  </si>
+  <si>
+    <t>FFQMOLK_15;FFQKAKAO_15</t>
+  </si>
+  <si>
+    <t>FFQWEICH_15;FFQHARTK_15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FFQNUD_15;FFQREIS_15;FFQBROE_15;FFQROGGEN_15;FFQROSIN_15;FFQTOAST_15;FFQVOLLK_15;FFQCORN_15;FFQMUES_15;FQCROIS_15;FFQGEBAE_15 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FFQNUD_15;FFQREIS_15 </t>
+  </si>
+  <si>
+    <t>FFQBROE_15;FFQROGGEN_15;FFQROSIN_15;FFQTOAST_15;FFQVOLLK_15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FFQCORN_15;FFQMUES_15 </t>
+  </si>
+  <si>
+    <t>FFQRIND_15;FFQSCHW_15</t>
+  </si>
+  <si>
+    <t>FFQAUFSCH_15;FFQBOCK_15;FFQBRAT_15;FFQSALAM_15</t>
+  </si>
+  <si>
+    <t>FFQSEE_15;FFQSUESS_15;FFQBISM_15;FFQKONS_15;FFQSTAEB_15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FFQSEE_15;FFQSUESS_15 </t>
+  </si>
+  <si>
+    <t>FFQBISM_15;FFQKONS_15;FFQSTAEB_15</t>
+  </si>
+  <si>
+    <t>FFQPFLA_15;FFQMAISK_15;FFQSONN_15;FFQWAOEL_15;FFQBUTKO_15;FFQBUTT_15;FFQMARG_15;FFQMARKO_15;FFQREFKO_15;FFQREFO_15</t>
+  </si>
+  <si>
+    <t>FFQPFLA_15;FFQMAISK_15;FFQSONN_15;FFQWAOEL_15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FFQBUTKO_15;FFQBUTT_15 </t>
+  </si>
+  <si>
+    <t>FFQMARG_15;FFQMARKO_15;FFQREFKO_15;FFQREFO_15</t>
+  </si>
+  <si>
+    <t>FFQSCHOKOL_15;FFQSCHOKOR_15;FFQGUMMIB_15;FFQZUCK_15;FFQEIS_15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FFQSCHOKOL_15;FFQSCHOKOR_15 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FFQKEKS_15;FFQOBSTK_15;FFQTORTE_15;FFQGEBAE_15;FFQRUEHRK_15  </t>
+  </si>
+  <si>
+    <t>FFQKEKS_15;FFQOBSTK_15;FFQTORTE_15;FFQGEBAE_15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FFQNEKT_15;FFQFRSAFT_15;FFQGESAFT_15;FFQENERG_15;FFQSCHOR_15;FFQCOLA_15;FFQWASS_15;FFQTEE_15 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FFQNEKT_15;FFQFRSAFT_15;FFQGESAFT_15;FFQSCHOR_15  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FFQENERG_15;FFQCOLA_15  </t>
+  </si>
+  <si>
+    <t>K_FB_alkgetr_cocktail_15;K_FB_alkgetr_alkopops_15</t>
+  </si>
+  <si>
+    <t>(
+  1.5 * ((aktivleiisommn_15 + aktivleiwintn_15) / 2) +
+  3 * ((aktivmitsommn_15 + aktivmitwintn_15) / 2) +
+  6 * ((aktivschsommn_15 + aktivschwintn_15) / 2)
+) / 7</t>
+  </si>
+  <si>
+    <t>(1.5(average mean of light activities)+ 3(average mean of moderate actvities)+6(average mean of heavy activities)/7</t>
+  </si>
+  <si>
+    <t>aktivleiisommn_15;aktivleiwintn_15;aktivmitsommn_15;aktivmitwintn_15;aktivschsommn_15;aktivschwintn_15</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="26" x14ac:knownFonts="1">
+  <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1586,15 +1518,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF333333"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF333333"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="33">
@@ -1939,7 +1877,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1953,14 +1891,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1968,12 +1900,8 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1985,71 +1913,71 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="43">
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Hyperlink" xfId="42" builtinId="8"/>
-    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="20 % - Akzent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20 % - Akzent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20 % - Akzent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20 % - Akzent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20 % - Akzent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20 % - Akzent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40 % - Akzent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40 % - Akzent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40 % - Akzent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40 % - Akzent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40 % - Akzent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40 % - Akzent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60 % - Akzent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60 % - Akzent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60 % - Akzent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60 % - Akzent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60 % - Akzent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60 % - Akzent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Akzent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Akzent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Akzent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Akzent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Akzent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Akzent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Ausgabe" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Berechnung" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Eingabe" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Ergebnis" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Erklärender Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Gut" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Link" xfId="42" builtinId="8"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Notiz" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Schlecht" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Überschrift" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Überschrift 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Überschrift 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Überschrift 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Überschrift 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Verknüpfte Zelle" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Warnender Text" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Zelle überprüfen" xfId="13" builtinId="23" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2065,7 +1993,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2363,19 +2291,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K130"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K139" sqref="K139"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="29" style="4" customWidth="1"/>
     <col min="3" max="3" width="138.140625" style="4" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="21.85546875" style="4" customWidth="1"/>
     <col min="7" max="7" width="26.42578125" style="4" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="22.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="30.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="30.140625" style="18" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="19.28515625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="25.42578125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="15.5703125" bestFit="1" customWidth="1"/>
@@ -2406,13 +2334,13 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="13" t="s">
+      <c r="I1" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="13" t="s">
+      <c r="J1" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="13" t="s">
+      <c r="K1" s="9" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2420,11 +2348,11 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="7" t="s">
         <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>372</v>
+        <v>344</v>
       </c>
       <c r="D2" t="s">
         <v>12</v>
@@ -2441,11 +2369,11 @@
       <c r="H2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13" t="s">
+      <c r="I2" s="19"/>
+      <c r="J2" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="K2" s="13" t="s">
+      <c r="K2" s="9" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2453,7 +2381,7 @@
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="8" t="s">
         <v>17</v>
       </c>
       <c r="C3" t="s">
@@ -2465,32 +2393,32 @@
       <c r="E3" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="12" t="s">
+      <c r="F3" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="13" t="s">
+      <c r="G3" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="H3" s="13" t="s">
+      <c r="H3" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13" t="s">
+      <c r="I3" s="19"/>
+      <c r="J3" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="K3" s="13" t="s">
+      <c r="K3" s="9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="10" t="s">
         <v>21</v>
       </c>
       <c r="C4" t="s">
-        <v>387</v>
+        <v>359</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
@@ -2498,57 +2426,57 @@
       <c r="E4" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="12" t="s">
+      <c r="F4" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="G4" s="13" t="s">
+      <c r="G4" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="H4" s="13" t="s">
+      <c r="H4" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="I4" s="2" t="s">
-        <v>370</v>
-      </c>
-      <c r="J4" s="13" t="s">
+      <c r="I4" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="J4" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="K4" s="13" t="s">
+      <c r="K4" s="9" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="10" t="s">
         <v>25</v>
       </c>
       <c r="C5" t="s">
         <v>26</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="E5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" s="19" t="s">
+      <c r="E5" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="22" t="s">
         <v>27</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="H5" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I5" s="20" t="s">
+      <c r="I5" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="J5" s="13" t="s">
+      <c r="J5" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="K5" s="13" t="s">
+      <c r="K5" s="19" t="s">
         <v>32</v>
       </c>
     </row>
@@ -2556,11 +2484,11 @@
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="11" t="s">
         <v>33</v>
       </c>
       <c r="C6" t="s">
-        <v>389</v>
+        <v>361</v>
       </c>
       <c r="D6" t="s">
         <v>22</v>
@@ -2568,27 +2496,30 @@
       <c r="E6" t="s">
         <v>13</v>
       </c>
-      <c r="F6" t="s">
-        <v>34</v>
-      </c>
-      <c r="G6" t="s">
-        <v>34</v>
-      </c>
-      <c r="H6" t="s">
-        <v>34</v>
-      </c>
-      <c r="J6" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="K6" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="F6" s="4" t="s">
+        <v>392</v>
+      </c>
+      <c r="G6" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="H6" s="26" t="s">
+        <v>390</v>
+      </c>
+      <c r="I6" s="26" t="s">
+        <v>391</v>
+      </c>
+      <c r="J6" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="K6" s="19" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>6</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="12" t="s">
         <v>36</v>
       </c>
       <c r="C7" t="s">
@@ -2600,16 +2531,16 @@
       <c r="E7" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F7" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G7" s="17" t="s">
+      <c r="G7" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="H7" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="I7" s="2" t="s">
+      <c r="I7" s="1" t="s">
         <v>40</v>
       </c>
       <c r="J7" s="4" t="s">
@@ -2627,7 +2558,7 @@
         <v>41</v>
       </c>
       <c r="C8" t="s">
-        <v>388</v>
+        <v>360</v>
       </c>
       <c r="D8" t="s">
         <v>22</v>
@@ -2635,20 +2566,20 @@
       <c r="E8" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="18" t="s">
+      <c r="F8" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="G8" s="18" t="s">
+      <c r="G8" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="H8" s="18" t="s">
+      <c r="H8" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="I8" s="18"/>
-      <c r="J8" s="18" t="s">
+      <c r="I8" s="20"/>
+      <c r="J8" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="K8" s="18" t="s">
+      <c r="K8" s="14" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2668,24 +2599,24 @@
       <c r="E9" t="s">
         <v>13</v>
       </c>
-      <c r="F9" s="19" t="s">
+      <c r="F9" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="G9" s="18" t="s">
+      <c r="G9" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="H9" s="18" t="s">
+      <c r="H9" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="I9" s="18"/>
-      <c r="J9" s="18" t="s">
+      <c r="I9" s="20"/>
+      <c r="J9" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="K9" s="18" t="s">
+      <c r="K9" s="14" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2701,16 +2632,16 @@
       <c r="E10" t="s">
         <v>13</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="F10" s="4" t="s">
         <v>49</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="H10" s="3" t="s">
+      <c r="H10" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="I10" s="5" t="s">
+      <c r="I10" s="23" t="s">
         <v>52</v>
       </c>
       <c r="J10" s="1" t="s">
@@ -2720,7 +2651,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2736,13 +2667,13 @@
       <c r="E11" t="s">
         <v>13</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="F11" s="4" t="s">
         <v>49</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="H11" s="3" t="s">
+      <c r="H11" s="4" t="s">
         <v>51</v>
       </c>
       <c r="J11" s="1" t="s">
@@ -2768,7 +2699,7 @@
       <c r="E12" t="s">
         <v>13</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F12" s="18" t="s">
         <v>34</v>
       </c>
       <c r="G12" s="1" t="s">
@@ -2784,7 +2715,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -2800,13 +2731,13 @@
       <c r="E13" t="s">
         <v>13</v>
       </c>
-      <c r="F13" s="3" t="s">
+      <c r="F13" s="4" t="s">
         <v>61</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="H13" s="3" t="s">
+      <c r="H13" s="4" t="s">
         <v>62</v>
       </c>
       <c r="J13" s="1" t="s">
@@ -2816,7 +2747,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>13</v>
       </c>
@@ -2832,13 +2763,13 @@
       <c r="E14" t="s">
         <v>13</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="F14" s="5" t="s">
         <v>65</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="H14" s="7" t="s">
+      <c r="H14" s="5" t="s">
         <v>66</v>
       </c>
       <c r="J14" s="1" t="s">
@@ -2864,7 +2795,7 @@
       <c r="E15" t="s">
         <v>13</v>
       </c>
-      <c r="F15" s="6" t="s">
+      <c r="F15" s="5" t="s">
         <v>69</v>
       </c>
       <c r="G15" s="1" t="s">
@@ -2896,7 +2827,7 @@
       <c r="E16" t="s">
         <v>13</v>
       </c>
-      <c r="F16" s="6" t="s">
+      <c r="F16" s="5" t="s">
         <v>72</v>
       </c>
       <c r="G16" s="1" t="s">
@@ -2928,7 +2859,7 @@
       <c r="E17" t="s">
         <v>13</v>
       </c>
-      <c r="F17" s="6" t="s">
+      <c r="F17" s="5" t="s">
         <v>75</v>
       </c>
       <c r="G17" s="2" t="s">
@@ -3152,48 +3083,48 @@
       <c r="E24" t="s">
         <v>13</v>
       </c>
-      <c r="F24" s="6" t="s">
-        <v>90</v>
+      <c r="F24" s="5" t="s">
+        <v>34</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C25" t="s">
         <v>91</v>
       </c>
-      <c r="C25" t="s">
-        <v>92</v>
-      </c>
       <c r="D25" t="s">
         <v>22</v>
       </c>
       <c r="E25" t="s">
         <v>13</v>
       </c>
-      <c r="F25" s="3" t="s">
-        <v>93</v>
+      <c r="F25" s="4" t="s">
+        <v>364</v>
       </c>
       <c r="G25" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="H25" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="I25" s="7"/>
+      <c r="H25" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="I25" s="5"/>
       <c r="J25" s="1" t="s">
         <v>15</v>
       </c>
@@ -3201,15 +3132,15 @@
         <v>56</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C26" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D26" t="s">
         <v>22</v>
@@ -3217,14 +3148,14 @@
       <c r="E26" t="s">
         <v>13</v>
       </c>
-      <c r="F26" s="3" t="s">
-        <v>97</v>
+      <c r="F26" s="4" t="s">
+        <v>365</v>
       </c>
       <c r="G26" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="H26" s="3" t="s">
-        <v>98</v>
+      <c r="H26" s="4" t="s">
+        <v>95</v>
       </c>
       <c r="J26" s="1" t="s">
         <v>15</v>
@@ -3238,10 +3169,10 @@
         <v>26</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C27" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D27" t="s">
         <v>22</v>
@@ -3249,20 +3180,20 @@
       <c r="E27" t="s">
         <v>13</v>
       </c>
-      <c r="F27" s="5" t="s">
-        <v>101</v>
+      <c r="F27" s="23" t="s">
+        <v>362</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>20</v>
+        <v>363</v>
       </c>
       <c r="J27" s="1" t="s">
         <v>15</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>16</v>
+        <v>56</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
@@ -3270,10 +3201,10 @@
         <v>27</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C28" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="D28" t="s">
         <v>22</v>
@@ -3302,10 +3233,10 @@
         <v>28</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C29" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="D29" t="s">
         <v>22</v>
@@ -3329,15 +3260,15 @@
         <v>35</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="135" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C30" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D30" t="s">
         <v>22</v>
@@ -3345,14 +3276,14 @@
       <c r="E30" t="s">
         <v>13</v>
       </c>
-      <c r="F30" s="3" t="s">
-        <v>108</v>
+      <c r="F30" s="4" t="s">
+        <v>366</v>
       </c>
       <c r="G30" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="H30" s="3" t="s">
-        <v>109</v>
+      <c r="H30" s="4" t="s">
+        <v>104</v>
       </c>
       <c r="J30" s="1" t="s">
         <v>15</v>
@@ -3366,10 +3297,10 @@
         <v>30</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="C31" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="D31" t="s">
         <v>22</v>
@@ -3377,8 +3308,8 @@
       <c r="E31" t="s">
         <v>13</v>
       </c>
-      <c r="F31" s="6" t="s">
-        <v>112</v>
+      <c r="F31" s="5" t="s">
+        <v>107</v>
       </c>
       <c r="G31" s="1" t="s">
         <v>20</v>
@@ -3393,15 +3324,15 @@
         <v>16</v>
       </c>
     </row>
-    <row r="32" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="C32" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="D32" t="s">
         <v>22</v>
@@ -3409,14 +3340,14 @@
       <c r="E32" t="s">
         <v>13</v>
       </c>
-      <c r="F32" s="3" t="s">
-        <v>115</v>
+      <c r="F32" s="4" t="s">
+        <v>367</v>
       </c>
       <c r="G32" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="H32" s="3" t="s">
-        <v>116</v>
+      <c r="H32" s="4" t="s">
+        <v>110</v>
       </c>
       <c r="J32" s="1" t="s">
         <v>15</v>
@@ -3430,10 +3361,10 @@
         <v>32</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="C33" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="D33" t="s">
         <v>22</v>
@@ -3441,8 +3372,8 @@
       <c r="E33" t="s">
         <v>13</v>
       </c>
-      <c r="F33" s="6" t="s">
-        <v>119</v>
+      <c r="F33" s="5" t="s">
+        <v>113</v>
       </c>
       <c r="G33" s="1" t="s">
         <v>20</v>
@@ -3462,10 +3393,10 @@
         <v>33</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="C34" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="D34" t="s">
         <v>22</v>
@@ -3473,8 +3404,8 @@
       <c r="E34" t="s">
         <v>13</v>
       </c>
-      <c r="F34" s="7" t="s">
-        <v>371</v>
+      <c r="F34" s="5" t="s">
+        <v>343</v>
       </c>
       <c r="G34" s="1" t="s">
         <v>20</v>
@@ -3489,15 +3420,15 @@
         <v>16</v>
       </c>
     </row>
-    <row r="35" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
         <v>34</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="C35" t="s">
-        <v>373</v>
+        <v>345</v>
       </c>
       <c r="D35" t="s">
         <v>22</v>
@@ -3505,14 +3436,14 @@
       <c r="E35" t="s">
         <v>13</v>
       </c>
-      <c r="F35" s="3" t="s">
-        <v>123</v>
+      <c r="F35" s="4" t="s">
+        <v>368</v>
       </c>
       <c r="G35" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="H35" s="7" t="s">
-        <v>124</v>
+      <c r="H35" s="5" t="s">
+        <v>117</v>
       </c>
       <c r="I35" s="1"/>
       <c r="J35" s="1" t="s">
@@ -3527,10 +3458,10 @@
         <v>35</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="C36" t="s">
-        <v>374</v>
+        <v>346</v>
       </c>
       <c r="D36" t="s">
         <v>22</v>
@@ -3539,7 +3470,7 @@
         <v>13</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="G36" s="1" t="s">
         <v>20</v>
@@ -3560,10 +3491,10 @@
         <v>36</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="C37" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="D37" t="s">
         <v>22</v>
@@ -3572,7 +3503,7 @@
         <v>13</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="G37" s="1" t="s">
         <v>20</v>
@@ -3593,10 +3524,10 @@
         <v>37</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="C38" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="D38" t="s">
         <v>22</v>
@@ -3605,7 +3536,7 @@
         <v>13</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="G38" s="1" t="s">
         <v>20</v>
@@ -3626,10 +3557,10 @@
         <v>38</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="C39" t="s">
-        <v>375</v>
+        <v>347</v>
       </c>
       <c r="D39" t="s">
         <v>22</v>
@@ -3658,10 +3589,10 @@
         <v>39</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="C40" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="D40" t="s">
         <v>22</v>
@@ -3685,15 +3616,15 @@
         <v>35</v>
       </c>
     </row>
-    <row r="41" spans="1:11" ht="165" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="C41" s="28" t="s">
-        <v>376</v>
+        <v>128</v>
+      </c>
+      <c r="C41" s="18" t="s">
+        <v>348</v>
       </c>
       <c r="D41" t="s">
         <v>22</v>
@@ -3701,14 +3632,14 @@
       <c r="E41" t="s">
         <v>13</v>
       </c>
-      <c r="F41" s="3" t="s">
-        <v>136</v>
+      <c r="F41" s="4" t="s">
+        <v>369</v>
       </c>
       <c r="G41" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="H41" s="3" t="s">
-        <v>137</v>
+      <c r="H41" s="4" t="s">
+        <v>129</v>
       </c>
       <c r="J41" s="1" t="s">
         <v>15</v>
@@ -3722,10 +3653,10 @@
         <v>41</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="C42" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="D42" t="s">
         <v>22</v>
@@ -3749,15 +3680,15 @@
         <v>35</v>
       </c>
     </row>
-    <row r="43" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="C43" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="D43" t="s">
         <v>22</v>
@@ -3765,14 +3696,14 @@
       <c r="E43" t="s">
         <v>13</v>
       </c>
-      <c r="F43" s="3" t="s">
-        <v>142</v>
+      <c r="F43" s="4" t="s">
+        <v>370</v>
       </c>
       <c r="G43" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="H43" s="3" t="s">
-        <v>143</v>
+      <c r="H43" s="4" t="s">
+        <v>134</v>
       </c>
       <c r="J43" s="1" t="s">
         <v>15</v>
@@ -3781,15 +3712,15 @@
         <v>56</v>
       </c>
     </row>
-    <row r="44" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="C44" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="D44" t="s">
         <v>22</v>
@@ -3797,17 +3728,17 @@
       <c r="E44" t="s">
         <v>13</v>
       </c>
-      <c r="F44" s="3" t="s">
-        <v>146</v>
+      <c r="F44" s="4" t="s">
+        <v>371</v>
       </c>
       <c r="G44" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="H44" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="I44" s="7" t="s">
-        <v>148</v>
+      <c r="H44" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="I44" s="5" t="s">
+        <v>138</v>
       </c>
       <c r="J44" s="1" t="s">
         <v>31</v>
@@ -3816,15 +3747,15 @@
         <v>53</v>
       </c>
     </row>
-    <row r="45" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="C45" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="D45" t="s">
         <v>22</v>
@@ -3832,14 +3763,14 @@
       <c r="E45" t="s">
         <v>13</v>
       </c>
-      <c r="F45" s="3" t="s">
-        <v>146</v>
+      <c r="F45" s="4" t="s">
+        <v>371</v>
       </c>
       <c r="G45" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="H45" s="3" t="s">
-        <v>147</v>
+      <c r="H45" s="4" t="s">
+        <v>137</v>
       </c>
       <c r="J45" s="1" t="s">
         <v>15</v>
@@ -3853,10 +3784,10 @@
         <v>45</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="C46" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="D46" t="s">
         <v>22</v>
@@ -3880,15 +3811,15 @@
         <v>35</v>
       </c>
     </row>
-    <row r="47" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="C47" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="D47" t="s">
         <v>22</v>
@@ -3896,14 +3827,14 @@
       <c r="E47" t="s">
         <v>13</v>
       </c>
-      <c r="F47" s="3" t="s">
-        <v>155</v>
+      <c r="F47" s="4" t="s">
+        <v>372</v>
       </c>
       <c r="G47" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="H47" s="3" t="s">
-        <v>156</v>
+      <c r="H47" s="4" t="s">
+        <v>145</v>
       </c>
       <c r="J47" s="1" t="s">
         <v>15</v>
@@ -3917,10 +3848,10 @@
         <v>47</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="C48" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="D48" t="s">
         <v>22</v>
@@ -3949,10 +3880,10 @@
         <v>48</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="C49" t="s">
-        <v>377</v>
+        <v>349</v>
       </c>
       <c r="D49" t="s">
         <v>22</v>
@@ -3960,8 +3891,8 @@
       <c r="E49" t="s">
         <v>13</v>
       </c>
-      <c r="F49" s="3" t="s">
-        <v>160</v>
+      <c r="F49" s="4" t="s">
+        <v>149</v>
       </c>
       <c r="G49" s="1" t="s">
         <v>20</v>
@@ -3981,10 +3912,10 @@
         <v>49</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="C50" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="D50" t="s">
         <v>22</v>
@@ -3992,32 +3923,32 @@
       <c r="E50" t="s">
         <v>13</v>
       </c>
-      <c r="F50" s="21" t="s">
-        <v>165</v>
-      </c>
-      <c r="G50" s="22" t="s">
+      <c r="F50" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="G50" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="H50" s="22" t="s">
+      <c r="H50" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="I50" s="10"/>
-      <c r="J50" s="22" t="s">
+      <c r="I50" s="15"/>
+      <c r="J50" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="K50" s="22" t="s">
+      <c r="K50" s="13" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="51" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="C51" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="D51" t="s">
         <v>22</v>
@@ -4025,32 +3956,32 @@
       <c r="E51" t="s">
         <v>13</v>
       </c>
-      <c r="F51" s="23" t="s">
-        <v>363</v>
-      </c>
-      <c r="G51" s="22" t="s">
+      <c r="F51" s="25" t="s">
+        <v>373</v>
+      </c>
+      <c r="G51" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="H51" s="21" t="s">
-        <v>364</v>
-      </c>
-      <c r="I51" s="10"/>
-      <c r="J51" s="22" t="s">
+      <c r="H51" s="13" t="s">
+        <v>336</v>
+      </c>
+      <c r="I51" s="15"/>
+      <c r="J51" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="K51" s="22" t="s">
+      <c r="K51" s="13" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="52" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="C52" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="D52" t="s">
         <v>22</v>
@@ -4058,17 +3989,17 @@
       <c r="E52" t="s">
         <v>13</v>
       </c>
-      <c r="F52" s="6" t="s">
-        <v>168</v>
+      <c r="F52" s="5" t="s">
+        <v>157</v>
       </c>
       <c r="G52" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="H52" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="I52" s="2" t="s">
-        <v>170</v>
+      <c r="H52" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="I52" s="1" t="s">
+        <v>159</v>
       </c>
       <c r="J52" s="1" t="s">
         <v>31</v>
@@ -4077,15 +4008,15 @@
         <v>53</v>
       </c>
     </row>
-    <row r="53" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="C53" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="D53" t="s">
         <v>22</v>
@@ -4093,17 +4024,17 @@
       <c r="E53" t="s">
         <v>13</v>
       </c>
-      <c r="F53" s="6" t="s">
-        <v>168</v>
+      <c r="F53" s="5" t="s">
+        <v>157</v>
       </c>
       <c r="G53" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="H53" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="I53" s="2" t="s">
-        <v>170</v>
+      <c r="H53" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="I53" s="1" t="s">
+        <v>159</v>
       </c>
       <c r="J53" s="1" t="s">
         <v>31</v>
@@ -4117,10 +4048,10 @@
         <v>53</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="C54" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
       <c r="D54" t="s">
         <v>22</v>
@@ -4128,8 +4059,8 @@
       <c r="E54" t="s">
         <v>13</v>
       </c>
-      <c r="F54" s="6" t="s">
-        <v>175</v>
+      <c r="F54" s="5" t="s">
+        <v>164</v>
       </c>
       <c r="G54" s="1" t="s">
         <v>20</v>
@@ -4149,10 +4080,10 @@
         <v>54</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="C55" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="D55" t="s">
         <v>22</v>
@@ -4181,10 +4112,10 @@
         <v>55</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
       <c r="C56" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
       <c r="D56" t="s">
         <v>22</v>
@@ -4213,10 +4144,10 @@
         <v>56</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="C57" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="D57" t="s">
         <v>22</v>
@@ -4245,10 +4176,10 @@
         <v>57</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="C58" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="D58" t="s">
         <v>22</v>
@@ -4257,7 +4188,7 @@
         <v>13</v>
       </c>
       <c r="F58" s="4" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="G58" s="1" t="s">
         <v>20</v>
@@ -4277,10 +4208,10 @@
         <v>58</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="C59" t="s">
-        <v>378</v>
+        <v>350</v>
       </c>
       <c r="D59" t="s">
         <v>22</v>
@@ -4309,10 +4240,10 @@
         <v>59</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="C60" t="s">
-        <v>379</v>
+        <v>351</v>
       </c>
       <c r="D60" t="s">
         <v>22</v>
@@ -4341,10 +4272,10 @@
         <v>60</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="C61" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="D61" t="s">
         <v>22</v>
@@ -4373,10 +4304,10 @@
         <v>61</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="C62" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="D62" t="s">
         <v>22</v>
@@ -4405,10 +4336,10 @@
         <v>62</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
       <c r="C63" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="D63" t="s">
         <v>22</v>
@@ -4437,10 +4368,10 @@
         <v>63</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="C64" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="D64" t="s">
         <v>22</v>
@@ -4469,10 +4400,10 @@
         <v>64</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="C65" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="D65" t="s">
         <v>22</v>
@@ -4496,15 +4427,15 @@
         <v>35</v>
       </c>
     </row>
-    <row r="66" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>65</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="C66" t="s">
-        <v>198</v>
+        <v>187</v>
       </c>
       <c r="D66" t="s">
         <v>22</v>
@@ -4512,14 +4443,14 @@
       <c r="E66" t="s">
         <v>13</v>
       </c>
-      <c r="F66" s="3" t="s">
-        <v>199</v>
+      <c r="F66" s="4" t="s">
+        <v>374</v>
       </c>
       <c r="G66" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="H66" s="3" t="s">
-        <v>200</v>
+      <c r="H66" s="4" t="s">
+        <v>188</v>
       </c>
       <c r="J66" s="1" t="s">
         <v>15</v>
@@ -4533,10 +4464,10 @@
         <v>66</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="C67" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
       <c r="D67" t="s">
         <v>22</v>
@@ -4544,8 +4475,8 @@
       <c r="E67" t="s">
         <v>13</v>
       </c>
-      <c r="F67" s="6" t="s">
-        <v>203</v>
+      <c r="F67" s="5" t="s">
+        <v>191</v>
       </c>
       <c r="G67" s="1" t="s">
         <v>20</v>
@@ -4560,15 +4491,15 @@
         <v>16</v>
       </c>
     </row>
-    <row r="68" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>67</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>204</v>
+        <v>192</v>
       </c>
       <c r="C68" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="D68" t="s">
         <v>22</v>
@@ -4576,14 +4507,14 @@
       <c r="E68" t="s">
         <v>13</v>
       </c>
-      <c r="F68" s="3" t="s">
-        <v>206</v>
+      <c r="F68" s="4" t="s">
+        <v>375</v>
       </c>
       <c r="G68" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="H68" s="3" t="s">
-        <v>207</v>
+      <c r="H68" s="4" t="s">
+        <v>194</v>
       </c>
       <c r="J68" s="1" t="s">
         <v>15</v>
@@ -4592,15 +4523,15 @@
         <v>56</v>
       </c>
     </row>
-    <row r="69" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>68</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>208</v>
+        <v>195</v>
       </c>
       <c r="C69" t="s">
-        <v>380</v>
+        <v>352</v>
       </c>
       <c r="D69" t="s">
         <v>22</v>
@@ -4608,14 +4539,14 @@
       <c r="E69" t="s">
         <v>13</v>
       </c>
-      <c r="F69" s="3" t="s">
-        <v>209</v>
+      <c r="F69" s="4" t="s">
+        <v>376</v>
       </c>
       <c r="G69" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="H69" s="3" t="s">
-        <v>210</v>
+      <c r="H69" s="4" t="s">
+        <v>196</v>
       </c>
       <c r="J69" s="1" t="s">
         <v>15</v>
@@ -4629,10 +4560,10 @@
         <v>69</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>211</v>
+        <v>197</v>
       </c>
       <c r="C70" t="s">
-        <v>212</v>
+        <v>198</v>
       </c>
       <c r="D70" t="s">
         <v>22</v>
@@ -4656,15 +4587,15 @@
         <v>35</v>
       </c>
     </row>
-    <row r="71" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>70</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>213</v>
+        <v>199</v>
       </c>
       <c r="C71" t="s">
-        <v>381</v>
+        <v>353</v>
       </c>
       <c r="D71" t="s">
         <v>22</v>
@@ -4672,14 +4603,14 @@
       <c r="E71" t="s">
         <v>13</v>
       </c>
-      <c r="F71" s="7" t="s">
-        <v>214</v>
+      <c r="F71" s="5" t="s">
+        <v>377</v>
       </c>
       <c r="G71" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="H71" s="3" t="s">
-        <v>215</v>
+      <c r="H71" s="4" t="s">
+        <v>200</v>
       </c>
       <c r="J71" s="1" t="s">
         <v>15</v>
@@ -4693,10 +4624,10 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>216</v>
+        <v>201</v>
       </c>
       <c r="C72" t="s">
-        <v>217</v>
+        <v>202</v>
       </c>
       <c r="D72" t="s">
         <v>22</v>
@@ -4704,8 +4635,8 @@
       <c r="E72" t="s">
         <v>13</v>
       </c>
-      <c r="F72" s="6" t="s">
-        <v>218</v>
+      <c r="F72" s="5" t="s">
+        <v>203</v>
       </c>
       <c r="G72" s="1" t="s">
         <v>20</v>
@@ -4713,7 +4644,7 @@
       <c r="H72" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="I72" s="7"/>
+      <c r="I72" s="5"/>
       <c r="J72" s="1" t="s">
         <v>15</v>
       </c>
@@ -4726,10 +4657,10 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>219</v>
+        <v>204</v>
       </c>
       <c r="C73" t="s">
-        <v>220</v>
+        <v>205</v>
       </c>
       <c r="D73" t="s">
         <v>22</v>
@@ -4753,15 +4684,15 @@
         <v>35</v>
       </c>
     </row>
-    <row r="74" spans="1:11" ht="150" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>221</v>
+        <v>206</v>
       </c>
       <c r="C74" t="s">
-        <v>222</v>
+        <v>207</v>
       </c>
       <c r="D74" t="s">
         <v>22</v>
@@ -4769,14 +4700,14 @@
       <c r="E74" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F74" s="3" t="s">
-        <v>223</v>
+      <c r="F74" s="4" t="s">
+        <v>378</v>
       </c>
       <c r="G74" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="H74" s="3" t="s">
-        <v>224</v>
+      <c r="H74" s="4" t="s">
+        <v>208</v>
       </c>
       <c r="J74" s="1" t="s">
         <v>15</v>
@@ -4785,15 +4716,15 @@
         <v>56</v>
       </c>
     </row>
-    <row r="75" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>225</v>
+        <v>209</v>
       </c>
       <c r="C75" t="s">
-        <v>226</v>
+        <v>210</v>
       </c>
       <c r="D75" t="s">
         <v>22</v>
@@ -4801,14 +4732,14 @@
       <c r="E75" t="s">
         <v>13</v>
       </c>
-      <c r="F75" s="3" t="s">
-        <v>227</v>
+      <c r="F75" s="4" t="s">
+        <v>379</v>
       </c>
       <c r="G75" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="H75" s="3" t="s">
-        <v>228</v>
+      <c r="H75" s="4" t="s">
+        <v>211</v>
       </c>
       <c r="J75" s="1" t="s">
         <v>15</v>
@@ -4817,15 +4748,15 @@
         <v>56</v>
       </c>
     </row>
-    <row r="76" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>229</v>
+        <v>212</v>
       </c>
       <c r="C76" t="s">
-        <v>230</v>
+        <v>213</v>
       </c>
       <c r="D76" t="s">
         <v>22</v>
@@ -4833,14 +4764,14 @@
       <c r="E76" t="s">
         <v>13</v>
       </c>
-      <c r="F76" s="3" t="s">
-        <v>231</v>
+      <c r="F76" s="4" t="s">
+        <v>380</v>
       </c>
       <c r="G76" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="H76" s="3" t="s">
-        <v>232</v>
+      <c r="H76" s="4" t="s">
+        <v>214</v>
       </c>
       <c r="J76" s="1" t="s">
         <v>15</v>
@@ -4849,15 +4780,15 @@
         <v>56</v>
       </c>
     </row>
-    <row r="77" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="4">
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>233</v>
+        <v>215</v>
       </c>
       <c r="C77" t="s">
-        <v>234</v>
+        <v>216</v>
       </c>
       <c r="D77" t="s">
         <v>22</v>
@@ -4865,14 +4796,14 @@
       <c r="E77" t="s">
         <v>13</v>
       </c>
-      <c r="F77" s="3" t="s">
-        <v>235</v>
+      <c r="F77" s="4" t="s">
+        <v>381</v>
       </c>
       <c r="G77" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="H77" s="3" t="s">
-        <v>236</v>
+      <c r="H77" s="4" t="s">
+        <v>217</v>
       </c>
       <c r="J77" s="1" t="s">
         <v>15</v>
@@ -4886,10 +4817,10 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>237</v>
+        <v>218</v>
       </c>
       <c r="C78" t="s">
-        <v>238</v>
+        <v>219</v>
       </c>
       <c r="D78" t="s">
         <v>22</v>
@@ -4918,10 +4849,10 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>239</v>
+        <v>220</v>
       </c>
       <c r="C79" t="s">
-        <v>240</v>
+        <v>221</v>
       </c>
       <c r="D79" t="s">
         <v>22</v>
@@ -4950,10 +4881,10 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>241</v>
+        <v>222</v>
       </c>
       <c r="C80" t="s">
-        <v>242</v>
+        <v>223</v>
       </c>
       <c r="D80" t="s">
         <v>22</v>
@@ -4977,15 +4908,15 @@
         <v>35</v>
       </c>
     </row>
-    <row r="81" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>243</v>
+        <v>224</v>
       </c>
       <c r="C81" t="s">
-        <v>244</v>
+        <v>225</v>
       </c>
       <c r="D81" t="s">
         <v>22</v>
@@ -4993,14 +4924,14 @@
       <c r="E81" t="s">
         <v>13</v>
       </c>
-      <c r="F81" s="3" t="s">
-        <v>245</v>
+      <c r="F81" s="4" t="s">
+        <v>382</v>
       </c>
       <c r="G81" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="H81" s="3" t="s">
-        <v>246</v>
+      <c r="H81" s="4" t="s">
+        <v>226</v>
       </c>
       <c r="J81" s="1" t="s">
         <v>15</v>
@@ -5014,10 +4945,10 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>247</v>
+        <v>227</v>
       </c>
       <c r="C82" t="s">
-        <v>248</v>
+        <v>228</v>
       </c>
       <c r="D82" t="s">
         <v>22</v>
@@ -5041,15 +4972,15 @@
         <v>35</v>
       </c>
     </row>
-    <row r="83" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>249</v>
+        <v>229</v>
       </c>
       <c r="C83" t="s">
-        <v>382</v>
+        <v>354</v>
       </c>
       <c r="D83" t="s">
         <v>22</v>
@@ -5057,14 +4988,14 @@
       <c r="E83" t="s">
         <v>13</v>
       </c>
-      <c r="F83" s="3" t="s">
-        <v>250</v>
+      <c r="F83" s="4" t="s">
+        <v>383</v>
       </c>
       <c r="G83" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="H83" s="3" t="s">
-        <v>251</v>
+      <c r="H83" s="4" t="s">
+        <v>230</v>
       </c>
       <c r="J83" s="1" t="s">
         <v>15</v>
@@ -5077,11 +5008,11 @@
       <c r="A84" s="4">
         <v>83</v>
       </c>
-      <c r="B84" s="8" t="s">
-        <v>252</v>
+      <c r="B84" s="6" t="s">
+        <v>231</v>
       </c>
       <c r="C84" t="s">
-        <v>253</v>
+        <v>232</v>
       </c>
       <c r="D84" t="s">
         <v>22</v>
@@ -5090,7 +5021,7 @@
         <v>13</v>
       </c>
       <c r="F84" s="4" t="s">
-        <v>254</v>
+        <v>233</v>
       </c>
       <c r="G84" s="1" t="s">
         <v>20</v>
@@ -5110,10 +5041,10 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>255</v>
+        <v>234</v>
       </c>
       <c r="C85" t="s">
-        <v>256</v>
+        <v>235</v>
       </c>
       <c r="D85" t="s">
         <v>22</v>
@@ -5122,7 +5053,7 @@
         <v>13</v>
       </c>
       <c r="F85" s="4" t="s">
-        <v>257</v>
+        <v>236</v>
       </c>
       <c r="G85" s="1" t="s">
         <v>20</v>
@@ -5142,10 +5073,10 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>258</v>
+        <v>237</v>
       </c>
       <c r="C86" t="s">
-        <v>259</v>
+        <v>238</v>
       </c>
       <c r="D86" t="s">
         <v>22</v>
@@ -5154,7 +5085,7 @@
         <v>13</v>
       </c>
       <c r="F86" s="4" t="s">
-        <v>260</v>
+        <v>239</v>
       </c>
       <c r="G86" s="1" t="s">
         <v>20</v>
@@ -5162,7 +5093,7 @@
       <c r="H86" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="I86" s="7"/>
+      <c r="I86" s="5"/>
       <c r="J86" s="1" t="s">
         <v>15</v>
       </c>
@@ -5175,10 +5106,10 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>261</v>
+        <v>240</v>
       </c>
       <c r="C87" t="s">
-        <v>262</v>
+        <v>241</v>
       </c>
       <c r="D87" t="s">
         <v>22</v>
@@ -5207,10 +5138,10 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>263</v>
+        <v>242</v>
       </c>
       <c r="C88" t="s">
-        <v>264</v>
+        <v>243</v>
       </c>
       <c r="D88" t="s">
         <v>22</v>
@@ -5239,10 +5170,10 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>265</v>
+        <v>244</v>
       </c>
       <c r="C89" t="s">
-        <v>266</v>
+        <v>245</v>
       </c>
       <c r="D89" t="s">
         <v>22</v>
@@ -5266,15 +5197,15 @@
         <v>35</v>
       </c>
     </row>
-    <row r="90" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>267</v>
+        <v>246</v>
       </c>
       <c r="C90" t="s">
-        <v>383</v>
+        <v>355</v>
       </c>
       <c r="D90" t="s">
         <v>22</v>
@@ -5282,14 +5213,14 @@
       <c r="E90" t="s">
         <v>13</v>
       </c>
-      <c r="F90" s="3" t="s">
-        <v>268</v>
+      <c r="F90" s="4" t="s">
+        <v>384</v>
       </c>
       <c r="G90" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="H90" s="3" t="s">
-        <v>269</v>
+      <c r="H90" s="4" t="s">
+        <v>247</v>
       </c>
       <c r="J90" s="1" t="s">
         <v>15</v>
@@ -5298,15 +5229,15 @@
         <v>56</v>
       </c>
     </row>
-    <row r="91" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="4">
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>270</v>
+        <v>248</v>
       </c>
       <c r="C91" t="s">
-        <v>271</v>
+        <v>249</v>
       </c>
       <c r="D91" t="s">
         <v>22</v>
@@ -5314,14 +5245,14 @@
       <c r="E91" t="s">
         <v>13</v>
       </c>
-      <c r="F91" s="3" t="s">
-        <v>272</v>
+      <c r="F91" s="4" t="s">
+        <v>385</v>
       </c>
       <c r="G91" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="H91" s="3" t="s">
-        <v>273</v>
+      <c r="H91" s="4" t="s">
+        <v>250</v>
       </c>
       <c r="J91" s="1" t="s">
         <v>15</v>
@@ -5335,10 +5266,10 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>274</v>
+        <v>251</v>
       </c>
       <c r="C92" t="s">
-        <v>275</v>
+        <v>252</v>
       </c>
       <c r="D92" t="s">
         <v>22</v>
@@ -5347,7 +5278,7 @@
         <v>13</v>
       </c>
       <c r="F92" s="4" t="s">
-        <v>276</v>
+        <v>253</v>
       </c>
       <c r="G92" s="1" t="s">
         <v>20</v>
@@ -5362,15 +5293,15 @@
         <v>16</v>
       </c>
     </row>
-    <row r="93" spans="1:11" ht="120" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>277</v>
+        <v>254</v>
       </c>
       <c r="C93" t="s">
-        <v>278</v>
+        <v>255</v>
       </c>
       <c r="D93" t="s">
         <v>22</v>
@@ -5378,14 +5309,14 @@
       <c r="E93" t="s">
         <v>13</v>
       </c>
-      <c r="F93" s="3" t="s">
-        <v>279</v>
+      <c r="F93" s="4" t="s">
+        <v>386</v>
       </c>
       <c r="G93" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="H93" s="3" t="s">
-        <v>280</v>
+      <c r="H93" s="4" t="s">
+        <v>256</v>
       </c>
       <c r="J93" s="1" t="s">
         <v>15</v>
@@ -5394,15 +5325,15 @@
         <v>56</v>
       </c>
     </row>
-    <row r="94" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>281</v>
+        <v>257</v>
       </c>
       <c r="C94" t="s">
-        <v>282</v>
+        <v>258</v>
       </c>
       <c r="D94" t="s">
         <v>22</v>
@@ -5410,14 +5341,14 @@
       <c r="E94" t="s">
         <v>13</v>
       </c>
-      <c r="F94" s="3" t="s">
-        <v>283</v>
+      <c r="F94" s="4" t="s">
+        <v>387</v>
       </c>
       <c r="G94" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="H94" s="3" t="s">
-        <v>284</v>
+      <c r="H94" s="4" t="s">
+        <v>259</v>
       </c>
       <c r="J94" s="1" t="s">
         <v>15</v>
@@ -5426,15 +5357,15 @@
         <v>56</v>
       </c>
     </row>
-    <row r="95" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>285</v>
+        <v>260</v>
       </c>
       <c r="C95" t="s">
-        <v>286</v>
+        <v>261</v>
       </c>
       <c r="D95" t="s">
         <v>22</v>
@@ -5442,14 +5373,14 @@
       <c r="E95" t="s">
         <v>13</v>
       </c>
-      <c r="F95" s="3" t="s">
-        <v>287</v>
+      <c r="F95" s="4" t="s">
+        <v>388</v>
       </c>
       <c r="G95" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="H95" s="3" t="s">
-        <v>288</v>
+      <c r="H95" s="4" t="s">
+        <v>262</v>
       </c>
       <c r="J95" s="1" t="s">
         <v>15</v>
@@ -5458,15 +5389,15 @@
         <v>56</v>
       </c>
     </row>
-    <row r="96" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>289</v>
+        <v>263</v>
       </c>
       <c r="C96" t="s">
-        <v>290</v>
+        <v>264</v>
       </c>
       <c r="D96" t="s">
         <v>22</v>
@@ -5475,7 +5406,7 @@
         <v>13</v>
       </c>
       <c r="F96" s="4" t="s">
-        <v>291</v>
+        <v>265</v>
       </c>
       <c r="G96" s="1" t="s">
         <v>20</v>
@@ -5483,14 +5414,14 @@
       <c r="H96" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="I96" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="J96" s="17" t="s">
+      <c r="I96" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="J96" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="K96" s="17" t="s">
-        <v>293</v>
+      <c r="K96" s="13" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
@@ -5498,10 +5429,10 @@
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>294</v>
+        <v>268</v>
       </c>
       <c r="C97" t="s">
-        <v>295</v>
+        <v>269</v>
       </c>
       <c r="D97" t="s">
         <v>22</v>
@@ -5530,10 +5461,10 @@
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>296</v>
+        <v>270</v>
       </c>
       <c r="C98" t="s">
-        <v>297</v>
+        <v>271</v>
       </c>
       <c r="D98" t="s">
         <v>22</v>
@@ -5542,7 +5473,7 @@
         <v>13</v>
       </c>
       <c r="F98" s="4" t="s">
-        <v>291</v>
+        <v>265</v>
       </c>
       <c r="G98" s="1" t="s">
         <v>20</v>
@@ -5562,10 +5493,10 @@
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>298</v>
+        <v>272</v>
       </c>
       <c r="C99" t="s">
-        <v>299</v>
+        <v>273</v>
       </c>
       <c r="D99" t="s">
         <v>22</v>
@@ -5593,11 +5524,11 @@
       <c r="A100">
         <v>99</v>
       </c>
-      <c r="B100" s="8" t="s">
-        <v>300</v>
+      <c r="B100" s="6" t="s">
+        <v>274</v>
       </c>
       <c r="C100" t="s">
-        <v>301</v>
+        <v>275</v>
       </c>
       <c r="D100" t="s">
         <v>22</v>
@@ -5626,10 +5557,10 @@
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>302</v>
+        <v>276</v>
       </c>
       <c r="C101" t="s">
-        <v>303</v>
+        <v>277</v>
       </c>
       <c r="D101" t="s">
         <v>22</v>
@@ -5637,8 +5568,8 @@
       <c r="E101" t="s">
         <v>13</v>
       </c>
-      <c r="F101" s="6" t="s">
-        <v>304</v>
+      <c r="F101" s="5" t="s">
+        <v>278</v>
       </c>
       <c r="G101" s="1" t="s">
         <v>20</v>
@@ -5654,23 +5585,23 @@
       </c>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A102" s="13">
+      <c r="A102" s="9">
         <v>101</v>
       </c>
-      <c r="B102" s="13" t="s">
-        <v>305</v>
+      <c r="B102" s="9" t="s">
+        <v>279</v>
       </c>
       <c r="C102" t="s">
-        <v>306</v>
-      </c>
-      <c r="D102" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="E102" s="13" t="s">
+        <v>280</v>
+      </c>
+      <c r="D102" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E102" s="9" t="s">
         <v>13</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>307</v>
+        <v>281</v>
       </c>
       <c r="G102" s="1" t="s">
         <v>20</v>
@@ -5678,7 +5609,7 @@
       <c r="H102" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="I102" s="13"/>
+      <c r="I102" s="19"/>
       <c r="J102" s="1" t="s">
         <v>15</v>
       </c>
@@ -5691,10 +5622,10 @@
         <v>102</v>
       </c>
       <c r="B103" t="s">
-        <v>308</v>
+        <v>282</v>
       </c>
       <c r="C103" t="s">
-        <v>309</v>
+        <v>283</v>
       </c>
       <c r="D103" t="s">
         <v>22</v>
@@ -5703,7 +5634,7 @@
         <v>13</v>
       </c>
       <c r="F103" s="4" t="s">
-        <v>310</v>
+        <v>284</v>
       </c>
       <c r="G103" s="1" t="s">
         <v>20</v>
@@ -5723,10 +5654,10 @@
         <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>311</v>
+        <v>285</v>
       </c>
       <c r="C104" t="s">
-        <v>312</v>
+        <v>286</v>
       </c>
       <c r="D104" t="s">
         <v>22</v>
@@ -5755,10 +5686,10 @@
         <v>104</v>
       </c>
       <c r="B105" t="s">
-        <v>313</v>
+        <v>287</v>
       </c>
       <c r="C105" t="s">
-        <v>314</v>
+        <v>288</v>
       </c>
       <c r="D105" t="s">
         <v>22</v>
@@ -5767,7 +5698,7 @@
         <v>13</v>
       </c>
       <c r="F105" s="4" t="s">
-        <v>315</v>
+        <v>289</v>
       </c>
       <c r="G105" s="1" t="s">
         <v>20</v>
@@ -5787,10 +5718,10 @@
         <v>105</v>
       </c>
       <c r="B106" t="s">
-        <v>316</v>
+        <v>290</v>
       </c>
       <c r="C106" t="s">
-        <v>317</v>
+        <v>291</v>
       </c>
       <c r="D106" t="s">
         <v>22</v>
@@ -5819,10 +5750,10 @@
         <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>318</v>
+        <v>292</v>
       </c>
       <c r="C107" t="s">
-        <v>319</v>
+        <v>293</v>
       </c>
       <c r="D107" t="s">
         <v>22</v>
@@ -5851,10 +5782,10 @@
         <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>320</v>
+        <v>294</v>
       </c>
       <c r="C108" t="s">
-        <v>321</v>
+        <v>295</v>
       </c>
       <c r="D108" t="s">
         <v>22</v>
@@ -5863,7 +5794,7 @@
         <v>13</v>
       </c>
       <c r="F108" s="4" t="s">
-        <v>322</v>
+        <v>296</v>
       </c>
       <c r="G108" s="1" t="s">
         <v>20</v>
@@ -5878,15 +5809,15 @@
         <v>16</v>
       </c>
     </row>
-    <row r="109" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>323</v>
+        <v>297</v>
       </c>
       <c r="C109" t="s">
-        <v>324</v>
+        <v>298</v>
       </c>
       <c r="D109" t="s">
         <v>22</v>
@@ -5894,14 +5825,14 @@
       <c r="E109" t="s">
         <v>13</v>
       </c>
-      <c r="F109" s="3" t="s">
-        <v>325</v>
+      <c r="F109" s="4" t="s">
+        <v>389</v>
       </c>
       <c r="G109" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="H109" s="3" t="s">
-        <v>326</v>
+      <c r="H109" s="4" t="s">
+        <v>299</v>
       </c>
       <c r="J109" s="1" t="s">
         <v>15</v>
@@ -5915,10 +5846,10 @@
         <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>327</v>
+        <v>300</v>
       </c>
       <c r="C110" t="s">
-        <v>328</v>
+        <v>301</v>
       </c>
       <c r="D110" t="s">
         <v>22</v>
@@ -5947,10 +5878,10 @@
         <v>110</v>
       </c>
       <c r="B111" t="s">
-        <v>329</v>
+        <v>302</v>
       </c>
       <c r="C111" t="s">
-        <v>330</v>
+        <v>303</v>
       </c>
       <c r="D111" t="s">
         <v>22</v>
@@ -5979,10 +5910,10 @@
         <v>111</v>
       </c>
       <c r="B112" t="s">
-        <v>331</v>
+        <v>304</v>
       </c>
       <c r="C112" t="s">
-        <v>332</v>
+        <v>305</v>
       </c>
       <c r="D112" t="s">
         <v>22</v>
@@ -6011,10 +5942,10 @@
         <v>112</v>
       </c>
       <c r="B113" t="s">
-        <v>333</v>
+        <v>306</v>
       </c>
       <c r="C113" t="s">
-        <v>334</v>
+        <v>307</v>
       </c>
       <c r="D113" t="s">
         <v>22</v>
@@ -6043,10 +5974,10 @@
         <v>113</v>
       </c>
       <c r="B114" t="s">
-        <v>335</v>
+        <v>308</v>
       </c>
       <c r="C114" t="s">
-        <v>336</v>
+        <v>309</v>
       </c>
       <c r="D114" t="s">
         <v>22</v>
@@ -6075,10 +6006,10 @@
         <v>114</v>
       </c>
       <c r="B115" t="s">
-        <v>337</v>
+        <v>310</v>
       </c>
       <c r="C115" t="s">
-        <v>338</v>
+        <v>311</v>
       </c>
       <c r="D115" t="s">
         <v>22</v>
@@ -6107,10 +6038,10 @@
         <v>115</v>
       </c>
       <c r="B116" t="s">
-        <v>339</v>
+        <v>312</v>
       </c>
       <c r="C116" t="s">
-        <v>340</v>
+        <v>313</v>
       </c>
       <c r="D116" t="s">
         <v>22</v>
@@ -6139,10 +6070,10 @@
         <v>116</v>
       </c>
       <c r="B117" t="s">
-        <v>341</v>
+        <v>314</v>
       </c>
       <c r="C117" t="s">
-        <v>342</v>
+        <v>315</v>
       </c>
       <c r="D117" t="s">
         <v>22</v>
@@ -6171,10 +6102,10 @@
         <v>117</v>
       </c>
       <c r="B118" t="s">
-        <v>343</v>
+        <v>316</v>
       </c>
       <c r="C118" t="s">
-        <v>384</v>
+        <v>356</v>
       </c>
       <c r="D118" t="s">
         <v>22</v>
@@ -6203,10 +6134,10 @@
         <v>118</v>
       </c>
       <c r="B119" t="s">
-        <v>344</v>
+        <v>317</v>
       </c>
       <c r="C119" t="s">
-        <v>345</v>
+        <v>318</v>
       </c>
       <c r="D119" t="s">
         <v>22</v>
@@ -6235,10 +6166,10 @@
         <v>119</v>
       </c>
       <c r="B120" t="s">
-        <v>346</v>
+        <v>319</v>
       </c>
       <c r="C120" t="s">
-        <v>347</v>
+        <v>320</v>
       </c>
       <c r="D120" t="s">
         <v>22</v>
@@ -6267,10 +6198,10 @@
         <v>120</v>
       </c>
       <c r="B121" t="s">
-        <v>348</v>
+        <v>321</v>
       </c>
       <c r="C121" t="s">
-        <v>385</v>
+        <v>357</v>
       </c>
       <c r="D121" t="s">
         <v>22</v>
@@ -6299,10 +6230,10 @@
         <v>121</v>
       </c>
       <c r="B122" t="s">
-        <v>349</v>
+        <v>322</v>
       </c>
       <c r="C122" t="s">
-        <v>350</v>
+        <v>323</v>
       </c>
       <c r="D122" t="s">
         <v>22</v>
@@ -6331,10 +6262,10 @@
         <v>122</v>
       </c>
       <c r="B123" t="s">
-        <v>351</v>
+        <v>324</v>
       </c>
       <c r="C123" t="s">
-        <v>352</v>
+        <v>325</v>
       </c>
       <c r="D123" t="s">
         <v>22</v>
@@ -6363,10 +6294,10 @@
         <v>123</v>
       </c>
       <c r="B124" t="s">
-        <v>353</v>
+        <v>326</v>
       </c>
       <c r="C124" t="s">
-        <v>354</v>
+        <v>327</v>
       </c>
       <c r="D124" t="s">
         <v>22</v>
@@ -6395,10 +6326,10 @@
         <v>124</v>
       </c>
       <c r="B125" t="s">
-        <v>355</v>
+        <v>328</v>
       </c>
       <c r="C125" t="s">
-        <v>356</v>
+        <v>329</v>
       </c>
       <c r="D125" t="s">
         <v>22</v>
@@ -6427,10 +6358,10 @@
         <v>125</v>
       </c>
       <c r="B126" t="s">
-        <v>357</v>
+        <v>330</v>
       </c>
       <c r="C126" t="s">
-        <v>358</v>
+        <v>331</v>
       </c>
       <c r="D126" t="s">
         <v>22</v>
@@ -6459,10 +6390,10 @@
         <v>126</v>
       </c>
       <c r="B127" t="s">
-        <v>359</v>
+        <v>332</v>
       </c>
       <c r="C127" t="s">
-        <v>360</v>
+        <v>333</v>
       </c>
       <c r="D127" t="s">
         <v>22</v>
@@ -6471,7 +6402,7 @@
         <v>13</v>
       </c>
       <c r="F127" s="4" t="s">
-        <v>361</v>
+        <v>334</v>
       </c>
       <c r="G127" s="1" t="s">
         <v>20</v>
@@ -6491,10 +6422,10 @@
         <v>127</v>
       </c>
       <c r="B128" t="s">
-        <v>362</v>
+        <v>335</v>
       </c>
       <c r="C128" t="s">
-        <v>386</v>
+        <v>358</v>
       </c>
       <c r="D128" t="s">
         <v>22</v>
@@ -6523,38 +6454,38 @@
         <v>128</v>
       </c>
       <c r="B129" t="s">
-        <v>365</v>
+        <v>337</v>
       </c>
       <c r="C129" t="s">
-        <v>366</v>
-      </c>
-      <c r="D129" s="27" t="s">
+        <v>338</v>
+      </c>
+      <c r="D129" s="17" t="s">
         <v>12</v>
       </c>
       <c r="E129" t="s">
         <v>13</v>
       </c>
       <c r="F129" s="24" t="s">
-        <v>367</v>
+        <v>339</v>
       </c>
       <c r="G129" s="4" t="s">
-        <v>368</v>
-      </c>
-      <c r="H129">
+        <v>340</v>
+      </c>
+      <c r="H129" s="18">
         <v>1</v>
       </c>
-      <c r="I129" s="26" t="s">
-        <v>369</v>
-      </c>
-      <c r="J129" s="25" t="s">
+      <c r="I129" s="16" t="s">
+        <v>341</v>
+      </c>
+      <c r="J129" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="K129" s="25" t="s">
+      <c r="K129" s="15" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D130" s="27"/>
+      <c r="D130" s="17"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -6567,12 +6498,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Zeit xmlns="b63cdcf7-47fa-43f6-87e5-23b415b5c413" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="b63cdcf7-47fa-43f6-87e5-23b415b5c413">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="12535b08-222e-45d2-b6db-15019f1afee6" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6817,21 +6751,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Zeit xmlns="b63cdcf7-47fa-43f6-87e5-23b415b5c413" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="b63cdcf7-47fa-43f6-87e5-23b415b5c413">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="12535b08-222e-45d2-b6db-15019f1afee6" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E89B3EC5-962B-41D9-9821-3A191D2434CD}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FBFC15CC-4CA5-447A-915F-1412CED97222}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="b63cdcf7-47fa-43f6-87e5-23b415b5c413"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="12535b08-222e-45d2-b6db-15019f1afee6"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -6856,18 +6796,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FBFC15CC-4CA5-447A-915F-1412CED97222}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E89B3EC5-962B-41D9-9821-3A191D2434CD}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="b63cdcf7-47fa-43f6-87e5-23b415b5c413"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="12535b08-222e-45d2-b6db-15019f1afee6"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/rmonize/data_proc_elem/DPE_GINI_P1.xlsx
+++ b/rmonize/data_proc_elem/DPE_GINI_P1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20415"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Projekte\NFDI4Health\TA5\Pilotprojekte\Harmonisierung\HarmonizR\use-cases-harmonisation\rmonize\data_proc_elem\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\use-cases-harmonisation\rmonize\data_proc_elem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="14_{1FE20271-D514-43D2-B924-BF34D1FF08CA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4310B14-6300-4012-8667-A6C3378ED263}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="22290" windowHeight="12000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data_processing_elements_templa" sheetId="1" r:id="rId1"/>
@@ -114,50 +114,6 @@
     <t>case_when</t>
   </si>
   <si>
-    <t>case_when(
-      is.na(gsc09m) &amp; is.na(gsc08v) ~ 5L,
-      gsc09m == 5 &amp; !is.na(gsc08v) ~ case_when(
-        gsc08v == 6 ~ 0L,
-        gsc08v == 1 ~ 1L,
-        gsc08v == 2 ~ 2L,
-        gsc08v == 3 ~ 3L,
-        gsc08v &gt;= 4 ~ 4L
-      ),
-      gsc08v == 5 &amp; !is.na(gsc09m) ~ case_when(
-        gsc09m == 6 ~ 0L,
-        gsc09m == 1 ~ 1L,
-        gsc09m == 2 ~ 2L,
-        gsc09m == 3 ~ 3L,
-        gsc09m &gt;= 4 ~ 4L
-      ),
-      gsc09m == 5 &amp; gsc08v == 5 ~ 5L,
-      is.na(gsc09m) &amp; gsc08v == 6 ~ 0L,
-      is.na(gsc09m) &amp; gsc08v == 1 ~ 1L,
-      is.na(gsc09m) &amp; gsc08v == 2 ~ 2L,
-      is.na(gsc09m) &amp; gsc08v == 3 ~ 3L,
-      is.na(gsc09m) &amp; gsc08v &gt;= 4 ~ 4L,
-      is.na(gsc08v) &amp; gsc09m == 6 ~ 0L,
-      is.na(gsc08v) &amp; gsc09m == 1 ~ 1L,
-      is.na(gsc08v) &amp; gsc09m == 2 ~ 2L,
-      is.na(gsc08v) &amp; gsc09m == 3 ~ 3L,
-      is.na(gsc08v) &amp; gsc09m &gt;= 4 ~ 4L,
-      pmax(gsc09m, gsc08v, na.rm = TRUE) == 6 ~ 0L,
-      pmax(gsc09m, gsc08v, na.rm = TRUE) == 1 ~ 1L,
-      pmax(gsc09m, gsc08v, na.rm = TRUE) == 2 ~ 2L,
-      pmax(gsc09m, gsc08v, na.rm = TRUE) == 3 ~ 3L,
-      pmax(gsc09m, gsc08v, na.rm = TRUE) &gt;= 4 ~ 4L,
-      TRUE ~ NA_integer_
-    )</t>
-  </si>
-  <si>
-    <t>If both gsc09m (mother) and gsc08v (father) are NA, assign 5L ("not specified").
-If one parent has "other degree" (5) and the other parent has a valid level, use the valid level.
-If both have "other degree" (5), assign 5L.
-If one parent is NA, use the other parent’s value and map it directly.
-Both Present: Use the maximum value between the two parents (pmax), then map it to the appropriate category.
-Default: Assign NA_integer_ for unexpected cases (should not occur).</t>
-  </si>
-  <si>
     <t>partial</t>
   </si>
   <si>
@@ -1336,6 +1292,47 @@
   </si>
   <si>
     <t>aktivleiisommn_15;aktivleiwintn_15;aktivmitsommn_15;aktivmitwintn_15;aktivschsommn_15;aktivschwintn_15</t>
+  </si>
+  <si>
+    <t>Missing values: If both gsc09m and gsc08v are missing, it returns NA.
+Both are "not specified": If both are 5, it returns 5.
+One is "not specified": If one of the variables is 5 (i.e., "Sonstiger Abschluss"), it uses the other parent’s value (if valid) to determine the education level.
+One is missing: If one of the parents has a missing value (NA), it checks the valid level of the other parent.
+Max of both: If neither is missing, it will return the highest level between both parents (0L for none, 3L for secondary school, 4L for longer education).</t>
+  </si>
+  <si>
+    <t>case_when(
+  is.na(gsc09m) &amp; is.na(gsc08v) ~ NA_integer_,
+  gsc09m == 5 &amp; gsc08v == 5 ~ 5L,
+  gsc09m == 5 &amp; !is.na(gsc08v) ~ case_when(
+    gsc08v == 6 ~ 0L,
+    gsc08v %in% 1:3 ~ 3L,
+    gsc08v == 4 ~ 4L,
+    TRUE ~ 5L
+  ),
+  gsc08v == 5 &amp; !is.na(gsc09m) ~ case_when(
+    gsc09m == 6 ~ 0L,
+    gsc09m %in% 1:3 ~ 3L,
+    gsc09m == 4 ~ 4L,
+    TRUE ~ 5L
+  ),
+  gsc09m == 5 &amp; gsc08v != 5  ~ case_when(
+    gsc08v == 6 ~ 0L,
+    gsc08v %in% 1:3 ~ 3L,
+    gsc08v == 4 ~ 4L,
+    TRUE ~ 5L
+  ),
+  gsc08v == 5 &amp; gsc09m != 5  ~ case_when(
+    gsc09m == 6 ~ 0L,
+    gsc09m %in% 1:3 ~ 3L,
+    gsc09m == 4 ~ 4L,
+    TRUE ~ 5L
+  ),
+  gsc09m == 6 | gsc08v == 6  ~ 0L,
+  gsc09m %in% 1:3 | gsc08v %in% 1:3 ~ 3L,
+  gsc09m == 4 | gsc08v == 4 ~ 4L,
+  TRUE ~ 5L
+)</t>
   </si>
 </sst>
 </file>
@@ -1488,12 +1485,13 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1877,7 +1875,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1933,51 +1931,54 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="43">
-    <cellStyle name="20 % - Akzent1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20 % - Akzent2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20 % - Akzent3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20 % - Akzent4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20 % - Akzent5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20 % - Akzent6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Akzent1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Akzent2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Akzent3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Akzent4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Akzent5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Akzent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Ausgabe" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Berechnung" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Eingabe" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Ergebnis" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Erklärender Text" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Gut" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Link" xfId="42" builtinId="8"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Hyperlink" xfId="42" builtinId="8"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="Notiz" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Schlecht" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
-    <cellStyle name="Überschrift" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Überschrift 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Überschrift 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Überschrift 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Überschrift 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Verknüpfte Zelle" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Warnender Text" xfId="14" builtinId="11" customBuiltin="1"/>
-    <cellStyle name="Zelle überprüfen" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1993,9 +1994,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2033,7 +2034,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2139,7 +2140,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2281,7 +2282,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2291,19 +2292,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K130"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K139" sqref="K139"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H5" sqref="H5:I5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="29" style="4" customWidth="1"/>
     <col min="3" max="3" width="138.140625" style="4" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="21.85546875" style="4" customWidth="1"/>
     <col min="7" max="7" width="26.42578125" style="4" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="22.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="30.140625" style="18" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="255.7109375" style="18" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="19.28515625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="25.42578125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="15.5703125" bestFit="1" customWidth="1"/>
@@ -2352,7 +2353,7 @@
         <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="D2" t="s">
         <v>12</v>
@@ -2418,7 +2419,7 @@
         <v>21</v>
       </c>
       <c r="C4" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
@@ -2436,16 +2437,16 @@
         <v>20</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="J4" s="9" t="s">
         <v>15</v>
       </c>
       <c r="K4" s="9" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2467,17 +2468,17 @@
       <c r="G5" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="H5" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="I5" s="27" t="s">
+        <v>391</v>
+      </c>
+      <c r="J5" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="I5" s="19" t="s">
+      <c r="K5" s="19" t="s">
         <v>30</v>
-      </c>
-      <c r="J5" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="K5" s="19" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -2485,10 +2486,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C6" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="D6" t="s">
         <v>22</v>
@@ -2497,22 +2498,22 @@
         <v>13</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="G6" s="19" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H6" s="26" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="I6" s="26" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="J6" s="19" t="s">
         <v>15</v>
       </c>
       <c r="K6" s="19" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -2520,10 +2521,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>12</v>
@@ -2532,22 +2533,22 @@
         <v>13</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G7" s="13" t="s">
         <v>24</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -2555,10 +2556,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C8" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="D8" t="s">
         <v>22</v>
@@ -2567,7 +2568,7 @@
         <v>13</v>
       </c>
       <c r="F8" s="20" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G8" s="14" t="s">
         <v>20</v>
@@ -2588,22 +2589,22 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="C9" t="s">
+      <c r="G9" s="14" t="s">
         <v>44</v>
-      </c>
-      <c r="D9" t="s">
-        <v>22</v>
-      </c>
-      <c r="E9" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="G9" s="14" t="s">
-        <v>46</v>
       </c>
       <c r="H9" s="20" t="s">
         <v>20</v>
@@ -2621,34 +2622,34 @@
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" t="s">
+        <v>46</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C10" t="s">
+      <c r="G10" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10" t="s">
-        <v>13</v>
-      </c>
-      <c r="F10" s="4" t="s">
+      <c r="H10" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="I10" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="H10" s="4" t="s">
+      <c r="J10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K10" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="I10" s="23" t="s">
-        <v>52</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -2656,10 +2657,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C11" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D11" t="s">
         <v>22</v>
@@ -2668,19 +2669,19 @@
         <v>13</v>
       </c>
       <c r="F11" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H11" s="4" t="s">
         <v>49</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>51</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>15</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -2688,10 +2689,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C12" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D12" t="s">
         <v>22</v>
@@ -2700,19 +2701,19 @@
         <v>13</v>
       </c>
       <c r="F12" s="18" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -2720,31 +2721,31 @@
         <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C13" t="s">
+        <v>58</v>
+      </c>
+      <c r="D13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="C13" t="s">
+      <c r="G13" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H13" s="4" t="s">
         <v>60</v>
-      </c>
-      <c r="D13" t="s">
-        <v>22</v>
-      </c>
-      <c r="E13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="H13" s="4" t="s">
-        <v>62</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>15</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -2752,31 +2753,31 @@
         <v>13</v>
       </c>
       <c r="B14" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C14" t="s">
+        <v>62</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C14" t="s">
+      <c r="G14" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H14" s="5" t="s">
         <v>64</v>
-      </c>
-      <c r="D14" t="s">
-        <v>22</v>
-      </c>
-      <c r="E14" t="s">
-        <v>13</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="H14" s="5" t="s">
-        <v>66</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>15</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -2784,19 +2785,19 @@
         <v>14</v>
       </c>
       <c r="B15" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C15" t="s">
+        <v>66</v>
+      </c>
+      <c r="D15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" s="5" t="s">
         <v>67</v>
-      </c>
-      <c r="C15" t="s">
-        <v>68</v>
-      </c>
-      <c r="D15" t="s">
-        <v>22</v>
-      </c>
-      <c r="E15" t="s">
-        <v>13</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>69</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>20</v>
@@ -2816,19 +2817,19 @@
         <v>15</v>
       </c>
       <c r="B16" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C16" t="s">
+        <v>69</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16" t="s">
+        <v>13</v>
+      </c>
+      <c r="F16" s="5" t="s">
         <v>70</v>
-      </c>
-      <c r="C16" t="s">
-        <v>71</v>
-      </c>
-      <c r="D16" t="s">
-        <v>22</v>
-      </c>
-      <c r="E16" t="s">
-        <v>13</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>72</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>20</v>
@@ -2848,22 +2849,22 @@
         <v>16</v>
       </c>
       <c r="B17" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C17" t="s">
+        <v>72</v>
+      </c>
+      <c r="D17" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17" t="s">
+        <v>13</v>
+      </c>
+      <c r="F17" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="C17" t="s">
-        <v>74</v>
-      </c>
-      <c r="D17" t="s">
-        <v>22</v>
-      </c>
-      <c r="E17" t="s">
-        <v>13</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>75</v>
-      </c>
       <c r="G17" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H17" s="1" t="s">
         <v>20</v>
@@ -2880,10 +2881,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C18" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D18" t="s">
         <v>22</v>
@@ -2892,19 +2893,19 @@
         <v>13</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
@@ -2912,10 +2913,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C19" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D19" t="s">
         <v>22</v>
@@ -2924,19 +2925,19 @@
         <v>13</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
@@ -2944,10 +2945,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C20" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D20" t="s">
         <v>22</v>
@@ -2956,19 +2957,19 @@
         <v>13</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
@@ -2976,10 +2977,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C21" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D21" t="s">
         <v>22</v>
@@ -2988,19 +2989,19 @@
         <v>13</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
@@ -3008,10 +3009,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C22" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D22" t="s">
         <v>22</v>
@@ -3020,19 +3021,19 @@
         <v>13</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
@@ -3040,10 +3041,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C23" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D23" t="s">
         <v>22</v>
@@ -3052,19 +3053,19 @@
         <v>13</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
@@ -3072,10 +3073,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C24" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D24" t="s">
         <v>22</v>
@@ -3084,19 +3085,19 @@
         <v>13</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
@@ -3104,32 +3105,32 @@
         <v>24</v>
       </c>
       <c r="B25" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C25" t="s">
+        <v>89</v>
+      </c>
+      <c r="D25" t="s">
+        <v>22</v>
+      </c>
+      <c r="E25" t="s">
+        <v>13</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H25" s="4" t="s">
         <v>90</v>
-      </c>
-      <c r="C25" t="s">
-        <v>91</v>
-      </c>
-      <c r="D25" t="s">
-        <v>22</v>
-      </c>
-      <c r="E25" t="s">
-        <v>13</v>
-      </c>
-      <c r="F25" s="4" t="s">
-        <v>364</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="H25" s="4" t="s">
-        <v>92</v>
       </c>
       <c r="I25" s="5"/>
       <c r="J25" s="1" t="s">
         <v>15</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
@@ -3137,31 +3138,31 @@
         <v>25</v>
       </c>
       <c r="B26" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C26" t="s">
+        <v>92</v>
+      </c>
+      <c r="D26" t="s">
+        <v>22</v>
+      </c>
+      <c r="E26" t="s">
+        <v>13</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>363</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H26" s="4" t="s">
         <v>93</v>
-      </c>
-      <c r="C26" t="s">
-        <v>94</v>
-      </c>
-      <c r="D26" t="s">
-        <v>22</v>
-      </c>
-      <c r="E26" t="s">
-        <v>13</v>
-      </c>
-      <c r="F26" s="4" t="s">
-        <v>365</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="H26" s="4" t="s">
-        <v>95</v>
       </c>
       <c r="J26" s="1" t="s">
         <v>15</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
@@ -3169,10 +3170,10 @@
         <v>26</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C27" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D27" t="s">
         <v>22</v>
@@ -3181,19 +3182,19 @@
         <v>13</v>
       </c>
       <c r="F27" s="23" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="J27" s="1" t="s">
         <v>15</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
@@ -3201,10 +3202,10 @@
         <v>27</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C28" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D28" t="s">
         <v>22</v>
@@ -3213,19 +3214,19 @@
         <v>13</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
@@ -3233,10 +3234,10 @@
         <v>28</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C29" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D29" t="s">
         <v>22</v>
@@ -3245,19 +3246,19 @@
         <v>13</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
@@ -3265,31 +3266,31 @@
         <v>29</v>
       </c>
       <c r="B30" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C30" t="s">
+        <v>101</v>
+      </c>
+      <c r="D30" t="s">
+        <v>22</v>
+      </c>
+      <c r="E30" t="s">
+        <v>13</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>364</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H30" s="4" t="s">
         <v>102</v>
-      </c>
-      <c r="C30" t="s">
-        <v>103</v>
-      </c>
-      <c r="D30" t="s">
-        <v>22</v>
-      </c>
-      <c r="E30" t="s">
-        <v>13</v>
-      </c>
-      <c r="F30" s="4" t="s">
-        <v>366</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="H30" s="4" t="s">
-        <v>104</v>
       </c>
       <c r="J30" s="1" t="s">
         <v>15</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
@@ -3297,19 +3298,19 @@
         <v>30</v>
       </c>
       <c r="B31" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C31" t="s">
+        <v>104</v>
+      </c>
+      <c r="D31" t="s">
+        <v>22</v>
+      </c>
+      <c r="E31" t="s">
+        <v>13</v>
+      </c>
+      <c r="F31" s="5" t="s">
         <v>105</v>
-      </c>
-      <c r="C31" t="s">
-        <v>106</v>
-      </c>
-      <c r="D31" t="s">
-        <v>22</v>
-      </c>
-      <c r="E31" t="s">
-        <v>13</v>
-      </c>
-      <c r="F31" s="5" t="s">
-        <v>107</v>
       </c>
       <c r="G31" s="1" t="s">
         <v>20</v>
@@ -3329,31 +3330,31 @@
         <v>31</v>
       </c>
       <c r="B32" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C32" t="s">
+        <v>107</v>
+      </c>
+      <c r="D32" t="s">
+        <v>22</v>
+      </c>
+      <c r="E32" t="s">
+        <v>13</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>365</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H32" s="4" t="s">
         <v>108</v>
-      </c>
-      <c r="C32" t="s">
-        <v>109</v>
-      </c>
-      <c r="D32" t="s">
-        <v>22</v>
-      </c>
-      <c r="E32" t="s">
-        <v>13</v>
-      </c>
-      <c r="F32" s="4" t="s">
-        <v>367</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="H32" s="4" t="s">
-        <v>110</v>
       </c>
       <c r="J32" s="1" t="s">
         <v>15</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
@@ -3361,19 +3362,19 @@
         <v>32</v>
       </c>
       <c r="B33" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C33" t="s">
+        <v>110</v>
+      </c>
+      <c r="D33" t="s">
+        <v>22</v>
+      </c>
+      <c r="E33" t="s">
+        <v>13</v>
+      </c>
+      <c r="F33" s="5" t="s">
         <v>111</v>
-      </c>
-      <c r="C33" t="s">
-        <v>112</v>
-      </c>
-      <c r="D33" t="s">
-        <v>22</v>
-      </c>
-      <c r="E33" t="s">
-        <v>13</v>
-      </c>
-      <c r="F33" s="5" t="s">
-        <v>113</v>
       </c>
       <c r="G33" s="1" t="s">
         <v>20</v>
@@ -3393,10 +3394,10 @@
         <v>33</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C34" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D34" t="s">
         <v>22</v>
@@ -3405,7 +3406,7 @@
         <v>13</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="G34" s="1" t="s">
         <v>20</v>
@@ -3425,10 +3426,10 @@
         <v>34</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C35" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="D35" t="s">
         <v>22</v>
@@ -3437,20 +3438,20 @@
         <v>13</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H35" s="5" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="I35" s="1"/>
       <c r="J35" s="1" t="s">
         <v>15</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
@@ -3458,10 +3459,10 @@
         <v>35</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C36" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="D36" t="s">
         <v>22</v>
@@ -3470,7 +3471,7 @@
         <v>13</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="G36" s="1" t="s">
         <v>20</v>
@@ -3491,19 +3492,19 @@
         <v>36</v>
       </c>
       <c r="B37" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="C37" t="s">
+        <v>119</v>
+      </c>
+      <c r="D37" t="s">
+        <v>22</v>
+      </c>
+      <c r="E37" t="s">
+        <v>13</v>
+      </c>
+      <c r="F37" s="4" t="s">
         <v>120</v>
-      </c>
-      <c r="C37" t="s">
-        <v>121</v>
-      </c>
-      <c r="D37" t="s">
-        <v>22</v>
-      </c>
-      <c r="E37" t="s">
-        <v>13</v>
-      </c>
-      <c r="F37" s="4" t="s">
-        <v>122</v>
       </c>
       <c r="G37" s="1" t="s">
         <v>20</v>
@@ -3524,10 +3525,10 @@
         <v>37</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C38" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D38" t="s">
         <v>22</v>
@@ -3536,7 +3537,7 @@
         <v>13</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G38" s="1" t="s">
         <v>20</v>
@@ -3557,10 +3558,10 @@
         <v>38</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C39" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="D39" t="s">
         <v>22</v>
@@ -3569,19 +3570,19 @@
         <v>13</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
@@ -3589,10 +3590,10 @@
         <v>39</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C40" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D40" t="s">
         <v>22</v>
@@ -3601,19 +3602,19 @@
         <v>13</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K40" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
@@ -3621,10 +3622,10 @@
         <v>40</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C41" s="18" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="D41" t="s">
         <v>22</v>
@@ -3633,19 +3634,19 @@
         <v>13</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H41" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="J41" s="1" t="s">
         <v>15</v>
       </c>
       <c r="K41" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
@@ -3653,10 +3654,10 @@
         <v>41</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C42" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D42" t="s">
         <v>22</v>
@@ -3665,19 +3666,19 @@
         <v>13</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K42" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
@@ -3685,31 +3686,31 @@
         <v>42</v>
       </c>
       <c r="B43" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C43" t="s">
+        <v>131</v>
+      </c>
+      <c r="D43" t="s">
+        <v>22</v>
+      </c>
+      <c r="E43" t="s">
+        <v>13</v>
+      </c>
+      <c r="F43" s="4" t="s">
+        <v>368</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H43" s="4" t="s">
         <v>132</v>
-      </c>
-      <c r="C43" t="s">
-        <v>133</v>
-      </c>
-      <c r="D43" t="s">
-        <v>22</v>
-      </c>
-      <c r="E43" t="s">
-        <v>13</v>
-      </c>
-      <c r="F43" s="4" t="s">
-        <v>370</v>
-      </c>
-      <c r="G43" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="H43" s="4" t="s">
-        <v>134</v>
       </c>
       <c r="J43" s="1" t="s">
         <v>15</v>
       </c>
       <c r="K43" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
@@ -3717,34 +3718,34 @@
         <v>43</v>
       </c>
       <c r="B44" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="C44" t="s">
+        <v>134</v>
+      </c>
+      <c r="D44" t="s">
+        <v>22</v>
+      </c>
+      <c r="E44" t="s">
+        <v>13</v>
+      </c>
+      <c r="F44" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H44" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="C44" t="s">
+      <c r="I44" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="D44" t="s">
-        <v>22</v>
-      </c>
-      <c r="E44" t="s">
-        <v>13</v>
-      </c>
-      <c r="F44" s="4" t="s">
-        <v>371</v>
-      </c>
-      <c r="G44" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="H44" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="I44" s="5" t="s">
-        <v>138</v>
-      </c>
       <c r="J44" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="K44" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
@@ -3752,10 +3753,10 @@
         <v>44</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C45" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D45" t="s">
         <v>22</v>
@@ -3764,19 +3765,19 @@
         <v>13</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H45" s="4" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="J45" s="1" t="s">
         <v>15</v>
       </c>
       <c r="K45" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
@@ -3784,10 +3785,10 @@
         <v>45</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C46" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D46" t="s">
         <v>22</v>
@@ -3796,19 +3797,19 @@
         <v>13</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K46" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
@@ -3816,31 +3817,31 @@
         <v>46</v>
       </c>
       <c r="B47" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="C47" t="s">
+        <v>142</v>
+      </c>
+      <c r="D47" t="s">
+        <v>22</v>
+      </c>
+      <c r="E47" t="s">
+        <v>13</v>
+      </c>
+      <c r="F47" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H47" s="4" t="s">
         <v>143</v>
-      </c>
-      <c r="C47" t="s">
-        <v>144</v>
-      </c>
-      <c r="D47" t="s">
-        <v>22</v>
-      </c>
-      <c r="E47" t="s">
-        <v>13</v>
-      </c>
-      <c r="F47" s="4" t="s">
-        <v>372</v>
-      </c>
-      <c r="G47" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="H47" s="4" t="s">
-        <v>145</v>
       </c>
       <c r="J47" s="1" t="s">
         <v>15</v>
       </c>
       <c r="K47" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
@@ -3848,10 +3849,10 @@
         <v>47</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C48" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D48" t="s">
         <v>22</v>
@@ -3860,19 +3861,19 @@
         <v>13</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K48" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
@@ -3880,10 +3881,10 @@
         <v>48</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C49" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="D49" t="s">
         <v>22</v>
@@ -3892,7 +3893,7 @@
         <v>13</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="G49" s="1" t="s">
         <v>20</v>
@@ -3912,10 +3913,10 @@
         <v>49</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C50" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D50" t="s">
         <v>22</v>
@@ -3924,7 +3925,7 @@
         <v>13</v>
       </c>
       <c r="F50" s="13" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G50" s="13" t="s">
         <v>20</v>
@@ -3945,10 +3946,10 @@
         <v>50</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C51" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D51" t="s">
         <v>22</v>
@@ -3957,20 +3958,20 @@
         <v>13</v>
       </c>
       <c r="F51" s="25" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="G51" s="13" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H51" s="13" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="I51" s="15"/>
       <c r="J51" s="13" t="s">
         <v>15</v>
       </c>
       <c r="K51" s="13" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
@@ -3978,34 +3979,34 @@
         <v>51</v>
       </c>
       <c r="B52" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C52" t="s">
+        <v>154</v>
+      </c>
+      <c r="D52" t="s">
+        <v>22</v>
+      </c>
+      <c r="E52" t="s">
+        <v>13</v>
+      </c>
+      <c r="F52" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="C52" t="s">
+      <c r="G52" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H52" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="D52" t="s">
-        <v>22</v>
-      </c>
-      <c r="E52" t="s">
-        <v>13</v>
-      </c>
-      <c r="F52" s="5" t="s">
+      <c r="I52" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="G52" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="H52" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="I52" s="1" t="s">
-        <v>159</v>
-      </c>
       <c r="J52" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="K52" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
@@ -4013,10 +4014,10 @@
         <v>52</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C53" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D53" t="s">
         <v>22</v>
@@ -4025,22 +4026,22 @@
         <v>13</v>
       </c>
       <c r="F53" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H53" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="I53" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="G53" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="H53" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="I53" s="1" t="s">
-        <v>159</v>
-      </c>
       <c r="J53" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="K53" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
@@ -4048,19 +4049,19 @@
         <v>53</v>
       </c>
       <c r="B54" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="C54" t="s">
+        <v>161</v>
+      </c>
+      <c r="D54" t="s">
+        <v>22</v>
+      </c>
+      <c r="E54" t="s">
+        <v>13</v>
+      </c>
+      <c r="F54" s="5" t="s">
         <v>162</v>
-      </c>
-      <c r="C54" t="s">
-        <v>163</v>
-      </c>
-      <c r="D54" t="s">
-        <v>22</v>
-      </c>
-      <c r="E54" t="s">
-        <v>13</v>
-      </c>
-      <c r="F54" s="5" t="s">
-        <v>164</v>
       </c>
       <c r="G54" s="1" t="s">
         <v>20</v>
@@ -4080,10 +4081,10 @@
         <v>54</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C55" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D55" t="s">
         <v>22</v>
@@ -4092,19 +4093,19 @@
         <v>13</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K55" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
@@ -4112,10 +4113,10 @@
         <v>55</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C56" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D56" t="s">
         <v>22</v>
@@ -4124,19 +4125,19 @@
         <v>13</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K56" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
@@ -4144,10 +4145,10 @@
         <v>56</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C57" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D57" t="s">
         <v>22</v>
@@ -4156,19 +4157,19 @@
         <v>13</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K57" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
@@ -4176,19 +4177,19 @@
         <v>57</v>
       </c>
       <c r="B58" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="C58" t="s">
+        <v>170</v>
+      </c>
+      <c r="D58" t="s">
+        <v>22</v>
+      </c>
+      <c r="E58" t="s">
+        <v>13</v>
+      </c>
+      <c r="F58" s="4" t="s">
         <v>171</v>
-      </c>
-      <c r="C58" t="s">
-        <v>172</v>
-      </c>
-      <c r="D58" t="s">
-        <v>22</v>
-      </c>
-      <c r="E58" t="s">
-        <v>13</v>
-      </c>
-      <c r="F58" s="4" t="s">
-        <v>173</v>
       </c>
       <c r="G58" s="1" t="s">
         <v>20</v>
@@ -4208,10 +4209,10 @@
         <v>58</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C59" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="D59" t="s">
         <v>22</v>
@@ -4220,19 +4221,19 @@
         <v>13</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J59" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K59" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
@@ -4240,10 +4241,10 @@
         <v>59</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C60" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D60" t="s">
         <v>22</v>
@@ -4252,19 +4253,19 @@
         <v>13</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J60" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K60" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
@@ -4272,10 +4273,10 @@
         <v>60</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C61" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D61" t="s">
         <v>22</v>
@@ -4284,19 +4285,19 @@
         <v>13</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K61" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
@@ -4304,10 +4305,10 @@
         <v>61</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C62" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D62" t="s">
         <v>22</v>
@@ -4316,19 +4317,19 @@
         <v>13</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K62" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
@@ -4336,10 +4337,10 @@
         <v>62</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C63" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D63" t="s">
         <v>22</v>
@@ -4348,19 +4349,19 @@
         <v>13</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J63" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K63" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
@@ -4368,10 +4369,10 @@
         <v>63</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C64" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D64" t="s">
         <v>22</v>
@@ -4380,19 +4381,19 @@
         <v>13</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J64" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K64" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
@@ -4400,10 +4401,10 @@
         <v>64</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C65" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D65" t="s">
         <v>22</v>
@@ -4412,19 +4413,19 @@
         <v>13</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J65" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K65" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
@@ -4432,31 +4433,31 @@
         <v>65</v>
       </c>
       <c r="B66" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="C66" t="s">
+        <v>185</v>
+      </c>
+      <c r="D66" t="s">
+        <v>22</v>
+      </c>
+      <c r="E66" t="s">
+        <v>13</v>
+      </c>
+      <c r="F66" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H66" s="4" t="s">
         <v>186</v>
-      </c>
-      <c r="C66" t="s">
-        <v>187</v>
-      </c>
-      <c r="D66" t="s">
-        <v>22</v>
-      </c>
-      <c r="E66" t="s">
-        <v>13</v>
-      </c>
-      <c r="F66" s="4" t="s">
-        <v>374</v>
-      </c>
-      <c r="G66" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="H66" s="4" t="s">
-        <v>188</v>
       </c>
       <c r="J66" s="1" t="s">
         <v>15</v>
       </c>
       <c r="K66" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
@@ -4464,19 +4465,19 @@
         <v>66</v>
       </c>
       <c r="B67" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="C67" t="s">
+        <v>188</v>
+      </c>
+      <c r="D67" t="s">
+        <v>22</v>
+      </c>
+      <c r="E67" t="s">
+        <v>13</v>
+      </c>
+      <c r="F67" s="5" t="s">
         <v>189</v>
-      </c>
-      <c r="C67" t="s">
-        <v>190</v>
-      </c>
-      <c r="D67" t="s">
-        <v>22</v>
-      </c>
-      <c r="E67" t="s">
-        <v>13</v>
-      </c>
-      <c r="F67" s="5" t="s">
-        <v>191</v>
       </c>
       <c r="G67" s="1" t="s">
         <v>20</v>
@@ -4496,31 +4497,31 @@
         <v>67</v>
       </c>
       <c r="B68" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="C68" t="s">
+        <v>191</v>
+      </c>
+      <c r="D68" t="s">
+        <v>22</v>
+      </c>
+      <c r="E68" t="s">
+        <v>13</v>
+      </c>
+      <c r="F68" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H68" s="4" t="s">
         <v>192</v>
-      </c>
-      <c r="C68" t="s">
-        <v>193</v>
-      </c>
-      <c r="D68" t="s">
-        <v>22</v>
-      </c>
-      <c r="E68" t="s">
-        <v>13</v>
-      </c>
-      <c r="F68" s="4" t="s">
-        <v>375</v>
-      </c>
-      <c r="G68" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="H68" s="4" t="s">
-        <v>194</v>
       </c>
       <c r="J68" s="1" t="s">
         <v>15</v>
       </c>
       <c r="K68" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
@@ -4528,10 +4529,10 @@
         <v>68</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C69" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="D69" t="s">
         <v>22</v>
@@ -4540,19 +4541,19 @@
         <v>13</v>
       </c>
       <c r="F69" s="4" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H69" s="4" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="J69" s="1" t="s">
         <v>15</v>
       </c>
       <c r="K69" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
@@ -4560,10 +4561,10 @@
         <v>69</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C70" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D70" t="s">
         <v>22</v>
@@ -4572,19 +4573,19 @@
         <v>13</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J70" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K70" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
@@ -4592,10 +4593,10 @@
         <v>70</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C71" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="D71" t="s">
         <v>22</v>
@@ -4604,19 +4605,19 @@
         <v>13</v>
       </c>
       <c r="F71" s="5" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H71" s="4" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="J71" s="1" t="s">
         <v>15</v>
       </c>
       <c r="K71" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
@@ -4624,19 +4625,19 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
+        <v>199</v>
+      </c>
+      <c r="C72" t="s">
+        <v>200</v>
+      </c>
+      <c r="D72" t="s">
+        <v>22</v>
+      </c>
+      <c r="E72" t="s">
+        <v>13</v>
+      </c>
+      <c r="F72" s="5" t="s">
         <v>201</v>
-      </c>
-      <c r="C72" t="s">
-        <v>202</v>
-      </c>
-      <c r="D72" t="s">
-        <v>22</v>
-      </c>
-      <c r="E72" t="s">
-        <v>13</v>
-      </c>
-      <c r="F72" s="5" t="s">
-        <v>203</v>
       </c>
       <c r="G72" s="1" t="s">
         <v>20</v>
@@ -4657,10 +4658,10 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C73" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D73" t="s">
         <v>22</v>
@@ -4669,19 +4670,19 @@
         <v>13</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J73" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K73" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
@@ -4689,31 +4690,31 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
+        <v>204</v>
+      </c>
+      <c r="C74" t="s">
+        <v>205</v>
+      </c>
+      <c r="D74" t="s">
+        <v>22</v>
+      </c>
+      <c r="E74" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F74" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="G74" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H74" s="4" t="s">
         <v>206</v>
-      </c>
-      <c r="C74" t="s">
-        <v>207</v>
-      </c>
-      <c r="D74" t="s">
-        <v>22</v>
-      </c>
-      <c r="E74" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F74" s="4" t="s">
-        <v>378</v>
-      </c>
-      <c r="G74" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="H74" s="4" t="s">
-        <v>208</v>
       </c>
       <c r="J74" s="1" t="s">
         <v>15</v>
       </c>
       <c r="K74" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
@@ -4721,31 +4722,31 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
+        <v>207</v>
+      </c>
+      <c r="C75" t="s">
+        <v>208</v>
+      </c>
+      <c r="D75" t="s">
+        <v>22</v>
+      </c>
+      <c r="E75" t="s">
+        <v>13</v>
+      </c>
+      <c r="F75" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="G75" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H75" s="4" t="s">
         <v>209</v>
-      </c>
-      <c r="C75" t="s">
-        <v>210</v>
-      </c>
-      <c r="D75" t="s">
-        <v>22</v>
-      </c>
-      <c r="E75" t="s">
-        <v>13</v>
-      </c>
-      <c r="F75" s="4" t="s">
-        <v>379</v>
-      </c>
-      <c r="G75" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="H75" s="4" t="s">
-        <v>211</v>
       </c>
       <c r="J75" s="1" t="s">
         <v>15</v>
       </c>
       <c r="K75" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
@@ -4753,31 +4754,31 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
+        <v>210</v>
+      </c>
+      <c r="C76" t="s">
+        <v>211</v>
+      </c>
+      <c r="D76" t="s">
+        <v>22</v>
+      </c>
+      <c r="E76" t="s">
+        <v>13</v>
+      </c>
+      <c r="F76" s="4" t="s">
+        <v>378</v>
+      </c>
+      <c r="G76" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H76" s="4" t="s">
         <v>212</v>
-      </c>
-      <c r="C76" t="s">
-        <v>213</v>
-      </c>
-      <c r="D76" t="s">
-        <v>22</v>
-      </c>
-      <c r="E76" t="s">
-        <v>13</v>
-      </c>
-      <c r="F76" s="4" t="s">
-        <v>380</v>
-      </c>
-      <c r="G76" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="H76" s="4" t="s">
-        <v>214</v>
       </c>
       <c r="J76" s="1" t="s">
         <v>15</v>
       </c>
       <c r="K76" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
@@ -4785,31 +4786,31 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
+        <v>213</v>
+      </c>
+      <c r="C77" t="s">
+        <v>214</v>
+      </c>
+      <c r="D77" t="s">
+        <v>22</v>
+      </c>
+      <c r="E77" t="s">
+        <v>13</v>
+      </c>
+      <c r="F77" s="4" t="s">
+        <v>379</v>
+      </c>
+      <c r="G77" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H77" s="4" t="s">
         <v>215</v>
-      </c>
-      <c r="C77" t="s">
-        <v>216</v>
-      </c>
-      <c r="D77" t="s">
-        <v>22</v>
-      </c>
-      <c r="E77" t="s">
-        <v>13</v>
-      </c>
-      <c r="F77" s="4" t="s">
-        <v>381</v>
-      </c>
-      <c r="G77" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="H77" s="4" t="s">
-        <v>217</v>
       </c>
       <c r="J77" s="1" t="s">
         <v>15</v>
       </c>
       <c r="K77" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
@@ -4817,10 +4818,10 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C78" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D78" t="s">
         <v>22</v>
@@ -4829,19 +4830,19 @@
         <v>13</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J78" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K78" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
@@ -4849,10 +4850,10 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C79" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D79" t="s">
         <v>22</v>
@@ -4861,19 +4862,19 @@
         <v>13</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J79" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K79" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
@@ -4881,10 +4882,10 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C80" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D80" t="s">
         <v>22</v>
@@ -4893,19 +4894,19 @@
         <v>13</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H80" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J80" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K80" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
@@ -4913,31 +4914,31 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
+        <v>222</v>
+      </c>
+      <c r="C81" t="s">
+        <v>223</v>
+      </c>
+      <c r="D81" t="s">
+        <v>22</v>
+      </c>
+      <c r="E81" t="s">
+        <v>13</v>
+      </c>
+      <c r="F81" s="4" t="s">
+        <v>380</v>
+      </c>
+      <c r="G81" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H81" s="4" t="s">
         <v>224</v>
-      </c>
-      <c r="C81" t="s">
-        <v>225</v>
-      </c>
-      <c r="D81" t="s">
-        <v>22</v>
-      </c>
-      <c r="E81" t="s">
-        <v>13</v>
-      </c>
-      <c r="F81" s="4" t="s">
-        <v>382</v>
-      </c>
-      <c r="G81" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="H81" s="4" t="s">
-        <v>226</v>
       </c>
       <c r="J81" s="1" t="s">
         <v>15</v>
       </c>
       <c r="K81" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
@@ -4945,10 +4946,10 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C82" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D82" t="s">
         <v>22</v>
@@ -4957,19 +4958,19 @@
         <v>13</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J82" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K82" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
@@ -4977,10 +4978,10 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C83" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="D83" t="s">
         <v>22</v>
@@ -4989,19 +4990,19 @@
         <v>13</v>
       </c>
       <c r="F83" s="4" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H83" s="4" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="J83" s="1" t="s">
         <v>15</v>
       </c>
       <c r="K83" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
@@ -5009,19 +5010,19 @@
         <v>83</v>
       </c>
       <c r="B84" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="C84" t="s">
+        <v>230</v>
+      </c>
+      <c r="D84" t="s">
+        <v>22</v>
+      </c>
+      <c r="E84" t="s">
+        <v>13</v>
+      </c>
+      <c r="F84" s="4" t="s">
         <v>231</v>
-      </c>
-      <c r="C84" t="s">
-        <v>232</v>
-      </c>
-      <c r="D84" t="s">
-        <v>22</v>
-      </c>
-      <c r="E84" t="s">
-        <v>13</v>
-      </c>
-      <c r="F84" s="4" t="s">
-        <v>233</v>
       </c>
       <c r="G84" s="1" t="s">
         <v>20</v>
@@ -5041,19 +5042,19 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
+        <v>232</v>
+      </c>
+      <c r="C85" t="s">
+        <v>233</v>
+      </c>
+      <c r="D85" t="s">
+        <v>22</v>
+      </c>
+      <c r="E85" t="s">
+        <v>13</v>
+      </c>
+      <c r="F85" s="4" t="s">
         <v>234</v>
-      </c>
-      <c r="C85" t="s">
-        <v>235</v>
-      </c>
-      <c r="D85" t="s">
-        <v>22</v>
-      </c>
-      <c r="E85" t="s">
-        <v>13</v>
-      </c>
-      <c r="F85" s="4" t="s">
-        <v>236</v>
       </c>
       <c r="G85" s="1" t="s">
         <v>20</v>
@@ -5073,19 +5074,19 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
+        <v>235</v>
+      </c>
+      <c r="C86" t="s">
+        <v>236</v>
+      </c>
+      <c r="D86" t="s">
+        <v>22</v>
+      </c>
+      <c r="E86" t="s">
+        <v>13</v>
+      </c>
+      <c r="F86" s="4" t="s">
         <v>237</v>
-      </c>
-      <c r="C86" t="s">
-        <v>238</v>
-      </c>
-      <c r="D86" t="s">
-        <v>22</v>
-      </c>
-      <c r="E86" t="s">
-        <v>13</v>
-      </c>
-      <c r="F86" s="4" t="s">
-        <v>239</v>
       </c>
       <c r="G86" s="1" t="s">
         <v>20</v>
@@ -5106,10 +5107,10 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C87" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D87" t="s">
         <v>22</v>
@@ -5118,19 +5119,19 @@
         <v>13</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H87" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J87" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K87" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
@@ -5138,10 +5139,10 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C88" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D88" t="s">
         <v>22</v>
@@ -5150,19 +5151,19 @@
         <v>13</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H88" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J88" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K88" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
@@ -5170,10 +5171,10 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C89" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D89" t="s">
         <v>22</v>
@@ -5182,19 +5183,19 @@
         <v>13</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H89" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J89" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K89" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
@@ -5202,10 +5203,10 @@
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C90" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="D90" t="s">
         <v>22</v>
@@ -5214,19 +5215,19 @@
         <v>13</v>
       </c>
       <c r="F90" s="4" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H90" s="4" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="J90" s="1" t="s">
         <v>15</v>
       </c>
       <c r="K90" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
@@ -5234,31 +5235,31 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
+        <v>246</v>
+      </c>
+      <c r="C91" t="s">
+        <v>247</v>
+      </c>
+      <c r="D91" t="s">
+        <v>22</v>
+      </c>
+      <c r="E91" t="s">
+        <v>13</v>
+      </c>
+      <c r="F91" s="4" t="s">
+        <v>383</v>
+      </c>
+      <c r="G91" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H91" s="4" t="s">
         <v>248</v>
-      </c>
-      <c r="C91" t="s">
-        <v>249</v>
-      </c>
-      <c r="D91" t="s">
-        <v>22</v>
-      </c>
-      <c r="E91" t="s">
-        <v>13</v>
-      </c>
-      <c r="F91" s="4" t="s">
-        <v>385</v>
-      </c>
-      <c r="G91" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="H91" s="4" t="s">
-        <v>250</v>
       </c>
       <c r="J91" s="1" t="s">
         <v>15</v>
       </c>
       <c r="K91" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
@@ -5266,19 +5267,19 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
+        <v>249</v>
+      </c>
+      <c r="C92" t="s">
+        <v>250</v>
+      </c>
+      <c r="D92" t="s">
+        <v>22</v>
+      </c>
+      <c r="E92" t="s">
+        <v>13</v>
+      </c>
+      <c r="F92" s="4" t="s">
         <v>251</v>
-      </c>
-      <c r="C92" t="s">
-        <v>252</v>
-      </c>
-      <c r="D92" t="s">
-        <v>22</v>
-      </c>
-      <c r="E92" t="s">
-        <v>13</v>
-      </c>
-      <c r="F92" s="4" t="s">
-        <v>253</v>
       </c>
       <c r="G92" s="1" t="s">
         <v>20</v>
@@ -5298,31 +5299,31 @@
         <v>92</v>
       </c>
       <c r="B93" t="s">
+        <v>252</v>
+      </c>
+      <c r="C93" t="s">
+        <v>253</v>
+      </c>
+      <c r="D93" t="s">
+        <v>22</v>
+      </c>
+      <c r="E93" t="s">
+        <v>13</v>
+      </c>
+      <c r="F93" s="4" t="s">
+        <v>384</v>
+      </c>
+      <c r="G93" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H93" s="4" t="s">
         <v>254</v>
-      </c>
-      <c r="C93" t="s">
-        <v>255</v>
-      </c>
-      <c r="D93" t="s">
-        <v>22</v>
-      </c>
-      <c r="E93" t="s">
-        <v>13</v>
-      </c>
-      <c r="F93" s="4" t="s">
-        <v>386</v>
-      </c>
-      <c r="G93" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="H93" s="4" t="s">
-        <v>256</v>
       </c>
       <c r="J93" s="1" t="s">
         <v>15</v>
       </c>
       <c r="K93" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
@@ -5330,31 +5331,31 @@
         <v>93</v>
       </c>
       <c r="B94" t="s">
+        <v>255</v>
+      </c>
+      <c r="C94" t="s">
+        <v>256</v>
+      </c>
+      <c r="D94" t="s">
+        <v>22</v>
+      </c>
+      <c r="E94" t="s">
+        <v>13</v>
+      </c>
+      <c r="F94" s="4" t="s">
+        <v>385</v>
+      </c>
+      <c r="G94" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H94" s="4" t="s">
         <v>257</v>
-      </c>
-      <c r="C94" t="s">
-        <v>258</v>
-      </c>
-      <c r="D94" t="s">
-        <v>22</v>
-      </c>
-      <c r="E94" t="s">
-        <v>13</v>
-      </c>
-      <c r="F94" s="4" t="s">
-        <v>387</v>
-      </c>
-      <c r="G94" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="H94" s="4" t="s">
-        <v>259</v>
       </c>
       <c r="J94" s="1" t="s">
         <v>15</v>
       </c>
       <c r="K94" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
@@ -5362,31 +5363,31 @@
         <v>94</v>
       </c>
       <c r="B95" t="s">
+        <v>258</v>
+      </c>
+      <c r="C95" t="s">
+        <v>259</v>
+      </c>
+      <c r="D95" t="s">
+        <v>22</v>
+      </c>
+      <c r="E95" t="s">
+        <v>13</v>
+      </c>
+      <c r="F95" s="4" t="s">
+        <v>386</v>
+      </c>
+      <c r="G95" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="H95" s="4" t="s">
         <v>260</v>
-      </c>
-      <c r="C95" t="s">
-        <v>261</v>
-      </c>
-      <c r="D95" t="s">
-        <v>22</v>
-      </c>
-      <c r="E95" t="s">
-        <v>13</v>
-      </c>
-      <c r="F95" s="4" t="s">
-        <v>388</v>
-      </c>
-      <c r="G95" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="H95" s="4" t="s">
-        <v>262</v>
       </c>
       <c r="J95" s="1" t="s">
         <v>15</v>
       </c>
       <c r="K95" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
@@ -5394,19 +5395,19 @@
         <v>95</v>
       </c>
       <c r="B96" t="s">
+        <v>261</v>
+      </c>
+      <c r="C96" t="s">
+        <v>262</v>
+      </c>
+      <c r="D96" t="s">
+        <v>22</v>
+      </c>
+      <c r="E96" t="s">
+        <v>13</v>
+      </c>
+      <c r="F96" s="4" t="s">
         <v>263</v>
-      </c>
-      <c r="C96" t="s">
-        <v>264</v>
-      </c>
-      <c r="D96" t="s">
-        <v>22</v>
-      </c>
-      <c r="E96" t="s">
-        <v>13</v>
-      </c>
-      <c r="F96" s="4" t="s">
-        <v>265</v>
       </c>
       <c r="G96" s="1" t="s">
         <v>20</v>
@@ -5415,13 +5416,13 @@
         <v>20</v>
       </c>
       <c r="I96" s="5" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="J96" s="13" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="K96" s="13" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
@@ -5429,10 +5430,10 @@
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C97" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D97" t="s">
         <v>22</v>
@@ -5441,19 +5442,19 @@
         <v>13</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H97" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J97" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K97" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
@@ -5461,10 +5462,10 @@
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C98" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D98" t="s">
         <v>22</v>
@@ -5473,7 +5474,7 @@
         <v>13</v>
       </c>
       <c r="F98" s="4" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="G98" s="1" t="s">
         <v>20</v>
@@ -5493,10 +5494,10 @@
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C99" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D99" t="s">
         <v>22</v>
@@ -5505,19 +5506,19 @@
         <v>13</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H99" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J99" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K99" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.25">
@@ -5525,10 +5526,10 @@
         <v>99</v>
       </c>
       <c r="B100" s="6" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C100" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D100" t="s">
         <v>22</v>
@@ -5537,19 +5538,19 @@
         <v>13</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H100" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J100" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K100" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.25">
@@ -5557,19 +5558,19 @@
         <v>100</v>
       </c>
       <c r="B101" t="s">
+        <v>274</v>
+      </c>
+      <c r="C101" t="s">
+        <v>275</v>
+      </c>
+      <c r="D101" t="s">
+        <v>22</v>
+      </c>
+      <c r="E101" t="s">
+        <v>13</v>
+      </c>
+      <c r="F101" s="5" t="s">
         <v>276</v>
-      </c>
-      <c r="C101" t="s">
-        <v>277</v>
-      </c>
-      <c r="D101" t="s">
-        <v>22</v>
-      </c>
-      <c r="E101" t="s">
-        <v>13</v>
-      </c>
-      <c r="F101" s="5" t="s">
-        <v>278</v>
       </c>
       <c r="G101" s="1" t="s">
         <v>20</v>
@@ -5589,19 +5590,19 @@
         <v>101</v>
       </c>
       <c r="B102" s="9" t="s">
+        <v>277</v>
+      </c>
+      <c r="C102" t="s">
+        <v>278</v>
+      </c>
+      <c r="D102" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E102" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F102" s="1" t="s">
         <v>279</v>
-      </c>
-      <c r="C102" t="s">
-        <v>280</v>
-      </c>
-      <c r="D102" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="E102" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="F102" s="1" t="s">
-        <v>281</v>
       </c>
       <c r="G102" s="1" t="s">
         <v>20</v>
@@ -5622,19 +5623,19 @@
         <v>102</v>
       </c>
       <c r="B103" t="s">
+        <v>280</v>
+      </c>
+      <c r="C103" t="s">
+        <v>281</v>
+      </c>
+      <c r="D103" t="s">
+        <v>22</v>
+      </c>
+      <c r="E103" t="s">
+        <v>13</v>
+      </c>
+      <c r="F103" s="4" t="s">
         <v>282</v>
-      </c>
-      <c r="C103" t="s">
-        <v>283</v>
-      </c>
-      <c r="D103" t="s">
-        <v>22</v>
-      </c>
-      <c r="E103" t="s">
-        <v>13</v>
-      </c>
-      <c r="F103" s="4" t="s">
-        <v>284</v>
       </c>
       <c r="G103" s="1" t="s">
         <v>20</v>
@@ -5654,10 +5655,10 @@
         <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C104" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D104" t="s">
         <v>22</v>
@@ -5666,19 +5667,19 @@
         <v>13</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H104" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J104" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K104" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.25">
@@ -5686,19 +5687,19 @@
         <v>104</v>
       </c>
       <c r="B105" t="s">
+        <v>285</v>
+      </c>
+      <c r="C105" t="s">
+        <v>286</v>
+      </c>
+      <c r="D105" t="s">
+        <v>22</v>
+      </c>
+      <c r="E105" t="s">
+        <v>13</v>
+      </c>
+      <c r="F105" s="4" t="s">
         <v>287</v>
-      </c>
-      <c r="C105" t="s">
-        <v>288</v>
-      </c>
-      <c r="D105" t="s">
-        <v>22</v>
-      </c>
-      <c r="E105" t="s">
-        <v>13</v>
-      </c>
-      <c r="F105" s="4" t="s">
-        <v>289</v>
       </c>
       <c r="G105" s="1" t="s">
         <v>20</v>
@@ -5718,10 +5719,10 @@
         <v>105</v>
       </c>
       <c r="B106" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C106" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D106" t="s">
         <v>22</v>
@@ -5730,19 +5731,19 @@
         <v>13</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H106" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J106" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K106" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.25">
@@ -5750,10 +5751,10 @@
         <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C107" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D107" t="s">
         <v>22</v>
@@ -5762,19 +5763,19 @@
         <v>13</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H107" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J107" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K107" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.25">
@@ -5782,19 +5783,19 @@
         <v>107</v>
       </c>
       <c r="B108" t="s">
+        <v>292</v>
+      </c>
+      <c r="C108" t="s">
+        <v>293</v>
+      </c>
+      <c r="D108" t="s">
+        <v>22</v>
+      </c>
+      <c r="E108" t="s">
+        <v>13</v>
+      </c>
+      <c r="F108" s="4" t="s">
         <v>294</v>
-      </c>
-      <c r="C108" t="s">
-        <v>295</v>
-      </c>
-      <c r="D108" t="s">
-        <v>22</v>
-      </c>
-      <c r="E108" t="s">
-        <v>13</v>
-      </c>
-      <c r="F108" s="4" t="s">
-        <v>296</v>
       </c>
       <c r="G108" s="1" t="s">
         <v>20</v>
@@ -5814,31 +5815,31 @@
         <v>108</v>
       </c>
       <c r="B109" t="s">
+        <v>295</v>
+      </c>
+      <c r="C109" t="s">
+        <v>296</v>
+      </c>
+      <c r="D109" t="s">
+        <v>22</v>
+      </c>
+      <c r="E109" t="s">
+        <v>13</v>
+      </c>
+      <c r="F109" s="4" t="s">
+        <v>387</v>
+      </c>
+      <c r="G109" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H109" s="4" t="s">
         <v>297</v>
-      </c>
-      <c r="C109" t="s">
-        <v>298</v>
-      </c>
-      <c r="D109" t="s">
-        <v>22</v>
-      </c>
-      <c r="E109" t="s">
-        <v>13</v>
-      </c>
-      <c r="F109" s="4" t="s">
-        <v>389</v>
-      </c>
-      <c r="G109" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="H109" s="4" t="s">
-        <v>299</v>
       </c>
       <c r="J109" s="1" t="s">
         <v>15</v>
       </c>
       <c r="K109" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.25">
@@ -5846,10 +5847,10 @@
         <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C110" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D110" t="s">
         <v>22</v>
@@ -5858,19 +5859,19 @@
         <v>13</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G110" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H110" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J110" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K110" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.25">
@@ -5878,10 +5879,10 @@
         <v>110</v>
       </c>
       <c r="B111" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C111" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D111" t="s">
         <v>22</v>
@@ -5890,19 +5891,19 @@
         <v>13</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G111" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H111" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J111" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K111" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.25">
@@ -5910,10 +5911,10 @@
         <v>111</v>
       </c>
       <c r="B112" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C112" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D112" t="s">
         <v>22</v>
@@ -5922,19 +5923,19 @@
         <v>13</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G112" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H112" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J112" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K112" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.25">
@@ -5942,10 +5943,10 @@
         <v>112</v>
       </c>
       <c r="B113" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C113" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D113" t="s">
         <v>22</v>
@@ -5954,19 +5955,19 @@
         <v>13</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G113" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H113" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J113" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K113" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.25">
@@ -5974,10 +5975,10 @@
         <v>113</v>
       </c>
       <c r="B114" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C114" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="D114" t="s">
         <v>22</v>
@@ -5986,19 +5987,19 @@
         <v>13</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G114" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H114" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J114" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K114" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.25">
@@ -6006,10 +6007,10 @@
         <v>114</v>
       </c>
       <c r="B115" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C115" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="D115" t="s">
         <v>22</v>
@@ -6018,19 +6019,19 @@
         <v>13</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G115" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H115" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J115" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K115" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.25">
@@ -6038,10 +6039,10 @@
         <v>115</v>
       </c>
       <c r="B116" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C116" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D116" t="s">
         <v>22</v>
@@ -6050,19 +6051,19 @@
         <v>13</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G116" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H116" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J116" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K116" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.25">
@@ -6070,10 +6071,10 @@
         <v>116</v>
       </c>
       <c r="B117" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C117" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D117" t="s">
         <v>22</v>
@@ -6082,19 +6083,19 @@
         <v>13</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G117" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H117" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J117" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K117" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.25">
@@ -6102,10 +6103,10 @@
         <v>117</v>
       </c>
       <c r="B118" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C118" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D118" t="s">
         <v>22</v>
@@ -6114,19 +6115,19 @@
         <v>13</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G118" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H118" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J118" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K118" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.25">
@@ -6134,10 +6135,10 @@
         <v>118</v>
       </c>
       <c r="B119" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C119" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="D119" t="s">
         <v>22</v>
@@ -6146,19 +6147,19 @@
         <v>13</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G119" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H119" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J119" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K119" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.25">
@@ -6166,10 +6167,10 @@
         <v>119</v>
       </c>
       <c r="B120" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C120" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="D120" t="s">
         <v>22</v>
@@ -6178,19 +6179,19 @@
         <v>13</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G120" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H120" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J120" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K120" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.25">
@@ -6198,10 +6199,10 @@
         <v>120</v>
       </c>
       <c r="B121" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C121" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D121" t="s">
         <v>22</v>
@@ -6210,19 +6211,19 @@
         <v>13</v>
       </c>
       <c r="F121" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G121" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H121" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J121" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K121" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.25">
@@ -6230,10 +6231,10 @@
         <v>121</v>
       </c>
       <c r="B122" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C122" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="D122" t="s">
         <v>22</v>
@@ -6242,19 +6243,19 @@
         <v>13</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G122" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H122" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J122" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K122" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.25">
@@ -6262,10 +6263,10 @@
         <v>122</v>
       </c>
       <c r="B123" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C123" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="D123" t="s">
         <v>22</v>
@@ -6274,19 +6275,19 @@
         <v>13</v>
       </c>
       <c r="F123" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G123" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H123" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J123" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K123" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.25">
@@ -6294,10 +6295,10 @@
         <v>123</v>
       </c>
       <c r="B124" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C124" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="D124" t="s">
         <v>22</v>
@@ -6306,19 +6307,19 @@
         <v>13</v>
       </c>
       <c r="F124" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G124" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H124" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J124" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K124" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.25">
@@ -6326,10 +6327,10 @@
         <v>124</v>
       </c>
       <c r="B125" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C125" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="D125" t="s">
         <v>22</v>
@@ -6338,19 +6339,19 @@
         <v>13</v>
       </c>
       <c r="F125" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G125" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H125" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J125" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K125" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.25">
@@ -6358,10 +6359,10 @@
         <v>125</v>
       </c>
       <c r="B126" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C126" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="D126" t="s">
         <v>22</v>
@@ -6370,19 +6371,19 @@
         <v>13</v>
       </c>
       <c r="F126" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G126" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H126" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J126" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K126" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.25">
@@ -6390,19 +6391,19 @@
         <v>126</v>
       </c>
       <c r="B127" t="s">
+        <v>330</v>
+      </c>
+      <c r="C127" t="s">
+        <v>331</v>
+      </c>
+      <c r="D127" t="s">
+        <v>22</v>
+      </c>
+      <c r="E127" t="s">
+        <v>13</v>
+      </c>
+      <c r="F127" s="4" t="s">
         <v>332</v>
-      </c>
-      <c r="C127" t="s">
-        <v>333</v>
-      </c>
-      <c r="D127" t="s">
-        <v>22</v>
-      </c>
-      <c r="E127" t="s">
-        <v>13</v>
-      </c>
-      <c r="F127" s="4" t="s">
-        <v>334</v>
       </c>
       <c r="G127" s="1" t="s">
         <v>20</v>
@@ -6422,10 +6423,10 @@
         <v>127</v>
       </c>
       <c r="B128" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C128" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="D128" t="s">
         <v>22</v>
@@ -6434,19 +6435,19 @@
         <v>13</v>
       </c>
       <c r="F128" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G128" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H128" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J128" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K128" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.25">
@@ -6454,10 +6455,10 @@
         <v>128</v>
       </c>
       <c r="B129" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C129" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="D129" s="17" t="s">
         <v>12</v>
@@ -6466,16 +6467,16 @@
         <v>13</v>
       </c>
       <c r="F129" s="24" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="G129" s="4" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="H129" s="18">
         <v>1</v>
       </c>
       <c r="I129" s="16" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="J129" s="15" t="s">
         <v>15</v>
@@ -6498,18 +6499,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Zeit xmlns="b63cdcf7-47fa-43f6-87e5-23b415b5c413" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="b63cdcf7-47fa-43f6-87e5-23b415b5c413">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="12535b08-222e-45d2-b6db-15019f1afee6" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100B1DC67C611DD5E4D81775F9F3E26A7B2" ma:contentTypeVersion="16" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="7f379a5812b480a74f9d031be5f88a83">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b63cdcf7-47fa-43f6-87e5-23b415b5c413" xmlns:ns3="12535b08-222e-45d2-b6db-15019f1afee6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="dbce1e37d7de67e1c835013ca0ee7a7c" ns2:_="" ns3:_="">
     <xsd:import namespace="b63cdcf7-47fa-43f6-87e5-23b415b5c413"/>
@@ -6750,6 +6739,18 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Zeit xmlns="b63cdcf7-47fa-43f6-87e5-23b415b5c413" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="b63cdcf7-47fa-43f6-87e5-23b415b5c413">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="12535b08-222e-45d2-b6db-15019f1afee6" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -6760,23 +6761,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FBFC15CC-4CA5-447A-915F-1412CED97222}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="b63cdcf7-47fa-43f6-87e5-23b415b5c413"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="12535b08-222e-45d2-b6db-15019f1afee6"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{945A6BE8-5273-4FBB-A417-535A6E60D478}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6795,6 +6779,23 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FBFC15CC-4CA5-447A-915F-1412CED97222}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="b63cdcf7-47fa-43f6-87e5-23b415b5c413"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="12535b08-222e-45d2-b6db-15019f1afee6"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E89B3EC5-962B-41D9-9821-3A191D2434CD}">
   <ds:schemaRefs>

--- a/rmonize/data_proc_elem/DPE_GINI_P1.xlsx
+++ b/rmonize/data_proc_elem/DPE_GINI_P1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20417"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\use-cases-harmonisation\rmonize\data_proc_elem\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\schwarz-f\Desktop\use-cases-harmonisation\rmonize\data_proc_elem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4310B14-6300-4012-8667-A6C3378ED263}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F6EEA75-98FB-4372-9F90-C15A9A8AB0CE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="22290" windowHeight="12000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -108,9 +108,6 @@
     <t>Education</t>
   </si>
   <si>
-    <t>gsc09m; gsc08v</t>
-  </si>
-  <si>
     <t>case_when</t>
   </si>
   <si>
@@ -1294,45 +1291,24 @@
     <t>aktivleiisommn_15;aktivleiwintn_15;aktivmitsommn_15;aktivmitwintn_15;aktivschsommn_15;aktivschwintn_15</t>
   </si>
   <si>
-    <t>Missing values: If both gsc09m and gsc08v are missing, it returns NA.
-Both are "not specified": If both are 5, it returns 5.
-One is "not specified": If one of the variables is 5 (i.e., "Sonstiger Abschluss"), it uses the other parent’s value (if valid) to determine the education level.
-One is missing: If one of the parents has a missing value (NA), it checks the valid level of the other parent.
-Max of both: If neither is missing, it will return the highest level between both parents (0L for none, 3L for secondary school, 4L for longer education).</t>
-  </si>
-  <si>
     <t>case_when(
-  is.na(gsc09m) &amp; is.na(gsc08v) ~ NA_integer_,
-  gsc09m == 5 &amp; gsc08v == 5 ~ 5L,
-  gsc09m == 5 &amp; !is.na(gsc08v) ~ case_when(
-    gsc08v == 6 ~ 0L,
-    gsc08v %in% 1:3 ~ 3L,
-    gsc08v == 4 ~ 4L,
-    TRUE ~ 5L
-  ),
-  gsc08v == 5 &amp; !is.na(gsc09m) ~ case_when(
-    gsc09m == 6 ~ 0L,
-    gsc09m %in% 1:3 ~ 3L,
-    gsc09m == 4 ~ 4L,
-    TRUE ~ 5L
-  ),
-  gsc09m == 5 &amp; gsc08v != 5  ~ case_when(
-    gsc08v == 6 ~ 0L,
-    gsc08v %in% 1:3 ~ 3L,
-    gsc08v == 4 ~ 4L,
-    TRUE ~ 5L
-  ),
-  gsc08v == 5 &amp; gsc09m != 5  ~ case_when(
-    gsc09m == 6 ~ 0L,
-    gsc09m %in% 1:3 ~ 3L,
-    gsc09m == 4 ~ 4L,
-    TRUE ~ 5L
-  ),
-  gsc09m == 6 | gsc08v == 6  ~ 0L,
-  gsc09m %in% 1:3 | gsc08v %in% 1:3 ~ 3L,
-  gsc09m == 4 | gsc08v == 4 ~ 4L,
-  TRUE ~ 5L
-)</t>
+  MUTBERU_3 %in% c(7) | VATBERU_3 %in% c(7) ~ 7L,
+  MUTBERU_3 %in% c(5,6) | VATBERU_3 %in% c(5,6) ~ 6L,
+  MUTBERU_3 %in% c(3,4) |VATBERU_3 %in% c(3,4) ~ 4L,
+  MUTBERU_3 %in% c(8) |VATBERU_3 %in% c(8) ~ 9L,
+  gsc09m %in% c(3) | gsc08v %in% c(3) ~ 3L,
+  gsc09m %in% c(1,2) | gsc08v %in% c(1,2) ~ 2L,
+  gsc09m %in% c(6) &amp; gsc08v %in% c(6) ~ 0L,
+  is.na(gsc09m) &amp; gsc08v %in% c(6) ~ 0L,
+  gsc09m %in% c(6) &amp; is.na(gsc08v) ~ 0L,
+  gsc09m %in% c(5) | gsc08v %in% c(5) ~ 9L,
+  TRUE ~ NA_integer_)</t>
+  </si>
+  <si>
+    <t>gsc09m; gsc08v; MUTBERU_3; VATBERU_3</t>
+  </si>
+  <si>
+    <t>Education according to the ISCED 2011 classification</t>
   </si>
 </sst>
 </file>
@@ -1875,7 +1851,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1934,51 +1910,54 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="43">
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Hyperlink" xfId="42" builtinId="8"/>
-    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="20 % - Akzent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20 % - Akzent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20 % - Akzent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20 % - Akzent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20 % - Akzent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20 % - Akzent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40 % - Akzent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40 % - Akzent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40 % - Akzent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40 % - Akzent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40 % - Akzent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40 % - Akzent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60 % - Akzent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60 % - Akzent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60 % - Akzent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60 % - Akzent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60 % - Akzent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60 % - Akzent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Akzent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Akzent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Akzent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Akzent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Akzent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Akzent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Ausgabe" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Berechnung" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Eingabe" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Ergebnis" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Erklärender Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Gut" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Link" xfId="42" builtinId="8"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Notiz" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Schlecht" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Überschrift" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Überschrift 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Überschrift 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Überschrift 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Überschrift 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Verknüpfte Zelle" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Warnender Text" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Zelle überprüfen" xfId="13" builtinId="23" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1994,9 +1973,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2034,7 +2013,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2140,7 +2119,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2282,7 +2261,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2292,19 +2271,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K130"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H5" sqref="H5:I5"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I5" sqref="I5:K5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="29" style="4" customWidth="1"/>
     <col min="3" max="3" width="138.140625" style="4" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="21.85546875" style="4" customWidth="1"/>
     <col min="7" max="7" width="26.42578125" style="4" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="22.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="255.7109375" style="18" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="57.28515625" style="18" customWidth="1"/>
     <col min="10" max="10" width="19.28515625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="25.42578125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="15.5703125" bestFit="1" customWidth="1"/>
@@ -2353,7 +2332,7 @@
         <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D2" t="s">
         <v>12</v>
@@ -2419,7 +2398,7 @@
         <v>21</v>
       </c>
       <c r="C4" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
@@ -2437,16 +2416,16 @@
         <v>20</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="J4" s="9" t="s">
         <v>15</v>
       </c>
       <c r="K4" s="9" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="409.5" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="390" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2462,23 +2441,23 @@
       <c r="E5" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="22" t="s">
+      <c r="F5" s="28" t="s">
+        <v>391</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="H5" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="I5" s="27" t="s">
+        <v>392</v>
+      </c>
+      <c r="J5" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="H5" s="2" t="s">
-        <v>392</v>
-      </c>
-      <c r="I5" s="27" t="s">
-        <v>391</v>
-      </c>
-      <c r="J5" s="19" t="s">
+      <c r="K5" s="9" t="s">
         <v>29</v>
-      </c>
-      <c r="K5" s="19" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -2486,10 +2465,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C6" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D6" t="s">
         <v>22</v>
@@ -2498,22 +2477,22 @@
         <v>13</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="G6" s="19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H6" s="26" t="s">
+        <v>387</v>
+      </c>
+      <c r="I6" s="26" t="s">
         <v>388</v>
-      </c>
-      <c r="I6" s="26" t="s">
-        <v>389</v>
       </c>
       <c r="J6" s="19" t="s">
         <v>15</v>
       </c>
       <c r="K6" s="19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -2521,10 +2500,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" t="s">
         <v>34</v>
-      </c>
-      <c r="C7" t="s">
-        <v>35</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>12</v>
@@ -2533,22 +2512,22 @@
         <v>13</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G7" s="13" t="s">
         <v>24</v>
       </c>
       <c r="H7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I7" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="I7" s="1" t="s">
-        <v>38</v>
-      </c>
       <c r="J7" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="K7" s="4" t="s">
         <v>29</v>
-      </c>
-      <c r="K7" s="4" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -2556,19 +2535,19 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" t="s">
+        <v>357</v>
+      </c>
+      <c r="D8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="20" t="s">
         <v>39</v>
-      </c>
-      <c r="C8" t="s">
-        <v>358</v>
-      </c>
-      <c r="D8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E8" t="s">
-        <v>13</v>
-      </c>
-      <c r="F8" s="20" t="s">
-        <v>40</v>
       </c>
       <c r="G8" s="14" t="s">
         <v>20</v>
@@ -2589,22 +2568,22 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" t="s">
         <v>41</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="D9" t="s">
-        <v>22</v>
-      </c>
-      <c r="E9" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" s="22" t="s">
+      <c r="G9" s="14" t="s">
         <v>43</v>
-      </c>
-      <c r="G9" s="14" t="s">
-        <v>44</v>
       </c>
       <c r="H9" s="20" t="s">
         <v>20</v>
@@ -2622,34 +2601,34 @@
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" t="s">
         <v>45</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="D10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10" t="s">
-        <v>13</v>
-      </c>
-      <c r="F10" s="4" t="s">
+      <c r="G10" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="H10" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="H10" s="4" t="s">
+      <c r="I10" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="I10" s="23" t="s">
+      <c r="J10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K10" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -2657,11 +2636,11 @@
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C11" t="s">
         <v>52</v>
       </c>
-      <c r="C11" t="s">
-        <v>53</v>
-      </c>
       <c r="D11" t="s">
         <v>22</v>
       </c>
@@ -2669,19 +2648,19 @@
         <v>13</v>
       </c>
       <c r="F11" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G11" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="H11" s="4" t="s">
         <v>48</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>49</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>15</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -2689,11 +2668,11 @@
         <v>11</v>
       </c>
       <c r="B12" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C12" t="s">
         <v>55</v>
       </c>
-      <c r="C12" t="s">
-        <v>56</v>
-      </c>
       <c r="D12" t="s">
         <v>22</v>
       </c>
@@ -2701,19 +2680,19 @@
         <v>13</v>
       </c>
       <c r="F12" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K12" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -2721,31 +2700,31 @@
         <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C13" t="s">
         <v>57</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="D13" t="s">
-        <v>22</v>
-      </c>
-      <c r="E13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F13" s="4" t="s">
+      <c r="G13" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H13" s="4" t="s">
         <v>59</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="H13" s="4" t="s">
-        <v>60</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>15</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -2753,31 +2732,31 @@
         <v>13</v>
       </c>
       <c r="B14" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C14" t="s">
         <v>61</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="D14" t="s">
-        <v>22</v>
-      </c>
-      <c r="E14" t="s">
-        <v>13</v>
-      </c>
-      <c r="F14" s="5" t="s">
+      <c r="G14" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H14" s="5" t="s">
         <v>63</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="H14" s="5" t="s">
-        <v>64</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>15</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -2785,19 +2764,19 @@
         <v>14</v>
       </c>
       <c r="B15" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C15" t="s">
         <v>65</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" s="5" t="s">
         <v>66</v>
-      </c>
-      <c r="D15" t="s">
-        <v>22</v>
-      </c>
-      <c r="E15" t="s">
-        <v>13</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>67</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>20</v>
@@ -2817,19 +2796,19 @@
         <v>15</v>
       </c>
       <c r="B16" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C16" t="s">
         <v>68</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16" t="s">
+        <v>13</v>
+      </c>
+      <c r="F16" s="5" t="s">
         <v>69</v>
-      </c>
-      <c r="D16" t="s">
-        <v>22</v>
-      </c>
-      <c r="E16" t="s">
-        <v>13</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>70</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>20</v>
@@ -2849,22 +2828,22 @@
         <v>16</v>
       </c>
       <c r="B17" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C17" t="s">
         <v>71</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17" t="s">
+        <v>13</v>
+      </c>
+      <c r="F17" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="D17" t="s">
-        <v>22</v>
-      </c>
-      <c r="E17" t="s">
-        <v>13</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>73</v>
-      </c>
       <c r="G17" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H17" s="1" t="s">
         <v>20</v>
@@ -2881,11 +2860,11 @@
         <v>17</v>
       </c>
       <c r="B18" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C18" t="s">
         <v>74</v>
       </c>
-      <c r="C18" t="s">
-        <v>75</v>
-      </c>
       <c r="D18" t="s">
         <v>22</v>
       </c>
@@ -2893,19 +2872,19 @@
         <v>13</v>
       </c>
       <c r="F18" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K18" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="K18" s="1" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
@@ -2913,11 +2892,11 @@
         <v>18</v>
       </c>
       <c r="B19" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C19" t="s">
         <v>76</v>
       </c>
-      <c r="C19" t="s">
-        <v>77</v>
-      </c>
       <c r="D19" t="s">
         <v>22</v>
       </c>
@@ -2925,19 +2904,19 @@
         <v>13</v>
       </c>
       <c r="F19" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K19" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="K19" s="1" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
@@ -2945,11 +2924,11 @@
         <v>19</v>
       </c>
       <c r="B20" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C20" t="s">
         <v>78</v>
       </c>
-      <c r="C20" t="s">
-        <v>79</v>
-      </c>
       <c r="D20" t="s">
         <v>22</v>
       </c>
@@ -2957,19 +2936,19 @@
         <v>13</v>
       </c>
       <c r="F20" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K20" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="K20" s="1" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
@@ -2977,11 +2956,11 @@
         <v>20</v>
       </c>
       <c r="B21" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C21" t="s">
         <v>80</v>
       </c>
-      <c r="C21" t="s">
-        <v>81</v>
-      </c>
       <c r="D21" t="s">
         <v>22</v>
       </c>
@@ -2989,19 +2968,19 @@
         <v>13</v>
       </c>
       <c r="F21" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K21" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="K21" s="1" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
@@ -3009,11 +2988,11 @@
         <v>21</v>
       </c>
       <c r="B22" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C22" t="s">
         <v>82</v>
       </c>
-      <c r="C22" t="s">
-        <v>83</v>
-      </c>
       <c r="D22" t="s">
         <v>22</v>
       </c>
@@ -3021,19 +3000,19 @@
         <v>13</v>
       </c>
       <c r="F22" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K22" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="J22" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="K22" s="1" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
@@ -3041,11 +3020,11 @@
         <v>22</v>
       </c>
       <c r="B23" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C23" t="s">
         <v>84</v>
       </c>
-      <c r="C23" t="s">
-        <v>85</v>
-      </c>
       <c r="D23" t="s">
         <v>22</v>
       </c>
@@ -3053,19 +3032,19 @@
         <v>13</v>
       </c>
       <c r="F23" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K23" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="J23" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="K23" s="1" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
@@ -3073,11 +3052,11 @@
         <v>23</v>
       </c>
       <c r="B24" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C24" t="s">
         <v>86</v>
       </c>
-      <c r="C24" t="s">
-        <v>87</v>
-      </c>
       <c r="D24" t="s">
         <v>22</v>
       </c>
@@ -3085,19 +3064,19 @@
         <v>13</v>
       </c>
       <c r="F24" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K24" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="J24" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="K24" s="1" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
@@ -3105,32 +3084,32 @@
         <v>24</v>
       </c>
       <c r="B25" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C25" t="s">
         <v>88</v>
       </c>
-      <c r="C25" t="s">
+      <c r="D25" t="s">
+        <v>22</v>
+      </c>
+      <c r="E25" t="s">
+        <v>13</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H25" s="4" t="s">
         <v>89</v>
-      </c>
-      <c r="D25" t="s">
-        <v>22</v>
-      </c>
-      <c r="E25" t="s">
-        <v>13</v>
-      </c>
-      <c r="F25" s="4" t="s">
-        <v>362</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="H25" s="4" t="s">
-        <v>90</v>
       </c>
       <c r="I25" s="5"/>
       <c r="J25" s="1" t="s">
         <v>15</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
@@ -3138,31 +3117,31 @@
         <v>25</v>
       </c>
       <c r="B26" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C26" t="s">
         <v>91</v>
       </c>
-      <c r="C26" t="s">
+      <c r="D26" t="s">
+        <v>22</v>
+      </c>
+      <c r="E26" t="s">
+        <v>13</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H26" s="4" t="s">
         <v>92</v>
-      </c>
-      <c r="D26" t="s">
-        <v>22</v>
-      </c>
-      <c r="E26" t="s">
-        <v>13</v>
-      </c>
-      <c r="F26" s="4" t="s">
-        <v>363</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="H26" s="4" t="s">
-        <v>93</v>
       </c>
       <c r="J26" s="1" t="s">
         <v>15</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
@@ -3170,11 +3149,11 @@
         <v>26</v>
       </c>
       <c r="B27" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C27" t="s">
         <v>94</v>
       </c>
-      <c r="C27" t="s">
-        <v>95</v>
-      </c>
       <c r="D27" t="s">
         <v>22</v>
       </c>
@@ -3182,19 +3161,19 @@
         <v>13</v>
       </c>
       <c r="F27" s="23" t="s">
+        <v>359</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H27" s="1" t="s">
         <v>360</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>361</v>
       </c>
       <c r="J27" s="1" t="s">
         <v>15</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
@@ -3202,11 +3181,11 @@
         <v>27</v>
       </c>
       <c r="B28" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C28" t="s">
         <v>96</v>
       </c>
-      <c r="C28" t="s">
-        <v>97</v>
-      </c>
       <c r="D28" t="s">
         <v>22</v>
       </c>
@@ -3214,19 +3193,19 @@
         <v>13</v>
       </c>
       <c r="F28" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K28" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H28" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="J28" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="K28" s="1" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
@@ -3234,11 +3213,11 @@
         <v>28</v>
       </c>
       <c r="B29" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C29" t="s">
         <v>98</v>
       </c>
-      <c r="C29" t="s">
-        <v>99</v>
-      </c>
       <c r="D29" t="s">
         <v>22</v>
       </c>
@@ -3246,19 +3225,19 @@
         <v>13</v>
       </c>
       <c r="F29" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K29" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H29" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="J29" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="K29" s="1" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
@@ -3266,31 +3245,31 @@
         <v>29</v>
       </c>
       <c r="B30" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C30" t="s">
         <v>100</v>
       </c>
-      <c r="C30" t="s">
+      <c r="D30" t="s">
+        <v>22</v>
+      </c>
+      <c r="E30" t="s">
+        <v>13</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>363</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H30" s="4" t="s">
         <v>101</v>
-      </c>
-      <c r="D30" t="s">
-        <v>22</v>
-      </c>
-      <c r="E30" t="s">
-        <v>13</v>
-      </c>
-      <c r="F30" s="4" t="s">
-        <v>364</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="H30" s="4" t="s">
-        <v>102</v>
       </c>
       <c r="J30" s="1" t="s">
         <v>15</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
@@ -3298,19 +3277,19 @@
         <v>30</v>
       </c>
       <c r="B31" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C31" t="s">
         <v>103</v>
       </c>
-      <c r="C31" t="s">
+      <c r="D31" t="s">
+        <v>22</v>
+      </c>
+      <c r="E31" t="s">
+        <v>13</v>
+      </c>
+      <c r="F31" s="5" t="s">
         <v>104</v>
-      </c>
-      <c r="D31" t="s">
-        <v>22</v>
-      </c>
-      <c r="E31" t="s">
-        <v>13</v>
-      </c>
-      <c r="F31" s="5" t="s">
-        <v>105</v>
       </c>
       <c r="G31" s="1" t="s">
         <v>20</v>
@@ -3330,31 +3309,31 @@
         <v>31</v>
       </c>
       <c r="B32" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C32" t="s">
         <v>106</v>
       </c>
-      <c r="C32" t="s">
+      <c r="D32" t="s">
+        <v>22</v>
+      </c>
+      <c r="E32" t="s">
+        <v>13</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>364</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H32" s="4" t="s">
         <v>107</v>
-      </c>
-      <c r="D32" t="s">
-        <v>22</v>
-      </c>
-      <c r="E32" t="s">
-        <v>13</v>
-      </c>
-      <c r="F32" s="4" t="s">
-        <v>365</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="H32" s="4" t="s">
-        <v>108</v>
       </c>
       <c r="J32" s="1" t="s">
         <v>15</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
@@ -3362,19 +3341,19 @@
         <v>32</v>
       </c>
       <c r="B33" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C33" t="s">
         <v>109</v>
       </c>
-      <c r="C33" t="s">
+      <c r="D33" t="s">
+        <v>22</v>
+      </c>
+      <c r="E33" t="s">
+        <v>13</v>
+      </c>
+      <c r="F33" s="5" t="s">
         <v>110</v>
-      </c>
-      <c r="D33" t="s">
-        <v>22</v>
-      </c>
-      <c r="E33" t="s">
-        <v>13</v>
-      </c>
-      <c r="F33" s="5" t="s">
-        <v>111</v>
       </c>
       <c r="G33" s="1" t="s">
         <v>20</v>
@@ -3394,11 +3373,11 @@
         <v>33</v>
       </c>
       <c r="B34" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C34" t="s">
         <v>112</v>
       </c>
-      <c r="C34" t="s">
-        <v>113</v>
-      </c>
       <c r="D34" t="s">
         <v>22</v>
       </c>
@@ -3406,7 +3385,7 @@
         <v>13</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="G34" s="1" t="s">
         <v>20</v>
@@ -3426,32 +3405,32 @@
         <v>34</v>
       </c>
       <c r="B35" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C35" t="s">
+        <v>342</v>
+      </c>
+      <c r="D35" t="s">
+        <v>22</v>
+      </c>
+      <c r="E35" t="s">
+        <v>13</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>365</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H35" s="5" t="s">
         <v>114</v>
-      </c>
-      <c r="C35" t="s">
-        <v>343</v>
-      </c>
-      <c r="D35" t="s">
-        <v>22</v>
-      </c>
-      <c r="E35" t="s">
-        <v>13</v>
-      </c>
-      <c r="F35" s="4" t="s">
-        <v>366</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="H35" s="5" t="s">
-        <v>115</v>
       </c>
       <c r="I35" s="1"/>
       <c r="J35" s="1" t="s">
         <v>15</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
@@ -3459,19 +3438,19 @@
         <v>35</v>
       </c>
       <c r="B36" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="C36" t="s">
+        <v>343</v>
+      </c>
+      <c r="D36" t="s">
+        <v>22</v>
+      </c>
+      <c r="E36" t="s">
+        <v>13</v>
+      </c>
+      <c r="F36" s="4" t="s">
         <v>116</v>
-      </c>
-      <c r="C36" t="s">
-        <v>344</v>
-      </c>
-      <c r="D36" t="s">
-        <v>22</v>
-      </c>
-      <c r="E36" t="s">
-        <v>13</v>
-      </c>
-      <c r="F36" s="4" t="s">
-        <v>117</v>
       </c>
       <c r="G36" s="1" t="s">
         <v>20</v>
@@ -3492,19 +3471,19 @@
         <v>36</v>
       </c>
       <c r="B37" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="C37" t="s">
         <v>118</v>
       </c>
-      <c r="C37" t="s">
+      <c r="D37" t="s">
+        <v>22</v>
+      </c>
+      <c r="E37" t="s">
+        <v>13</v>
+      </c>
+      <c r="F37" s="4" t="s">
         <v>119</v>
-      </c>
-      <c r="D37" t="s">
-        <v>22</v>
-      </c>
-      <c r="E37" t="s">
-        <v>13</v>
-      </c>
-      <c r="F37" s="4" t="s">
-        <v>120</v>
       </c>
       <c r="G37" s="1" t="s">
         <v>20</v>
@@ -3525,11 +3504,11 @@
         <v>37</v>
       </c>
       <c r="B38" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C38" t="s">
         <v>121</v>
       </c>
-      <c r="C38" t="s">
-        <v>122</v>
-      </c>
       <c r="D38" t="s">
         <v>22</v>
       </c>
@@ -3537,7 +3516,7 @@
         <v>13</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G38" s="1" t="s">
         <v>20</v>
@@ -3558,10 +3537,10 @@
         <v>38</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C39" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D39" t="s">
         <v>22</v>
@@ -3570,19 +3549,19 @@
         <v>13</v>
       </c>
       <c r="F39" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K39" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="G39" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H39" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="J39" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="K39" s="1" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
@@ -3590,11 +3569,11 @@
         <v>39</v>
       </c>
       <c r="B40" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C40" t="s">
         <v>124</v>
       </c>
-      <c r="C40" t="s">
-        <v>125</v>
-      </c>
       <c r="D40" t="s">
         <v>22</v>
       </c>
@@ -3602,19 +3581,19 @@
         <v>13</v>
       </c>
       <c r="F40" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K40" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="G40" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H40" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="J40" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="K40" s="1" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
@@ -3622,31 +3601,31 @@
         <v>40</v>
       </c>
       <c r="B41" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C41" s="18" t="s">
+        <v>345</v>
+      </c>
+      <c r="D41" t="s">
+        <v>22</v>
+      </c>
+      <c r="E41" t="s">
+        <v>13</v>
+      </c>
+      <c r="F41" s="4" t="s">
+        <v>366</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H41" s="4" t="s">
         <v>126</v>
-      </c>
-      <c r="C41" s="18" t="s">
-        <v>346</v>
-      </c>
-      <c r="D41" t="s">
-        <v>22</v>
-      </c>
-      <c r="E41" t="s">
-        <v>13</v>
-      </c>
-      <c r="F41" s="4" t="s">
-        <v>367</v>
-      </c>
-      <c r="G41" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="H41" s="4" t="s">
-        <v>127</v>
       </c>
       <c r="J41" s="1" t="s">
         <v>15</v>
       </c>
       <c r="K41" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
@@ -3654,11 +3633,11 @@
         <v>41</v>
       </c>
       <c r="B42" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C42" t="s">
         <v>128</v>
       </c>
-      <c r="C42" t="s">
-        <v>129</v>
-      </c>
       <c r="D42" t="s">
         <v>22</v>
       </c>
@@ -3666,19 +3645,19 @@
         <v>13</v>
       </c>
       <c r="F42" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J42" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K42" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="G42" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H42" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="J42" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="K42" s="1" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
@@ -3686,31 +3665,31 @@
         <v>42</v>
       </c>
       <c r="B43" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="C43" t="s">
         <v>130</v>
       </c>
-      <c r="C43" t="s">
+      <c r="D43" t="s">
+        <v>22</v>
+      </c>
+      <c r="E43" t="s">
+        <v>13</v>
+      </c>
+      <c r="F43" s="4" t="s">
+        <v>367</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H43" s="4" t="s">
         <v>131</v>
-      </c>
-      <c r="D43" t="s">
-        <v>22</v>
-      </c>
-      <c r="E43" t="s">
-        <v>13</v>
-      </c>
-      <c r="F43" s="4" t="s">
-        <v>368</v>
-      </c>
-      <c r="G43" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="H43" s="4" t="s">
-        <v>132</v>
       </c>
       <c r="J43" s="1" t="s">
         <v>15</v>
       </c>
       <c r="K43" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
@@ -3718,34 +3697,34 @@
         <v>43</v>
       </c>
       <c r="B44" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C44" t="s">
         <v>133</v>
       </c>
-      <c r="C44" t="s">
+      <c r="D44" t="s">
+        <v>22</v>
+      </c>
+      <c r="E44" t="s">
+        <v>13</v>
+      </c>
+      <c r="F44" s="4" t="s">
+        <v>368</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H44" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="D44" t="s">
-        <v>22</v>
-      </c>
-      <c r="E44" t="s">
-        <v>13</v>
-      </c>
-      <c r="F44" s="4" t="s">
-        <v>369</v>
-      </c>
-      <c r="G44" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="H44" s="4" t="s">
+      <c r="I44" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="I44" s="5" t="s">
-        <v>136</v>
-      </c>
       <c r="J44" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K44" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
@@ -3753,11 +3732,11 @@
         <v>44</v>
       </c>
       <c r="B45" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C45" t="s">
         <v>137</v>
       </c>
-      <c r="C45" t="s">
-        <v>138</v>
-      </c>
       <c r="D45" t="s">
         <v>22</v>
       </c>
@@ -3765,19 +3744,19 @@
         <v>13</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H45" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J45" s="1" t="s">
         <v>15</v>
       </c>
       <c r="K45" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
@@ -3785,11 +3764,11 @@
         <v>45</v>
       </c>
       <c r="B46" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C46" t="s">
         <v>139</v>
       </c>
-      <c r="C46" t="s">
-        <v>140</v>
-      </c>
       <c r="D46" t="s">
         <v>22</v>
       </c>
@@ -3797,19 +3776,19 @@
         <v>13</v>
       </c>
       <c r="F46" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J46" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K46" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="G46" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H46" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="J46" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="K46" s="1" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
@@ -3817,31 +3796,31 @@
         <v>46</v>
       </c>
       <c r="B47" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C47" t="s">
         <v>141</v>
       </c>
-      <c r="C47" t="s">
+      <c r="D47" t="s">
+        <v>22</v>
+      </c>
+      <c r="E47" t="s">
+        <v>13</v>
+      </c>
+      <c r="F47" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H47" s="4" t="s">
         <v>142</v>
-      </c>
-      <c r="D47" t="s">
-        <v>22</v>
-      </c>
-      <c r="E47" t="s">
-        <v>13</v>
-      </c>
-      <c r="F47" s="4" t="s">
-        <v>370</v>
-      </c>
-      <c r="G47" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="H47" s="4" t="s">
-        <v>143</v>
       </c>
       <c r="J47" s="1" t="s">
         <v>15</v>
       </c>
       <c r="K47" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
@@ -3849,11 +3828,11 @@
         <v>47</v>
       </c>
       <c r="B48" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="C48" t="s">
         <v>144</v>
       </c>
-      <c r="C48" t="s">
-        <v>145</v>
-      </c>
       <c r="D48" t="s">
         <v>22</v>
       </c>
@@ -3861,19 +3840,19 @@
         <v>13</v>
       </c>
       <c r="F48" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J48" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K48" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="G48" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H48" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="J48" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="K48" s="1" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
@@ -3881,19 +3860,19 @@
         <v>48</v>
       </c>
       <c r="B49" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="C49" t="s">
+        <v>346</v>
+      </c>
+      <c r="D49" t="s">
+        <v>22</v>
+      </c>
+      <c r="E49" t="s">
+        <v>13</v>
+      </c>
+      <c r="F49" s="4" t="s">
         <v>146</v>
-      </c>
-      <c r="C49" t="s">
-        <v>347</v>
-      </c>
-      <c r="D49" t="s">
-        <v>22</v>
-      </c>
-      <c r="E49" t="s">
-        <v>13</v>
-      </c>
-      <c r="F49" s="4" t="s">
-        <v>147</v>
       </c>
       <c r="G49" s="1" t="s">
         <v>20</v>
@@ -3913,11 +3892,11 @@
         <v>49</v>
       </c>
       <c r="B50" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="C50" t="s">
         <v>148</v>
       </c>
-      <c r="C50" t="s">
-        <v>149</v>
-      </c>
       <c r="D50" t="s">
         <v>22</v>
       </c>
@@ -3925,7 +3904,7 @@
         <v>13</v>
       </c>
       <c r="F50" s="13" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G50" s="13" t="s">
         <v>20</v>
@@ -3946,11 +3925,11 @@
         <v>50</v>
       </c>
       <c r="B51" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C51" t="s">
         <v>150</v>
       </c>
-      <c r="C51" t="s">
-        <v>151</v>
-      </c>
       <c r="D51" t="s">
         <v>22</v>
       </c>
@@ -3958,20 +3937,20 @@
         <v>13</v>
       </c>
       <c r="F51" s="25" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="G51" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H51" s="13" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="I51" s="15"/>
       <c r="J51" s="13" t="s">
         <v>15</v>
       </c>
       <c r="K51" s="13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
@@ -3979,34 +3958,34 @@
         <v>51</v>
       </c>
       <c r="B52" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="C52" t="s">
         <v>153</v>
       </c>
-      <c r="C52" t="s">
+      <c r="D52" t="s">
+        <v>22</v>
+      </c>
+      <c r="E52" t="s">
+        <v>13</v>
+      </c>
+      <c r="F52" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="D52" t="s">
-        <v>22</v>
-      </c>
-      <c r="E52" t="s">
-        <v>13</v>
-      </c>
-      <c r="F52" s="5" t="s">
+      <c r="G52" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H52" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="G52" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="H52" s="5" t="s">
+      <c r="I52" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="I52" s="1" t="s">
-        <v>157</v>
-      </c>
       <c r="J52" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K52" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
@@ -4014,11 +3993,11 @@
         <v>52</v>
       </c>
       <c r="B53" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="C53" t="s">
         <v>158</v>
       </c>
-      <c r="C53" t="s">
-        <v>159</v>
-      </c>
       <c r="D53" t="s">
         <v>22</v>
       </c>
@@ -4026,22 +4005,22 @@
         <v>13</v>
       </c>
       <c r="F53" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H53" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="G53" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="H53" s="5" t="s">
+      <c r="I53" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="I53" s="1" t="s">
-        <v>157</v>
-      </c>
       <c r="J53" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K53" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
@@ -4049,19 +4028,19 @@
         <v>53</v>
       </c>
       <c r="B54" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="C54" t="s">
         <v>160</v>
       </c>
-      <c r="C54" t="s">
+      <c r="D54" t="s">
+        <v>22</v>
+      </c>
+      <c r="E54" t="s">
+        <v>13</v>
+      </c>
+      <c r="F54" s="5" t="s">
         <v>161</v>
-      </c>
-      <c r="D54" t="s">
-        <v>22</v>
-      </c>
-      <c r="E54" t="s">
-        <v>13</v>
-      </c>
-      <c r="F54" s="5" t="s">
-        <v>162</v>
       </c>
       <c r="G54" s="1" t="s">
         <v>20</v>
@@ -4081,11 +4060,11 @@
         <v>54</v>
       </c>
       <c r="B55" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="C55" t="s">
         <v>163</v>
       </c>
-      <c r="C55" t="s">
-        <v>164</v>
-      </c>
       <c r="D55" t="s">
         <v>22</v>
       </c>
@@ -4093,19 +4072,19 @@
         <v>13</v>
       </c>
       <c r="F55" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H55" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J55" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K55" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="G55" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H55" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="J55" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="K55" s="1" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
@@ -4113,11 +4092,11 @@
         <v>55</v>
       </c>
       <c r="B56" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="C56" t="s">
         <v>165</v>
       </c>
-      <c r="C56" t="s">
-        <v>166</v>
-      </c>
       <c r="D56" t="s">
         <v>22</v>
       </c>
@@ -4125,19 +4104,19 @@
         <v>13</v>
       </c>
       <c r="F56" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H56" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J56" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K56" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="G56" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H56" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="J56" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="K56" s="1" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
@@ -4145,11 +4124,11 @@
         <v>56</v>
       </c>
       <c r="B57" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="C57" t="s">
         <v>167</v>
       </c>
-      <c r="C57" t="s">
-        <v>168</v>
-      </c>
       <c r="D57" t="s">
         <v>22</v>
       </c>
@@ -4157,19 +4136,19 @@
         <v>13</v>
       </c>
       <c r="F57" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H57" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J57" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K57" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="G57" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H57" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="J57" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="K57" s="1" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
@@ -4177,19 +4156,19 @@
         <v>57</v>
       </c>
       <c r="B58" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="C58" t="s">
         <v>169</v>
       </c>
-      <c r="C58" t="s">
+      <c r="D58" t="s">
+        <v>22</v>
+      </c>
+      <c r="E58" t="s">
+        <v>13</v>
+      </c>
+      <c r="F58" s="4" t="s">
         <v>170</v>
-      </c>
-      <c r="D58" t="s">
-        <v>22</v>
-      </c>
-      <c r="E58" t="s">
-        <v>13</v>
-      </c>
-      <c r="F58" s="4" t="s">
-        <v>171</v>
       </c>
       <c r="G58" s="1" t="s">
         <v>20</v>
@@ -4209,10 +4188,10 @@
         <v>58</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C59" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D59" t="s">
         <v>22</v>
@@ -4221,19 +4200,19 @@
         <v>13</v>
       </c>
       <c r="F59" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H59" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J59" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K59" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="G59" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H59" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="J59" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="K59" s="1" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
@@ -4241,10 +4220,10 @@
         <v>59</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C60" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D60" t="s">
         <v>22</v>
@@ -4253,19 +4232,19 @@
         <v>13</v>
       </c>
       <c r="F60" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H60" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J60" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K60" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="G60" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H60" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="J60" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="K60" s="1" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
@@ -4273,11 +4252,11 @@
         <v>60</v>
       </c>
       <c r="B61" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="C61" t="s">
         <v>174</v>
       </c>
-      <c r="C61" t="s">
-        <v>175</v>
-      </c>
       <c r="D61" t="s">
         <v>22</v>
       </c>
@@ -4285,19 +4264,19 @@
         <v>13</v>
       </c>
       <c r="F61" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H61" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J61" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K61" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="G61" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H61" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="J61" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="K61" s="1" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
@@ -4305,11 +4284,11 @@
         <v>61</v>
       </c>
       <c r="B62" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="C62" t="s">
         <v>176</v>
       </c>
-      <c r="C62" t="s">
-        <v>177</v>
-      </c>
       <c r="D62" t="s">
         <v>22</v>
       </c>
@@ -4317,19 +4296,19 @@
         <v>13</v>
       </c>
       <c r="F62" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H62" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J62" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K62" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="G62" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H62" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="J62" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="K62" s="1" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
@@ -4337,11 +4316,11 @@
         <v>62</v>
       </c>
       <c r="B63" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="C63" t="s">
         <v>178</v>
       </c>
-      <c r="C63" t="s">
-        <v>179</v>
-      </c>
       <c r="D63" t="s">
         <v>22</v>
       </c>
@@ -4349,19 +4328,19 @@
         <v>13</v>
       </c>
       <c r="F63" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H63" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J63" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K63" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="G63" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H63" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="J63" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="K63" s="1" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
@@ -4369,11 +4348,11 @@
         <v>63</v>
       </c>
       <c r="B64" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="C64" t="s">
         <v>180</v>
       </c>
-      <c r="C64" t="s">
-        <v>181</v>
-      </c>
       <c r="D64" t="s">
         <v>22</v>
       </c>
@@ -4381,19 +4360,19 @@
         <v>13</v>
       </c>
       <c r="F64" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H64" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J64" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K64" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="G64" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H64" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="J64" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="K64" s="1" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
@@ -4401,11 +4380,11 @@
         <v>64</v>
       </c>
       <c r="B65" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="C65" t="s">
         <v>182</v>
       </c>
-      <c r="C65" t="s">
-        <v>183</v>
-      </c>
       <c r="D65" t="s">
         <v>22</v>
       </c>
@@ -4413,19 +4392,19 @@
         <v>13</v>
       </c>
       <c r="F65" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H65" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J65" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K65" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="G65" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H65" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="J65" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="K65" s="1" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
@@ -4433,31 +4412,31 @@
         <v>65</v>
       </c>
       <c r="B66" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="C66" t="s">
         <v>184</v>
       </c>
-      <c r="C66" t="s">
+      <c r="D66" t="s">
+        <v>22</v>
+      </c>
+      <c r="E66" t="s">
+        <v>13</v>
+      </c>
+      <c r="F66" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H66" s="4" t="s">
         <v>185</v>
-      </c>
-      <c r="D66" t="s">
-        <v>22</v>
-      </c>
-      <c r="E66" t="s">
-        <v>13</v>
-      </c>
-      <c r="F66" s="4" t="s">
-        <v>372</v>
-      </c>
-      <c r="G66" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="H66" s="4" t="s">
-        <v>186</v>
       </c>
       <c r="J66" s="1" t="s">
         <v>15</v>
       </c>
       <c r="K66" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
@@ -4465,19 +4444,19 @@
         <v>66</v>
       </c>
       <c r="B67" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="C67" t="s">
         <v>187</v>
       </c>
-      <c r="C67" t="s">
+      <c r="D67" t="s">
+        <v>22</v>
+      </c>
+      <c r="E67" t="s">
+        <v>13</v>
+      </c>
+      <c r="F67" s="5" t="s">
         <v>188</v>
-      </c>
-      <c r="D67" t="s">
-        <v>22</v>
-      </c>
-      <c r="E67" t="s">
-        <v>13</v>
-      </c>
-      <c r="F67" s="5" t="s">
-        <v>189</v>
       </c>
       <c r="G67" s="1" t="s">
         <v>20</v>
@@ -4497,31 +4476,31 @@
         <v>67</v>
       </c>
       <c r="B68" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="C68" t="s">
         <v>190</v>
       </c>
-      <c r="C68" t="s">
+      <c r="D68" t="s">
+        <v>22</v>
+      </c>
+      <c r="E68" t="s">
+        <v>13</v>
+      </c>
+      <c r="F68" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H68" s="4" t="s">
         <v>191</v>
-      </c>
-      <c r="D68" t="s">
-        <v>22</v>
-      </c>
-      <c r="E68" t="s">
-        <v>13</v>
-      </c>
-      <c r="F68" s="4" t="s">
-        <v>373</v>
-      </c>
-      <c r="G68" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="H68" s="4" t="s">
-        <v>192</v>
       </c>
       <c r="J68" s="1" t="s">
         <v>15</v>
       </c>
       <c r="K68" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
@@ -4529,31 +4508,31 @@
         <v>68</v>
       </c>
       <c r="B69" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="C69" t="s">
+        <v>349</v>
+      </c>
+      <c r="D69" t="s">
+        <v>22</v>
+      </c>
+      <c r="E69" t="s">
+        <v>13</v>
+      </c>
+      <c r="F69" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="G69" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H69" s="4" t="s">
         <v>193</v>
-      </c>
-      <c r="C69" t="s">
-        <v>350</v>
-      </c>
-      <c r="D69" t="s">
-        <v>22</v>
-      </c>
-      <c r="E69" t="s">
-        <v>13</v>
-      </c>
-      <c r="F69" s="4" t="s">
-        <v>374</v>
-      </c>
-      <c r="G69" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="H69" s="4" t="s">
-        <v>194</v>
       </c>
       <c r="J69" s="1" t="s">
         <v>15</v>
       </c>
       <c r="K69" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
@@ -4561,11 +4540,11 @@
         <v>69</v>
       </c>
       <c r="B70" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="C70" t="s">
         <v>195</v>
       </c>
-      <c r="C70" t="s">
-        <v>196</v>
-      </c>
       <c r="D70" t="s">
         <v>22</v>
       </c>
@@ -4573,19 +4552,19 @@
         <v>13</v>
       </c>
       <c r="F70" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G70" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H70" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J70" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K70" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="G70" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H70" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="J70" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="K70" s="1" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
@@ -4593,31 +4572,31 @@
         <v>70</v>
       </c>
       <c r="B71" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="C71" t="s">
+        <v>350</v>
+      </c>
+      <c r="D71" t="s">
+        <v>22</v>
+      </c>
+      <c r="E71" t="s">
+        <v>13</v>
+      </c>
+      <c r="F71" s="5" t="s">
+        <v>374</v>
+      </c>
+      <c r="G71" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H71" s="4" t="s">
         <v>197</v>
-      </c>
-      <c r="C71" t="s">
-        <v>351</v>
-      </c>
-      <c r="D71" t="s">
-        <v>22</v>
-      </c>
-      <c r="E71" t="s">
-        <v>13</v>
-      </c>
-      <c r="F71" s="5" t="s">
-        <v>375</v>
-      </c>
-      <c r="G71" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="H71" s="4" t="s">
-        <v>198</v>
       </c>
       <c r="J71" s="1" t="s">
         <v>15</v>
       </c>
       <c r="K71" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
@@ -4625,19 +4604,19 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
+        <v>198</v>
+      </c>
+      <c r="C72" t="s">
         <v>199</v>
       </c>
-      <c r="C72" t="s">
+      <c r="D72" t="s">
+        <v>22</v>
+      </c>
+      <c r="E72" t="s">
+        <v>13</v>
+      </c>
+      <c r="F72" s="5" t="s">
         <v>200</v>
-      </c>
-      <c r="D72" t="s">
-        <v>22</v>
-      </c>
-      <c r="E72" t="s">
-        <v>13</v>
-      </c>
-      <c r="F72" s="5" t="s">
-        <v>201</v>
       </c>
       <c r="G72" s="1" t="s">
         <v>20</v>
@@ -4658,11 +4637,11 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
+        <v>201</v>
+      </c>
+      <c r="C73" t="s">
         <v>202</v>
       </c>
-      <c r="C73" t="s">
-        <v>203</v>
-      </c>
       <c r="D73" t="s">
         <v>22</v>
       </c>
@@ -4670,19 +4649,19 @@
         <v>13</v>
       </c>
       <c r="F73" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G73" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H73" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J73" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K73" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="G73" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H73" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="J73" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="K73" s="1" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
@@ -4690,31 +4669,31 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
+        <v>203</v>
+      </c>
+      <c r="C74" t="s">
         <v>204</v>
       </c>
-      <c r="C74" t="s">
+      <c r="D74" t="s">
+        <v>22</v>
+      </c>
+      <c r="E74" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F74" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="G74" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H74" s="4" t="s">
         <v>205</v>
-      </c>
-      <c r="D74" t="s">
-        <v>22</v>
-      </c>
-      <c r="E74" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F74" s="4" t="s">
-        <v>376</v>
-      </c>
-      <c r="G74" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="H74" s="4" t="s">
-        <v>206</v>
       </c>
       <c r="J74" s="1" t="s">
         <v>15</v>
       </c>
       <c r="K74" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
@@ -4722,31 +4701,31 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
+        <v>206</v>
+      </c>
+      <c r="C75" t="s">
         <v>207</v>
       </c>
-      <c r="C75" t="s">
+      <c r="D75" t="s">
+        <v>22</v>
+      </c>
+      <c r="E75" t="s">
+        <v>13</v>
+      </c>
+      <c r="F75" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="G75" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H75" s="4" t="s">
         <v>208</v>
-      </c>
-      <c r="D75" t="s">
-        <v>22</v>
-      </c>
-      <c r="E75" t="s">
-        <v>13</v>
-      </c>
-      <c r="F75" s="4" t="s">
-        <v>377</v>
-      </c>
-      <c r="G75" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="H75" s="4" t="s">
-        <v>209</v>
       </c>
       <c r="J75" s="1" t="s">
         <v>15</v>
       </c>
       <c r="K75" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
@@ -4754,31 +4733,31 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
+        <v>209</v>
+      </c>
+      <c r="C76" t="s">
         <v>210</v>
       </c>
-      <c r="C76" t="s">
+      <c r="D76" t="s">
+        <v>22</v>
+      </c>
+      <c r="E76" t="s">
+        <v>13</v>
+      </c>
+      <c r="F76" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="G76" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H76" s="4" t="s">
         <v>211</v>
-      </c>
-      <c r="D76" t="s">
-        <v>22</v>
-      </c>
-      <c r="E76" t="s">
-        <v>13</v>
-      </c>
-      <c r="F76" s="4" t="s">
-        <v>378</v>
-      </c>
-      <c r="G76" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="H76" s="4" t="s">
-        <v>212</v>
       </c>
       <c r="J76" s="1" t="s">
         <v>15</v>
       </c>
       <c r="K76" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
@@ -4786,31 +4765,31 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
+        <v>212</v>
+      </c>
+      <c r="C77" t="s">
         <v>213</v>
       </c>
-      <c r="C77" t="s">
+      <c r="D77" t="s">
+        <v>22</v>
+      </c>
+      <c r="E77" t="s">
+        <v>13</v>
+      </c>
+      <c r="F77" s="4" t="s">
+        <v>378</v>
+      </c>
+      <c r="G77" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H77" s="4" t="s">
         <v>214</v>
-      </c>
-      <c r="D77" t="s">
-        <v>22</v>
-      </c>
-      <c r="E77" t="s">
-        <v>13</v>
-      </c>
-      <c r="F77" s="4" t="s">
-        <v>379</v>
-      </c>
-      <c r="G77" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="H77" s="4" t="s">
-        <v>215</v>
       </c>
       <c r="J77" s="1" t="s">
         <v>15</v>
       </c>
       <c r="K77" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
@@ -4818,11 +4797,11 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
+        <v>215</v>
+      </c>
+      <c r="C78" t="s">
         <v>216</v>
       </c>
-      <c r="C78" t="s">
-        <v>217</v>
-      </c>
       <c r="D78" t="s">
         <v>22</v>
       </c>
@@ -4830,19 +4809,19 @@
         <v>13</v>
       </c>
       <c r="F78" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G78" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H78" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J78" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K78" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="G78" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H78" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="J78" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="K78" s="1" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
@@ -4850,11 +4829,11 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
+        <v>217</v>
+      </c>
+      <c r="C79" t="s">
         <v>218</v>
       </c>
-      <c r="C79" t="s">
-        <v>219</v>
-      </c>
       <c r="D79" t="s">
         <v>22</v>
       </c>
@@ -4862,19 +4841,19 @@
         <v>13</v>
       </c>
       <c r="F79" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G79" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H79" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J79" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K79" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="G79" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H79" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="J79" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="K79" s="1" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
@@ -4882,11 +4861,11 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
+        <v>219</v>
+      </c>
+      <c r="C80" t="s">
         <v>220</v>
       </c>
-      <c r="C80" t="s">
-        <v>221</v>
-      </c>
       <c r="D80" t="s">
         <v>22</v>
       </c>
@@ -4894,19 +4873,19 @@
         <v>13</v>
       </c>
       <c r="F80" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G80" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H80" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J80" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K80" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="G80" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H80" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="J80" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="K80" s="1" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
@@ -4914,31 +4893,31 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
+        <v>221</v>
+      </c>
+      <c r="C81" t="s">
         <v>222</v>
       </c>
-      <c r="C81" t="s">
+      <c r="D81" t="s">
+        <v>22</v>
+      </c>
+      <c r="E81" t="s">
+        <v>13</v>
+      </c>
+      <c r="F81" s="4" t="s">
+        <v>379</v>
+      </c>
+      <c r="G81" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H81" s="4" t="s">
         <v>223</v>
-      </c>
-      <c r="D81" t="s">
-        <v>22</v>
-      </c>
-      <c r="E81" t="s">
-        <v>13</v>
-      </c>
-      <c r="F81" s="4" t="s">
-        <v>380</v>
-      </c>
-      <c r="G81" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="H81" s="4" t="s">
-        <v>224</v>
       </c>
       <c r="J81" s="1" t="s">
         <v>15</v>
       </c>
       <c r="K81" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
@@ -4946,11 +4925,11 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
+        <v>224</v>
+      </c>
+      <c r="C82" t="s">
         <v>225</v>
       </c>
-      <c r="C82" t="s">
-        <v>226</v>
-      </c>
       <c r="D82" t="s">
         <v>22</v>
       </c>
@@ -4958,19 +4937,19 @@
         <v>13</v>
       </c>
       <c r="F82" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G82" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H82" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J82" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K82" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="G82" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H82" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="J82" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="K82" s="1" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
@@ -4978,31 +4957,31 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
+        <v>226</v>
+      </c>
+      <c r="C83" t="s">
+        <v>351</v>
+      </c>
+      <c r="D83" t="s">
+        <v>22</v>
+      </c>
+      <c r="E83" t="s">
+        <v>13</v>
+      </c>
+      <c r="F83" s="4" t="s">
+        <v>380</v>
+      </c>
+      <c r="G83" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H83" s="4" t="s">
         <v>227</v>
-      </c>
-      <c r="C83" t="s">
-        <v>352</v>
-      </c>
-      <c r="D83" t="s">
-        <v>22</v>
-      </c>
-      <c r="E83" t="s">
-        <v>13</v>
-      </c>
-      <c r="F83" s="4" t="s">
-        <v>381</v>
-      </c>
-      <c r="G83" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="H83" s="4" t="s">
-        <v>228</v>
       </c>
       <c r="J83" s="1" t="s">
         <v>15</v>
       </c>
       <c r="K83" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
@@ -5010,19 +4989,19 @@
         <v>83</v>
       </c>
       <c r="B84" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="C84" t="s">
         <v>229</v>
       </c>
-      <c r="C84" t="s">
+      <c r="D84" t="s">
+        <v>22</v>
+      </c>
+      <c r="E84" t="s">
+        <v>13</v>
+      </c>
+      <c r="F84" s="4" t="s">
         <v>230</v>
-      </c>
-      <c r="D84" t="s">
-        <v>22</v>
-      </c>
-      <c r="E84" t="s">
-        <v>13</v>
-      </c>
-      <c r="F84" s="4" t="s">
-        <v>231</v>
       </c>
       <c r="G84" s="1" t="s">
         <v>20</v>
@@ -5042,19 +5021,19 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
+        <v>231</v>
+      </c>
+      <c r="C85" t="s">
         <v>232</v>
       </c>
-      <c r="C85" t="s">
+      <c r="D85" t="s">
+        <v>22</v>
+      </c>
+      <c r="E85" t="s">
+        <v>13</v>
+      </c>
+      <c r="F85" s="4" t="s">
         <v>233</v>
-      </c>
-      <c r="D85" t="s">
-        <v>22</v>
-      </c>
-      <c r="E85" t="s">
-        <v>13</v>
-      </c>
-      <c r="F85" s="4" t="s">
-        <v>234</v>
       </c>
       <c r="G85" s="1" t="s">
         <v>20</v>
@@ -5074,19 +5053,19 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
+        <v>234</v>
+      </c>
+      <c r="C86" t="s">
         <v>235</v>
       </c>
-      <c r="C86" t="s">
+      <c r="D86" t="s">
+        <v>22</v>
+      </c>
+      <c r="E86" t="s">
+        <v>13</v>
+      </c>
+      <c r="F86" s="4" t="s">
         <v>236</v>
-      </c>
-      <c r="D86" t="s">
-        <v>22</v>
-      </c>
-      <c r="E86" t="s">
-        <v>13</v>
-      </c>
-      <c r="F86" s="4" t="s">
-        <v>237</v>
       </c>
       <c r="G86" s="1" t="s">
         <v>20</v>
@@ -5107,11 +5086,11 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
+        <v>237</v>
+      </c>
+      <c r="C87" t="s">
         <v>238</v>
       </c>
-      <c r="C87" t="s">
-        <v>239</v>
-      </c>
       <c r="D87" t="s">
         <v>22</v>
       </c>
@@ -5119,19 +5098,19 @@
         <v>13</v>
       </c>
       <c r="F87" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G87" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H87" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J87" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K87" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="G87" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H87" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="J87" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="K87" s="1" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
@@ -5139,11 +5118,11 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
+        <v>239</v>
+      </c>
+      <c r="C88" t="s">
         <v>240</v>
       </c>
-      <c r="C88" t="s">
-        <v>241</v>
-      </c>
       <c r="D88" t="s">
         <v>22</v>
       </c>
@@ -5151,19 +5130,19 @@
         <v>13</v>
       </c>
       <c r="F88" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G88" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H88" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J88" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K88" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="G88" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H88" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="J88" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="K88" s="1" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
@@ -5171,11 +5150,11 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
+        <v>241</v>
+      </c>
+      <c r="C89" t="s">
         <v>242</v>
       </c>
-      <c r="C89" t="s">
-        <v>243</v>
-      </c>
       <c r="D89" t="s">
         <v>22</v>
       </c>
@@ -5183,19 +5162,19 @@
         <v>13</v>
       </c>
       <c r="F89" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G89" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H89" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J89" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K89" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="G89" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H89" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="J89" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="K89" s="1" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
@@ -5203,31 +5182,31 @@
         <v>89</v>
       </c>
       <c r="B90" t="s">
+        <v>243</v>
+      </c>
+      <c r="C90" t="s">
+        <v>352</v>
+      </c>
+      <c r="D90" t="s">
+        <v>22</v>
+      </c>
+      <c r="E90" t="s">
+        <v>13</v>
+      </c>
+      <c r="F90" s="4" t="s">
+        <v>381</v>
+      </c>
+      <c r="G90" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H90" s="4" t="s">
         <v>244</v>
-      </c>
-      <c r="C90" t="s">
-        <v>353</v>
-      </c>
-      <c r="D90" t="s">
-        <v>22</v>
-      </c>
-      <c r="E90" t="s">
-        <v>13</v>
-      </c>
-      <c r="F90" s="4" t="s">
-        <v>382</v>
-      </c>
-      <c r="G90" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="H90" s="4" t="s">
-        <v>245</v>
       </c>
       <c r="J90" s="1" t="s">
         <v>15</v>
       </c>
       <c r="K90" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
@@ -5235,31 +5214,31 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
+        <v>245</v>
+      </c>
+      <c r="C91" t="s">
         <v>246</v>
       </c>
-      <c r="C91" t="s">
+      <c r="D91" t="s">
+        <v>22</v>
+      </c>
+      <c r="E91" t="s">
+        <v>13</v>
+      </c>
+      <c r="F91" s="4" t="s">
+        <v>382</v>
+      </c>
+      <c r="G91" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H91" s="4" t="s">
         <v>247</v>
-      </c>
-      <c r="D91" t="s">
-        <v>22</v>
-      </c>
-      <c r="E91" t="s">
-        <v>13</v>
-      </c>
-      <c r="F91" s="4" t="s">
-        <v>383</v>
-      </c>
-      <c r="G91" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="H91" s="4" t="s">
-        <v>248</v>
       </c>
       <c r="J91" s="1" t="s">
         <v>15</v>
       </c>
       <c r="K91" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
@@ -5267,19 +5246,19 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
+        <v>248</v>
+      </c>
+      <c r="C92" t="s">
         <v>249</v>
       </c>
-      <c r="C92" t="s">
+      <c r="D92" t="s">
+        <v>22</v>
+      </c>
+      <c r="E92" t="s">
+        <v>13</v>
+      </c>
+      <c r="F92" s="4" t="s">
         <v>250</v>
-      </c>
-      <c r="D92" t="s">
-        <v>22</v>
-      </c>
-      <c r="E92" t="s">
-        <v>13</v>
-      </c>
-      <c r="F92" s="4" t="s">
-        <v>251</v>
       </c>
       <c r="G92" s="1" t="s">
         <v>20</v>
@@ -5299,31 +5278,31 @@
         <v>92</v>
       </c>
       <c r="B93" t="s">
+        <v>251</v>
+      </c>
+      <c r="C93" t="s">
         <v>252</v>
       </c>
-      <c r="C93" t="s">
+      <c r="D93" t="s">
+        <v>22</v>
+      </c>
+      <c r="E93" t="s">
+        <v>13</v>
+      </c>
+      <c r="F93" s="4" t="s">
+        <v>383</v>
+      </c>
+      <c r="G93" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H93" s="4" t="s">
         <v>253</v>
-      </c>
-      <c r="D93" t="s">
-        <v>22</v>
-      </c>
-      <c r="E93" t="s">
-        <v>13</v>
-      </c>
-      <c r="F93" s="4" t="s">
-        <v>384</v>
-      </c>
-      <c r="G93" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="H93" s="4" t="s">
-        <v>254</v>
       </c>
       <c r="J93" s="1" t="s">
         <v>15</v>
       </c>
       <c r="K93" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
@@ -5331,31 +5310,31 @@
         <v>93</v>
       </c>
       <c r="B94" t="s">
+        <v>254</v>
+      </c>
+      <c r="C94" t="s">
         <v>255</v>
       </c>
-      <c r="C94" t="s">
+      <c r="D94" t="s">
+        <v>22</v>
+      </c>
+      <c r="E94" t="s">
+        <v>13</v>
+      </c>
+      <c r="F94" s="4" t="s">
+        <v>384</v>
+      </c>
+      <c r="G94" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H94" s="4" t="s">
         <v>256</v>
-      </c>
-      <c r="D94" t="s">
-        <v>22</v>
-      </c>
-      <c r="E94" t="s">
-        <v>13</v>
-      </c>
-      <c r="F94" s="4" t="s">
-        <v>385</v>
-      </c>
-      <c r="G94" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="H94" s="4" t="s">
-        <v>257</v>
       </c>
       <c r="J94" s="1" t="s">
         <v>15</v>
       </c>
       <c r="K94" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
@@ -5363,31 +5342,31 @@
         <v>94</v>
       </c>
       <c r="B95" t="s">
+        <v>257</v>
+      </c>
+      <c r="C95" t="s">
         <v>258</v>
       </c>
-      <c r="C95" t="s">
+      <c r="D95" t="s">
+        <v>22</v>
+      </c>
+      <c r="E95" t="s">
+        <v>13</v>
+      </c>
+      <c r="F95" s="4" t="s">
+        <v>385</v>
+      </c>
+      <c r="G95" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="H95" s="4" t="s">
         <v>259</v>
-      </c>
-      <c r="D95" t="s">
-        <v>22</v>
-      </c>
-      <c r="E95" t="s">
-        <v>13</v>
-      </c>
-      <c r="F95" s="4" t="s">
-        <v>386</v>
-      </c>
-      <c r="G95" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="H95" s="4" t="s">
-        <v>260</v>
       </c>
       <c r="J95" s="1" t="s">
         <v>15</v>
       </c>
       <c r="K95" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
@@ -5395,19 +5374,19 @@
         <v>95</v>
       </c>
       <c r="B96" t="s">
+        <v>260</v>
+      </c>
+      <c r="C96" t="s">
         <v>261</v>
       </c>
-      <c r="C96" t="s">
+      <c r="D96" t="s">
+        <v>22</v>
+      </c>
+      <c r="E96" t="s">
+        <v>13</v>
+      </c>
+      <c r="F96" s="4" t="s">
         <v>262</v>
-      </c>
-      <c r="D96" t="s">
-        <v>22</v>
-      </c>
-      <c r="E96" t="s">
-        <v>13</v>
-      </c>
-      <c r="F96" s="4" t="s">
-        <v>263</v>
       </c>
       <c r="G96" s="1" t="s">
         <v>20</v>
@@ -5416,13 +5395,13 @@
         <v>20</v>
       </c>
       <c r="I96" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="J96" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="K96" s="13" t="s">
         <v>264</v>
-      </c>
-      <c r="J96" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="K96" s="13" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
@@ -5430,11 +5409,11 @@
         <v>96</v>
       </c>
       <c r="B97" t="s">
+        <v>265</v>
+      </c>
+      <c r="C97" t="s">
         <v>266</v>
       </c>
-      <c r="C97" t="s">
-        <v>267</v>
-      </c>
       <c r="D97" t="s">
         <v>22</v>
       </c>
@@ -5442,19 +5421,19 @@
         <v>13</v>
       </c>
       <c r="F97" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G97" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H97" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J97" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K97" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="G97" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H97" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="J97" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="K97" s="1" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
@@ -5462,11 +5441,11 @@
         <v>97</v>
       </c>
       <c r="B98" t="s">
+        <v>267</v>
+      </c>
+      <c r="C98" t="s">
         <v>268</v>
       </c>
-      <c r="C98" t="s">
-        <v>269</v>
-      </c>
       <c r="D98" t="s">
         <v>22</v>
       </c>
@@ -5474,7 +5453,7 @@
         <v>13</v>
       </c>
       <c r="F98" s="4" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="G98" s="1" t="s">
         <v>20</v>
@@ -5494,11 +5473,11 @@
         <v>98</v>
       </c>
       <c r="B99" t="s">
+        <v>269</v>
+      </c>
+      <c r="C99" t="s">
         <v>270</v>
       </c>
-      <c r="C99" t="s">
-        <v>271</v>
-      </c>
       <c r="D99" t="s">
         <v>22</v>
       </c>
@@ -5506,19 +5485,19 @@
         <v>13</v>
       </c>
       <c r="F99" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G99" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H99" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J99" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K99" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="G99" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H99" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="J99" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="K99" s="1" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.25">
@@ -5526,11 +5505,11 @@
         <v>99</v>
       </c>
       <c r="B100" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="C100" t="s">
         <v>272</v>
       </c>
-      <c r="C100" t="s">
-        <v>273</v>
-      </c>
       <c r="D100" t="s">
         <v>22</v>
       </c>
@@ -5538,19 +5517,19 @@
         <v>13</v>
       </c>
       <c r="F100" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G100" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H100" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J100" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K100" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="G100" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H100" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="J100" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="K100" s="1" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.25">
@@ -5558,19 +5537,19 @@
         <v>100</v>
       </c>
       <c r="B101" t="s">
+        <v>273</v>
+      </c>
+      <c r="C101" t="s">
         <v>274</v>
       </c>
-      <c r="C101" t="s">
+      <c r="D101" t="s">
+        <v>22</v>
+      </c>
+      <c r="E101" t="s">
+        <v>13</v>
+      </c>
+      <c r="F101" s="5" t="s">
         <v>275</v>
-      </c>
-      <c r="D101" t="s">
-        <v>22</v>
-      </c>
-      <c r="E101" t="s">
-        <v>13</v>
-      </c>
-      <c r="F101" s="5" t="s">
-        <v>276</v>
       </c>
       <c r="G101" s="1" t="s">
         <v>20</v>
@@ -5590,19 +5569,19 @@
         <v>101</v>
       </c>
       <c r="B102" s="9" t="s">
+        <v>276</v>
+      </c>
+      <c r="C102" t="s">
         <v>277</v>
       </c>
-      <c r="C102" t="s">
+      <c r="D102" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E102" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F102" s="1" t="s">
         <v>278</v>
-      </c>
-      <c r="D102" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="E102" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="F102" s="1" t="s">
-        <v>279</v>
       </c>
       <c r="G102" s="1" t="s">
         <v>20</v>
@@ -5623,19 +5602,19 @@
         <v>102</v>
       </c>
       <c r="B103" t="s">
+        <v>279</v>
+      </c>
+      <c r="C103" t="s">
         <v>280</v>
       </c>
-      <c r="C103" t="s">
+      <c r="D103" t="s">
+        <v>22</v>
+      </c>
+      <c r="E103" t="s">
+        <v>13</v>
+      </c>
+      <c r="F103" s="4" t="s">
         <v>281</v>
-      </c>
-      <c r="D103" t="s">
-        <v>22</v>
-      </c>
-      <c r="E103" t="s">
-        <v>13</v>
-      </c>
-      <c r="F103" s="4" t="s">
-        <v>282</v>
       </c>
       <c r="G103" s="1" t="s">
         <v>20</v>
@@ -5655,11 +5634,11 @@
         <v>103</v>
       </c>
       <c r="B104" t="s">
+        <v>282</v>
+      </c>
+      <c r="C104" t="s">
         <v>283</v>
       </c>
-      <c r="C104" t="s">
-        <v>284</v>
-      </c>
       <c r="D104" t="s">
         <v>22</v>
       </c>
@@ -5667,19 +5646,19 @@
         <v>13</v>
       </c>
       <c r="F104" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G104" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H104" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J104" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K104" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="G104" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H104" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="J104" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="K104" s="1" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.25">
@@ -5687,19 +5666,19 @@
         <v>104</v>
       </c>
       <c r="B105" t="s">
+        <v>284</v>
+      </c>
+      <c r="C105" t="s">
         <v>285</v>
       </c>
-      <c r="C105" t="s">
+      <c r="D105" t="s">
+        <v>22</v>
+      </c>
+      <c r="E105" t="s">
+        <v>13</v>
+      </c>
+      <c r="F105" s="4" t="s">
         <v>286</v>
-      </c>
-      <c r="D105" t="s">
-        <v>22</v>
-      </c>
-      <c r="E105" t="s">
-        <v>13</v>
-      </c>
-      <c r="F105" s="4" t="s">
-        <v>287</v>
       </c>
       <c r="G105" s="1" t="s">
         <v>20</v>
@@ -5719,11 +5698,11 @@
         <v>105</v>
       </c>
       <c r="B106" t="s">
+        <v>287</v>
+      </c>
+      <c r="C106" t="s">
         <v>288</v>
       </c>
-      <c r="C106" t="s">
-        <v>289</v>
-      </c>
       <c r="D106" t="s">
         <v>22</v>
       </c>
@@ -5731,19 +5710,19 @@
         <v>13</v>
       </c>
       <c r="F106" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G106" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H106" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J106" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K106" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="G106" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H106" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="J106" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="K106" s="1" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.25">
@@ -5751,11 +5730,11 @@
         <v>106</v>
       </c>
       <c r="B107" t="s">
+        <v>289</v>
+      </c>
+      <c r="C107" t="s">
         <v>290</v>
       </c>
-      <c r="C107" t="s">
-        <v>291</v>
-      </c>
       <c r="D107" t="s">
         <v>22</v>
       </c>
@@ -5763,19 +5742,19 @@
         <v>13</v>
       </c>
       <c r="F107" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G107" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H107" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J107" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K107" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="G107" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H107" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="J107" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="K107" s="1" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.25">
@@ -5783,19 +5762,19 @@
         <v>107</v>
       </c>
       <c r="B108" t="s">
+        <v>291</v>
+      </c>
+      <c r="C108" t="s">
         <v>292</v>
       </c>
-      <c r="C108" t="s">
+      <c r="D108" t="s">
+        <v>22</v>
+      </c>
+      <c r="E108" t="s">
+        <v>13</v>
+      </c>
+      <c r="F108" s="4" t="s">
         <v>293</v>
-      </c>
-      <c r="D108" t="s">
-        <v>22</v>
-      </c>
-      <c r="E108" t="s">
-        <v>13</v>
-      </c>
-      <c r="F108" s="4" t="s">
-        <v>294</v>
       </c>
       <c r="G108" s="1" t="s">
         <v>20</v>
@@ -5815,31 +5794,31 @@
         <v>108</v>
       </c>
       <c r="B109" t="s">
+        <v>294</v>
+      </c>
+      <c r="C109" t="s">
         <v>295</v>
       </c>
-      <c r="C109" t="s">
+      <c r="D109" t="s">
+        <v>22</v>
+      </c>
+      <c r="E109" t="s">
+        <v>13</v>
+      </c>
+      <c r="F109" s="4" t="s">
+        <v>386</v>
+      </c>
+      <c r="G109" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H109" s="4" t="s">
         <v>296</v>
-      </c>
-      <c r="D109" t="s">
-        <v>22</v>
-      </c>
-      <c r="E109" t="s">
-        <v>13</v>
-      </c>
-      <c r="F109" s="4" t="s">
-        <v>387</v>
-      </c>
-      <c r="G109" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="H109" s="4" t="s">
-        <v>297</v>
       </c>
       <c r="J109" s="1" t="s">
         <v>15</v>
       </c>
       <c r="K109" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.25">
@@ -5847,11 +5826,11 @@
         <v>109</v>
       </c>
       <c r="B110" t="s">
+        <v>297</v>
+      </c>
+      <c r="C110" t="s">
         <v>298</v>
       </c>
-      <c r="C110" t="s">
-        <v>299</v>
-      </c>
       <c r="D110" t="s">
         <v>22</v>
       </c>
@@ -5859,19 +5838,19 @@
         <v>13</v>
       </c>
       <c r="F110" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G110" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H110" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J110" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K110" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="G110" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H110" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="J110" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="K110" s="1" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.25">
@@ -5879,11 +5858,11 @@
         <v>110</v>
       </c>
       <c r="B111" t="s">
+        <v>299</v>
+      </c>
+      <c r="C111" t="s">
         <v>300</v>
       </c>
-      <c r="C111" t="s">
-        <v>301</v>
-      </c>
       <c r="D111" t="s">
         <v>22</v>
       </c>
@@ -5891,19 +5870,19 @@
         <v>13</v>
       </c>
       <c r="F111" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G111" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H111" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J111" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K111" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="G111" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H111" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="J111" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="K111" s="1" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.25">
@@ -5911,11 +5890,11 @@
         <v>111</v>
       </c>
       <c r="B112" t="s">
+        <v>301</v>
+      </c>
+      <c r="C112" t="s">
         <v>302</v>
       </c>
-      <c r="C112" t="s">
-        <v>303</v>
-      </c>
       <c r="D112" t="s">
         <v>22</v>
       </c>
@@ -5923,19 +5902,19 @@
         <v>13</v>
       </c>
       <c r="F112" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G112" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H112" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J112" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K112" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="G112" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H112" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="J112" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="K112" s="1" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.25">
@@ -5943,11 +5922,11 @@
         <v>112</v>
       </c>
       <c r="B113" t="s">
+        <v>303</v>
+      </c>
+      <c r="C113" t="s">
         <v>304</v>
       </c>
-      <c r="C113" t="s">
-        <v>305</v>
-      </c>
       <c r="D113" t="s">
         <v>22</v>
       </c>
@@ -5955,19 +5934,19 @@
         <v>13</v>
       </c>
       <c r="F113" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G113" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H113" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J113" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K113" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="G113" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H113" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="J113" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="K113" s="1" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.25">
@@ -5975,11 +5954,11 @@
         <v>113</v>
       </c>
       <c r="B114" t="s">
+        <v>305</v>
+      </c>
+      <c r="C114" t="s">
         <v>306</v>
       </c>
-      <c r="C114" t="s">
-        <v>307</v>
-      </c>
       <c r="D114" t="s">
         <v>22</v>
       </c>
@@ -5987,19 +5966,19 @@
         <v>13</v>
       </c>
       <c r="F114" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G114" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H114" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J114" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K114" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="G114" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H114" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="J114" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="K114" s="1" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.25">
@@ -6007,11 +5986,11 @@
         <v>114</v>
       </c>
       <c r="B115" t="s">
+        <v>307</v>
+      </c>
+      <c r="C115" t="s">
         <v>308</v>
       </c>
-      <c r="C115" t="s">
-        <v>309</v>
-      </c>
       <c r="D115" t="s">
         <v>22</v>
       </c>
@@ -6019,19 +5998,19 @@
         <v>13</v>
       </c>
       <c r="F115" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G115" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H115" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J115" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K115" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="G115" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H115" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="J115" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="K115" s="1" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.25">
@@ -6039,11 +6018,11 @@
         <v>115</v>
       </c>
       <c r="B116" t="s">
+        <v>309</v>
+      </c>
+      <c r="C116" t="s">
         <v>310</v>
       </c>
-      <c r="C116" t="s">
-        <v>311</v>
-      </c>
       <c r="D116" t="s">
         <v>22</v>
       </c>
@@ -6051,19 +6030,19 @@
         <v>13</v>
       </c>
       <c r="F116" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G116" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H116" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J116" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K116" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="G116" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H116" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="J116" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="K116" s="1" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.25">
@@ -6071,11 +6050,11 @@
         <v>116</v>
       </c>
       <c r="B117" t="s">
+        <v>311</v>
+      </c>
+      <c r="C117" t="s">
         <v>312</v>
       </c>
-      <c r="C117" t="s">
-        <v>313</v>
-      </c>
       <c r="D117" t="s">
         <v>22</v>
       </c>
@@ -6083,19 +6062,19 @@
         <v>13</v>
       </c>
       <c r="F117" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G117" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H117" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J117" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K117" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="G117" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H117" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="J117" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="K117" s="1" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.25">
@@ -6103,10 +6082,10 @@
         <v>117</v>
       </c>
       <c r="B118" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C118" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D118" t="s">
         <v>22</v>
@@ -6115,19 +6094,19 @@
         <v>13</v>
       </c>
       <c r="F118" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G118" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H118" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J118" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K118" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="G118" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H118" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="J118" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="K118" s="1" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.25">
@@ -6135,11 +6114,11 @@
         <v>118</v>
       </c>
       <c r="B119" t="s">
+        <v>314</v>
+      </c>
+      <c r="C119" t="s">
         <v>315</v>
       </c>
-      <c r="C119" t="s">
-        <v>316</v>
-      </c>
       <c r="D119" t="s">
         <v>22</v>
       </c>
@@ -6147,19 +6126,19 @@
         <v>13</v>
       </c>
       <c r="F119" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G119" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H119" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J119" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K119" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="G119" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H119" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="J119" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="K119" s="1" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.25">
@@ -6167,11 +6146,11 @@
         <v>119</v>
       </c>
       <c r="B120" t="s">
+        <v>316</v>
+      </c>
+      <c r="C120" t="s">
         <v>317</v>
       </c>
-      <c r="C120" t="s">
-        <v>318</v>
-      </c>
       <c r="D120" t="s">
         <v>22</v>
       </c>
@@ -6179,19 +6158,19 @@
         <v>13</v>
       </c>
       <c r="F120" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G120" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H120" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J120" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K120" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="G120" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H120" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="J120" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="K120" s="1" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.25">
@@ -6199,10 +6178,10 @@
         <v>120</v>
       </c>
       <c r="B121" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C121" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D121" t="s">
         <v>22</v>
@@ -6211,19 +6190,19 @@
         <v>13</v>
       </c>
       <c r="F121" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G121" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H121" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J121" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K121" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="G121" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H121" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="J121" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="K121" s="1" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.25">
@@ -6231,11 +6210,11 @@
         <v>121</v>
       </c>
       <c r="B122" t="s">
+        <v>319</v>
+      </c>
+      <c r="C122" t="s">
         <v>320</v>
       </c>
-      <c r="C122" t="s">
-        <v>321</v>
-      </c>
       <c r="D122" t="s">
         <v>22</v>
       </c>
@@ -6243,19 +6222,19 @@
         <v>13</v>
       </c>
       <c r="F122" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G122" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H122" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J122" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K122" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="G122" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H122" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="J122" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="K122" s="1" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.25">
@@ -6263,11 +6242,11 @@
         <v>122</v>
       </c>
       <c r="B123" t="s">
+        <v>321</v>
+      </c>
+      <c r="C123" t="s">
         <v>322</v>
       </c>
-      <c r="C123" t="s">
-        <v>323</v>
-      </c>
       <c r="D123" t="s">
         <v>22</v>
       </c>
@@ -6275,19 +6254,19 @@
         <v>13</v>
       </c>
       <c r="F123" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G123" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H123" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J123" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K123" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="G123" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H123" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="J123" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="K123" s="1" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.25">
@@ -6295,11 +6274,11 @@
         <v>123</v>
       </c>
       <c r="B124" t="s">
+        <v>323</v>
+      </c>
+      <c r="C124" t="s">
         <v>324</v>
       </c>
-      <c r="C124" t="s">
-        <v>325</v>
-      </c>
       <c r="D124" t="s">
         <v>22</v>
       </c>
@@ -6307,19 +6286,19 @@
         <v>13</v>
       </c>
       <c r="F124" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G124" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H124" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J124" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K124" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="G124" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H124" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="J124" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="K124" s="1" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.25">
@@ -6327,11 +6306,11 @@
         <v>124</v>
       </c>
       <c r="B125" t="s">
+        <v>325</v>
+      </c>
+      <c r="C125" t="s">
         <v>326</v>
       </c>
-      <c r="C125" t="s">
-        <v>327</v>
-      </c>
       <c r="D125" t="s">
         <v>22</v>
       </c>
@@ -6339,19 +6318,19 @@
         <v>13</v>
       </c>
       <c r="F125" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G125" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H125" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J125" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K125" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="G125" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H125" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="J125" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="K125" s="1" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.25">
@@ -6359,11 +6338,11 @@
         <v>125</v>
       </c>
       <c r="B126" t="s">
+        <v>327</v>
+      </c>
+      <c r="C126" t="s">
         <v>328</v>
       </c>
-      <c r="C126" t="s">
-        <v>329</v>
-      </c>
       <c r="D126" t="s">
         <v>22</v>
       </c>
@@ -6371,19 +6350,19 @@
         <v>13</v>
       </c>
       <c r="F126" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G126" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H126" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J126" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K126" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="G126" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H126" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="J126" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="K126" s="1" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.25">
@@ -6391,19 +6370,19 @@
         <v>126</v>
       </c>
       <c r="B127" t="s">
+        <v>329</v>
+      </c>
+      <c r="C127" t="s">
         <v>330</v>
       </c>
-      <c r="C127" t="s">
+      <c r="D127" t="s">
+        <v>22</v>
+      </c>
+      <c r="E127" t="s">
+        <v>13</v>
+      </c>
+      <c r="F127" s="4" t="s">
         <v>331</v>
-      </c>
-      <c r="D127" t="s">
-        <v>22</v>
-      </c>
-      <c r="E127" t="s">
-        <v>13</v>
-      </c>
-      <c r="F127" s="4" t="s">
-        <v>332</v>
       </c>
       <c r="G127" s="1" t="s">
         <v>20</v>
@@ -6423,10 +6402,10 @@
         <v>127</v>
       </c>
       <c r="B128" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C128" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D128" t="s">
         <v>22</v>
@@ -6435,19 +6414,19 @@
         <v>13</v>
       </c>
       <c r="F128" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G128" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H128" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J128" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K128" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="G128" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H128" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="J128" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="K128" s="1" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.25">
@@ -6455,10 +6434,10 @@
         <v>128</v>
       </c>
       <c r="B129" t="s">
+        <v>334</v>
+      </c>
+      <c r="C129" t="s">
         <v>335</v>
-      </c>
-      <c r="C129" t="s">
-        <v>336</v>
       </c>
       <c r="D129" s="17" t="s">
         <v>12</v>
@@ -6467,16 +6446,16 @@
         <v>13</v>
       </c>
       <c r="F129" s="24" t="s">
+        <v>336</v>
+      </c>
+      <c r="G129" s="4" t="s">
         <v>337</v>
-      </c>
-      <c r="G129" s="4" t="s">
-        <v>338</v>
       </c>
       <c r="H129" s="18">
         <v>1</v>
       </c>
       <c r="I129" s="16" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="J129" s="15" t="s">
         <v>15</v>
@@ -6499,6 +6478,27 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Zeit xmlns="b63cdcf7-47fa-43f6-87e5-23b415b5c413" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="b63cdcf7-47fa-43f6-87e5-23b415b5c413">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="12535b08-222e-45d2-b6db-15019f1afee6" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100B1DC67C611DD5E4D81775F9F3E26A7B2" ma:contentTypeVersion="16" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="7f379a5812b480a74f9d031be5f88a83">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b63cdcf7-47fa-43f6-87e5-23b415b5c413" xmlns:ns3="12535b08-222e-45d2-b6db-15019f1afee6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="dbce1e37d7de67e1c835013ca0ee7a7c" ns2:_="" ns3:_="">
     <xsd:import namespace="b63cdcf7-47fa-43f6-87e5-23b415b5c413"/>
@@ -6739,28 +6739,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Zeit xmlns="b63cdcf7-47fa-43f6-87e5-23b415b5c413" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="b63cdcf7-47fa-43f6-87e5-23b415b5c413">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="12535b08-222e-45d2-b6db-15019f1afee6" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FBFC15CC-4CA5-447A-915F-1412CED97222}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="b63cdcf7-47fa-43f6-87e5-23b415b5c413"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="12535b08-222e-45d2-b6db-15019f1afee6"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E89B3EC5-962B-41D9-9821-3A191D2434CD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{945A6BE8-5273-4FBB-A417-535A6E60D478}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6777,29 +6781,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FBFC15CC-4CA5-447A-915F-1412CED97222}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="b63cdcf7-47fa-43f6-87e5-23b415b5c413"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="12535b08-222e-45d2-b6db-15019f1afee6"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E89B3EC5-962B-41D9-9821-3A191D2434CD}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>